--- a/Mitigation implementations timelines.xlsx
+++ b/Mitigation implementations timelines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/COVID 19 (Research)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAF630A-0F1E-5144-A4A5-0D39E01C0747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD184D3-F682-B84F-9904-13EA72AA7DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="840" windowWidth="28000" windowHeight="15480" xr2:uid="{46EB9E8F-497B-284D-B7FE-2815816E0953}"/>
+    <workbookView xWindow="320" yWindow="740" windowWidth="28000" windowHeight="15480" xr2:uid="{46EB9E8F-497B-284D-B7FE-2815816E0953}"/>
   </bookViews>
   <sheets>
     <sheet name="Alberta" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="958">
   <si>
     <t>03/30/2020</t>
   </si>
@@ -8284,56 +8284,7 @@
     <t>06/02/2021</t>
   </si>
   <si>
-    <t>*all Nova Scotia public and private schools outside of Halifax Regional Municipality (HRM) and Sydney resume to in person learning. At-home learning will continue for students in HRM and Sydney
-*licensed child-care centres and family daycare homes across the province returning to 100 per cent capacity. (https://novascotia.ca/news/release/?id=20210528004)
-Province moving to Phase 1 reopening plan:
-*Nova Scotians can gather outdoors with a consistent social group of up to 10 people without physical distance
-*The limit for indoor gatherings remains the people you live with; two households with one or two people each can still join together but they must be the same two households all the time
-*faith gatherings can be held outdoors with a limit of 10 plus officiants when hosted by a recognized organization; drive-in services are allowed with no limit on numbers
-*wedding and funeral ceremonies remain limited to five plus officiants indoors but can increase to 10 plus officiants outdoors; there can be no receptions or visitations
-*restaurants and licensed establishments can open patios at their maximum capacity with physical distance between tables, a limit of 10 people per table and masks when people are not eating or drinking; they must stop service by 11 p.m. and close by midnight
-*all retail stores can operate at 25 per cent capacity, ensuring physical distance
-*personal services such as hair salons, barber shops and spas can operate by appointment only following their sector plan but cannot offer services that require removing the customer’s mask
-*fitness and recreation facilities can offer outdoor activities with a limit of 10 people with physical distancing, or multiple groups of 10 that are distanced on their own property, as well as one-on-one personal training indoors
-*outdoor pools can open with a limit of 10 people at a time with physical distancing
-*organized sports practices can have 10 people outdoors without physical distancing, or multiple groups of 10 that are distanced
-*professional arts and culture organizations can hold rehearsals with 15 people indoors and amateur rehearsals can have 10 people outdoors without physical distancing
-*drive-in theatres can operate with no limit on numbers
-*campgrounds can offer season and short-term camping following their sector plan with distance between campsites
-*residents of long-term care facilities can have visitors outdoors; visitors must wear masks but no physical distance is required if the resident is fully vaccinated
-*recreation activities and services such as hairstyling can resume for fully vaccinated residents of long-term care facilities
-*fully vaccinated residents of homes licensed by the Department of Health and Wellness under the Homes for Special Care Act can resume access to their communities for work or school
-*fully vaccinated residents of homes licensed by the Department of Community Service under the Homes for Special Care Act can resume access to their communities for work, therapy, recreation and family visits
-*more people can get exceptions to enter Nova Scotia for end-of-life visits with immediate family members
-*students from within Canada can apply to enter the province for in-person or virtual studies if they are enrolled in the summer semester (https://novascotia.ca/news/release/?id=20210528006)</t>
-  </si>
-  <si>
     <t>06/16/2021</t>
-  </si>
-  <si>
-    <t>*informal gatherings can have 10 people indoors and 25 outdoors without physical distance
-*informal faith gatherings can have 10 people indoors and 25 people outdoors plus officiants; drive-in services are still allowed with attendees following the informal indoor gathering limit in their vehicles
-*informal weddings and funerals, and associated receptions and visitation, can have 10 people indoors and 25 outdoors, plus officiants
-*when faith gatherings, weddings, funerals and associated receptions and visitation are hosted by a recognized business or organization, they can have 25 per cent capacity to a maximum of 50 people indoors or 75 people outdoors
-*restaurants and licensed establishments can operate indoors and outdoors at their maximum capacity with physical distance between patrons at different tables and a limit of 10 people per table; people must wear masks when not eating or drinking; one performer of live music is permitted; service must stop by 11 p.m. and establishments must close by midnight
-*all retail stores can operate at 50 per cent capacity with no limit on the number of shoppers per household
-*personal services such as hair salons, barber shops and spas can operate by appointment only following their sector plan and can resume offering services that require removing the customer’s mask
-*meetings and training hosted by a recognized business or organization can have 25 per cent capacity to a maximum of 50 people indoors or 75 people outdoors
-*driving schools and exams can resume
-*events hosted by a recognized business or organization can have 25 per cent capacity to a maximum of 50 people indoors or 75 people outdoors; organizers need a plan following guidelines for events
-*fitness and recreation facilities such as gyms, yoga studios, pools and arenas can operate at 50 per cent capacity
-*a wide variety of recreation and leisure businesses and organizations, such as dance classes, music lessons, escape rooms and indoor play spaces can operate at 25 per cent capacity
-*organized sports practices can involve up to 10 people indoors and 25 people outdoors without physical distancing
-*audiences follow the gathering limits for events hosted by a recognized business or organization
-*day camps can operate with 15 per group and following approved day camp guidelines
-*activities such as darts, cards and bingo can resume when hosted by either licensed or unlicensed establishments following guidelines for these activities
-*amateur arts and culture rehearsals and virtual or in-person performances can involve up to 10 people indoors and 25 outdoors without physical distancing
-*professional arts and culture rehearsals and virtual or in-person performances can involve up to 15 people indoors and 25 outdoors without physical distancing
-*audiences follow the gathering limits for events hosted by a recognized business or organization
-*drive-in movie theatres can continue to operate with attendees following the informal indoor gathering limit in their vehicles
-*museums, libraries and the Art Gallery of Nova Scotia can open at 25 per cent capacity
-*community-based adult day programs for seniors and for people with disabilities can resume following guidelines for their sector
-*long-term care residents can go for a walk off facility grounds and use drive-thrus when they go for a drive with a designated care provider; vaccinated residents can also access outdoor public areas such as a park. Recreational activities and personal services like hairstyling can resume for long-term care residents who are not fully vaccinated. Long-term care residents no longer need to be in the same groups for dining and group activities and volunteers can resume their activities. (https://novascotia.ca/news/release/?id=20210615010)</t>
   </si>
   <si>
     <t>06/23/2021</t>
@@ -8781,9 +8732,6 @@
     <t>07/01/2021</t>
   </si>
   <si>
-    <t>*all travellers are permitted to enter Newfoundland and Labrador. Depending on your vaccination status, you may be required to self-isolate and get tested for COVID-19. (https://www.gov.nl.ca/covid-19/travel/travel-restrictions/)</t>
-  </si>
-  <si>
     <t>*effective immediately, communities along the Trans-Canada Highway from Gambo, N.L., to Badger, N.L., as well as some communities along a number of nearby provincial highways, will be under Alert Level 4. (https://www.cbc.ca/news/canada/newfoundland-labrador/covid-update-may-24-1.6038478)</t>
   </si>
   <si>
@@ -8832,18 +8780,6 @@
   </si>
   <si>
     <t>06/26/2021</t>
-  </si>
-  <si>
-    <t>The province easing restrictions: 
-*increasing outdoor gathering sizes on private property to 10 persons and allowing outdoor visitors to briefly access homes for essential activities (e.g., to use a washroom);
-*increasing public outdoor gathering sizes to 25 persons;
-*increasing the capacity at retail businesses to 25% to a limit of 250 persons, with no restrictions on the number of household members permitted to shop together;
-*permitting personal service businesses (e.g., hair and nail salons, estheticians, barbers, etc.) to reopen at 50% capacity, on an appointment basis only;
-*permitting restaurants and bars to reopen at 25% capacity for indoor dining. Patrons seated together must be from the same household unless all patrons at the table are fully immunized. Patrons who are fully immunized and from different households may dine together;
-*permitting restaurants and bars to reopen at 50% for outdoor dining. Tables are limited to a maximum of 8 patrons and can be from different households regardless of immunization status; and
-*permitting gyms and fitness facilities to reopen for individual and group fitness classes at 25% capacity with three metres distance maintained between patrons.
-*There are no changes to the restrictions on casinos, VLTs, museums, galleries, libraries, movie theatres and concert halls. Further, employers continue to be required to allow employees to work from home where possible. 
-*These measures will remain in effect until August 2, 2021(https://www.mltaikins.com/covid-19/mb-health-regions-critical-red-level/)</t>
   </si>
   <si>
     <r>
@@ -9065,45 +9001,655 @@
     <t>Schools close for summer break (https://yukon.ca/sites/yukon.ca/files/edu/yukon_school_calendar_synopsis_2020-21_en.pdf)</t>
   </si>
   <si>
-    <t>*Nova Scotia is opening its border to people travelling from New Brunswick without restrictions starting June 30 at 8 a.m. There will be no requirements to self-isolate or complete the Nova Scotia Safe Check-in. (https://novascotia.ca/news/release/?id=20210624006)
-Province moved to Phase 2 of reopening plan
-*Casino Nova Scotia (Halifax and Sydney) can operate at 50% capacity and needs to follow public health measures like social distancing and masks.
-*Liquor licensed (drinking) establishments (like bars, wineries, distillery tasting rooms, craft taprooms and liquor manufacturers) can offer indoor and outdoor dining with a minimum physical distance of 2 metres (6 feet) between people at different tables. There is a maximum of 10 people (close social group of 10) per table. Wearing a mask is required (except when you're eating or drinking). 
-*Live music is permitted indoors and outdoors at restaurants and liquor licensed (drinking) establishments (like bars, wineries, distillery tasting rooms, craft taprooms and liquor manufacturers) with 1 performer following the Guidelines for Musicians.
-*Restaurants can offer indoor and outdoor dining with a minimum physical distance of 2 metres (6 feet) between people at different tables. There is a maximum of 10 people (close social group of 10) per table. 
-*Video lottery terminals (VLTs) can operate at 50% capacity and need to follow public health measures (like social distancing and masks) and their sector-specific plan. 
-*All retail stores can operate at 50% of the store’s capacity
-*adult day programs for seniors and people with disabilities can resume 
-*Long-term care residents can go for a walk off facility grounds and go through a drive-thru when going for a drive with a designated caregiver. Fully vaccinated residents can also leave the facility to visit outdoor public places (like parks).
-*Festivals, special events and arts and culture events (like performances) - 25% of the venue’s capacity up to 50 people indoors and up to 75 people outdoors with social distancing and mask requirements when hosted by a business or organization. 
-*Informal social gathering limit indoors is up to 10 people (household members and visitors) without social distancing and masks.
-*Informal social gathering limit outdoors is up to 25 people without social distancing and masks.
-*People can participate in outdoor recreational activities (like golfing, fitness classes, tennis and bootcamps) hosted by fitness and recreation businesses and organized clubs. The gathering limit is up to 25 people or multiple groups of 25 people each with a minimum physical distance of 2 metres (6 feet) between participants and groups during activities.
-*Meetings and training (indoor and outdoor) with social distancing and mask requirements - 25% of the venue's capacity up to 50 people indoors and up to 75 people outdoors when meetings and training are hosted by a business or organization,
-*Amateur performing arts rehearsals and virtual or in-person performances can have up to 10 people indoors and up to 25 people outdoors without social distancing
-*Faith gatherings hosted by a business or organization - 25% of the venue’s capacity up to 50 people indoors or 75 people outdoors with social distancing and masks.
-*Activities like cards, darts and pool hosted by licensed and unlicensed establishments (like community centres, clubs and charities) can resume 
-*Businesses and organizations offering a wide variety of indoor recreation and leisure activities (like climbing facilities, dance classes, escape rooms, indoor arcades, indoor play spaces and music lessons) can operate at 25% capacity
-*tness establishments (like gyms and yoga studios) and sport and recreation facilities (like arenas, pools, tennis courts and large multipurpose recreation facilities) can operate at 50% capacity
-*Museums, libraries and Art Gallery of Nova Scotia can operate at 25% capacity 
-*Workplaces (like offices) should continue to have employees work from home whenever possible (https://novascotia.ca/reopening-plan/phase-two/)</t>
-  </si>
-  <si>
-    <t>07/03/2021</t>
-  </si>
-  <si>
-    <t>*Personal services businesses (like hair salons, barber shops, spas, nail salons and body art establishments) can operate fully 
-*Casino Nova Scotia (Halifax and Sydney) can operate at maximum capacity possible with public health measures like social distancing and masks
-*All retail stores can operate at 75% of the store’s capacity (shoppers and staff) 
-*Indoor visits can resume in designated visitation areas at long-term care facilities for fully vaccinated residents.
-Social distancing is not required for outdoor visits at long-term care facilities 
-*Festivals, special events and arts and culture events (like performances) - 50% of the venue’s capacity up to 100 people indoors and up to 150 people outdoors 
-*Informal social gathering limit indoors is no more than your household (the people you live with) plus 10 people without social distancing and masks.
-Informal social gathering limit outdoors remains up to 25 people without social distancing and masks.
-*Meetings and training (indoor and outdoor) - 50% of the venue's capacity up to 100 people indoors and up to 150 people outdoors with social distancing and mask requirements when meetings and training are hosted by a business or organization
-*Fitness establishments (like gyms and yoga studios) and sport and recreation facilities (like pools, arenas, tennis courts and large multipurpose recreation facilities) can operate at 75% capacity 
-*Museums, libraries and Art Gallery of Nova Scotia can operate at 50% capacity
-*Workplaces (like offices) can start to follow a phased approach to have employees return to the workplace (https://novascotia.ca/reopening-plan/phase-three/)</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Province moves to Phase 1 reopening plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*Outdoor gatherings restrictions of no more than five individuals involving people from different households.
+*Non-contact outdoor recreational activities resume such as; walking, hiking, cycling, motorcycling, golfing, driving ranges, shooting ranges, recreational fishing and boating.
+*Select outdoor and construction services, such as landscaping, road construction, watershed clean-up and outdoor photography resume.
+*Priority non-urgent health care services, including elective surgeries, cardiac supports, cancer screening, physiotherapists, optometrists and opticians, chiropractors, foot care providers, occupational therapy, and naturopaths can resume
+*Priority public services resume
+*Child care for essential service workers resume
+*Home-based learning options, with some limited activities resume
+*Visitor restrictions in place at long-term care facilities (https://atlantic.ctvnews.ca/p-e-i-announces-plan-to-ease-covid-19-restrictions-first-new-case-in-13-days-1.4915634)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Province moves to Phase 2 reopening plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*opening of retail businesses with physical distancing measures in place and select indoor services, including hairdressers, barbers, pet grooming, retail outlets, greenhouses and nurseries, extermination and pest control, car washes, battle depots, cleaning and restoration services.
+*Phase two will also see non-contact indoor recreational activities and additional non-urgent health-care services, including registered massage therapists, acupuncturists, acupressurists and emergency dental care services.
+*restaurants remain take out only (https://atlantic.ctvnews.ca/p-e-i-moves-into-phase-two-as-more-businesses-reopen-1.4950254)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Province moves to Phase 3 reopening plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*Seasonal residents may apply to come to province.
+*Household may gather with up to 15 others inside, and 20 outside.
+*Visitors allowed in outdoor designated spaces for long term care facilities. Time limited to 1 hour.
+*Charlottetown is reopening playgrounds and sports fields, with some precautions.
+*Capacity at childcare centres expanded, infants now accepted.
+*Nail salons, spas, and tattoo studios reopen
+*Dining rooms and patios may reopen.
+*elective dental care resumes
+*religious servuces limited to 15 inside, 20 outside, with no group singing.
+*Some sports and day camps may open, with precautions.
+*Recreational facilitied like pools, fitness centres, gyms, yoga studios, bowling alleys may open.
+*Campgrounds, inns, bed and breakfasts may open.
+*PEI National Park open for day use (https://www.cbc.ca/news/canada/prince-edward-island/pei-renew-pandemic-restrictions-phase-3-1.5590398)</t>
+    </r>
+  </si>
+  <si>
+    <t>*Libraries open. Day-use parks opening (https://www.cbc.ca/news/canada/prince-edward-island/pei-renew-pandemic-restrictions-phase-3-1.5590398)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Province moves to Phase 4 reopening plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*public organized gatherings of up to 50 people allowed
+*Up to 50 people may gather for a sporting event.
+*Relaxed long-term care home visiting rules, including inside visits. (long-term care visitation of up to 2 individuals per resident at one time)
+*Increased access to some personal services such as facials.
+*all non-urgent health care services will resume
+*Casinos can reopen (https://www.cbc.ca/news/canada/prince-edward-island/pei-phase-4-pandemic-briefing-1.5607739)</t>
+    </r>
+  </si>
+  <si>
+    <t>Residents of Nova Scotia, New Brunswick, Prince Edward Island and Newfoundland and Labrador can travel within the four Atlantic provinces without having to self-isolate (https://atlantic.ctvnews.ca/it-s-official-atlantic-canada-is-bubbling-on-july-3-1.4997954)</t>
+  </si>
+  <si>
+    <t>*Public schools in Prince Edward Island returning to full-time, in-class learning with some restrictions in place (https://atlantic.ctvnews.ca/p-e-i-schools-to-reopen-september-8-1.5052056)</t>
+  </si>
+  <si>
+    <t>The following public health measures will be in place until December 21, 2020
+*Islanders should stay at home as much as possible, only going out for essential purposes. 
+*Households should designate one person to do essential errands such as grocery shopping, pharmacy visits, and banking. 
+*No personal gatherings. A household can only associate with two persons outside of their household. Persons living alone may choose to interact with one designated household. 
+*Organized gatherings, including faith gatherings, are limited to 10 people maximum indoors or outdoors (excluding staff). 
+*Funerals and weddings are limited to 10 people maximum (excluding officiants). 
+*No in-room dining at restaurants. Take-out and delivery can continue with enhanced precautions. 
+*No organized recreational or team sports. 
+*Gyms, fitness facilities, museums, libraries, bingo halls and casinos will be closed. 
+*Personal services will remain open for appointments only and non-medical masks must be worn at all times by staff and patrons. 
+*Retail stores and markets must operate at a maximum 50 per cent patron capacity. 
+*Daycares will continue to operate as they currently do.
+*High schools in the Charlottetown area are moving to remote learning. This includes Colonel Gray, Charlottetown Rural and Bluefield High Schools, as well as students in grades 10 through 12 at École François-Buote. 
+*In-person mental health and addiction services and programs, including residential day programs, will continue. 
+*Long-term care and community care facilities will limit partners in care to one designated person. There will be no other visitors during this time. (https://www.princeedwardisland.ca/en/news/four-new-cases-covid-19-pei-new-public-health-measures-announced)</t>
+  </si>
+  <si>
+    <t>*P.E.I is exiting the Atlantic bubble for at least two weeks (https://www.cbc.ca/news/canada/nova-scotia/atlantic-bubble-burst-1.5812454)</t>
+  </si>
+  <si>
+    <t>*Newfoundland and Labrador is exiting the Atlantic bubble (https://www.cbc.ca/news/canada/nova-scotia/atlantic-bubble-burst-1.5812454)</t>
+  </si>
+  <si>
+    <t>*Each household can gather with up to ten individuals indoors or outdoors, with physical distancing. These individuals should be as consistent as possible.
+*Concerts, worship services, and movie theatres are permitted to operate with a limit of 50 people. Three additional groups of 50 (200 total) are permitted with an approved operational plan.
+*Weddings (ceremonies and receptions) and funerals can have up to 50 people, plus officiants, and are not eligible for multiple cohorts.
+*Gyms/fitness facilities, museums and libraries may operate if physical distancing and other public health measures are followed and group activities follow gathering limits.
+*Organized recreation and team sports may resume following gathering limits with enhanced attention to records for contact tracing.
+*Retail stores, markets and craft fairs may operate if physical distancing and other public health measures are maintained.
+*In-person consumption of food and drink at restaurants and bars can have a maximum table size of 10 and must close by 12:00 am. There is a limit of 50 people in these establishments with an additional three groups of 50 permitted with an approved operational plan.
+*Unlicensed and licensed childcare centres will continue to operate at 100% capacity.
+*All health care services and health care providers may continue to operate as normal.
+*Residents will continue to have up to three partners in care and designated visitors.
+*Full time classroom learning for K-12 with public health measures in place.
+*Post-secondary education and training through online and/or in-person learning with public health measures in place.  (https://atlantic.ctvnews.ca/p-e-i-eases-public-health-restrictions-following-circuit-breaker-16-active-cases-of-covid-19-1.5344667)</t>
+  </si>
+  <si>
+    <t>07/17/2021</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The province moves to 2nd phase of opening plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*Indoor gatherings at private residences are permitted to a maximum of five people, plus the household members. Indoor gatherings in public spaces are permitted to a maximum of 25 people. Outdoor gatherings on private property increase to a maximum of 25 people;
+*Public outdoor gatherings increase to a maximum of 150 people;
+*Retail businesses increase to 50 per cent capacity or 500 people, whichever is lower;
+*Restaurants can expand their capacities to 50 per cent:
+   - patrons may only sit together indoors if they are from the same household or if all patrons 12 years of age or older are fully immunized (unvaccinated children under 12 may dine with fully vaccinated members of their household in this case);
+   - opening hours extend to midnight;
+   - the requirement to purchase food when ordering alcohol no longer applies;
+*dance, theatre, and music school capacities increase to 50 per cent capacity to a maximum of 25 people per group;
+• indoor sporting facilities may host groups up to a maximum of 25 people, interaction between groups and tournaments are not permitted;
+• day camp capacity increases to groups of 25, joint activities between groups and overnight camps are prohibited;
+• outdoor recreation including games and practices may take place to maximum group size of 50 people; spectators are permitted and do not count towards this capacity limit; tournaments are not permitted;
+• gym and fitness centre capacities expand to 50 per cent capacity; masks and increased physical distancing (three metres) are still required;
+• outdoor weddings and funerals may include up to 150 participants in addition to photographers and officiants; indoor weddings or funerals increase to 25 people in addition to photographers and officiants;
+• libraries may open to 50 per cent capacity to a maximum of 150 people, whichever is lower;
+• faith-based and cultural gatherings (pow wows, sun dances) may expand to 50 per cent capacity or 150 people indoors, whichever is lower; masks and physical distancing between households is still required;
+• the following may now reopen for fully immunized people only, to a maximum capacity of 50 per cent: movie theatres; bingo halls, VLT lounges and casinos, and museums and galleries;
+• large-scale, outdoor professional sports or performing arts events may operate with capacities up to 100 per cent after developing an approved event plan in consultation with public health. (https://news.gov.mb.ca/news/index.html?item=51739)</t>
+    </r>
+  </si>
+  <si>
+    <t>The province easing restrictions: 
+*increasing outdoor gathering sizes on private property to 10 persons and allowing outdoor visitors to briefly access homes for essential activities (e.g., to use a washroom);
+*increasing public outdoor gathering sizes to 25 persons;
+*increasing the capacity at retail businesses to 25% to a limit of 250 persons, with no restrictions on the number of household members permitted to shop together;
+*permitting personal service businesses (e.g., hair and nail salons, estheticians, barbers, etc.) to reopen at 50% capacity, on an appointment basis only;
+*permitting restaurants and bars to reopen at 25% capacity for indoor dining. Patrons seated together must be from the same household unless all patrons at the table are fully immunized. Patrons who are fully immunized and from different households may dine together;
+*permitting restaurants and bars to reopen at 50% for outdoor dining. Tables are limited to a maximum of 8 patrons and can be from different households regardless of immunization status; and
+*permitting gyms and fitness facilities to reopen for individual and group fitness classes at 25% capacity with three metres distance maintained between patrons.
+*There are no changes to the restrictions on casinos, VLTs, museums, galleries, libraries, movie theatres and concert halls. Further, employers continue to be required to allow employees to work from home where possible. 
+*These measures will remain in effect until August 2, 2021</t>
+  </si>
+  <si>
+    <t>07/16/2021</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ontario moves to Step 3 Reopning plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*Outdoor social gatherings and organized public events with up to 100 people with limited exceptions;
+*Indoor social gatherings and organized public events with up to 25 people;
+*Indoor religious services, rites or ceremonies, including wedding services and funeral services permitted with physical distancing;
+*Indoor dining permitted with no limits on the number of patrons per table with physical distancing and other restrictions still in effect;
+*Indoor sports and recreational fitness facilities to open subject to a maximum 50 per cent capacity of the indoor space. Capacity for indoor spectators is 50 per cent of the usual seating capacity or 1,000 people, whichever is less. Capacity for outdoor spectators is 75 per cent of the usual seating capacity or 15,000 people, whichever is less;
+*Indoor meeting and event spaces permitted to operate with physical distancing and other restrictions still in effect and capacity limited to not exceed 50 per cent capacity or 1,000 people, (whichever is less);
+*Essential and non-essential retail with with capacity limited to the number of people that can maintain a physical distance of two metres;
+*Personal care services, including services requiring the removal of a face covering, with capacity limited to the number of people that can maintain a physical distance of two metres;
+*Museums, galleries, historic sites, aquariums, zoos, landmarks, botanical gardens, science centres, casinos/bingo halls, amusement parks, fairs and rural exhibitions, festivals, with capacity limited to not exceed 50 per cent capacity indoors and 75 per cent capacity outdoors;
+*Concert venues, cinemas, and theatres permitted to operate at:
+up to 50 per cent capacity indoors or a maximum limit of 1,000 people for seated events (whichever is less)
+up to 75 per cent capacity outdoors or a maximum limit of 5,000 people for unseated events (whiche (ver is less); and up to 75 per cent capacity outdoors or a maximum of 15,000 people for events with fixed seating (whichever is less).
+*Real estate open houses with capacity limited to the number of people that can maintain a physical distance of two metres; and
+Indoor food or drink establishments where dance facilities are provided, including nightclubs and restobars, permitted up to 25 per cent capacity or up to a maximum limit of 250 people (whichever is less). (https://news.ontario.ca/en/release/1000501/ontario-moving-to-step-three-of-roadmap-to-reopen-on-july-16)</t>
+    </r>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>07/11/2021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The third step in its Reopening Roadmap begins
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*all public health orders are removed. This includes the removal of the province-wide mandatory masking order, and the removal of limits on events and gathering sizes. (https://www.saskatchewan.ca/government/news-and-media/2021/june/20/covid19-update-for-june-20-public-health-restrictions-to-be-lifted-july-11-997818-vaccines-administe)</t>
+    </r>
+  </si>
+  <si>
+    <t>*last day of school</t>
+  </si>
+  <si>
+    <t>06/28/2021</t>
+  </si>
+  <si>
+    <t>*mandatory face mask coveringing order is lifted (https://www.hss.gov.nt.ca/en/newsroom/chief-public-health-officer-revokes-mandatory-face-mask-order-and-temporary-covid-19)</t>
+  </si>
+  <si>
+    <t>*indoor gathering restrictions are being eased. Most events and gatherings with up to 200 people are permitted without any further approvals required. businesses and organizations can resume holding events and carry out operations at near normal capacity levels. (https://www.gov.nt.ca/en/newsroom/indoor-gathering-restrictions-eased-nwt)</t>
+  </si>
+  <si>
+    <t>Last day of school before winter break</t>
+  </si>
+  <si>
+    <t>Classes start after winter break</t>
+  </si>
+  <si>
+    <t>06/06/2021</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Province moves to Step 1 of reopning plan
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*Personal gatherings will increase to up to 20 people indoors and outdoors.
+*Weddings and funerals will be permitted with a maximum of 150 people, in cohorts of 50, hosted by a recognized business or organization.
+*Special occasion events (ex: backyard weddings, anniversary parties) hosted by individuals are permitted with up to 50 people with a reviewed operational plan.
+*Restaurants may have a table size of up to 20; no restricted closing time for in-person consumption of food and beverage. (https://www.princeedwardisland.ca/en/information/health-and-wellness/moving-forward-in-2021)</t>
+    </r>
+  </si>
+  <si>
+    <t>06/27/2021</t>
+  </si>
+  <si>
+    <t>07/18/2021</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Province moves to Step 2 reopning plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*Travel within Atlantic Canada is permitted to PEI for permanent residents of Atlantic Canada with no travel streams or pre-travel approval; no isolation for fully or partially vaccinated travelers with testing; shortened isolation and testing for unvaccinated travelers.  Fully or partially vaccinated PEI residents who travel within Atlantic Canada will not have to self-isolate when they return home, with testing.
+Travel from outside Atlantic Canada is permitted for visitors under travel streams with pre-travel approval; shortened isolation and testing for all travelers. (https://www.princeedwardisland.ca/en/information/health-and-wellness/moving-forward-in-2021)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Province moves to Step 3 and 4 reopning plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*Personal gatherings will increase to up to 50 people indoors and outdoors.
+*Organized gatherings hosted by a business or organization are permitted with cohorts of up to 200 people outdoors or 100 people indoors.
+*Multiple gatherings hosted by a business or organization are permitted with an approved operational plan.
+*Weddings and funerals may host up to 200 people (following cohort limits).
+*Sport and Recreation activities that require close contact (ex: sports, performance, etc.) are limited to a single cohort of 100 per day.
+*Restaurants will no longer have a limit on the number of people seated at a table.
+*Travel within Atlantic Canada - Travelers from within the Atlantic provinces, who are fully or partially vaccinated, are able to visit PEI with a PEI Pass. Unvaccinated travelers from within the Atlantic provinces are required to complete a Self-isolation Declaration form and follow shortened isolation with testing.
+*Travel from outside of Atlantic Canada - Travelers from outside the Atlantic provinces, who are fully vaccinated, will be able to visit PEI with a PEI Pass and not isolate. Unvaccinated or partially vaccinated travelers from outside the Atlantic provinces will be required to complete a Self-isolation Declaration form and follow shortened isolation with testing. (https://www.princeedwardisland.ca/en/information/health-and-wellness/moving-forward-in-2021)</t>
+    </r>
+  </si>
+  <si>
+    <t>07/14/2021</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The province enters stage 4 of reopening plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*Private gathering with household members and close social contacts can be up to 25 people indoors or 50 people outdoors without physical distancing or masks, unless they are in a public place where masks are required
+* faith gatherings, weddings, funerals and associated receptions and visitation hosted by a recognized business or organization can have 50 per cent capacity to a maximum of 150 people indoors or 250 people outdoors
+*restaurants, licensed establishments and casinos continue to operate with existing mask and distancing rules; there can be up to 25 people per table; customers can go to the bar to order; establishments can return to their normal service hours; they can have performers following the limit for arts and culture performances
+*events hosted by a recognized business or organization can have 50 per cent capacity to a maximum of 150 people indoors or 250 people outdoors; organizers need a plan following guidelines for events
+*people can follow the informal gathering limit for dancing together at events and at bars or restaurants, with distance between groups; the indoor limit applies to dancing indoors and on patios at bars or restaurants
+*all retail stores can operate at maximum capacity with public health measures in place, including distancing and masks
+*meetings and training hosted by a recognized business or organization can have 50 per cent capacity to a maximum of 150 people indoors or 250 people outdoors
+* fitness and recreation facilities such as gyms, yoga studios, pools and arenas can operate at maximum capacity with public health measures in place, including distancing and masks. Also, other recreation and leisure businesses and organizations, such as dance classes, music lessons, escape rooms and indoor play spaces, can operate at maximum capacity with public health measures in place, including distancing and masks
+organized sports practices, games, league play, competition and recreation programs can involve up to 25 people indoors and 50 people outdoors without physical distancing; tournaments are allowed when they are run by or affiliated with a provincial sport organization, following their Return to Sport plan.
+* day camps can operate with 30 campers per group plus staff and volunteers. Masks are no longer required for children age 12 and under in child-care settings, including day camps and overnight camps. Masks are no longer required at outdoor public places where it may be difficult to maintain physical distance, such as markets, playgrounds and parks.
+*professional and amateur arts and culture rehearsals and performances can involve up to 25 people indoors and 50 outdoors without physical distancing
+*museums, libraries and the Art Gallery of Nova Scotia can open at maximum capacity with public health measures in place, including distancing and masks
+*all long-term care residents can leave the facility to visit indoor and outdoor public places like parks, stores and restaurants. Fully vaccinated residents can have visitors in their rooms and visit their family’s home, including overnight stays residents who are not fully vaccinated can have visitors in designated indoor visitation areas (https://novascotia.ca/news/release/?id=20210712006)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Province enters Phase 2 of reopening plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*informal gatherings can have 10 people indoors and 25 outdoors without physical distance
+*informal faith gatherings can have 10 people indoors and 25 people outdoors plus officiants; drive-in services are still allowed with attendees following the informal indoor gathering limit in their vehicles
+*informal weddings and funerals, and associated receptions and visitation, can have 10 people indoors and 25 outdoors, plus officiants
+*when faith gatherings, weddings, funerals and associated receptions and visitation are hosted by a recognized business or organization, they can have 25 per cent capacity to a maximum of 50 people indoors or 75 people outdoors
+*restaurants and licensed establishments can operate indoors and outdoors at their maximum capacity with physical distance between patrons at different tables and a limit of 10 people per table; people must wear masks when not eating or drinking; one performer of live music is permitted; service must stop by 11 p.m. and establishments must close by midnight
+*all retail stores can operate at 50 per cent capacity with no limit on the number of shoppers per household
+*personal services such as hair salons, barber shops and spas can operate by appointment only following their sector plan and can resume offering services that require removing the customer’s mask
+*meetings and training hosted by a recognized business or organization can have 25 per cent capacity to a maximum of 50 people indoors or 75 people outdoors
+*driving schools and exams can resume
+*events hosted by a recognized business or organization can have 25 per cent capacity to a maximum of 50 people indoors or 75 people outdoors; organizers need a plan following guidelines for events
+*fitness and recreation facilities such as gyms, yoga studios, pools and arenas can operate at 50 per cent capacity
+*a wide variety of recreation and leisure businesses and organizations, such as dance classes, music lessons, escape rooms and indoor play spaces can operate at 25 per cent capacity
+*organized sports practices can involve up to 10 people indoors and 25 people outdoors without physical distancing
+*audiences follow the gathering limits for events hosted by a recognized business or organization
+*day camps can operate with 15 per group and following approved day camp guidelines
+*activities such as darts, cards and bingo can resume when hosted by either licensed or unlicensed establishments following guidelines for these activities
+*amateur arts and culture rehearsals and virtual or in-person performances can involve up to 10 people indoors and 25 outdoors without physical distancing
+*professional arts and culture rehearsals and virtual or in-person performances can involve up to 15 people indoors and 25 outdoors without physical distancing
+*audiences follow the gathering limits for events hosted by a recognized business or organization
+*drive-in movie theatres can continue to operate with attendees following the informal indoor gathering limit in their vehicles
+*museums, libraries and the Art Gallery of Nova Scotia can open at 25 per cent capacity
+*community-based adult day programs for seniors and for people with disabilities can resume following guidelines for their sector
+*long-term care residents can go for a walk off facility grounds and use drive-thrus when they go for a drive with a designated care provider; vaccinated residents can also access outdoor public areas such as a park. Recreational activities and personal services like hairstyling can resume for long-term care residents who are not fully vaccinated. Long-term care residents no longer need to be in the same groups for dining and group activities and volunteers can resume their activities. (https://novascotia.ca/news/release/?id=20210615010)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*all Nova Scotia public and private schools outside of Halifax Regional Municipality (HRM) and Sydney resume to in person learning. At-home learning will continue for students in HRM and Sydney
+*licensed child-care centres and family daycare homes across the province returning to 100 per cent capacity. (https://novascotia.ca/news/release/?id=20210528004)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Province moving to Phase 1 reopening plan:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*Nova Scotians can gather outdoors with a consistent social group of up to 10 people without physical distance
+*The limit for indoor gatherings remains the people you live with; two households with one or two people each can still join together but they must be the same two households all the time
+*faith gatherings can be held outdoors with a limit of 10 plus officiants when hosted by a recognized organization; drive-in services are allowed with no limit on numbers
+*wedding and funeral ceremonies remain limited to five plus officiants indoors but can increase to 10 plus officiants outdoors; there can be no receptions or visitations
+*restaurants and licensed establishments can open patios at their maximum capacity with physical distance between tables, a limit of 10 people per table and masks when people are not eating or drinking; they must stop service by 11 p.m. and close by midnight
+*all retail stores can operate at 25 per cent capacity, ensuring physical distance
+*personal services such as hair salons, barber shops and spas can operate by appointment only following their sector plan but cannot offer services that require removing the customer’s mask
+*fitness and recreation facilities can offer outdoor activities with a limit of 10 people with physical distancing, or multiple groups of 10 that are distanced on their own property, as well as one-on-one personal training indoors
+*outdoor pools can open with a limit of 10 people at a time with physical distancing
+*organized sports practices can have 10 people outdoors without physical distancing, or multiple groups of 10 that are distanced
+*professional arts and culture organizations can hold rehearsals with 15 people indoors and amateur rehearsals can have 10 people outdoors without physical distancing
+*drive-in theatres can operate with no limit on numbers
+*campgrounds can offer season and short-term camping following their sector plan with distance between campsites
+*residents of long-term care facilities can have visitors outdoors; visitors must wear masks but no physical distance is required if the resident is fully vaccinated
+*recreation activities and services such as hairstyling can resume for fully vaccinated residents of long-term care facilities
+*fully vaccinated residents of homes licensed by the Department of Health and Wellness under the Homes for Special Care Act can resume access to their communities for work or school
+*fully vaccinated residents of homes licensed by the Department of Community Service under the Homes for Special Care Act can resume access to their communities for work, therapy, recreation and family visits
+*more people can get exceptions to enter Nova Scotia for end-of-life visits with immediate family members
+*students from within Canada can apply to enter the province for in-person or virtual studies if they are enrolled in the summer semester (https://novascotia.ca/news/release/?id=20210528006)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Province moved to Phase 3 of reopening plan
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*Nova Scotia is opening its border to people travelling from New Brunswick without restrictions starting June 30 at 8 a.m. There will be no requirements to self-isolate or complete the Nova Scotia Safe Check-in. (https://novascotia.ca/news/release/?id=20210624006)
+*Informal gatherings can include a household plus 10 people indoors, or 25 people total outdoors without physical distance. 
+*Faith gatherings, weddings, funerals and associated receptions and visitation hosted by a recognized business or organization can have 50 per cent capacity to a maximum of 100 people indoors or 150 people outdoors
+*All retail stores can operate at 75 per cent capacity
+*Personal services such as hair salons, barber shops and spas can offer all services by appointment or drop-in
+*Meetings and training hosted by a recognized business or organization can have 50 per cent capacity to a maximum of 100 people indoors or 150 people outdoors
+*Events hosted by a recognized business or organization can have 50 per cent capacity to a maximum of 100 people indoors or 150 people outdoors; organizers need a plan following guidelines for events
+*Fitness and recreation facilities such as gyms, yoga studios, pools and arenas can operate at 75 per cent capacity with public health measures
+*A wide variety of recreation and leisure businesses and organizations, such as dance classes, music lessons, escape rooms and indoor play spaces, can operate at 50 per cent capacity
+*Organized sports practices, games, league play and recreation programs can involve up to 25 people indoors and 50 people outdoors without physical distancing
+*Day camps can operate with 20 campers per group plus staff and volunteers. Overnight summer camps can operate with 15 campers per group plus staff and volunteers, following the overnight camp guidelines
+Arts and culture
+*Professional and amateur arts and culture rehearsals and performances can involve up to 15 people indoors and 25 outdoors without physical distancing
+*Audiences follow the gathering limits for events hosted by a recognized business or organization
+*Museums, libraries and the Art Gallery of Nova Scotia can open at 50 per cent capacity
+*Indoor visits with fully vaccinated residents can resume in designated visitation areas at long-term care facilities
+*Physical distancing is no longer required for outdoor visits at long-term care facilities. Fully vaccinated residents can go to indoor and outdoor public places like parks, stores and restaurants (https://novascotia.ca/news/release/?id=20210629004)</t>
+    </r>
+  </si>
+  <si>
+    <t>07/30/2021</t>
+  </si>
+  <si>
+    <t>*The province moved to Green phase of its recovery plan, lifting all public health restrictions and opening the province to travel
+*All mandatory travel and public health restrictions that have been in place over the course of the pandemic are lifted
+*All provincial border restrictions are lifted; provincial border checks stopped
+*All limits on gatherings and the number of people within facilities are lifted. Capacity limits in theatres, restaurants and stores will no longer be required.
+*Requirement to wear face masks in public no longer required
+(https://atlantic.ctvnews.ca/new-brunswick-to-move-to-green-phase-on-july-30-lifting-all-public-health-restrictions-1.5520913)</t>
+  </si>
+  <si>
+    <t>08/01/2021</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N &amp; L moved to Step 2 reopening plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*Outdoor gatherings up to 500 people with physical distancing.
+*Indoor gatherings up to 500 people as long as physical distancing can be maintained.
+*Funeral home visitation up to 50 people at a time.
+*personal gatheings Limited to the number of people that can fit in the space with physical distancing.
+*No capacity restrictions at restaurants and lounges, with physical distancing maintained between patrons seated at adjacent tables. Self-serve buffets are prohibited.
+*Dance floors permitted.
+*Indoor and outdoor sports tournaments permitted with appropriate COVID-19 protocols in place.
+*Recreational and arts facilities follow the limits for formal gatherings.
+*Cohorting continues at child care centres, after school programs and day camps; large group outdoor activities are permitted.
+*Continued return to work. Larger meetings and conferences can happen. (https://www.gov.nl.ca/covid-19/alert-levels/together-again/step-2/)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*all travellers are permitted to enter Newfoundland and Labrador. Depending on your vaccination status, you may be required to self-isolate and get tested for COVID-19. (https://www.gov.nl.ca/covid-19/travel/travel-restrictions/)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N &amp; L moved to Step 1 reopening plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*Non-essential travel from within Canada permitted.
+*Outdoor gatherings up to 250 people with physical distancing.
+*Indoor gatherings up to 200 people or 75 per cent capacity with physical distancing (whichever is less).
+*Funeral home visitation up to 25 people at a time.
+*Dancing permitted at weddings.
+*No capacity restrictions for retail stores as long as physical distancing can be maintained between patrons.
+*Restaurants and lounges can open at 75 per cent capacity, with physical distancing maintained between patrons seated at adjacent tables. Self-serve buffets are prohibited.
+*Outdoor sports tournaments permitted with appropriate COVID-19 protocols in place. Recreational and arts facilities follow the limits for formal gatherings.
+*Cohorting continues at child care centres, after school programs and day camps; cohorts can be combined for outdoor play.
+*Workplaces can have small in-person meetings. (https://www.gov.nl.ca/covid-19/alert-levels/together-again/step-1/)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">
@@ -9116,7 +9662,43 @@
 -Contact with all family and friends will be permitted and restrictions will be loosened for indoor and outdoor gatherings. Indoor informal gatherings will be limited to 20 or fewer, while indoor formal gatherings can be up to 50 per cent of the venue’s capacity with an operational plan. Outdoor informal gatherings will be permitted with two metres of distancing between groups and outdoor formal gatherings are permitted at maximum capacity with two meters of distancing between groups and an operational plan.
 -Organized sporting activities will be permitted but restricted to teams based in the select regions.
 -Faith gatherings can take place with a maximum 50 per cent venue capacity and with the choir at least four metres from the congregation. (https://www2.gnb.ca/content/gnb/en/news/news_release.2021.06.0461.html)
+*Restaurants and businesses may operate at regular capacity (https://atlantic.ctvnews.ca/new-brunswick-removes-more-pandemic-restrictions-after-hitting-another-covid-19-vaccination-target-1.5473104)
 *The province expected to stay in this zone until August 2, 2021</t>
+  </si>
+  <si>
+    <t>last day of classes</t>
+  </si>
+  <si>
+    <t>08/07/2021</t>
+  </si>
+  <si>
+    <t>The following sectors to open without restrictions: indoor and outdoor gatherings at private residences; gyms and fitness centres;
+libraries; personal services such as hair and nail salons; day camps; retail businesses, markets, garden centres and malls.
+*Other sectors will open with limited restrictions including: expanded capacity limits will remain in place for weddings, funerals and other public gatherings both indoors and outdoors including larger capacity limits for worship and cultural events like pow wows; restaurants and bars will no longer need to restrict the size or space between tables and dining will not be restricted to households or vaccinated individuals; however, patrons will still be expected to avoid congregating or socializing between tables; museums, galleries and movie theatres will remain limited to 50 per cent capacity but will no longer be restricted to vaccinated individuals; casinos and bingo halls, professional sporting events, horse and auto racing, and concert halls will continue to be limited to vaccinated individuals; 
+*The following facilities may now open to 100 per cent capacity: indoor and outdoor sports and recreation will fully reopen with limits only on spectator capacity;
+overnight camps will be permitted with limits on camper cohorts; workplaces must continue to report cases to government for followup and public health-confirmed transmission of COVID-19 in the workplace may result in workplaces being ordered to close for a minimum of 10 days; and remote working will no longer be required or recommended by public health. (https://www.gov.mb.ca/covid19/prs/reopening/milestone-two.html)</t>
+  </si>
+  <si>
+    <t>last day of school</t>
+  </si>
+  <si>
+    <t>*A maximum of 10 people from different addresses is allowed to gather inside a private residence.
+*Gatherings of up to 20 people, or the occupants of three residences, is permitted outside on private property, such as in a backyard.
+ *Up to 250 people are allowed at wedding ceremonies, as long as they stay seated for the entire event. Physical distancing must be maintained and guests are advised not to move around. Receptions are limited to 25 people if indoors and 50 people if outdoors.
+ *A maximum of 250 people can now attend funerals, but everyone must remain seated. Viewings or expressing condolences can have a rotation of 50 people at a time.
+*restaurants and bars can operate at 50 per cent capacity, keeping a list of all their customers and making sure there is adequate distance between the tables. They also cannot sell alcohol after midnight and karaoke and dancing must end by 2 a.m. Up to 10 people, or the occupants of three residences, are allowed per table in restaurants. A maximum of 10 people, or the occupants of three residents, are permitted per table in bars, breweries and casinos. Up to 20 people are allowed on outdoor terraces.
+*Travel between regions and cities is possible, but some specific travel measures may apply. (https://montreal.ctvnews.ca/quebec-turns-green-more-covid-19-restrictions-lifted-1.5488116)</t>
+  </si>
+  <si>
+    <t>08/04/2021</t>
+  </si>
+  <si>
+    <t>*Restaurants and bars can operate at 100 per cent capacity. Bar top seating and counter seating is no longer restricted to 2-metre (6-feet) physical distancing between customers. More than 6 people can be seated at a table.
+*Self-isolation after domestic travel is not required, regardless of vaccination status.
+*Wearing a mask is not mandatory in indoor public spaces in the Yukon. However, we encourage you to continue wearing masks in indoor public spaces to protect: people who are not yet eligible for getting vaccinated, such as children born before 2009; and
+ people who are at higher risk, such as people who are immunocompromised or elderly.
+You must continue to wear a mask at: Yukon airports; and at any health care facilities including allied health care professional’s offices, such as massage therapists, physiotherapists and occupational therapists.
+*Gatherung limit is up to 200 people indoors and outdoors. (https://yukon.ca/en/changes-covid-19-restrictions-august-4-2021)</t>
   </si>
 </sst>
 </file>
@@ -9317,7 +9899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9525,6 +10107,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9870,7 +10470,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10136,7 +10736,7 @@
         <v>347</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="170" x14ac:dyDescent="0.2">
@@ -10149,18 +10749,18 @@
     </row>
     <row r="34" spans="1:3" s="86" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B34" s="87" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B35" s="88" t="s">
         <v>891</v>
-      </c>
-      <c r="B35" s="88" t="s">
-        <v>894</v>
       </c>
       <c r="C35" s="2"/>
     </row>
@@ -10179,15 +10779,15 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="164" customWidth="1"/>
+    <col min="2" max="2" width="180.5" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10304,7 +10904,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="70" t="s">
         <v>150</v>
       </c>
@@ -10317,7 +10917,7 @@
         <v>258</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -10392,7 +10992,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A25" s="70" t="s">
         <v>44</v>
       </c>
@@ -10448,7 +11048,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A32" s="70" t="s">
         <v>275</v>
       </c>
@@ -10456,7 +11056,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A33" s="70" t="s">
         <v>103</v>
       </c>
@@ -10505,16 +11105,16 @@
       </c>
     </row>
     <row r="39" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="92" t="s">
+      <c r="A39" s="100" t="s">
         <v>815</v>
       </c>
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="102" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="93"/>
-      <c r="B40" s="94"/>
+      <c r="A40" s="101"/>
+      <c r="B40" s="102"/>
     </row>
     <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="70" t="s">
@@ -10525,28 +11125,28 @@
       </c>
     </row>
     <row r="42" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="92" t="s">
+      <c r="A42" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="94" t="s">
+      <c r="B42" s="102" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="71" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="93"/>
-      <c r="B43" s="94"/>
+      <c r="A43" s="101"/>
+      <c r="B43" s="102"/>
     </row>
     <row r="44" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="90" t="s">
+      <c r="A44" s="98" t="s">
         <v>449</v>
       </c>
-      <c r="B44" s="94" t="s">
+      <c r="B44" s="102" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="71" customFormat="1" ht="284" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="95"/>
-      <c r="B45" s="94"/>
+      <c r="A45" s="103"/>
+      <c r="B45" s="102"/>
     </row>
     <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="70" t="s">
@@ -10573,75 +11173,68 @@
       </c>
     </row>
     <row r="49" spans="1:2" s="71" customFormat="1" ht="212" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="92" t="s">
+      <c r="A49" s="100" t="s">
         <v>826</v>
       </c>
-      <c r="B49" s="94" t="s">
+      <c r="B49" s="102" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="101"/>
+      <c r="B50" s="102"/>
+    </row>
+    <row r="51" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="100" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="93"/>
-      <c r="B50" s="94"/>
-    </row>
-    <row r="51" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="92" t="s">
-        <v>828</v>
-      </c>
-      <c r="B51" s="94" t="s">
-        <v>829</v>
+      <c r="B51" s="102" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="71" customFormat="1" ht="242" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="93"/>
-      <c r="B52" s="94"/>
+      <c r="A52" s="101"/>
+      <c r="B52" s="102"/>
     </row>
     <row r="53" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="70" t="s">
+        <v>828</v>
+      </c>
+      <c r="B53" s="72" t="s">
         <v>830</v>
       </c>
-      <c r="B53" s="72" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="188" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="94" t="s">
-        <v>831</v>
-      </c>
-      <c r="B54" s="94" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="199" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="94"/>
-      <c r="B55" s="94"/>
-    </row>
-    <row r="56" spans="1:2" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="94"/>
-      <c r="B56" s="94"/>
-    </row>
-    <row r="57" spans="1:2" ht="238" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>914</v>
-      </c>
-      <c r="B57" s="87" t="s">
-        <v>915</v>
-      </c>
+    </row>
+    <row r="54" spans="1:2" ht="356" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B54" s="87" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="388" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="B55" s="91" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="92"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="10">
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A44:A45"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A44:A45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10652,10 +11245,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10690,7 +11283,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C3" s="73"/>
     </row>
@@ -10699,7 +11292,7 @@
         <v>114</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C4" s="73"/>
     </row>
@@ -10708,7 +11301,7 @@
         <v>117</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C5" s="73"/>
     </row>
@@ -10717,7 +11310,7 @@
         <v>319</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="388" x14ac:dyDescent="0.2">
@@ -10725,7 +11318,7 @@
         <v>256</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="74" customFormat="1" ht="136" x14ac:dyDescent="0.2">
@@ -10733,7 +11326,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -10741,7 +11334,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="74" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -10749,7 +11342,7 @@
         <v>336</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="74" customFormat="1" ht="238" x14ac:dyDescent="0.2">
@@ -10757,7 +11350,7 @@
         <v>40</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="74" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -10765,7 +11358,7 @@
         <v>732</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -10773,7 +11366,7 @@
         <v>734</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -10781,7 +11374,7 @@
         <v>232</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="78"/>
@@ -10802,7 +11395,7 @@
         <v>165</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C15" s="78"/>
       <c r="D15" s="78"/>
@@ -10823,7 +11416,7 @@
         <v>269</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -10831,7 +11424,7 @@
         <v>739</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -10839,7 +11432,7 @@
         <v>741</v>
       </c>
       <c r="B18" s="75" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -10847,7 +11440,7 @@
         <v>743</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -10855,7 +11448,7 @@
         <v>668</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="74" customFormat="1" ht="119" x14ac:dyDescent="0.2">
@@ -10863,7 +11456,7 @@
         <v>664</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="74" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -10871,7 +11464,7 @@
         <v>671</v>
       </c>
       <c r="B22" s="75" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -10879,7 +11472,7 @@
         <v>171</v>
       </c>
       <c r="B23" s="75" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -10887,7 +11480,7 @@
         <v>103</v>
       </c>
       <c r="B24" s="75" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -10895,7 +11488,7 @@
         <v>751</v>
       </c>
       <c r="B25" s="75" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="74" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -10903,7 +11496,7 @@
         <v>753</v>
       </c>
       <c r="B26" s="75" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D26" s="75"/>
     </row>
@@ -10912,7 +11505,7 @@
         <v>755</v>
       </c>
       <c r="B27" s="75" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -10920,7 +11513,7 @@
         <v>757</v>
       </c>
       <c r="B28" s="75" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -10928,7 +11521,7 @@
         <v>121</v>
       </c>
       <c r="B29" s="75" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="74" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -10936,15 +11529,23 @@
         <v>760</v>
       </c>
       <c r="B30" s="75" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="74" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="74" customFormat="1" ht="340" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B31" s="75" t="s">
-        <v>916</v>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B32" s="91" t="s">
+        <v>946</v>
       </c>
     </row>
   </sheetData>
@@ -10957,10 +11558,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10985,7 +11586,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -10993,7 +11594,7 @@
         <v>111</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="82" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -11001,7 +11602,7 @@
         <v>117</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -11009,7 +11610,7 @@
         <v>766</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="404" x14ac:dyDescent="0.2">
@@ -11017,7 +11618,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="81" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="340" x14ac:dyDescent="0.2">
@@ -11025,7 +11626,7 @@
         <v>202</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="221" x14ac:dyDescent="0.2">
@@ -11033,15 +11634,15 @@
         <v>473</v>
       </c>
       <c r="B8" s="81" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="82" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="82" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -11049,7 +11650,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -11057,127 +11658,143 @@
         <v>772</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="84" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="84" t="s">
-        <v>884</v>
-      </c>
-      <c r="B12" s="85" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="89" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="84" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="84" t="s">
-        <v>95</v>
+        <v>882</v>
       </c>
       <c r="B13" s="85" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="84" t="s">
         <v>273</v>
       </c>
-      <c r="B14" s="85" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="82" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A15" s="82" t="s">
+      <c r="B15" s="85" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="82" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A16" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="83" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="340" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16" s="83" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="340" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="83" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="84" customFormat="1" ht="170" x14ac:dyDescent="0.2">
-      <c r="A17" s="84" t="s">
+      <c r="B17" s="83" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="84" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+      <c r="A18" s="84" t="s">
         <v>439</v>
       </c>
-      <c r="B17" s="85" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="84" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A18" s="84" t="s">
+      <c r="B18" s="85" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="84" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A19" s="84" t="s">
         <v>50</v>
-      </c>
-      <c r="B18" s="85" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="84" customFormat="1" ht="221" x14ac:dyDescent="0.2">
-      <c r="A19" s="84" t="s">
-        <v>880</v>
       </c>
       <c r="B19" s="85" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="84" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" s="84" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A20" s="84" t="s">
+        <v>878</v>
+      </c>
+      <c r="B20" s="85" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="84" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A21" s="84" t="s">
         <v>519</v>
       </c>
-      <c r="B20" s="85" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="84" t="s">
-        <v>349</v>
-      </c>
       <c r="B21" s="85" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="84" t="s">
+        <v>349</v>
+      </c>
+      <c r="B22" s="85" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="85" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23" s="85" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>888</v>
+      </c>
+      <c r="B24" s="83" t="s">
         <v>890</v>
       </c>
-      <c r="B23" s="83" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>876</v>
-      </c>
-      <c r="B24" s="83" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>605</v>
+        <v>874</v>
       </c>
       <c r="B25" s="83" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>891</v>
-      </c>
-      <c r="B26" s="85" t="s">
-        <v>892</v>
+        <v>605</v>
+      </c>
+      <c r="B26" s="83" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>889</v>
+      </c>
+      <c r="B27" s="85" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="221" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>947</v>
+      </c>
+      <c r="B28" s="91" t="s">
+        <v>948</v>
       </c>
     </row>
   </sheetData>
@@ -11187,15 +11804,18 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C98187-C544-724A-BCD9-4C569CB0FF1A}">
-  <dimension ref="A1:C2"/>
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="103.5" customWidth="1"/>
+    <col min="2" max="2" width="118.1640625" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11215,9 +11835,137 @@
         <v>109</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C2" s="70"/>
+    </row>
+    <row r="3" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="255" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="90" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="90" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="90" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="89" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="90" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="306" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B11" s="90" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="89" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="89" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="90" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="284" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B14" s="90" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B15" s="90" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B16" s="90" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="93" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B17" s="94" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B18" s="90" t="s">
+        <v>939</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11360,24 +12108,24 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="104" t="s">
         <v>256</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="102" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="64" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="97"/>
-      <c r="B15" s="94"/>
+      <c r="A15" s="105"/>
+      <c r="B15" s="102"/>
     </row>
     <row r="16" spans="1:15" s="64" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="97"/>
-      <c r="B16" s="94"/>
+      <c r="A16" s="105"/>
+      <c r="B16" s="102"/>
     </row>
     <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="97"/>
-      <c r="B17" s="94"/>
+      <c r="A17" s="105"/>
+      <c r="B17" s="102"/>
     </row>
     <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="69" t="s">
@@ -11872,16 +12620,16 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="132.6640625" customWidth="1"/>
+    <col min="2" max="2" width="139.83203125" customWidth="1"/>
     <col min="3" max="3" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11920,7 +12668,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>110</v>
       </c>
@@ -12107,7 +12855,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" s="16" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="16" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
         <v>152</v>
       </c>
@@ -12228,16 +12976,40 @@
         <v>606</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="272" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="238" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B38" s="87" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C39" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="95" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B39" s="96" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="89" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B40" s="90" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="95" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B41" s="96" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="C42" s="2" t="s">
         <v>602</v>
       </c>
     </row>
@@ -12253,9 +13025,9 @@
   </sheetPr>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12569,7 +13341,7 @@
     </row>
     <row r="37" spans="1:3" ht="204" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>50</v>
+        <v>679</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>54</v>
@@ -12620,12 +13392,25 @@
     </row>
     <row r="43" spans="1:3" ht="356" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B43" s="87" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C43" s="46"/>
+    </row>
+    <row r="44" spans="1:3" ht="388" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="B44" s="90" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B45" s="90" t="s">
+        <v>925</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B46" s="46"/>
@@ -12641,11 +13426,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12903,20 +13688,29 @@
         <v>252</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="3:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="C33" s="87" t="s">
+    <row r="33" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>927</v>
+      </c>
+      <c r="C33" s="87"/>
+    </row>
+    <row r="34" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="C34" s="90" t="s">
         <v>227</v>
       </c>
     </row>
@@ -12930,11 +13724,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13811,16 +14605,32 @@
         <v>345</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="306" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" s="89" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="B103" s="87" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C104" s="34" t="s">
+        <v>828</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="306" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="B104" s="87" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="95" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="B105" s="96" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="C106" s="34" t="s">
         <v>484</v>
       </c>
     </row>
@@ -13842,7 +14652,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14076,23 +14886,23 @@
         <v>510</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="86" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B29" s="87" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="255" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B30" s="87" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="35" spans="5:5" ht="68" x14ac:dyDescent="0.2">
@@ -14118,7 +14928,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B50" sqref="B50:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14138,7 +14948,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
         <v>62</v>
       </c>
@@ -14346,7 +15156,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
         <v>553</v>
       </c>
@@ -14403,20 +15213,20 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="90" t="s">
+      <c r="A34" s="98" t="s">
         <v>270</v>
       </c>
-      <c r="B34" s="89" t="s">
+      <c r="B34" s="97" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="206" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="90"/>
-      <c r="B35" s="89"/>
+      <c r="A35" s="98"/>
+      <c r="B35" s="97"/>
     </row>
     <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="91"/>
-      <c r="B36" s="89"/>
+      <c r="A36" s="99"/>
+      <c r="B36" s="97"/>
     </row>
     <row r="37" spans="1:3" s="43" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -14533,16 +15343,16 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="86" customFormat="1" ht="229" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="92" t="s">
-        <v>909</v>
-      </c>
-      <c r="B50" s="89" t="s">
-        <v>910</v>
+      <c r="A50" s="100" t="s">
+        <v>905</v>
+      </c>
+      <c r="B50" s="97" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="86" customFormat="1" ht="181" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="93"/>
-      <c r="B51" s="89"/>
+      <c r="A51" s="101"/>
+      <c r="B51" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -14560,11 +15370,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15049,7 +15859,23 @@
         <v>705</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>911</v>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B56" s="90" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B57" s="90" t="s">
+        <v>931</v>
       </c>
     </row>
   </sheetData>
@@ -15062,10 +15888,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15274,7 +16100,15 @@
         <v>605</v>
       </c>
       <c r="B25" s="87" t="s">
-        <v>912</v>
+        <v>908</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B26" s="96" t="s">
+        <v>957</v>
       </c>
     </row>
   </sheetData>

--- a/Mitigation implementations timelines.xlsx
+++ b/Mitigation implementations timelines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/COVID 19 (Research)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD184D3-F682-B84F-9904-13EA72AA7DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DF89D0-BF73-8642-B016-F253533559B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="740" windowWidth="28000" windowHeight="15480" xr2:uid="{46EB9E8F-497B-284D-B7FE-2815816E0953}"/>
+    <workbookView xWindow="820" yWindow="680" windowWidth="25340" windowHeight="15200" firstSheet="4" activeTab="5" xr2:uid="{46EB9E8F-497B-284D-B7FE-2815816E0953}"/>
   </bookViews>
   <sheets>
     <sheet name="Alberta" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="960">
   <si>
     <t>03/30/2020</t>
   </si>
@@ -9700,12 +9700,18 @@
 You must continue to wear a mask at: Yukon airports; and at any health care facilities including allied health care professional’s offices, such as massage therapists, physiotherapists and occupational therapists.
 *Gatherung limit is up to 200 people indoors and outdoors. (https://yukon.ca/en/changes-covid-19-restrictions-august-4-2021)</t>
   </si>
+  <si>
+    <t>*The City of Calgary announced a state of local emergency. City-operated recreation centres, pools and arenas, some partner facilities like YMCAs, and Calgary Public Library branches have all been ordered to close until further notice. Restaurants, bars and cafes can only opertate at 50% capacity. (https://www.cbc.ca/news/canada/calgary/calgary-covid19-response-1.5498795)</t>
+  </si>
+  <si>
+    <t>(some data missing on business closures. When businesses were closed like restaurats, bars?)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9871,6 +9877,11 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -9899,7 +9910,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10125,6 +10136,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10466,11 +10484,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10515,257 +10533,265 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="238" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:3" ht="238" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="16" customFormat="1" ht="265" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+    <row r="15" spans="1:3" s="16" customFormat="1" ht="265" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B15" s="28" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B17" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
+    <row r="18" spans="1:2" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+    <row r="19" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B19" s="15" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="289" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+    <row r="22" spans="1:2" ht="289" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B22" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="52" t="s">
+    <row r="23" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B23" s="31" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:2" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="170" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
+    <row r="27" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B27" s="28" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="136" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
+    <row r="31" spans="1:2" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B31" s="28" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="86" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:3" s="86" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="86" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:3" s="86" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="B34" s="87" t="s">
+      <c r="B35" s="87" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="B35" s="88" t="s">
+      <c r="B36" s="88" t="s">
         <v>891</v>
       </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C36" s="87" t="s">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="C37" s="87" t="s">
         <v>618</v>
       </c>
     </row>
@@ -10779,10 +10805,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10872,369 +10898,375 @@
         <v>780</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="221" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
+    <row r="10" spans="1:3" s="98" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="97"/>
+      <c r="B10" s="99" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="221" x14ac:dyDescent="0.2">
+      <c r="A11" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B11" s="72" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A11" s="70" t="s">
+    <row r="12" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B12" s="72" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="71" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="70" t="s">
+    <row r="13" spans="1:3" s="71" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B13" s="72" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="187" x14ac:dyDescent="0.2">
-      <c r="A13" s="70" t="s">
+    <row r="14" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+      <c r="A14" s="70" t="s">
         <v>256</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B14" s="72" t="s">
         <v>786</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="72" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="70" t="s">
         <v>258</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B16" s="72" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="70" t="s">
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B17" s="72" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="136" x14ac:dyDescent="0.2">
-      <c r="A17" s="70" t="s">
+    <row r="18" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+      <c r="A18" s="70" t="s">
         <v>260</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B18" s="72" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="71" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A18" s="70" t="s">
+    <row r="19" spans="1:2" s="71" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A19" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B19" s="72" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="s">
+    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B20" s="72" t="s">
         <v>790</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="72" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B22" s="72" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="70" t="s">
+    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B23" s="72" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="70" t="s">
+    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="70" t="s">
         <v>795</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B24" s="72" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="70" t="s">
+    <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="70" t="s">
         <v>268</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B25" s="72" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="170" x14ac:dyDescent="0.2">
-      <c r="A25" s="70" t="s">
+    <row r="26" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+      <c r="A26" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B26" s="72" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="238" x14ac:dyDescent="0.2">
-      <c r="A26" s="70" t="s">
+    <row r="27" spans="1:2" ht="238" x14ac:dyDescent="0.2">
+      <c r="A27" s="70" t="s">
         <v>269</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B27" s="72" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="70" t="s">
+    <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B28" s="72" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="71" customFormat="1" ht="272" x14ac:dyDescent="0.2">
-      <c r="A28" s="70" t="s">
+    <row r="29" spans="1:2" s="71" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+      <c r="A29" s="70" t="s">
         <v>271</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B29" s="72" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="71" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="70" t="s">
+    <row r="30" spans="1:2" s="71" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="70" t="s">
         <v>273</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B30" s="72" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="71" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="70" t="s">
+    <row r="31" spans="1:2" s="71" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="70" t="s">
         <v>804</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B31" s="72" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="70" t="s">
+    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B32" s="72" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="170" x14ac:dyDescent="0.2">
-      <c r="A32" s="70" t="s">
+    <row r="33" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+      <c r="A33" s="70" t="s">
         <v>275</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B33" s="72" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="238" x14ac:dyDescent="0.2">
-      <c r="A33" s="70" t="s">
+    <row r="34" spans="1:2" ht="238" x14ac:dyDescent="0.2">
+      <c r="A34" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="B34" s="72" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="70" t="s">
+    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="70" t="s">
         <v>439</v>
       </c>
-      <c r="B34" s="72" t="s">
+      <c r="B35" s="72" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="238" x14ac:dyDescent="0.2">
-      <c r="A35" s="70" t="s">
+    <row r="36" spans="1:2" ht="238" x14ac:dyDescent="0.2">
+      <c r="A36" s="70" t="s">
         <v>809</v>
       </c>
-      <c r="B35" s="72" t="s">
+      <c r="B36" s="72" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="170" x14ac:dyDescent="0.2">
-      <c r="A36" s="70" t="s">
+    <row r="37" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+      <c r="A37" s="70" t="s">
         <v>811</v>
       </c>
-      <c r="B36" s="72" t="s">
+      <c r="B37" s="72" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A37" s="70" t="s">
+    <row r="38" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A38" s="70" t="s">
         <v>446</v>
       </c>
-      <c r="B37" s="72" t="s">
+      <c r="B38" s="72" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="70" t="s">
+    <row r="39" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="70" t="s">
         <v>696</v>
       </c>
-      <c r="B38" s="72" t="s">
+      <c r="B39" s="72" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="100" t="s">
+    <row r="40" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="103" t="s">
         <v>815</v>
       </c>
-      <c r="B39" s="102" t="s">
+      <c r="B40" s="105" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="101"/>
-      <c r="B40" s="102"/>
-    </row>
-    <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="70" t="s">
+    <row r="41" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="104"/>
+      <c r="B41" s="105"/>
+    </row>
+    <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="70" t="s">
         <v>817</v>
       </c>
-      <c r="B41" s="72" t="s">
+      <c r="B42" s="72" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="100" t="s">
+    <row r="43" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="102" t="s">
+      <c r="B43" s="105" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="71" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="101"/>
-      <c r="B43" s="102"/>
-    </row>
-    <row r="44" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="98" t="s">
+    <row r="44" spans="1:2" s="71" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="104"/>
+      <c r="B44" s="105"/>
+    </row>
+    <row r="45" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="101" t="s">
         <v>449</v>
       </c>
-      <c r="B44" s="102" t="s">
+      <c r="B45" s="105" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="71" customFormat="1" ht="284" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="103"/>
-      <c r="B45" s="102"/>
-    </row>
-    <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="70" t="s">
+    <row r="46" spans="1:2" s="71" customFormat="1" ht="284" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="106"/>
+      <c r="B46" s="105"/>
+    </row>
+    <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="70" t="s">
         <v>819</v>
       </c>
-      <c r="B46" s="72" t="s">
+      <c r="B47" s="72" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" s="70" t="s">
+    <row r="48" spans="1:2" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48" s="70" t="s">
         <v>824</v>
       </c>
-      <c r="B47" s="72" t="s">
+      <c r="B48" s="72" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" s="70" t="s">
+    <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="70" t="s">
         <v>760</v>
       </c>
-      <c r="B48" s="72" t="s">
+      <c r="B49" s="72" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="71" customFormat="1" ht="212" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="100" t="s">
+    <row r="50" spans="1:2" s="71" customFormat="1" ht="212" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="103" t="s">
         <v>826</v>
       </c>
-      <c r="B49" s="102" t="s">
+      <c r="B50" s="105" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="101"/>
-      <c r="B50" s="102"/>
-    </row>
-    <row r="51" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="100" t="s">
+    <row r="51" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="104"/>
+      <c r="B51" s="105"/>
+    </row>
+    <row r="52" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="103" t="s">
         <v>827</v>
       </c>
-      <c r="B51" s="102" t="s">
+      <c r="B52" s="105" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="71" customFormat="1" ht="242" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="101"/>
-      <c r="B52" s="102"/>
-    </row>
-    <row r="53" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="70" t="s">
+    <row r="53" spans="1:2" s="71" customFormat="1" ht="242" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="104"/>
+      <c r="B53" s="105"/>
+    </row>
+    <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="70" t="s">
         <v>828</v>
       </c>
-      <c r="B53" s="72" t="s">
+      <c r="B54" s="72" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="356" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:2" ht="356" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="B54" s="87" t="s">
+      <c r="B55" s="87" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="388" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
+    <row r="56" spans="1:2" ht="388" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
         <v>940</v>
       </c>
-      <c r="B55" s="91" t="s">
+      <c r="B56" s="91" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="92"/>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A50:A51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11560,8 +11592,8 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11809,8 +11841,8 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12108,24 +12140,24 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="107" t="s">
         <v>256</v>
       </c>
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="105" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="64" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="105"/>
-      <c r="B15" s="102"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="105"/>
     </row>
     <row r="16" spans="1:15" s="64" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="105"/>
-      <c r="B16" s="102"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="105"/>
     </row>
     <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="105"/>
-      <c r="B17" s="102"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="105"/>
     </row>
     <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="69" t="s">
@@ -14650,8 +14682,8 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -15213,20 +15245,20 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="98" t="s">
+      <c r="A34" s="101" t="s">
         <v>270</v>
       </c>
-      <c r="B34" s="97" t="s">
+      <c r="B34" s="100" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="206" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="98"/>
-      <c r="B35" s="97"/>
+      <c r="A35" s="101"/>
+      <c r="B35" s="100"/>
     </row>
     <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="99"/>
-      <c r="B36" s="97"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="100"/>
     </row>
     <row r="37" spans="1:3" s="43" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -15343,16 +15375,16 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="86" customFormat="1" ht="229" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="100" t="s">
+      <c r="A50" s="103" t="s">
         <v>905</v>
       </c>
-      <c r="B50" s="97" t="s">
+      <c r="B50" s="100" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="86" customFormat="1" ht="181" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="101"/>
-      <c r="B51" s="97"/>
+      <c r="A51" s="104"/>
+      <c r="B51" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15372,9 +15404,9 @@
   </sheetPr>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15427,7 +15459,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="55" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="55" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>633</v>
       </c>
@@ -15890,8 +15922,8 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Mitigation implementations timelines.xlsx
+++ b/Mitigation implementations timelines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/COVID 19 (Research)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DF89D0-BF73-8642-B016-F253533559B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38F26B1-6155-694C-9928-C5BEA1189654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="680" windowWidth="25340" windowHeight="15200" firstSheet="4" activeTab="5" xr2:uid="{46EB9E8F-497B-284D-B7FE-2815816E0953}"/>
+    <workbookView xWindow="820" yWindow="680" windowWidth="25340" windowHeight="15200" firstSheet="4" activeTab="12" xr2:uid="{46EB9E8F-497B-284D-B7FE-2815816E0953}"/>
   </bookViews>
   <sheets>
     <sheet name="Alberta" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="993">
   <si>
     <t>03/30/2020</t>
   </si>
@@ -9264,9 +9264,6 @@
     </r>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>07/11/2021</t>
   </si>
   <si>
@@ -9705,6 +9702,126 @@
   </si>
   <si>
     <t>(some data missing on business closures. When businesses were closed like restaurats, bars?)</t>
+  </si>
+  <si>
+    <t>09/04/2021</t>
+  </si>
+  <si>
+    <t>*The use of face masks will be mandatory for all indoor public spaces and workplaces. 
+* restaurants, cafés, bars, pubs, nightclubs, and other licensed establishments will be required to end alcohol service at 10 p.m (https://lethbridgenewsnow.com/2021/09/03/mask-mandate-returning-in-alberta-saturday-other-new-measures-announced/, https://www.alberta.ca/masks.aspx)</t>
+  </si>
+  <si>
+    <t>09/07/2021</t>
+  </si>
+  <si>
+    <t>Students going back to school, no restrictions were implemented. Elimination of requirements for students and school staff to wear masks in schools, and no longer recommending all students and school staff remain in strict cohorts. (https://open.alberta.ca/dataset/13d2242a-d310-419e-960c-6fe273d0f7b3/resource/e5305366-17e9-4507-9487-8aa5afcd72f2/download/edc-school-year-plan-2021-2022.pdf)</t>
+  </si>
+  <si>
+    <t>08/28/2021</t>
+  </si>
+  <si>
+    <t>* The mandatory mask requirement returns in indoor public spaces (https://winnipeg.ctvnews.ca/manitoba-to-limit-restaurants-gyms-and-concerts-to-those-fully-vaccinated-against-covid-19-beginning-next-week-1.5563654)</t>
+  </si>
+  <si>
+    <t>09/03/2021</t>
+  </si>
+  <si>
+    <t>Only fully immunized individuals will be able to participate in or attend at the following events/activities/establishments: restaurants (indoor and patio dining);
+nightclubs and all other licensed premises; fitness centres, gyms and indoor sporting and recreational facilities (excluding youth recreational sport); indoor and outdoor; ticketed sporting events and concerts; indoor theatre/dance/symphony events; casinos, bingo halls and VLT lounges; movie theatres; and
+organized indoor group recreational classes and activities, and indoor recreational businesses. Children born after December 31, 2009 who are not eligible to be immunized will be able to attend events and activities with a fully immunized adult. (https://www.mltaikins.com/covid-19/mb-health-regions-caution-yellow-level/)</t>
+  </si>
+  <si>
+    <t>*Outdoor gatherings limit has been reduced from 1500 to 500. The limit includes summer fairs and festivals though they may be allowed to operate above that limit, subject to protocols approved by public health;
+*Museums and galleries can open, but they will be required to ask for proof of vaccination from visitors to access indoor areas; and
+requiring food courts to comply with the same rules as restaurants for dine-in patrons and, if food courts choose to open for options other than take-out, patrons will be required to provide proof of vaccination (https://www.mltaikins.com/covid-19/mb-health-regions-caution-yellow-level/)
+*Students going back to school. Masks and distancing recommnded but not required (https://news.gov.mb.ca/news/index.html?item=52021)</t>
+  </si>
+  <si>
+    <t>09/22/2021</t>
+  </si>
+  <si>
+    <t>*Proof of COVID-19 vaccination will be required to access non-essential businesses in Ontario, including gyms, indoor restaurants, movie theatres and concert halls.  a certificate is not necessary for retail shopping, salons and barbershops, banks, places of worship, essential services, workplaces or patios and other outdoor spaces.(https://toronto.ctvnews.ca/ontario-reveals-vaccine-passport-system-for-restaurants-gyms-and-theatres-here-s-what-you-need-to-know-1.5569198)</t>
+  </si>
+  <si>
+    <t>Students going back to schools with restrictions in place. Masks are still mandatory. (https://www.ontario.ca/page/covid-19-health-and-safety-measures-schools)</t>
+  </si>
+  <si>
+    <t>09/12/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the province will again require COVID-19 positive people to isolate for 10 days and close contacts who are not vaccinated to self-isolate for 14 days. (https://www.cbc.ca/news/canada/saskatchewan/sask-covid19-1.6171078)</t>
+  </si>
+  <si>
+    <t>09/01/2021</t>
+  </si>
+  <si>
+    <t>Students returning to in person learning from summer break. Masking and distancing not required, returning to pre-pandemic conditions (https://www.stf.sk.ca/resource/2021-22-safe-schools-plan)</t>
+  </si>
+  <si>
+    <t>08/25/2021</t>
+  </si>
+  <si>
+    <t>*B.C. is bringing back a public health order requiring people to wear masks in all indoor public spaces — including malls, grocery stores and on transit (https://nationalpost.com/news/canada/some-provinces-reinstate-covid-19-restrictions-as-cases-surge-in-certain-areas)</t>
+  </si>
+  <si>
+    <t>08/26/2021</t>
+  </si>
+  <si>
+    <t>*French schools reopen. English schools open few days later. Masks are required (https://montreal.ctvnews.ca/quebec-kids-head-back-to-class-with-new-covid-19-protocols-1.5562801) (https://www.quebec.ca/en/education/back-to-school-2021-higher-education)</t>
+  </si>
+  <si>
+    <t>09/13/2021</t>
+  </si>
+  <si>
+    <t>*The new "B.C. vaccine cards" are implemented. The cards will be required for a wide range of non-essential recreational and social activities. The full list of activities covered by the new rules includes:
+indoor ticketed sporting events
+indoor concerts
+indoor theatre/dance/symphony events
+restaurants (indoor and patio dining)
+night clubs
+casinos
+movie theatres
+fitness centres/gyms (excluding youth recreational sport)
+businesses offering indoor high-intensity group exercise activities
+organized indoor events (e.g., weddings, parties, conferences, meetings, workshops)
+discretionary organized indoor group recreational classes and activities
+student housing on college and university campuses (https://www.cbc.ca/news/canada/british-columbia/covid19-vaccine-update-bc-1.6149947)</t>
+  </si>
+  <si>
+    <t>*Students going back to school. Masking is required (https://www.cbc.ca/news/canada/british-columbia/bc-back-to-school-covid-19-2021-1.6151255)</t>
+  </si>
+  <si>
+    <t>*Masks are no longer mandatory (https://www.ctvnews.ca/health/coronavirus/nunavut-releases-path-forward-to-live-with-covid-19-ease-public-health-restrictions-1.5533070)</t>
+  </si>
+  <si>
+    <t>*All students back to school. Restrictions in schools will vary from community to community. (https://gov.nu.ca/sites/default/files/learning_to_be_together_again_engwith_table_of_contents_and_cover_1.pdf)</t>
+  </si>
+  <si>
+    <t>08/31/2021</t>
+  </si>
+  <si>
+    <t>*students are going back to school. Masks are still mandatory (https://www.gov.nt.ca/covid-19/en/backtoschool)</t>
+  </si>
+  <si>
+    <t>08/30/2021</t>
+  </si>
+  <si>
+    <t>*Schools reopen. Masking is still required (https://yukon.ca/en/health-and-wellness/covid-19-information/k-12-school-guidelines-2021-22-covid-19)</t>
+  </si>
+  <si>
+    <t>*Students going back to school with restrictions. Masks are required (https://novascotia.ca/news/release/?id=20210823006)</t>
+  </si>
+  <si>
+    <t>Students going back to school. Masks are not mandatory (https://www.gov.nl.ca/releases/2021/education/0812n01/)</t>
+  </si>
+  <si>
+    <t>09/08/2021</t>
+  </si>
+  <si>
+    <t>*Students going back to school (restrictions like masking is still implemented) (https://www2.gnb.ca/content/dam/gnb/Departments/ed/pdf/2021-22-guidelines.pdf)</t>
+  </si>
+  <si>
+    <t>Students going back to school. Masks are not required, only recommended.  (https://www.princeedwardisland.ca/sites/default/files/publications/welcome_back_to_school_plan_2021.pdf) However later it was revised (https://www.cbc.ca/news/canada/prince-edward-island/pei-schools-masks-covid-19-psb-1.6155923)</t>
   </si>
 </sst>
 </file>
@@ -9910,7 +10027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10148,6 +10265,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10166,6 +10290,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10484,11 +10611,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10538,7 +10665,7 @@
         <v>109</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="153" x14ac:dyDescent="0.2">
@@ -10790,8 +10917,25 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C37" s="87" t="s">
+    <row r="37" spans="1:3" s="101" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B37" s="88" t="s">
+        <v>960</v>
+      </c>
+      <c r="C37" s="102"/>
+    </row>
+    <row r="38" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B38" s="88" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="C39" s="102" t="s">
         <v>618</v>
       </c>
     </row>
@@ -10807,8 +10951,8 @@
   </sheetPr>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10901,7 +11045,7 @@
     <row r="10" spans="1:3" s="98" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="97"/>
       <c r="B10" s="99" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="221" x14ac:dyDescent="0.2">
@@ -11137,16 +11281,16 @@
       </c>
     </row>
     <row r="40" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="103" t="s">
+      <c r="A40" s="106" t="s">
         <v>815</v>
       </c>
-      <c r="B40" s="105" t="s">
+      <c r="B40" s="108" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="104"/>
-      <c r="B41" s="105"/>
+      <c r="A41" s="107"/>
+      <c r="B41" s="108"/>
     </row>
     <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="70" t="s">
@@ -11157,28 +11301,28 @@
       </c>
     </row>
     <row r="43" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="103" t="s">
+      <c r="A43" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="105" t="s">
+      <c r="B43" s="108" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="71" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="104"/>
-      <c r="B44" s="105"/>
+      <c r="A44" s="107"/>
+      <c r="B44" s="108"/>
     </row>
     <row r="45" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="101" t="s">
+      <c r="A45" s="104" t="s">
         <v>449</v>
       </c>
-      <c r="B45" s="105" t="s">
+      <c r="B45" s="108" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="71" customFormat="1" ht="284" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="106"/>
-      <c r="B46" s="105"/>
+      <c r="A46" s="109"/>
+      <c r="B46" s="108"/>
     </row>
     <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="70" t="s">
@@ -11205,28 +11349,28 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="71" customFormat="1" ht="212" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="103" t="s">
+      <c r="A50" s="106" t="s">
         <v>826</v>
       </c>
-      <c r="B50" s="105" t="s">
-        <v>943</v>
+      <c r="B50" s="108" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="104"/>
-      <c r="B51" s="105"/>
+      <c r="A51" s="107"/>
+      <c r="B51" s="108"/>
     </row>
     <row r="52" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="103" t="s">
+      <c r="A52" s="106" t="s">
         <v>827</v>
       </c>
-      <c r="B52" s="105" t="s">
-        <v>942</v>
+      <c r="B52" s="108" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="71" customFormat="1" ht="242" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="104"/>
-      <c r="B53" s="105"/>
+      <c r="A53" s="107"/>
+      <c r="B53" s="108"/>
     </row>
     <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="70" t="s">
@@ -11241,15 +11385,23 @@
         <v>829</v>
       </c>
       <c r="B55" s="87" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="388" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
+        <v>939</v>
+      </c>
+      <c r="B56" s="91" t="s">
         <v>940</v>
       </c>
-      <c r="B56" s="91" t="s">
-        <v>941</v>
+    </row>
+    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B57" s="102" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -11277,10 +11429,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11569,15 +11721,23 @@
         <v>827</v>
       </c>
       <c r="B31" s="75" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B32" s="91" t="s">
         <v>945</v>
       </c>
-      <c r="B32" s="91" t="s">
-        <v>946</v>
+    </row>
+    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B33" s="102" t="s">
+        <v>991</v>
       </c>
     </row>
   </sheetData>
@@ -11590,10 +11750,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11818,15 +11978,23 @@
         <v>889</v>
       </c>
       <c r="B27" s="85" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>946</v>
+      </c>
+      <c r="B28" s="91" t="s">
         <v>947</v>
       </c>
-      <c r="B28" s="91" t="s">
-        <v>948</v>
+    </row>
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B29" s="102" t="s">
+        <v>989</v>
       </c>
     </row>
   </sheetData>
@@ -11839,10 +12007,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11948,7 +12116,7 @@
         <v>95</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="89" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -11956,7 +12124,7 @@
         <v>273</v>
       </c>
       <c r="B13" s="90" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="284" customHeight="1" x14ac:dyDescent="0.2">
@@ -11969,18 +12137,18 @@
     </row>
     <row r="15" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B15" s="90" t="s">
         <v>934</v>
-      </c>
-      <c r="B15" s="90" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B16" s="90" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="93" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -11988,15 +12156,23 @@
         <v>893</v>
       </c>
       <c r="B17" s="94" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="255" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B18" s="90" t="s">
-        <v>939</v>
+        <v>938</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B19" s="102" t="s">
+        <v>992</v>
       </c>
     </row>
   </sheetData>
@@ -12140,24 +12316,24 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="110" t="s">
         <v>256</v>
       </c>
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="108" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="64" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="108"/>
-      <c r="B15" s="105"/>
+      <c r="A15" s="111"/>
+      <c r="B15" s="108"/>
     </row>
     <row r="16" spans="1:15" s="64" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="108"/>
-      <c r="B16" s="105"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="108"/>
     </row>
     <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="108"/>
-      <c r="B17" s="105"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="108"/>
     </row>
     <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="69" t="s">
@@ -12652,11 +12828,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13021,7 +13197,7 @@
         <v>829</v>
       </c>
       <c r="B39" s="96" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="89" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
@@ -13034,14 +13210,36 @@
     </row>
     <row r="41" spans="1:3" s="95" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B41" s="96" t="s">
         <v>952</v>
       </c>
-      <c r="B41" s="96" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C42" s="2" t="s">
+    </row>
+    <row r="42" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B42" s="102" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="101" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B43" s="102" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B44" s="102" t="s">
+        <v>967</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>602</v>
       </c>
     </row>
@@ -13055,15 +13253,16 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="128.83203125" customWidth="1"/>
     <col min="3" max="3" width="61.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -13439,13 +13638,24 @@
         <v>924</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B45" s="90" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="46"/>
+    <row r="45" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="B45" s="102" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="B46" s="90" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="46"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C40" xr:uid="{BA46D44F-FD23-0941-AE5A-CEACA9AB11EC}"/>
@@ -13458,11 +13668,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13734,15 +13944,33 @@
     </row>
     <row r="33" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>926</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>927</v>
-      </c>
       <c r="C33" s="87"/>
     </row>
-    <row r="34" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="C34" s="90" t="s">
+    <row r="34" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="C34" s="102"/>
+    </row>
+    <row r="35" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="C35" s="102"/>
+    </row>
+    <row r="36" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="C36" s="90" t="s">
         <v>227</v>
       </c>
     </row>
@@ -13756,11 +13984,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
+      <selection pane="bottomLeft" activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14642,7 +14870,7 @@
         <v>828</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="306" x14ac:dyDescent="0.2">
@@ -14655,14 +14883,22 @@
     </row>
     <row r="105" spans="1:3" s="95" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B105" s="96" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C106" s="34" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="B106" s="102" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="C107" s="34" t="s">
         <v>484</v>
       </c>
     </row>
@@ -14680,11 +14916,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14937,13 +15173,37 @@
         <v>902</v>
       </c>
     </row>
-    <row r="35" spans="5:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="E35" s="2" t="s">
+    <row r="31" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B31" s="102" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B32" s="102" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="255" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B33" s="102" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="E36" s="2" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="36" spans="5:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="E36" s="2" t="s">
+    <row r="37" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="E37" s="2" t="s">
         <v>515</v>
       </c>
     </row>
@@ -14957,9 +15217,9 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="B50" sqref="B50:B51"/>
     </sheetView>
   </sheetViews>
@@ -15245,20 +15505,20 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="104" t="s">
         <v>270</v>
       </c>
-      <c r="B34" s="100" t="s">
+      <c r="B34" s="103" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="206" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="101"/>
-      <c r="B35" s="100"/>
+      <c r="A35" s="104"/>
+      <c r="B35" s="103"/>
     </row>
     <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="102"/>
-      <c r="B36" s="100"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="103"/>
     </row>
     <row r="37" spans="1:3" s="43" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -15375,16 +15635,32 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="86" customFormat="1" ht="229" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="103" t="s">
+      <c r="A50" s="106" t="s">
         <v>905</v>
       </c>
-      <c r="B50" s="100" t="s">
+      <c r="B50" s="103" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="86" customFormat="1" ht="181" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="104"/>
-      <c r="B51" s="100"/>
+      <c r="A51" s="107"/>
+      <c r="B51" s="103"/>
+    </row>
+    <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="112" t="s">
+        <v>944</v>
+      </c>
+      <c r="B52" s="100" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="112" t="s">
+        <v>961</v>
+      </c>
+      <c r="B53" s="100" t="s">
+        <v>983</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15402,11 +15678,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15896,10 +16172,10 @@
     </row>
     <row r="56" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B56" s="90" t="s">
         <v>929</v>
-      </c>
-      <c r="B56" s="90" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -15907,7 +16183,15 @@
         <v>893</v>
       </c>
       <c r="B57" s="90" t="s">
-        <v>931</v>
+        <v>930</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B58" s="102" t="s">
+        <v>985</v>
       </c>
     </row>
   </sheetData>
@@ -15920,10 +16204,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16137,10 +16421,18 @@
     </row>
     <row r="26" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B26" s="96" t="s">
         <v>956</v>
       </c>
-      <c r="B26" s="96" t="s">
-        <v>957</v>
+    </row>
+    <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B27" s="102" t="s">
+        <v>987</v>
       </c>
     </row>
   </sheetData>

--- a/Mitigation implementations timelines.xlsx
+++ b/Mitigation implementations timelines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/COVID 19 (Research)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38F26B1-6155-694C-9928-C5BEA1189654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7854C44-CD83-E445-8135-A96BE89BA5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="680" windowWidth="25340" windowHeight="15200" firstSheet="4" activeTab="12" xr2:uid="{46EB9E8F-497B-284D-B7FE-2815816E0953}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="1026">
   <si>
     <t>03/30/2020</t>
   </si>
@@ -9726,11 +9726,6 @@
     <t>09/03/2021</t>
   </si>
   <si>
-    <t>Only fully immunized individuals will be able to participate in or attend at the following events/activities/establishments: restaurants (indoor and patio dining);
-nightclubs and all other licensed premises; fitness centres, gyms and indoor sporting and recreational facilities (excluding youth recreational sport); indoor and outdoor; ticketed sporting events and concerts; indoor theatre/dance/symphony events; casinos, bingo halls and VLT lounges; movie theatres; and
-organized indoor group recreational classes and activities, and indoor recreational businesses. Children born after December 31, 2009 who are not eligible to be immunized will be able to attend events and activities with a fully immunized adult. (https://www.mltaikins.com/covid-19/mb-health-regions-caution-yellow-level/)</t>
-  </si>
-  <si>
     <t>*Outdoor gatherings limit has been reduced from 1500 to 500. The limit includes summer fairs and festivals though they may be allowed to operate above that limit, subject to protocols approved by public health;
 *Museums and galleries can open, but they will be required to ask for proof of vaccination from visitors to access indoor areas; and
 requiring food courts to comply with the same rules as restaurants for dine-in patrons and, if food courts choose to open for options other than take-out, patrons will be required to provide proof of vaccination (https://www.mltaikins.com/covid-19/mb-health-regions-caution-yellow-level/)
@@ -9822,6 +9817,194 @@
   </si>
   <si>
     <t>Students going back to school. Masks are not required, only recommended.  (https://www.princeedwardisland.ca/sites/default/files/publications/welcome_back_to_school_plan_2021.pdf) However later it was revised (https://www.cbc.ca/news/canada/prince-edward-island/pei-schools-masks-covid-19-psb-1.6155923)</t>
+  </si>
+  <si>
+    <t>indoor capacity will be set at 50 per cent or 10,000 people, whichever is less, for sports facilities, meeting and event spaces, concerts, theatres and racing venues. That’s up from the previous limit of 1,000 people, or 50 per cent capacity, and all of these venues require proof of vaccination.</t>
+  </si>
+  <si>
+    <t>09/25/2021</t>
+  </si>
+  <si>
+    <t>09/20/2021</t>
+  </si>
+  <si>
+    <t>09/16/2021</t>
+  </si>
+  <si>
+    <t>*COVID-19 vaccine passport system comes into force today. The program allows businesses and venues to operate without capacity limits and other public health measures if they require proof of vaccination or a negative test result from anyone entering. The policy, which is not mandatory, applies at restaurants, nightclubs, casinos, concerts and fitness facilities.
+(https://www.cbc.ca/news/canada/edmonton/vaccine-passport-proof-of-vaccination-alberta-1.6182352)
+As part of the Alberta Government’s “restrictions exemption program” businesses or event organizers who choose to implement a vaccine passport program for screening patrons will be exempt from the restrictions. The following measures must be followed for businesses that do not implement the restrictions exemption program.
+-Outdoor dining only with a maximum of six individuals per table (one household or two close contacts for those living alone). 
+Liquor sales and consumption restrictions (10 p.m. sales and 11 p.m. consumption) apply. 
+-All indoor ceremonies (weddings and funerals) and services are limited to 50 attendees or 50 per cent of the venue’s capacity, whichever is less. Indoor receptions are not permitted.  All outdoor ceremonies and services for weddings and funerals are limited to 200 attendees. Outdoor receptions are required to follow liquor sales and consumption restrictions (10 p.m. sales and 11 p.m. consumption).  
+-Retail, entertainment and recreation facilities (includes any indoor venues, libraries, conferences, rental spaces, concerts, nightclubs, casinos and similar):Attendance is limited to one-third of the venue’s capacity and attendees are only permitted to attend with their household or two close contacts for those living alone. Attendees must wear a mask and maintain physical distancing between households.  (https://www.mltaikins.com/covid-19/new-public-health-measures-for-alberta-as-covid-19-cases-rise/)</t>
+  </si>
+  <si>
+    <t>*Unless an employer determines that a physical presence is required for operational effectiveness, employees are required to comply with a new mandatory work from home order. 
+*Vaccine-eligible individuals who are fully vaccinated may gather indoors, limited to a single household plus one other household to a maximum of 10 people. There are no restrictions on children under the age of 12. 
+Vaccine-eligible individuals who are unvaccinated are not permitted to attend any indoor private social gatherings. 
+Outdoor private social gatherings are permitted to a maximum of 200 people with physical distancing required.  
+*Places of worship must limit attendance to one-third of the venue’s normal capacity. 
+Face masks are mandatory and physical distancing must be maintained between households or two close contacts for those who live alone. 
+*All staff and teachers in all grades, and students in grades 4 and up are required to wear a mask. Schools can be exempt from mandatory masking if they can implement an alternate COVID-19 safety plan. 
+Elementary schools must implement class cohorting. 
+For physical activities in schools:  
+Youth aged 18 and under are not required to mask or maintain two-metre distance when engaged in physical activity. 
+There are no restrictions on outdoor activities. 
+Indoor sports/performance/recreation/special interests are permitted with requirements for two-metre physical distancing, where possible. (https://www.mltaikins.com/covid-19/new-public-health-measures-for-alberta-as-covid-19-cases-rise/)</t>
+  </si>
+  <si>
+    <t>10/04/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> unvaccinated  people will no longer be able to gather in groups indoors. However, vaccinated people can have an indoor gathering with up to 10 people. Outdoor gatherings, those restrictions have been dropped from 200 guests to 20. (https://www.660citynews.com/2021/10/05/new-gathering-restrictions-in-place-663-new-covid-19-cases/)</t>
+  </si>
+  <si>
+    <t>10/08/2021</t>
+  </si>
+  <si>
+    <t>Indoor private gatherings - Households are limited to guests from one other household for indoor private gatherings when an unvaccinated person, who is eligible to be vaccinated, is on the property. This rule applies even if the unvaccinated person lives at the property;
+ Outdoor private gatherings – Households are limited to 10 guests for outdoor private gatherings when an unvaccinated person, who is eligible to be vaccinated, is on the property. This rule still applies if the unvaccinated person lives at the property;
+ Indoor public gatherings – Manitoba is limiting indoor public gatherings to 25 people or 25 per cent capacity, whichever is lower, for any gatherings that include unvaccinated people who are eligible for vaccination. This applies to weddings and funerals;
+ Faith-based gatherings – Indoor group sizes for faith-based gatherings are limited to 25 people or 33 per cent capacity, whichever is greater, for any gathering that includes unvaccinated people who are eligible to be vaccinated;
+ Retail capacity- In the Southern Health Region, retail capacity is limited to 50 per cent;
+ Outdoor public gatherings – Group sizes for outdoor public gatherings are limited to 50 people. This applies to all gatherings (https://winnipeg.ctvnews.ca/the-public-health-restrictions-manitobans-need-to-follow-at-thanksgiving-gatherings-1.5616828)</t>
+  </si>
+  <si>
+    <t>Only fully immunized individuals will be able to participate in or attend at the following events/activities/establishments: restaurants (indoor and patio dining);
+nightclubs and all other licensed premises; fitness centres, gyms and indoor sporting and recreational facilities (excluding youth recreational sport); indoor and outdoor; ticketed sporting events and concerts; indoor theatre/dance/symphony events; casinos, bingo halls and VLT lounges; movie theatres; and
+organized indoor group recreational classes and activities, and indoor recreational businesses. Children born after December 31, 2009 who are not eligible to be immunized will be able to attend events and activities with a fully immunized adult. (https://www.mltaikins.com/covid-19/mb-health-regions-caution-yellow-level/) (https://news.gov.mb.ca/news/index.html?item=52402)</t>
+  </si>
+  <si>
+    <t>The following venues can now run at full capacity:
+Concert venues, theatres and cinemas
+ Spectator areas of facilities for sports and recreational fitness (not including gyms and personal training)
+ Meeting and event spaces (indoor meeting and event spaces will still need to limit capacity to the number that can maintain physical distancing)
+ Horseracing tracks, car racing tracks, and other similar venues; and
+ Commercial film and television productions with studio audiences.
+ Certain outdoor settings that have a capacity below 20,000
+*Proof of vaccination is required at the venues where 100 per cent capacity is allowed.
+Other public health measures, such as masking and physical distancing, will remain in place. (https://toronto.ctvnews.ca/ontario-lifts-covid-19-capacity-restrictions-for-venues-used-for-concerts-sports-and-movie-theatres-1.5616962)</t>
+  </si>
+  <si>
+    <t>10/01/2021</t>
+  </si>
+  <si>
+    <t>proof of COVID-19 vaccination or a negative test result will be required in Saskatchewan for public access to a range of businesses, event venues, as well as for all Government of Saskatchewan ministry, crown and agency employees. (https://www.saskatchewan.ca/government/news-and-media/2021/september/28/proof-of-vaccination-or-negative-tests--required-broadly-october-1-2021)</t>
+  </si>
+  <si>
+    <t>09/17/2021</t>
+  </si>
+  <si>
+    <t>mandatory masking being implemented for all indoor public spaces (https://www.saskatchewan.ca/government/news-and-media/2021/september/16/province-implements-interim-mandatory-masking-effective-september-17-proof-of-vaccination-requiremen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Covid vaccination passport rule is in effect. The passport will allow those aged 13 and up to gain admittance to certain locations and non-essential activities where the risk of transmission is high. (https://www.stikeman.com/en-ca/kh/corporations-commercial-law/quebec-loosens-restrictions-as-covid-19-situation-improves)</t>
+  </si>
+  <si>
+    <t>Facilities with assigned seating will be able to operate at full capacity. The new rules apply to cinemas, theatres, conferences and graduation ceremonies. Masks are still mandatory (https://globalnews.ca/news/8233499/quebec-covid-restrictions-sports/)</t>
+  </si>
+  <si>
+    <t>09/28/2021</t>
+  </si>
+  <si>
+    <t>private gatherings will be limited to five additional people or one additional household and to 10 people outdoors, unless everyone is vaccinated.
+Organized events like weddings or conferences will be limited to 10 people, or 50 people outside, unless everyone is fully vaccinated, which can be verified on the province's vaccine passport. (https://www.castanet.net/news/BC/347053/New-local-health-orders-announced-for-B-C-s-Fraser-Valley)</t>
+  </si>
+  <si>
+    <t>proof of vaccination will be required in New Brunswick for people attending certain social and recreational settings and events.
+Settings that require proof of vaccination:
+Indoor festivals, performing arts and sporting events;
+Indoor and outdoor dining and drinking at restaurants, pubs and bars (including seated dining at Quick Service Restaurants);
+Movie theatres, nightclubs, amusement centres, pool halls, bowling alleys and casinos;
+Gyms, indoor pools and indoor recreation facilities;
+Indoor group exercise facilities;
+Indoor organized gatherings including weddings, funerals, parties (excluding parties in a private dwelling), conferences and workshops;
+Indoor organized group recreational sports, classes and activities; and
+Visiting a long-term care facility. (https://www.retailcouncil.org/coronavirus-info-for-retailers/vaccination-requirements-by-province/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> proof of vaccination required in non-essential settings (https://www.retailcouncil.org/coronavirus-info-for-retailers/vaccination-requirements-by-province/)</t>
+  </si>
+  <si>
+    <t>10/22/2021</t>
+  </si>
+  <si>
+    <t>aged 12 and up will have to provide proof of vaccination before they can enter places such as bars, restaurants, gyms and nursing homes (https://www.cp24.com/news/vaccine-passports-mandatory-by-oct-22-in-newfoundland-and-labrador-1.5615171)</t>
+  </si>
+  <si>
+    <r>
+      <t>In Behchoko community the following orders implemented:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*Essential businesses and facilities may remain open to the public with no more than ten (10) persons permitted in an indoor location at any one time
+*Non-essential businesses and facilities must close to the public
+*Schools shall be closed to in-person learning
+*All persons shall wear masks in any public indoor spaces (https://www.gov.nt.ca/covid-19/sites/covid/files/resources/behchoko_temporary_restrictions_order_amended_oct_4.pdf)</t>
+    </r>
+  </si>
+  <si>
+    <t>In Yellowknife community following orders are being implemented:
+Persons may gather in an outdoor location, provided no more than 25 persons are present in their group, and:
+i. a physical distance of at least 2 metres from any person who is not a member of their group is maintained by each person
+Businesses, organizations, restaurants and bars may permit persons to gather at their outdoor locations, provided the businesses, organizations, restaurants and bars: (a) permit no more than 25 persons to be present at their outdoor location; (b) ensure a physical distance of at least 2 metres from any person who is not a member of their group can be maintained by each person
+Persons are prohibited from gathering in a dwelling place with persons who do not reside with them inside their dwelling place
+Junior Kindergarten to Grade 12 schools, colleges, and trade schools shall close to in-person learning (https://www.gov.nt.ca/covid-19/sites/covid/files/resources/gatherings_order_-_yk_ndilo_dettah_amended_oct_8.pdf)</t>
+  </si>
+  <si>
+    <t>09/21/2021</t>
+  </si>
+  <si>
+    <t>Mandatory masking resumes (https://www.ctvnews.ca/health/coronavirus/masks-mandatory-across-nunavut-new-covid-19-cases-confirmed-in-two-communities-1.5594579)</t>
+  </si>
+  <si>
+    <t>10/05/2021</t>
+  </si>
+  <si>
+    <t>*people must limit their contacts to a single household. It means that indoor and outdoor gatherings are not permitted beyond a single household, except in public places where proof of vaccination is required
+*Schools will stay open, but sports and extracurricular activities will be paused for 12 and under.
+*Businesses, entertainment centres and events can remain open and continue to accept those who provide proof of vaccination as well as children under 12 who are accompanied by a vaccinated adult. (https://atlantic.ctvnews.ca/new-brunswick-implements-circuit-breaker-measures-heading-into-thanksgiving-weekend-1.5612019)</t>
+  </si>
+  <si>
+    <t>Mandatory masking policy reinstated (https://atlantic.ctvnews.ca/new-brunswick-to-reinstate-mandatory-mask-policy-reports-199-new-cases-over-the-weekend-1.5586043)</t>
+  </si>
+  <si>
+    <t>NS enters phase 5 of reopning:
+*No gathering limits for events hosted by a business or organization (like arts and culture events, festivals, special events, sports, performing arts, weddings, funerals and faith gatherings).
+*Informal social gatherings not hosted by a business or organization - up to 25 people indoors and up to 50 people outdoors without social distancing and masks.
+*Mask requirements for indoor public places and public transportation remain in place.
+*proof of full vaccination will be required for Nova Scotians who are 12 or older to participate in discretionary, recreational or non-essential activities.
+Settings that require proof of vaccination:
+Dining at restaurants, pubs and bars
+Gyms, pools and recreation facilities
+Movie theatres, concerts, and sporting events
+Other recreational or non-essential activities may be added as further details are released (https://www.retailcouncil.org/coronavirus-info-for-retailers/vaccination-requirements-by-province/)</t>
+  </si>
+  <si>
+    <t>09/15/2021</t>
+  </si>
+  <si>
+    <t>*mandatory masking is reinstated. he mask mandate will target retail businesses, salons, taxis and public transit, places of worship as well as workplaces open to the public.
+*personal gatherings will also be now restricted to 20 people, down from 50.</t>
   </si>
 </sst>
 </file>
@@ -10027,7 +10210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10269,6 +10452,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -10290,9 +10488,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10611,11 +10806,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10934,8 +11129,32 @@
         <v>962</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C39" s="102" t="s">
+    <row r="39" spans="1:3" s="104" customFormat="1" ht="289" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B39" s="88" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="104" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B40" s="88" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B41" s="88" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="C42" s="102" t="s">
         <v>618</v>
       </c>
     </row>
@@ -10952,7 +11171,7 @@
   <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11281,16 +11500,16 @@
       </c>
     </row>
     <row r="40" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="106" t="s">
+      <c r="A40" s="113" t="s">
         <v>815</v>
       </c>
-      <c r="B40" s="108" t="s">
+      <c r="B40" s="115" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="107"/>
-      <c r="B41" s="108"/>
+      <c r="A41" s="114"/>
+      <c r="B41" s="115"/>
     </row>
     <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="70" t="s">
@@ -11301,28 +11520,28 @@
       </c>
     </row>
     <row r="43" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="106" t="s">
+      <c r="A43" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="108" t="s">
+      <c r="B43" s="115" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="71" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="107"/>
-      <c r="B44" s="108"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="115"/>
     </row>
     <row r="45" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="104" t="s">
+      <c r="A45" s="111" t="s">
         <v>449</v>
       </c>
-      <c r="B45" s="108" t="s">
+      <c r="B45" s="115" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="71" customFormat="1" ht="284" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="109"/>
-      <c r="B46" s="108"/>
+      <c r="A46" s="116"/>
+      <c r="B46" s="115"/>
     </row>
     <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="70" t="s">
@@ -11349,28 +11568,28 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="71" customFormat="1" ht="212" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="106" t="s">
+      <c r="A50" s="113" t="s">
         <v>826</v>
       </c>
-      <c r="B50" s="108" t="s">
+      <c r="B50" s="115" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="107"/>
-      <c r="B51" s="108"/>
+      <c r="A51" s="114"/>
+      <c r="B51" s="115"/>
     </row>
     <row r="52" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="106" t="s">
+      <c r="A52" s="113" t="s">
         <v>827</v>
       </c>
-      <c r="B52" s="108" t="s">
+      <c r="B52" s="115" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="71" customFormat="1" ht="242" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="107"/>
-      <c r="B53" s="108"/>
+      <c r="A53" s="114"/>
+      <c r="B53" s="115"/>
     </row>
     <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="70" t="s">
@@ -11401,7 +11620,15 @@
         <v>961</v>
       </c>
       <c r="B57" s="102" t="s">
-        <v>988</v>
+        <v>987</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>998</v>
+      </c>
+      <c r="B58" s="106" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -11429,10 +11656,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11737,7 +11964,31 @@
         <v>961</v>
       </c>
       <c r="B33" s="102" t="s">
-        <v>991</v>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="108" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B34" s="109" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="204" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B35" s="106" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B36" s="109" t="s">
+        <v>1021</v>
       </c>
     </row>
   </sheetData>
@@ -11750,10 +12001,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11991,10 +12242,18 @@
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B29" s="102" t="s">
-        <v>989</v>
+        <v>988</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B30" s="106" t="s">
+        <v>1015</v>
       </c>
     </row>
   </sheetData>
@@ -12007,7 +12266,7 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
@@ -12172,7 +12431,23 @@
         <v>961</v>
       </c>
       <c r="B19" s="102" t="s">
-        <v>992</v>
+        <v>991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="108" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B20" s="109" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="105" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="105" t="s">
+        <v>998</v>
+      </c>
+      <c r="B21" s="106" t="s">
+        <v>1013</v>
       </c>
     </row>
   </sheetData>
@@ -12316,24 +12591,24 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="117" t="s">
         <v>256</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="115" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="64" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="111"/>
-      <c r="B15" s="108"/>
+      <c r="A15" s="118"/>
+      <c r="B15" s="115"/>
     </row>
     <row r="16" spans="1:15" s="64" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="111"/>
-      <c r="B16" s="108"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="115"/>
     </row>
     <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="111"/>
-      <c r="B17" s="108"/>
+      <c r="A17" s="118"/>
+      <c r="B17" s="115"/>
     </row>
     <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="69" t="s">
@@ -12828,11 +13103,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13063,7 +13338,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" s="16" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="16" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
         <v>152</v>
       </c>
@@ -13229,7 +13504,7 @@
         <v>965</v>
       </c>
       <c r="B43" s="102" t="s">
-        <v>966</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -13237,10 +13512,18 @@
         <v>961</v>
       </c>
       <c r="B44" s="102" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>602</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B45" s="106" t="s">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -13253,11 +13536,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13643,19 +13926,32 @@
         <v>961</v>
       </c>
       <c r="B45" s="102" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
+        <v>967</v>
+      </c>
+      <c r="B46" s="90" t="s">
         <v>968</v>
       </c>
-      <c r="B46" s="90" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="46"/>
+    </row>
+    <row r="47" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B48" s="106" t="s">
+        <v>1003</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C40" xr:uid="{BA46D44F-FD23-0941-AE5A-CEACA9AB11EC}"/>
@@ -13668,11 +13964,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13953,24 +14249,42 @@
     </row>
     <row r="34" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>973</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>974</v>
       </c>
       <c r="C34" s="102"/>
     </row>
     <row r="35" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>972</v>
-      </c>
       <c r="C35" s="102"/>
     </row>
-    <row r="36" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="C36" s="90" t="s">
+    <row r="36" spans="1:3" s="105" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C36" s="106"/>
+    </row>
+    <row r="37" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C37" s="106"/>
+    </row>
+    <row r="38" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="C38" s="90" t="s">
         <v>227</v>
       </c>
     </row>
@@ -13984,11 +14298,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B108" sqref="B108"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14891,14 +15205,30 @@
     </row>
     <row r="106" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="B106" s="102" t="s">
         <v>977</v>
       </c>
-      <c r="B106" s="102" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C107" s="34" t="s">
+    </row>
+    <row r="107" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="B107" s="106" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" s="105" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B108" s="106" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="C109" s="34" t="s">
         <v>484</v>
       </c>
     </row>
@@ -14919,8 +15249,8 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15175,10 +15505,10 @@
     </row>
     <row r="31" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B31" s="102" t="s">
         <v>975</v>
-      </c>
-      <c r="B31" s="102" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -15186,15 +15516,23 @@
         <v>961</v>
       </c>
       <c r="B32" s="102" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="255" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B33" s="102" t="s">
         <v>979</v>
       </c>
-      <c r="B33" s="102" t="s">
-        <v>980</v>
+    </row>
+    <row r="34" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B34" s="106" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -15217,10 +15555,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:B51"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15505,20 +15843,20 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="104" t="s">
+      <c r="A34" s="111" t="s">
         <v>270</v>
       </c>
-      <c r="B34" s="103" t="s">
+      <c r="B34" s="110" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="206" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="104"/>
-      <c r="B35" s="103"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="110"/>
     </row>
     <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="105"/>
-      <c r="B36" s="103"/>
+      <c r="A36" s="112"/>
+      <c r="B36" s="110"/>
     </row>
     <row r="37" spans="1:3" s="43" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -15635,31 +15973,39 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="86" customFormat="1" ht="229" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="106" t="s">
+      <c r="A50" s="113" t="s">
         <v>905</v>
       </c>
-      <c r="B50" s="103" t="s">
+      <c r="B50" s="110" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="86" customFormat="1" ht="181" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="107"/>
-      <c r="B51" s="103"/>
+      <c r="A51" s="114"/>
+      <c r="B51" s="110"/>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="112" t="s">
+      <c r="A52" s="103" t="s">
         <v>944</v>
       </c>
       <c r="B52" s="100" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="103" t="s">
+        <v>961</v>
+      </c>
+      <c r="B53" s="100" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="112" t="s">
-        <v>961</v>
-      </c>
-      <c r="B53" s="100" t="s">
-        <v>983</v>
+    <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="103" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B54" s="107" t="s">
+        <v>1019</v>
       </c>
     </row>
   </sheetData>
@@ -15678,11 +16024,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16188,10 +16534,26 @@
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B58" s="102" t="s">
         <v>984</v>
       </c>
-      <c r="B58" s="102" t="s">
-        <v>985</v>
+    </row>
+    <row r="59" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B59" s="109" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B60" s="109" t="s">
+        <v>1017</v>
       </c>
     </row>
   </sheetData>
@@ -16429,10 +16791,10 @@
     </row>
     <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B27" s="102" t="s">
         <v>986</v>
-      </c>
-      <c r="B27" s="102" t="s">
-        <v>987</v>
       </c>
     </row>
   </sheetData>

--- a/Mitigation implementations timelines.xlsx
+++ b/Mitigation implementations timelines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/COVID 19 (Research)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7854C44-CD83-E445-8135-A96BE89BA5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A565A405-19A3-5948-BAF9-A8320B2D1616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="680" windowWidth="25340" windowHeight="15200" firstSheet="4" activeTab="12" xr2:uid="{46EB9E8F-497B-284D-B7FE-2815816E0953}"/>
+    <workbookView xWindow="820" yWindow="680" windowWidth="25340" windowHeight="15200" activeTab="8" xr2:uid="{46EB9E8F-497B-284D-B7FE-2815816E0953}"/>
   </bookViews>
   <sheets>
     <sheet name="Alberta" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="1042">
   <si>
     <t>03/30/2020</t>
   </si>
@@ -9726,12 +9726,6 @@
     <t>09/03/2021</t>
   </si>
   <si>
-    <t>*Outdoor gatherings limit has been reduced from 1500 to 500. The limit includes summer fairs and festivals though they may be allowed to operate above that limit, subject to protocols approved by public health;
-*Museums and galleries can open, but they will be required to ask for proof of vaccination from visitors to access indoor areas; and
-requiring food courts to comply with the same rules as restaurants for dine-in patrons and, if food courts choose to open for options other than take-out, patrons will be required to provide proof of vaccination (https://www.mltaikins.com/covid-19/mb-health-regions-caution-yellow-level/)
-*Students going back to school. Masks and distancing recommnded but not required (https://news.gov.mb.ca/news/index.html?item=52021)</t>
-  </si>
-  <si>
     <t>09/22/2021</t>
   </si>
   <si>
@@ -9896,9 +9890,6 @@
     <t>09/17/2021</t>
   </si>
   <si>
-    <t>mandatory masking being implemented for all indoor public spaces (https://www.saskatchewan.ca/government/news-and-media/2021/september/16/province-implements-interim-mandatory-masking-effective-september-17-proof-of-vaccination-requiremen)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Covid vaccination passport rule is in effect. The passport will allow those aged 13 and up to gain admittance to certain locations and non-essential activities where the risk of transmission is high. (https://www.stikeman.com/en-ca/kh/corporations-commercial-law/quebec-loosens-restrictions-as-covid-19-situation-improves)</t>
   </si>
   <si>
@@ -9988,30 +9979,113 @@
     <t>Mandatory masking policy reinstated (https://atlantic.ctvnews.ca/new-brunswick-to-reinstate-mandatory-mask-policy-reports-199-new-cases-over-the-weekend-1.5586043)</t>
   </si>
   <si>
+    <t>09/15/2021</t>
+  </si>
+  <si>
+    <t>*mandatory masking is reinstated. he mask mandate will target retail businesses, salons, taxis and public transit, places of worship as well as workplaces open to the public.
+*personal gatherings will also be now restricted to 20 people, down from 50.</t>
+  </si>
+  <si>
+    <t>10/25/2021</t>
+  </si>
+  <si>
+    <t>Albertans will need to provide proof of two COVID-19 vaccine doses to be allowed into many restaurants, movies, sporting events and other businesses. (https://globalnews.ca/news/8290710/alberta-covid-19-vaccine-passport-october-22-2021/)</t>
+  </si>
+  <si>
+    <t>10/19/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New restrictions imposed on Winnipeg Metropolitan Region
+Reducing gathering sizes to five people for both indoor and outdoor public and private gatherings. This excludes household members for private gatherings inside a home;
+ Closing beverage rooms, bars, live entertainment facilities, casinos and bingo halls;
+ Limiting capacity at restaurants and lounges to 50 per cent. Tables can be no more than five people with two-metre distancing;
+ Limiting retail businesses to 50 per cent capacity. Food courts and common areas must adhere to the five-person group size limit;
+ Reducing the number of spectators at sporting activities and after-school events to 25 per cent of a site’s capacity;
+ Reducing capacity at museums, galleries and libraries to 50 per cent. These facilities must also collect all attendees’ contact information; and
+ Gyms and fitness centres must collect all attendees contact information. Everyone at a gym or fitness centre must wear a mask, unless they are doing physical activity. (https://winnipeg.ctvnews.ca/new-winnipeg-restrictions-take-effect-today-1.5150717)</t>
+  </si>
+  <si>
+    <t>*Outdoor gatherings limit has been reduced from 1500 to 500. The limit includes summer fairs and festivals though they may be allowed to operate above that limit, subject to protocols approved by public health;
+*Museums and galleries can open, but they will be required to ask for proof of vaccination from visitors to access indoor areas; and
+requiring food courts to comply with the same rules as restaurants for dine-in patrons and, if food courts choose to open for options other than take-out, patrons will be required to provide proof of vaccination (https://www.mltaikins.com/covid-19/mb-health-regions-caution-yellow-level/)
+*Students going back to school. Masks and distancing recommnded but not required (https://news.gov.mb.ca/news/index.html?item=52021)
+*WINNIPEG -  Winnipeg’s largest school division will make masks mandatory for students, staff and school visitors this fall. (https://winnipeg.ctvnews.ca/masks-will-be-mandatory-this-fall-in-the-winnipeg-school-division-1.5554888)</t>
+  </si>
+  <si>
+    <t>Ontario is lifting capacity limits today at restaurants, gyms, casinos and some other locations where proof of vaccination against COVID-19 is required. In Ontario, if museums and galleries, places of worship, and personal care settings choose to require proof of vaccination, they can also lift capacity limits as of today. (https://www.cbc.ca/news/canada/toronto/ontario-covid-october-25-2021-1.6223733)</t>
+  </si>
+  <si>
+    <t>mandatory masking being implemented for all indoor public spaces (https://www.saskatchewan.ca/government/news-and-media/2021/september/16/province-implements-interim-mandatory-masking-effective-september-17-proof-of-vaccination-requiremen)
+*public health order now in effect requires the use of non-medical masks for students and staff in schools across the province. (https://www.cbc.ca/news/canada/saskatchewan/school-required-masking-self-isolation-vaccination-1.6179900)</t>
+  </si>
+  <si>
+    <t>11/01/2021</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Quebec is lifting capacity restrictions in bars and restaurants. But there are still some rules in place -- each table is limited to 10 people from no more than three different households. The ban on dancing and singing remains in effect until further notice, and Quebecers are still required to present their vaccine passport before entering and wear masks when moving around indoors.  (https://www.vancouverisawesome.com/coronavirus-covid-19-national-news/quebec-bars-and-restaurants-can-operate-at-full-capacity-starting-today-4708918)</t>
+    </r>
+  </si>
+  <si>
+    <t>10/14/2021</t>
+  </si>
+  <si>
+    <t>New restrictions for Northern BC:
+Personal gatherings, both indoor and outdoor, restricted to fully vaccinated people only. If unvaccinated or have unvaccinated people in your households, then you need to stay with your household only.
+Indoor gatherings will remain restricted to five people, and outdoor gatherings to 25, provided everyone is fully vaccinated. Organized events will be limited to 50 if indoors and 100 people if outdoors.
+Bars and nightclubs will be closed completely, Henry said. Restaurants that offer full meal services may serve alcohol, but they will have to stop doing so at 10 p.m. (https://bc.ctvnews.ca/new-circuit-breaker-restrictions-announced-for-northern-b-c-as-covid-19-surge-continues-1.5623312)</t>
+  </si>
+  <si>
+    <t>10/29/2021</t>
+  </si>
+  <si>
+    <t>*Outdoor gatherings limited to 25 persons in the group. In the case of persons playing outdoor sports, players adhere to COVID-19 guidelines from their national and provincial sports organizations, where applicable, and maintain a physical distance of at least 2 metres from other players when possible.
+*Businesses, organizations, restaurants and bars may permit persons to gather at their outdoor locations, provided the businesses, organizations, restaurants and bars: (a) permit no more than 25 persons to be present at their outdoor location;
+*outdoor religious or non-religious funerals or celebrations of life may proceed only in accordance with an approval or exemption from the Chief Public Health Officer.
+*persons are prohibited from gathering in a number in excess of 10 persons in an indoor location that is not a dwelling place. Businesses, organizations, restaurants and bars are prohibited from allowing persons to gather in their indoor location unless there are 10 people per floor
+*Extracurricular activities for children under 12 years of age are not permitted in indoor locations unless in accordance with an approval or exemption from the Chief Public Health Officer. This includes after-school childcare programs, both in- school and offsite.
+*Junior Kindergarten to Grade 12 schools, colleges, and trade schools shall close to in-person learning. Daycares may remain open (https://www.gov.nt.ca/covid-19/sites/covid/files/resources/public_health_order_-_covid-19_gatherings_order_-_hay_river.pdf)</t>
+  </si>
+  <si>
+    <t>all JK-12 schools, colleges and trade schools in Yellowknife, Dettah and N'Dilo closed until at least Sept. 24  (https://www.cbc.ca/news/canada/north/yellowknife-schools-closed-covid-update-1.6174485)</t>
+  </si>
+  <si>
+    <t>Schools are closed in Arviat (https://www.therecord.com/ts/news/canada/2021/09/17/schools-closed-in-arviat-nunavut-after-presumptive-case-of-covid-19-in-student.html)</t>
+  </si>
+  <si>
     <t>NS enters phase 5 of reopning:
 *No gathering limits for events hosted by a business or organization (like arts and culture events, festivals, special events, sports, performing arts, weddings, funerals and faith gatherings).
 *Informal social gatherings not hosted by a business or organization - up to 25 people indoors and up to 50 people outdoors without social distancing and masks.
 *Mask requirements for indoor public places and public transportation remain in place.
-*proof of full vaccination will be required for Nova Scotians who are 12 or older to participate in discretionary, recreational or non-essential activities.
+(https://www.retailcouncil.org/coronavirus-info-for-retailers/vaccination-requirements-by-province/)</t>
+  </si>
+  <si>
+    <t>*proof of full vaccination will be required for Nova Scotians who are 12 or older to participate in discretionary, recreational or non-essential activities.
 Settings that require proof of vaccination:
 Dining at restaurants, pubs and bars
 Gyms, pools and recreation facilities
 Movie theatres, concerts, and sporting events
-Other recreational or non-essential activities may be added as further details are released (https://www.retailcouncil.org/coronavirus-info-for-retailers/vaccination-requirements-by-province/)</t>
-  </si>
-  <si>
-    <t>09/15/2021</t>
-  </si>
-  <si>
-    <t>*mandatory masking is reinstated. he mask mandate will target retail businesses, salons, taxis and public transit, places of worship as well as workplaces open to the public.
-*personal gatherings will also be now restricted to 20 people, down from 50.</t>
+Other recreational or non-essential activities may be added as further details are released (https://novascotia.ca/news/release/?id=20210908004)</t>
+  </si>
+  <si>
+    <t>10/07/2021</t>
+  </si>
+  <si>
+    <t>certified record of proof of vaccination that will allow access to a business or venue for non-essential and recreational activities. (https://www.gov.nl.ca/releases/2021/exec/1007n01/)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -10182,6 +10256,11 @@
       <color theme="5" tint="-0.499984740745262"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -10210,7 +10289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10467,6 +10546,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -10488,6 +10578,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10806,11 +10899,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11131,30 +11224,38 @@
     </row>
     <row r="39" spans="1:3" s="104" customFormat="1" ht="289" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B39" s="88" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="104" customFormat="1" ht="306" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B40" s="88" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B41" s="88" t="s">
         <v>998</v>
       </c>
-      <c r="B41" s="88" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C42" s="102" t="s">
+    </row>
+    <row r="42" spans="1:3" s="110" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B42" s="88" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="C43" s="102" t="s">
         <v>618</v>
       </c>
     </row>
@@ -11171,7 +11272,7 @@
   <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11500,16 +11601,16 @@
       </c>
     </row>
     <row r="40" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="113" t="s">
+      <c r="A40" s="118" t="s">
         <v>815</v>
       </c>
-      <c r="B40" s="115" t="s">
+      <c r="B40" s="120" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="114"/>
-      <c r="B41" s="115"/>
+      <c r="A41" s="119"/>
+      <c r="B41" s="120"/>
     </row>
     <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="70" t="s">
@@ -11520,28 +11621,28 @@
       </c>
     </row>
     <row r="43" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="113" t="s">
+      <c r="A43" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="115" t="s">
+      <c r="B43" s="120" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="71" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="114"/>
-      <c r="B44" s="115"/>
+      <c r="A44" s="119"/>
+      <c r="B44" s="120"/>
     </row>
     <row r="45" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="111" t="s">
+      <c r="A45" s="116" t="s">
         <v>449</v>
       </c>
-      <c r="B45" s="115" t="s">
+      <c r="B45" s="120" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="71" customFormat="1" ht="284" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="116"/>
-      <c r="B46" s="115"/>
+      <c r="A46" s="121"/>
+      <c r="B46" s="120"/>
     </row>
     <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="70" t="s">
@@ -11568,28 +11669,28 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="71" customFormat="1" ht="212" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="113" t="s">
+      <c r="A50" s="118" t="s">
         <v>826</v>
       </c>
-      <c r="B50" s="115" t="s">
+      <c r="B50" s="120" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="114"/>
-      <c r="B51" s="115"/>
+      <c r="A51" s="119"/>
+      <c r="B51" s="120"/>
     </row>
     <row r="52" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="113" t="s">
+      <c r="A52" s="118" t="s">
         <v>827</v>
       </c>
-      <c r="B52" s="115" t="s">
+      <c r="B52" s="120" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="71" customFormat="1" ht="242" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="114"/>
-      <c r="B53" s="115"/>
+      <c r="A53" s="119"/>
+      <c r="B53" s="120"/>
     </row>
     <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="70" t="s">
@@ -11620,19 +11721,24 @@
         <v>961</v>
       </c>
       <c r="B57" s="102" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="170" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>998</v>
-      </c>
-      <c r="B58" s="106" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="92"/>
+        <v>986</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="113" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B58" s="114" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B59" s="92" t="s">
+        <v>1039</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -11659,7 +11765,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11964,31 +12070,31 @@
         <v>961</v>
       </c>
       <c r="B33" s="102" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="108" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B34" s="109" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B35" s="106" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B36" s="109" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
   </sheetData>
@@ -12001,10 +12107,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12242,18 +12348,26 @@
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B29" s="102" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B30" s="106" t="s">
-        <v>1015</v>
+        <v>987</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="113" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="113" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B30" s="114" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B31" s="106" t="s">
+        <v>1013</v>
       </c>
     </row>
   </sheetData>
@@ -12268,8 +12382,8 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12431,23 +12545,23 @@
         <v>961</v>
       </c>
       <c r="B19" s="102" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="108" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B20" s="109" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="105" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="105" t="s">
-        <v>998</v>
+      <c r="A21" s="1" t="s">
+        <v>997</v>
       </c>
       <c r="B21" s="106" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
   </sheetData>
@@ -12591,24 +12705,24 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="122" t="s">
         <v>256</v>
       </c>
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="120" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="64" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="118"/>
-      <c r="B15" s="115"/>
+      <c r="A15" s="123"/>
+      <c r="B15" s="120"/>
     </row>
     <row r="16" spans="1:15" s="64" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="118"/>
-      <c r="B16" s="115"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="120"/>
     </row>
     <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="118"/>
-      <c r="B17" s="115"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="120"/>
     </row>
     <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="69" t="s">
@@ -13103,11 +13217,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13338,7 +13452,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" s="16" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="16" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
         <v>152</v>
       </c>
@@ -13504,15 +13618,15 @@
         <v>965</v>
       </c>
       <c r="B43" s="102" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>961</v>
       </c>
       <c r="B44" s="102" t="s">
-        <v>966</v>
+        <v>1027</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>602</v>
@@ -13520,10 +13634,18 @@
     </row>
     <row r="45" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B45" s="106" t="s">
         <v>1000</v>
       </c>
-      <c r="B45" s="106" t="s">
-        <v>1001</v>
+    </row>
+    <row r="46" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B46" s="111" t="s">
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
@@ -13536,11 +13658,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13926,31 +14048,39 @@
         <v>961</v>
       </c>
       <c r="B45" s="102" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="B46" s="90" t="s">
         <v>967</v>
-      </c>
-      <c r="B46" s="90" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B48" s="106" t="s">
-        <v>1003</v>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B49" s="111" t="s">
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
@@ -13968,7 +14098,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14249,37 +14379,37 @@
     </row>
     <row r="34" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>972</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>973</v>
       </c>
       <c r="C34" s="102"/>
     </row>
     <row r="35" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>970</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>971</v>
-      </c>
       <c r="C35" s="102"/>
     </row>
-    <row r="36" spans="1:3" s="105" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="105" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1007</v>
+        <v>1029</v>
       </c>
       <c r="C36" s="106"/>
     </row>
     <row r="37" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>1004</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>1005</v>
       </c>
       <c r="C37" s="106"/>
     </row>
@@ -14298,7 +14428,7 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
@@ -15205,30 +15335,38 @@
     </row>
     <row r="106" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="B106" s="102" t="s">
         <v>976</v>
-      </c>
-      <c r="B106" s="102" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="107" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B107" s="106" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="108" spans="1:3" s="105" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B108" s="106" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="C109" s="34" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" s="113" customFormat="1" ht="88" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B109" s="124" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="C110" s="34" t="s">
         <v>484</v>
       </c>
     </row>
@@ -15249,8 +15387,8 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15505,10 +15643,10 @@
     </row>
     <row r="31" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B31" s="102" t="s">
         <v>974</v>
-      </c>
-      <c r="B31" s="102" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -15516,23 +15654,31 @@
         <v>961</v>
       </c>
       <c r="B32" s="102" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="255" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B33" s="102" t="s">
         <v>978</v>
-      </c>
-      <c r="B33" s="102" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B34" s="106" t="s">
-        <v>1011</v>
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B35" s="114" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -15555,10 +15701,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15843,20 +15989,20 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="111" t="s">
+      <c r="A34" s="116" t="s">
         <v>270</v>
       </c>
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="115" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="206" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="111"/>
-      <c r="B35" s="110"/>
+      <c r="A35" s="116"/>
+      <c r="B35" s="115"/>
     </row>
     <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="112"/>
-      <c r="B36" s="110"/>
+      <c r="A36" s="117"/>
+      <c r="B36" s="115"/>
     </row>
     <row r="37" spans="1:3" s="43" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -15973,23 +16119,23 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="86" customFormat="1" ht="229" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="113" t="s">
+      <c r="A50" s="118" t="s">
         <v>905</v>
       </c>
-      <c r="B50" s="110" t="s">
+      <c r="B50" s="115" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="86" customFormat="1" ht="181" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="114"/>
-      <c r="B51" s="110"/>
+      <c r="A51" s="119"/>
+      <c r="B51" s="115"/>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="103" t="s">
         <v>944</v>
       </c>
       <c r="B52" s="100" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -15997,16 +16143,27 @@
         <v>961</v>
       </c>
       <c r="B53" s="100" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="103" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B54" s="107" t="s">
-        <v>1019</v>
-      </c>
+        <v>1005</v>
+      </c>
+      <c r="B54" s="112" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="103" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B55" s="107" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -16024,11 +16181,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16534,26 +16691,42 @@
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B58" s="102" t="s">
         <v>983</v>
       </c>
-      <c r="B58" s="102" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:2" s="113" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B59" s="109" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+        <v>977</v>
+      </c>
+      <c r="B59" s="114" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B60" s="109" t="s">
-        <v>1017</v>
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B61" s="109" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="204" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B62" s="114" t="s">
+        <v>1035</v>
       </c>
     </row>
   </sheetData>
@@ -16568,7 +16741,7 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -16791,10 +16964,10 @@
     </row>
     <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B27" s="102" t="s">
         <v>985</v>
-      </c>
-      <c r="B27" s="102" t="s">
-        <v>986</v>
       </c>
     </row>
   </sheetData>

--- a/Mitigation implementations timelines.xlsx
+++ b/Mitigation implementations timelines.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/COVID 19 (Research)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\volunteers\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A565A405-19A3-5948-BAF9-A8320B2D1616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="680" windowWidth="25340" windowHeight="15200" activeTab="8" xr2:uid="{46EB9E8F-497B-284D-B7FE-2815816E0953}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Alberta" sheetId="4" r:id="rId1"/>
@@ -32,7 +31,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Ontario!$A$1:$C$40</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="1056">
   <si>
     <t>03/30/2020</t>
   </si>
@@ -10080,12 +10079,88 @@
   <si>
     <t>certified record of proof of vaccination that will allow access to a business or venue for non-essential and recreational activities. (https://www.gov.nl.ca/releases/2021/exec/1007n01/)</t>
   </si>
+  <si>
+    <t>11/13/2021</t>
+  </si>
+  <si>
+    <t>12/05/2021</t>
+  </si>
+  <si>
+    <t>Lmiting religious gatherings in the Southern Health Region to 25 people, unless the facility can divide the space into separate areas, in which case there can be several cohorts of 25 people. The total number of people at a service cannot exceed 25 per cent capacity of the facility up to a maximum of 250 people. This rule applies to services that do not require proof of vaccination. Religious services that are restricted to fully immunized individuals, including those under 12 who are ineligible for the vaccine, can still be held without capacity limits in Southern Health. (https://winnipeg.ctvnews.ca/manitoba-introduces-new-public-health-restrictions-to-reduce-covid-19-case-numbers-1.5663544)</t>
+  </si>
+  <si>
+    <t>Manitobans aged 12 to 17 will have to show proof of at least one vaccination or a recent negative test to take part in indoor recreational sports. (https://winnipeg.ctvnews.ca/manitoba-introduces-new-public-health-restrictions-to-reduce-covid-19-case-numbers-1.5663544)</t>
+  </si>
+  <si>
+    <t>11/15/2021</t>
+  </si>
+  <si>
+    <t>Karaoke is now allowed, as long as the person singing wears a face mask if they cannot uphold a two-metre distance between themselves and other people.
+Dancing is now also permitted, but people must wear masks.
+Restaurants will no longer be required to keep a customer log; however, seniors' homes must continue to keep a registry.
+Arranged seating and registrations are no longer mandatory for people attending public gathering.
+Weddings, funerals or other events and ceremonies are now limited to 250 people inside.
+A distance of one metre and the wearing of face masks are expected to be followed, but vaccine passports are not required by the government.
+There will be no more distancing or capacity limits for events that require a vaccine passport. Masks must still be worn indoors, except while eating and drinking.
+-High school students no longer need to wear masks in the classroom.
+-Elementary students must continue to wear masks as they are not yet eligible for vaccination against the disease.
+-The government is also ending its work from home recommendation, though it is still encouraging a hybrid model. (https://montreal.ctvnews.ca/covid-19-restrictions-continue-to-lift-in-quebec-despite-rise-in-cases-1.5666218)</t>
+  </si>
+  <si>
+    <t>11/19/2021</t>
+  </si>
+  <si>
+    <t>Outdoor gatherings increase to 100 people.
+Indoor gatherings in dwellings increase to 15 people, plus household members.
+Indoor public gatherings, including conference spaces and community halls increase to 50 people or 50 per cent capacity.
+Libraries, galleries remain at 25 people or 50 per cent capacity, but group tours of up to 10 people may resume.
+Gyms and fitness centres remain at 25 people or 50 per cent capacity, but group sessions of up to 10 people may resume
+Places of worship increase to 50 people or 50 per cent capacity, no singing.
+Arenas remain at 50 people or 50 per cent capacity and 50 spectators, team sports may resume.
+Restaurants and licensed establishments may open to 50 per cent capacity. Maximum 6 people per table.
+Group counselling sessions increase to 20 people.
+Long-term care and elders’ facilities may have two visitors per resident, masks mandatory. Immediate family only.
+Parks and playground buildings may open. (https://www.nunavutnews.com/news/gathering-limits-lifted-in-coral-harbour/)</t>
+  </si>
+  <si>
+    <t>Restrictions for the town of Hay River:
+Outdoor gatherings will be limited to 25 people.
+Indoor gatherings are limited to 10 people. This will not apply to essential businesses and facilities, provided they limit the number of in-person staff to those required to carry out operations. 
+All previous exemptions for persons, businesses, organizations, restaurants or bars will no longer apply. Further exemptions during this 14 -day order will only be provided in exceptional circumstances to further limit the spread within Hay River.
+Household gatherings will be limited to household members only
+Schools will remain closed until the expiry of the order.
+Day cares and day homes are exempt from this order if operating under currently approved plans that have been submitted to the CPHO. (https://www.hss.gov.nt.ca/en/newsroom/temporary-gathering-order-issued-town-hay-river)</t>
+  </si>
+  <si>
+    <t>11/08/2021</t>
+  </si>
+  <si>
+    <t>Mandatory masking in all indoor public settings and in outdoor public settings where physical distancing cannot be maintained.
+Limits on personal gatherings to 10 people from a maximum of two households if all eligible people are vaccinated; household members only if any eligible people are unvaccinated.
+Limits on organized gatherings, including conferences and weddings: indoor gatherings limited to 25 individuals with proof of vaccination required; outdoor gatherings limited to 50 individuals.
+Limits on seated ticketed events, including arts and sporting events: maximum 50 per cent of venue capacity with proof of vaccination required; seating limited to individual households with physical distancing between households.
+Limits on faith-based and cultural gatherings: maximum 50 per cent of venue capacity with proof of vaccination required; seating limited to individual households with physical distancing between households.
+Restrictions on restaurants, bars and nightclubs: proof of vaccination required for table service with a limit of six individuals per table; no counter service, no moving between tables and no dancing.
+Restrictions on gyms, fitness and yoga studios and classes: high intensity classes are suspended; proof of vaccination required for low intensity classes and organized sports.
+Restrictions on personal services: proof of vaccination required.
+Limits on other indoor public spaces: maximum 50 per cent of venue capacity.
+Individual workplaces may be required to temporarily close under direction of the Office of the Chief Medical Officer of Health. (https://yukon.ca/en/news/state-emergency-declared-response-increased-spread-covid-19-yukon)</t>
+  </si>
+  <si>
+    <t>11/02/2021</t>
+  </si>
+  <si>
+    <t>Personal gathering limits are raised to 50 up from 20, and cohorts are no longer required at Vax Pass events. (https://www.cbc.ca/news/canada/prince-edward-island/pei-covid-pandemic-briefing-november-2-1.6233754)</t>
+  </si>
+  <si>
+    <t>Personal gatherings is limited to 20 people (https://www.todocanada.ca/pei-reintroduces-indoor-masks-personal-gathering-limits-beginning-sept-17th/)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -10289,7 +10364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10557,6 +10632,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -10578,9 +10661,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10895,25 +10975,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB334F52-B583-3B48-BDBE-A3FA88A3067D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="112.1640625" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="112.125" customWidth="1"/>
+    <col min="3" max="3" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
@@ -10924,7 +11004,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="63">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -10932,7 +11012,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="31.5">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -10940,7 +11020,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A4" s="26" t="s">
         <v>64</v>
       </c>
@@ -10948,7 +11028,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="16" customFormat="1" ht="47.25">
       <c r="A5" s="26" t="s">
         <v>109</v>
       </c>
@@ -10956,7 +11036,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="141.75">
       <c r="A6" s="6" t="s">
         <v>62</v>
       </c>
@@ -10964,7 +11044,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="38.1" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
@@ -10972,7 +11052,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="31.5">
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
@@ -10980,7 +11060,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="47.25">
       <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
@@ -10988,7 +11068,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="31.5">
       <c r="A10" s="1" t="s">
         <v>76</v>
       </c>
@@ -10996,7 +11076,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="63">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -11004,7 +11084,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="238" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="220.5">
       <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
@@ -11012,7 +11092,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="31.5">
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
@@ -11020,7 +11100,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="47.25">
       <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
@@ -11028,7 +11108,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="16" customFormat="1" ht="265" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" s="16" customFormat="1" ht="264.95" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>14</v>
       </c>
@@ -11036,7 +11116,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="63">
       <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
@@ -11044,7 +11124,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="60.75">
       <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
@@ -11052,7 +11132,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" s="16" customFormat="1" ht="63">
       <c r="A18" s="36" t="s">
         <v>86</v>
       </c>
@@ -11060,7 +11140,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" s="16" customFormat="1" ht="47.25">
       <c r="A19" s="36" t="s">
         <v>192</v>
       </c>
@@ -11068,7 +11148,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="31.5">
       <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
@@ -11076,7 +11156,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="60.75">
       <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
@@ -11084,7 +11164,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="289" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="258">
       <c r="A22" s="6" t="s">
         <v>93</v>
       </c>
@@ -11092,7 +11172,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" s="16" customFormat="1" ht="45.75">
       <c r="A23" s="52" t="s">
         <v>94</v>
       </c>
@@ -11100,7 +11180,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="57.95" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -11108,7 +11188,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="157.5">
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
@@ -11116,7 +11196,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>95</v>
       </c>
@@ -11124,7 +11204,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" s="16" customFormat="1" ht="47.25">
       <c r="A27" s="36" t="s">
         <v>180</v>
       </c>
@@ -11132,7 +11212,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="110.25">
       <c r="A28" s="1" t="s">
         <v>103</v>
       </c>
@@ -11140,7 +11220,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="126">
       <c r="A29" s="1" t="s">
         <v>182</v>
       </c>
@@ -11148,7 +11228,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="126">
       <c r="A30" s="1" t="s">
         <v>186</v>
       </c>
@@ -11156,7 +11236,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" s="16" customFormat="1" ht="63">
       <c r="A31" s="36" t="s">
         <v>185</v>
       </c>
@@ -11164,7 +11244,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="31.5">
       <c r="A32" s="1" t="s">
         <v>128</v>
       </c>
@@ -11172,7 +11252,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="86" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" s="86" customFormat="1" ht="47.25">
       <c r="A33" s="1" t="s">
         <v>347</v>
       </c>
@@ -11180,7 +11260,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="157.5">
       <c r="A34" s="1" t="s">
         <v>616</v>
       </c>
@@ -11188,7 +11268,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="86" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="86" customFormat="1">
       <c r="A35" s="1" t="s">
         <v>893</v>
       </c>
@@ -11196,7 +11276,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="121.5">
       <c r="A36" s="1" t="s">
         <v>889</v>
       </c>
@@ -11205,7 +11285,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" s="101" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" s="101" customFormat="1" ht="63">
       <c r="A37" s="1" t="s">
         <v>959</v>
       </c>
@@ -11214,7 +11294,7 @@
       </c>
       <c r="C37" s="102"/>
     </row>
-    <row r="38" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="63">
       <c r="A38" s="1" t="s">
         <v>961</v>
       </c>
@@ -11222,7 +11302,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="104" customFormat="1" ht="289" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" s="104" customFormat="1" ht="267.75">
       <c r="A39" s="1" t="s">
         <v>994</v>
       </c>
@@ -11230,7 +11310,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="104" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="104" customFormat="1" ht="267.75">
       <c r="A40" s="1" t="s">
         <v>993</v>
       </c>
@@ -11238,7 +11318,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" s="105" customFormat="1" ht="47.25">
       <c r="A41" s="1" t="s">
         <v>997</v>
       </c>
@@ -11246,7 +11326,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="110" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="110" customFormat="1" ht="31.5">
       <c r="A42" s="1" t="s">
         <v>1023</v>
       </c>
@@ -11254,8 +11334,12 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C43" s="102" t="s">
+    <row r="43" spans="1:3" s="115" customFormat="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="88"/>
+    </row>
+    <row r="44" spans="1:3" ht="47.25">
+      <c r="C44" s="102" t="s">
         <v>618</v>
       </c>
     </row>
@@ -11265,23 +11349,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3215C315-9B02-734C-AFD2-7ADCCB58A75C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="180.5" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="71" customFormat="1">
       <c r="A1" s="70" t="s">
         <v>63</v>
       </c>
@@ -11292,7 +11376,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="71" customFormat="1">
       <c r="A2" s="70" t="s">
         <v>626</v>
       </c>
@@ -11301,7 +11385,7 @@
       </c>
       <c r="C2" s="70"/>
     </row>
-    <row r="3" spans="1:3" s="71" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="71" customFormat="1" ht="31.5">
       <c r="A3" s="70" t="s">
         <v>58</v>
       </c>
@@ -11310,7 +11394,7 @@
       </c>
       <c r="C3" s="70"/>
     </row>
-    <row r="4" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="71" customFormat="1">
       <c r="A4" s="70" t="s">
         <v>64</v>
       </c>
@@ -11319,7 +11403,7 @@
       </c>
       <c r="C4" s="70"/>
     </row>
-    <row r="5" spans="1:3" s="71" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="71" customFormat="1">
       <c r="A5" s="70" t="s">
         <v>109</v>
       </c>
@@ -11328,7 +11412,7 @@
       </c>
       <c r="C5" s="70"/>
     </row>
-    <row r="6" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="71" customFormat="1">
       <c r="A6" s="70" t="s">
         <v>62</v>
       </c>
@@ -11337,7 +11421,7 @@
       </c>
       <c r="C6" s="70"/>
     </row>
-    <row r="7" spans="1:3" s="71" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="71" customFormat="1" ht="63">
       <c r="A7" s="70" t="s">
         <v>114</v>
       </c>
@@ -11346,7 +11430,7 @@
       </c>
       <c r="C7" s="70"/>
     </row>
-    <row r="8" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="126">
       <c r="A8" s="1" t="s">
         <v>590</v>
       </c>
@@ -11354,7 +11438,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="47.25">
       <c r="A9" s="70" t="s">
         <v>97</v>
       </c>
@@ -11362,13 +11446,13 @@
         <v>780</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="98" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" s="98" customFormat="1">
       <c r="A10" s="97"/>
       <c r="B10" s="99" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="221" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="204.75">
       <c r="A11" s="70" t="s">
         <v>255</v>
       </c>
@@ -11376,7 +11460,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="63">
       <c r="A12" s="70" t="s">
         <v>6</v>
       </c>
@@ -11384,7 +11468,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="71" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="71" customFormat="1" ht="63">
       <c r="A13" s="70" t="s">
         <v>70</v>
       </c>
@@ -11392,7 +11476,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="173.25">
       <c r="A14" s="70" t="s">
         <v>256</v>
       </c>
@@ -11400,7 +11484,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="47.25">
       <c r="A15" s="70" t="s">
         <v>150</v>
       </c>
@@ -11408,7 +11492,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="47.25">
       <c r="A16" s="70" t="s">
         <v>258</v>
       </c>
@@ -11416,7 +11500,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="70" t="s">
         <v>82</v>
       </c>
@@ -11424,7 +11508,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="110.25">
       <c r="A18" s="70" t="s">
         <v>260</v>
       </c>
@@ -11432,7 +11516,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="71" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" s="71" customFormat="1" ht="78.75">
       <c r="A19" s="70" t="s">
         <v>261</v>
       </c>
@@ -11440,7 +11524,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="31.5">
       <c r="A20" s="70" t="s">
         <v>25</v>
       </c>
@@ -11448,7 +11532,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="70" t="s">
         <v>27</v>
       </c>
@@ -11456,7 +11540,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="70" t="s">
         <v>29</v>
       </c>
@@ -11464,7 +11548,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="31.5">
       <c r="A23" s="70" t="s">
         <v>266</v>
       </c>
@@ -11472,7 +11556,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="70" t="s">
         <v>795</v>
       </c>
@@ -11480,7 +11564,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="31.5">
       <c r="A25" s="70" t="s">
         <v>268</v>
       </c>
@@ -11488,7 +11572,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="157.5">
       <c r="A26" s="70" t="s">
         <v>44</v>
       </c>
@@ -11496,7 +11580,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="238" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="220.5">
       <c r="A27" s="70" t="s">
         <v>269</v>
       </c>
@@ -11504,7 +11588,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="70" t="s">
         <v>95</v>
       </c>
@@ -11512,7 +11596,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="71" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" s="71" customFormat="1" ht="252">
       <c r="A29" s="70" t="s">
         <v>271</v>
       </c>
@@ -11520,7 +11604,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="71" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" s="71" customFormat="1">
       <c r="A30" s="70" t="s">
         <v>273</v>
       </c>
@@ -11528,7 +11612,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="71" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" s="71" customFormat="1" ht="31.5">
       <c r="A31" s="70" t="s">
         <v>804</v>
       </c>
@@ -11536,7 +11620,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="70" t="s">
         <v>180</v>
       </c>
@@ -11544,7 +11628,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="157.5">
       <c r="A33" s="70" t="s">
         <v>275</v>
       </c>
@@ -11552,7 +11636,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="238" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="220.5">
       <c r="A34" s="70" t="s">
         <v>103</v>
       </c>
@@ -11560,7 +11644,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="31.5">
       <c r="A35" s="70" t="s">
         <v>439</v>
       </c>
@@ -11568,7 +11652,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="238" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="220.5">
       <c r="A36" s="70" t="s">
         <v>809</v>
       </c>
@@ -11576,7 +11660,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="157.5">
       <c r="A37" s="70" t="s">
         <v>811</v>
       </c>
@@ -11584,7 +11668,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="63">
       <c r="A38" s="70" t="s">
         <v>446</v>
       </c>
@@ -11592,7 +11676,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="31.5">
       <c r="A39" s="70" t="s">
         <v>696</v>
       </c>
@@ -11600,19 +11684,19 @@
         <v>814</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="118" t="s">
+    <row r="40" spans="1:2" s="71" customFormat="1" ht="225.95" customHeight="1">
+      <c r="A40" s="122" t="s">
         <v>815</v>
       </c>
-      <c r="B40" s="120" t="s">
+      <c r="B40" s="124" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="119"/>
-      <c r="B41" s="120"/>
-    </row>
-    <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" s="71" customFormat="1" ht="231.95" customHeight="1">
+      <c r="A41" s="123"/>
+      <c r="B41" s="124"/>
+    </row>
+    <row r="42" spans="1:2" ht="31.5">
       <c r="A42" s="70" t="s">
         <v>817</v>
       </c>
@@ -11620,31 +11704,31 @@
         <v>818</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="118" t="s">
+    <row r="43" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1">
+      <c r="A43" s="122" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="120" t="s">
+      <c r="B43" s="124" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="71" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="119"/>
-      <c r="B44" s="120"/>
-    </row>
-    <row r="45" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="116" t="s">
+    <row r="44" spans="1:2" s="71" customFormat="1" ht="134.1" customHeight="1">
+      <c r="A44" s="123"/>
+      <c r="B44" s="124"/>
+    </row>
+    <row r="45" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1">
+      <c r="A45" s="120" t="s">
         <v>449</v>
       </c>
-      <c r="B45" s="120" t="s">
+      <c r="B45" s="124" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="71" customFormat="1" ht="284" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="121"/>
-      <c r="B46" s="120"/>
-    </row>
-    <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" s="71" customFormat="1" ht="284.10000000000002" customHeight="1">
+      <c r="A46" s="125"/>
+      <c r="B46" s="124"/>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="70" t="s">
         <v>819</v>
       </c>
@@ -11652,7 +11736,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" s="71" customFormat="1" ht="47.25">
       <c r="A48" s="70" t="s">
         <v>824</v>
       </c>
@@ -11660,7 +11744,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="31.5">
       <c r="A49" s="70" t="s">
         <v>760</v>
       </c>
@@ -11668,31 +11752,31 @@
         <v>823</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="71" customFormat="1" ht="212" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="118" t="s">
+    <row r="50" spans="1:2" s="71" customFormat="1" ht="212.1" customHeight="1">
+      <c r="A50" s="122" t="s">
         <v>826</v>
       </c>
-      <c r="B50" s="120" t="s">
+      <c r="B50" s="124" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="119"/>
-      <c r="B51" s="120"/>
-    </row>
-    <row r="52" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="118" t="s">
+    <row r="51" spans="1:2" s="71" customFormat="1" ht="224.1" customHeight="1">
+      <c r="A51" s="123"/>
+      <c r="B51" s="124"/>
+    </row>
+    <row r="52" spans="1:2" s="71" customFormat="1" ht="231.95" customHeight="1">
+      <c r="A52" s="122" t="s">
         <v>827</v>
       </c>
-      <c r="B52" s="120" t="s">
+      <c r="B52" s="124" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="71" customFormat="1" ht="242" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="119"/>
-      <c r="B53" s="120"/>
-    </row>
-    <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" s="71" customFormat="1" ht="242.1" customHeight="1">
+      <c r="A53" s="123"/>
+      <c r="B53" s="124"/>
+    </row>
+    <row r="54" spans="1:2" ht="31.5">
       <c r="A54" s="70" t="s">
         <v>828</v>
       </c>
@@ -11700,7 +11784,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="356" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="330.75">
       <c r="A55" s="1" t="s">
         <v>829</v>
       </c>
@@ -11708,7 +11792,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="388" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="362.25">
       <c r="A56" s="6" t="s">
         <v>939</v>
       </c>
@@ -11716,7 +11800,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>961</v>
       </c>
@@ -11724,7 +11808,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="113" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" s="113" customFormat="1" ht="78.75">
       <c r="A58" s="1" t="s">
         <v>1021</v>
       </c>
@@ -11732,7 +11816,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="94.5">
       <c r="A59" s="1" t="s">
         <v>997</v>
       </c>
@@ -11758,24 +11842,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C363F1-AECD-7640-88DB-BBDB57D34AEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="121.83203125" customWidth="1"/>
+    <col min="2" max="2" width="121.875" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="71" customFormat="1">
       <c r="A1" s="70" t="s">
         <v>63</v>
       </c>
@@ -11786,7 +11870,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="71" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="71" customFormat="1" ht="31.5">
       <c r="A2" s="70" t="s">
         <v>109</v>
       </c>
@@ -11795,7 +11879,7 @@
       </c>
       <c r="C2" s="70"/>
     </row>
-    <row r="3" spans="1:15" s="74" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="74" customFormat="1" ht="121.5">
       <c r="A3" s="73" t="s">
         <v>62</v>
       </c>
@@ -11804,7 +11888,7 @@
       </c>
       <c r="C3" s="73"/>
     </row>
-    <row r="4" spans="1:15" s="74" customFormat="1" ht="372" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="74" customFormat="1" ht="346.5">
       <c r="A4" s="73" t="s">
         <v>114</v>
       </c>
@@ -11813,7 +11897,7 @@
       </c>
       <c r="C4" s="73"/>
     </row>
-    <row r="5" spans="1:15" s="74" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="74" customFormat="1" ht="30.75">
       <c r="A5" s="73" t="s">
         <v>117</v>
       </c>
@@ -11822,7 +11906,7 @@
       </c>
       <c r="C5" s="73"/>
     </row>
-    <row r="6" spans="1:15" s="74" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="74" customFormat="1" ht="123">
       <c r="A6" s="1" t="s">
         <v>319</v>
       </c>
@@ -11830,7 +11914,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="388" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="362.25">
       <c r="A7" s="73" t="s">
         <v>256</v>
       </c>
@@ -11838,7 +11922,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="74" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="74" customFormat="1" ht="126">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -11846,7 +11930,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="47.25">
       <c r="A9" s="73" t="s">
         <v>29</v>
       </c>
@@ -11854,7 +11938,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="74" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="74" customFormat="1" ht="94.5">
       <c r="A10" s="1" t="s">
         <v>336</v>
       </c>
@@ -11862,7 +11946,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="74" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="74" customFormat="1" ht="220.5">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -11870,7 +11954,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="74" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="74" customFormat="1" ht="63">
       <c r="A12" s="1" t="s">
         <v>732</v>
       </c>
@@ -11878,7 +11962,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="74" customFormat="1" ht="47.25">
       <c r="A13" s="1" t="s">
         <v>734</v>
       </c>
@@ -11886,7 +11970,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="47.25">
       <c r="A14" s="77" t="s">
         <v>232</v>
       </c>
@@ -11907,7 +11991,7 @@
       <c r="N14" s="78"/>
       <c r="O14" s="78"/>
     </row>
-    <row r="15" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="47.25">
       <c r="A15" s="77" t="s">
         <v>165</v>
       </c>
@@ -11928,7 +12012,7 @@
       <c r="N15" s="78"/>
       <c r="O15" s="78"/>
     </row>
-    <row r="16" spans="1:15" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="74" customFormat="1" ht="47.25">
       <c r="A16" s="1" t="s">
         <v>269</v>
       </c>
@@ -11936,7 +12020,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" s="74" customFormat="1" ht="47.25">
       <c r="A17" s="1" t="s">
         <v>739</v>
       </c>
@@ -11944,7 +12028,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="74" customFormat="1" ht="47.25">
       <c r="A18" s="1" t="s">
         <v>741</v>
       </c>
@@ -11952,7 +12036,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" s="74" customFormat="1" ht="47.25">
       <c r="A19" s="1" t="s">
         <v>743</v>
       </c>
@@ -11960,7 +12044,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="74" customFormat="1" ht="47.25">
       <c r="A20" s="1" t="s">
         <v>668</v>
       </c>
@@ -11968,7 +12052,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="74" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="74" customFormat="1" ht="110.25">
       <c r="A21" s="1" t="s">
         <v>664</v>
       </c>
@@ -11976,7 +12060,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="74" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="74" customFormat="1" ht="204.75">
       <c r="A22" s="1" t="s">
         <v>671</v>
       </c>
@@ -11984,7 +12068,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="74" customFormat="1" ht="47.25">
       <c r="A23" s="1" t="s">
         <v>171</v>
       </c>
@@ -11992,7 +12076,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" s="74" customFormat="1" ht="47.25">
       <c r="A24" s="1" t="s">
         <v>103</v>
       </c>
@@ -12000,7 +12084,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" s="74" customFormat="1" ht="47.25">
       <c r="A25" s="1" t="s">
         <v>751</v>
       </c>
@@ -12008,7 +12092,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="74" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" s="74" customFormat="1" ht="94.5">
       <c r="A26" s="1" t="s">
         <v>753</v>
       </c>
@@ -12017,7 +12101,7 @@
       </c>
       <c r="D26" s="75"/>
     </row>
-    <row r="27" spans="1:4" s="74" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" s="74" customFormat="1" ht="110.25">
       <c r="A27" s="1" t="s">
         <v>755</v>
       </c>
@@ -12025,7 +12109,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" s="74" customFormat="1" ht="47.25">
       <c r="A28" s="1" t="s">
         <v>757</v>
       </c>
@@ -12033,7 +12117,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" s="74" customFormat="1" ht="47.25">
       <c r="A29" s="1" t="s">
         <v>121</v>
       </c>
@@ -12041,7 +12125,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="74" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" s="74" customFormat="1" ht="63">
       <c r="A30" s="1" t="s">
         <v>760</v>
       </c>
@@ -12049,7 +12133,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="74" customFormat="1" ht="340" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" s="74" customFormat="1" ht="315">
       <c r="A31" s="1" t="s">
         <v>827</v>
       </c>
@@ -12057,7 +12141,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="110.25">
       <c r="A32" s="1" t="s">
         <v>944</v>
       </c>
@@ -12065,7 +12149,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="31.5">
       <c r="A33" s="1" t="s">
         <v>961</v>
       </c>
@@ -12073,7 +12157,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="108" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" s="108" customFormat="1" ht="31.5">
       <c r="A34" s="1" t="s">
         <v>993</v>
       </c>
@@ -12081,7 +12165,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="204" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="189">
       <c r="A35" s="1" t="s">
         <v>966</v>
       </c>
@@ -12089,7 +12173,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="94.5">
       <c r="A36" s="1" t="s">
         <v>1018</v>
       </c>
@@ -12103,7 +12187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1005CFD6-9776-B84E-9012-88774F68DC0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -12113,13 +12197,13 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="119.6640625" customWidth="1"/>
+    <col min="2" max="2" width="119.625" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="80" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="80" customFormat="1">
       <c r="A1" s="79" t="s">
         <v>63</v>
       </c>
@@ -12130,7 +12214,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="110.25">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -12138,7 +12222,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="78.75">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -12146,7 +12230,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="82" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="82" customFormat="1" ht="94.5">
       <c r="A4" s="82" t="s">
         <v>117</v>
       </c>
@@ -12154,7 +12238,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="31.5">
       <c r="A5" t="s">
         <v>766</v>
       </c>
@@ -12162,7 +12246,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="404" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="378">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -12170,7 +12254,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="340" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="315">
       <c r="A7" t="s">
         <v>202</v>
       </c>
@@ -12178,7 +12262,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="221" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="204.75">
       <c r="A8" t="s">
         <v>473</v>
       </c>
@@ -12186,7 +12270,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="82" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" s="82" customFormat="1" ht="31.5">
       <c r="A9" s="82" t="s">
         <v>872</v>
       </c>
@@ -12194,7 +12278,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="31.5">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -12202,7 +12286,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="31.5">
       <c r="A11" t="s">
         <v>772</v>
       </c>
@@ -12210,7 +12294,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="89" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" s="89" customFormat="1">
       <c r="A12" s="89" t="s">
         <v>44</v>
       </c>
@@ -12218,7 +12302,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="84" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="84" customFormat="1">
       <c r="A13" s="84" t="s">
         <v>882</v>
       </c>
@@ -12226,7 +12310,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" s="84" customFormat="1">
       <c r="A14" s="84" t="s">
         <v>95</v>
       </c>
@@ -12234,7 +12318,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" s="84" customFormat="1">
       <c r="A15" s="84" t="s">
         <v>273</v>
       </c>
@@ -12242,7 +12326,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="82" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" s="82" customFormat="1" ht="78.75">
       <c r="A16" s="82" t="s">
         <v>103</v>
       </c>
@@ -12250,7 +12334,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="340" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="315">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -12258,7 +12342,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="84" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" s="84" customFormat="1" ht="157.5">
       <c r="A18" s="84" t="s">
         <v>439</v>
       </c>
@@ -12266,7 +12350,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="84" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" s="84" customFormat="1" ht="94.5">
       <c r="A19" s="84" t="s">
         <v>50</v>
       </c>
@@ -12274,7 +12358,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="84" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" s="84" customFormat="1" ht="204.75">
       <c r="A20" s="84" t="s">
         <v>878</v>
       </c>
@@ -12282,7 +12366,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="84" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" s="84" customFormat="1" ht="141.75">
       <c r="A21" s="84" t="s">
         <v>519</v>
       </c>
@@ -12290,7 +12374,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" s="84" customFormat="1">
       <c r="A22" s="84" t="s">
         <v>349</v>
       </c>
@@ -12298,7 +12382,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" s="84" customFormat="1">
       <c r="A23" s="84" t="s">
         <v>55</v>
       </c>
@@ -12306,7 +12390,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="47.25">
       <c r="A24" t="s">
         <v>888</v>
       </c>
@@ -12314,7 +12398,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>874</v>
       </c>
@@ -12322,7 +12406,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="31.5">
       <c r="A26" t="s">
         <v>605</v>
       </c>
@@ -12330,7 +12414,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="236.25">
       <c r="A27" t="s">
         <v>889</v>
       </c>
@@ -12338,7 +12422,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="221" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="204.75">
       <c r="A28" t="s">
         <v>946</v>
       </c>
@@ -12346,7 +12430,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>988</v>
       </c>
@@ -12354,7 +12438,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="113" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" s="113" customFormat="1" ht="31.5">
       <c r="A30" s="113" t="s">
         <v>1040</v>
       </c>
@@ -12362,7 +12446,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="31.5">
       <c r="A31" t="s">
         <v>1012</v>
       </c>
@@ -12376,23 +12460,23 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C98187-C544-724A-BCD9-4C569CB0FF1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="118.1640625" customWidth="1"/>
+    <col min="2" max="2" width="118.125" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="71" customFormat="1">
       <c r="A1" s="70" t="s">
         <v>63</v>
       </c>
@@ -12403,7 +12487,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="71" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="71" customFormat="1" ht="126">
       <c r="A2" s="70" t="s">
         <v>109</v>
       </c>
@@ -12412,7 +12496,7 @@
       </c>
       <c r="C2" s="70"/>
     </row>
-    <row r="3" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="189">
       <c r="A3" s="1" t="s">
         <v>255</v>
       </c>
@@ -12420,7 +12504,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="110.25">
       <c r="A4" s="1" t="s">
         <v>319</v>
       </c>
@@ -12428,7 +12512,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="255" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="236.25">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
@@ -12436,7 +12520,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="31.5">
       <c r="A6" s="1" t="s">
         <v>256</v>
       </c>
@@ -12444,7 +12528,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="119.1" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>259</v>
       </c>
@@ -12452,7 +12536,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="31.5">
       <c r="A8" s="1" t="s">
         <v>260</v>
       </c>
@@ -12460,7 +12544,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="31.5">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -12468,7 +12552,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="89" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" s="89" customFormat="1">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -12476,7 +12560,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="306" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="283.5">
       <c r="A11" s="1" t="s">
         <v>504</v>
       </c>
@@ -12484,7 +12568,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="89" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" s="89" customFormat="1">
       <c r="A12" s="1" t="s">
         <v>95</v>
       </c>
@@ -12492,7 +12576,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="89" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="89" customFormat="1">
       <c r="A13" s="1" t="s">
         <v>273</v>
       </c>
@@ -12500,7 +12584,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="284" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="284.10000000000002" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>878</v>
       </c>
@@ -12508,7 +12592,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="110.25">
       <c r="A15" s="1" t="s">
         <v>933</v>
       </c>
@@ -12516,7 +12600,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="94.5">
       <c r="A16" s="1" t="s">
         <v>935</v>
       </c>
@@ -12524,7 +12608,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="93" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" s="93" customFormat="1">
       <c r="A17" s="1" t="s">
         <v>893</v>
       </c>
@@ -12532,7 +12616,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="220.5">
       <c r="A18" s="1" t="s">
         <v>936</v>
       </c>
@@ -12540,7 +12624,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="47.25">
       <c r="A19" s="1" t="s">
         <v>961</v>
       </c>
@@ -12548,7 +12632,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="108" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" s="108" customFormat="1" ht="47.25">
       <c r="A20" s="1" t="s">
         <v>1021</v>
       </c>
@@ -12556,12 +12640,28 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="105" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" s="117" customFormat="1" ht="31.5">
       <c r="A21" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B21" s="118" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="105" customFormat="1" ht="31.5">
+      <c r="A22" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="B21" s="106" t="s">
+      <c r="B22" s="106" t="s">
         <v>1011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="31.5">
+      <c r="A23" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B23" s="118" t="s">
+        <v>1054</v>
       </c>
     </row>
   </sheetData>
@@ -12570,7 +12670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89871611-6645-FB41-91B8-78598D90E1DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -12580,15 +12680,15 @@
       <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="188.6640625" customWidth="1"/>
+    <col min="2" max="2" width="188.625" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" customWidth="1"/>
-    <col min="15" max="15" width="36.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="15" max="15" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
@@ -12599,7 +12699,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="62" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="62" customFormat="1" ht="108">
       <c r="A2" s="61" t="s">
         <v>109</v>
       </c>
@@ -12608,7 +12708,7 @@
       </c>
       <c r="C2" s="61"/>
     </row>
-    <row r="3" spans="1:15" s="62" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="62" customFormat="1" ht="107.25">
       <c r="A3" s="61" t="s">
         <v>62</v>
       </c>
@@ -12617,7 +12717,7 @@
       </c>
       <c r="C3" s="61"/>
     </row>
-    <row r="4" spans="1:15" s="62" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="62" customFormat="1" ht="92.25">
       <c r="A4" s="61" t="s">
         <v>111</v>
       </c>
@@ -12626,7 +12726,7 @@
       </c>
       <c r="C4" s="61"/>
     </row>
-    <row r="5" spans="1:15" s="62" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="62" customFormat="1" ht="252">
       <c r="A5" s="61" t="s">
         <v>114</v>
       </c>
@@ -12635,7 +12735,7 @@
       </c>
       <c r="C5" s="61"/>
     </row>
-    <row r="6" spans="1:15" s="64" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="64" customFormat="1" ht="46.5">
       <c r="A6" s="63" t="s">
         <v>117</v>
       </c>
@@ -12644,7 +12744,7 @@
       </c>
       <c r="C6" s="63"/>
     </row>
-    <row r="7" spans="1:15" s="64" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="64" customFormat="1" ht="46.5">
       <c r="A7" s="63" t="s">
         <v>766</v>
       </c>
@@ -12653,7 +12753,7 @@
       </c>
       <c r="C7" s="63"/>
     </row>
-    <row r="8" spans="1:15" ht="221" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="204.75">
       <c r="A8" s="1" t="s">
         <v>255</v>
       </c>
@@ -12661,7 +12761,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="64" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="64" customFormat="1" ht="141.75">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -12669,7 +12769,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="76" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="72">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -12680,7 +12780,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="94.5">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -12688,7 +12788,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="64" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="64" customFormat="1" ht="93">
       <c r="A12" s="1" t="s">
         <v>319</v>
       </c>
@@ -12696,7 +12796,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="119" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="110.25">
       <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
@@ -12704,27 +12804,27 @@
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="122" t="s">
+    <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1">
+      <c r="A14" s="126" t="s">
         <v>256</v>
       </c>
-      <c r="B14" s="120" t="s">
+      <c r="B14" s="124" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="64" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="123"/>
-      <c r="B15" s="120"/>
-    </row>
-    <row r="16" spans="1:15" s="64" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="123"/>
-      <c r="B16" s="120"/>
-    </row>
-    <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="123"/>
-      <c r="B17" s="120"/>
-    </row>
-    <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="64" customFormat="1" ht="71.099999999999994" customHeight="1">
+      <c r="A15" s="127"/>
+      <c r="B15" s="124"/>
+    </row>
+    <row r="16" spans="1:15" s="64" customFormat="1" ht="95.1" customHeight="1">
+      <c r="A16" s="127"/>
+      <c r="B16" s="124"/>
+    </row>
+    <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1">
+      <c r="A17" s="127"/>
+      <c r="B17" s="124"/>
+    </row>
+    <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1">
       <c r="A18" s="69" t="s">
         <v>202</v>
       </c>
@@ -12732,7 +12832,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="47.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -12740,7 +12840,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="94.5">
       <c r="A20" t="s">
         <v>150</v>
       </c>
@@ -12748,7 +12848,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="78.75">
       <c r="A21" t="s">
         <v>258</v>
       </c>
@@ -12756,7 +12856,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="64" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" s="64" customFormat="1" ht="94.5">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -12764,7 +12864,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="64" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" s="64" customFormat="1" ht="126">
       <c r="A23" s="1" t="s">
         <v>473</v>
       </c>
@@ -12772,7 +12872,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="221" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="204.75">
       <c r="A24" t="s">
         <v>259</v>
       </c>
@@ -12780,7 +12880,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="63">
       <c r="A25" t="s">
         <v>260</v>
       </c>
@@ -12788,7 +12888,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="110.25">
       <c r="A26" t="s">
         <v>261</v>
       </c>
@@ -12796,7 +12896,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="47.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -12804,7 +12904,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="31.5">
       <c r="A28" t="s">
         <v>262</v>
       </c>
@@ -12812,7 +12912,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="94.5">
       <c r="A29" t="s">
         <v>263</v>
       </c>
@@ -12820,7 +12920,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="64" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" s="64" customFormat="1" ht="78.75">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -12828,7 +12928,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="47.25">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -12836,7 +12936,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="47.25">
       <c r="A32" t="s">
         <v>264</v>
       </c>
@@ -12844,7 +12944,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="31.5">
       <c r="A33" t="s">
         <v>265</v>
       </c>
@@ -12852,7 +12952,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="31.5">
       <c r="A34" t="s">
         <v>156</v>
       </c>
@@ -12860,7 +12960,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="94.5">
       <c r="A35" t="s">
         <v>266</v>
       </c>
@@ -12868,7 +12968,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="64" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" s="64" customFormat="1" ht="78.75">
       <c r="A36" s="1" t="s">
         <v>336</v>
       </c>
@@ -12876,7 +12976,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="64" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" s="64" customFormat="1" ht="157.5">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -12884,7 +12984,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="63">
       <c r="A38" t="s">
         <v>230</v>
       </c>
@@ -12892,7 +12992,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="64" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" s="64" customFormat="1" ht="63">
       <c r="A39" s="1" t="s">
         <v>732</v>
       </c>
@@ -12900,7 +13000,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" s="64" customFormat="1" ht="31.5">
       <c r="A40" s="1" t="s">
         <v>734</v>
       </c>
@@ -12908,7 +13008,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="63">
       <c r="A41" t="s">
         <v>267</v>
       </c>
@@ -12916,7 +13016,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="47.25">
       <c r="A42" t="s">
         <v>268</v>
       </c>
@@ -12924,7 +13024,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" s="64" customFormat="1" ht="31.5">
       <c r="A43" s="1" t="s">
         <v>232</v>
       </c>
@@ -12932,7 +13032,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" s="64" customFormat="1" ht="31.5">
       <c r="A44" s="1" t="s">
         <v>165</v>
       </c>
@@ -12940,7 +13040,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="64" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" s="64" customFormat="1" ht="47.25">
       <c r="A45" s="1" t="s">
         <v>772</v>
       </c>
@@ -12948,7 +13048,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" s="64" customFormat="1" ht="31.5">
       <c r="A46" s="1" t="s">
         <v>269</v>
       </c>
@@ -12956,7 +13056,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="157.5">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -12964,7 +13064,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="126">
       <c r="A48" t="s">
         <v>269</v>
       </c>
@@ -12972,7 +13072,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="47.25">
       <c r="A49" t="s">
         <v>270</v>
       </c>
@@ -12980,7 +13080,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" s="64" customFormat="1" ht="31.5">
       <c r="A50" s="1" t="s">
         <v>739</v>
       </c>
@@ -12988,7 +13088,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" s="64" customFormat="1" ht="31.5">
       <c r="A51" s="1" t="s">
         <v>741</v>
       </c>
@@ -12996,7 +13096,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" s="64" customFormat="1" ht="31.5">
       <c r="A52" s="1" t="s">
         <v>743</v>
       </c>
@@ -13004,7 +13104,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="31.5">
       <c r="A53" t="s">
         <v>236</v>
       </c>
@@ -13012,7 +13112,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" s="16" customFormat="1" ht="47.25">
       <c r="A54" s="16" t="s">
         <v>238</v>
       </c>
@@ -13020,7 +13120,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="409.5">
       <c r="A55" t="s">
         <v>271</v>
       </c>
@@ -13028,7 +13128,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" s="64" customFormat="1" ht="31.5">
       <c r="A56" s="64" t="s">
         <v>668</v>
       </c>
@@ -13036,7 +13136,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="78.75">
       <c r="A57" t="s">
         <v>273</v>
       </c>
@@ -13044,7 +13144,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="64" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" s="64" customFormat="1" ht="81" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>664</v>
       </c>
@@ -13052,7 +13152,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="78.75">
       <c r="A59" t="s">
         <v>272</v>
       </c>
@@ -13060,7 +13160,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="47.25">
       <c r="A60" t="s">
         <v>180</v>
       </c>
@@ -13068,7 +13168,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="47.25">
       <c r="A61" t="s">
         <v>274</v>
       </c>
@@ -13076,7 +13176,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="64" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" s="64" customFormat="1" ht="141.75">
       <c r="A62" s="64" t="s">
         <v>671</v>
       </c>
@@ -13084,7 +13184,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="64" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" s="64" customFormat="1" ht="47.25">
       <c r="A63" s="1" t="s">
         <v>171</v>
       </c>
@@ -13092,7 +13192,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="63">
       <c r="A64" t="s">
         <v>275</v>
       </c>
@@ -13100,7 +13200,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" s="64" customFormat="1" ht="31.5">
       <c r="A65" s="1" t="s">
         <v>242</v>
       </c>
@@ -13108,7 +13208,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="31.5">
       <c r="A66" s="1" t="s">
         <v>103</v>
       </c>
@@ -13116,7 +13216,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="31.5">
       <c r="A67" s="1" t="s">
         <v>751</v>
       </c>
@@ -13124,7 +13224,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="78.75">
       <c r="A68" s="1" t="s">
         <v>753</v>
       </c>
@@ -13135,7 +13235,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="78.75">
       <c r="A69" s="1" t="s">
         <v>755</v>
       </c>
@@ -13143,7 +13243,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="47.25">
       <c r="A70" s="1" t="s">
         <v>757</v>
       </c>
@@ -13151,7 +13251,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="31.5">
       <c r="A71" s="1" t="s">
         <v>121</v>
       </c>
@@ -13159,7 +13259,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="47.25">
       <c r="A72" s="1" t="s">
         <v>760</v>
       </c>
@@ -13167,7 +13267,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="238" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="220.5">
       <c r="A73" s="1" t="s">
         <v>510</v>
       </c>
@@ -13185,7 +13285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30D9B97-30C0-8948-BE0B-E9737D011DC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
@@ -13195,14 +13295,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>309</v>
       </c>
@@ -13213,24 +13313,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FA2D78-0A70-784D-9364-7B67321D5158}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="139.83203125" customWidth="1"/>
+    <col min="2" max="2" width="139.875" customWidth="1"/>
     <col min="3" max="3" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
@@ -13241,7 +13341,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="31.5">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -13249,7 +13349,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
@@ -13257,7 +13357,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="30.75">
       <c r="A4" s="1" t="s">
         <v>114</v>
       </c>
@@ -13265,7 +13365,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="173.25">
       <c r="A5" s="6" t="s">
         <v>110</v>
       </c>
@@ -13273,7 +13373,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A6" s="24" t="s">
         <v>117</v>
       </c>
@@ -13281,7 +13381,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A7" s="24" t="s">
         <v>119</v>
       </c>
@@ -13289,7 +13389,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="126">
       <c r="A8" s="6" t="s">
         <v>124</v>
       </c>
@@ -13297,7 +13397,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="47.25">
       <c r="A9" s="6" t="s">
         <v>126</v>
       </c>
@@ -13305,7 +13405,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="122" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="122.1" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
@@ -13316,7 +13416,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="110.25">
       <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
@@ -13327,7 +13427,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
         <v>143</v>
       </c>
@@ -13336,7 +13436,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" s="16" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="16" customFormat="1" ht="216" customHeight="1">
       <c r="A13" s="24" t="s">
         <v>132</v>
       </c>
@@ -13347,7 +13447,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="31.5">
       <c r="A14" s="13" t="s">
         <v>150</v>
       </c>
@@ -13356,7 +13456,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="94.5">
       <c r="A15" s="6" t="s">
         <v>136</v>
       </c>
@@ -13367,7 +13467,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="13" t="s">
         <v>144</v>
       </c>
@@ -13376,7 +13476,7 @@
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="110.25">
       <c r="A17" s="6" t="s">
         <v>140</v>
       </c>
@@ -13387,7 +13487,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="13" t="s">
         <v>148</v>
       </c>
@@ -13396,7 +13496,7 @@
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="47.25">
       <c r="A19" s="13" t="s">
         <v>147</v>
       </c>
@@ -13405,7 +13505,7 @@
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="31.5">
       <c r="A20" s="13" t="s">
         <v>159</v>
       </c>
@@ -13414,7 +13514,7 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" s="16" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" s="16" customFormat="1" ht="94.5">
       <c r="A21" s="24" t="s">
         <v>29</v>
       </c>
@@ -13425,7 +13525,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="31.5">
       <c r="A22" s="13" t="s">
         <v>154</v>
       </c>
@@ -13434,7 +13534,7 @@
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="63">
       <c r="A23" s="13" t="s">
         <v>30</v>
       </c>
@@ -13443,7 +13543,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="63">
       <c r="A24" s="13" t="s">
         <v>156</v>
       </c>
@@ -13452,7 +13552,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" s="16" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="16" customFormat="1" ht="393.75">
       <c r="A25" s="26" t="s">
         <v>152</v>
       </c>
@@ -13461,7 +13561,7 @@
       </c>
       <c r="C25" s="28"/>
     </row>
-    <row r="26" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="408.95" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>162</v>
       </c>
@@ -13470,7 +13570,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" ht="272" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="236.25">
       <c r="A27" s="6" t="s">
         <v>164</v>
       </c>
@@ -13479,7 +13579,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="94.5">
       <c r="A28" s="6" t="s">
         <v>165</v>
       </c>
@@ -13490,7 +13590,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="111.95" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>168</v>
       </c>
@@ -13501,7 +13601,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="238" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="220.5">
       <c r="A30" s="6" t="s">
         <v>171</v>
       </c>
@@ -13512,7 +13612,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="255" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="236.25">
       <c r="A31" s="6" t="s">
         <v>50</v>
       </c>
@@ -13521,7 +13621,7 @@
       </c>
       <c r="C31" s="19"/>
     </row>
-    <row r="32" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="110.25">
       <c r="A32" s="6" t="s">
         <v>205</v>
       </c>
@@ -13530,7 +13630,7 @@
       </c>
       <c r="C32" s="19"/>
     </row>
-    <row r="33" spans="1:3" ht="249" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="249" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>121</v>
       </c>
@@ -13539,7 +13639,7 @@
       </c>
       <c r="C33" s="19"/>
     </row>
-    <row r="34" spans="1:3" ht="255" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="236.25">
       <c r="A34" s="6" t="s">
         <v>128</v>
       </c>
@@ -13547,7 +13647,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="16" customFormat="1" ht="47.25">
       <c r="A35" s="24" t="s">
         <v>208</v>
       </c>
@@ -13556,7 +13656,7 @@
       </c>
       <c r="C35" s="28"/>
     </row>
-    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="31.5">
       <c r="A36" s="1" t="s">
         <v>603</v>
       </c>
@@ -13565,7 +13665,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="63">
       <c r="A37" s="1" t="s">
         <v>605</v>
       </c>
@@ -13573,7 +13673,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="238" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="220.5">
       <c r="A38" s="1" t="s">
         <v>895</v>
       </c>
@@ -13581,7 +13681,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="95" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" s="95" customFormat="1">
       <c r="A39" s="1" t="s">
         <v>829</v>
       </c>
@@ -13589,7 +13689,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="89" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="89" customFormat="1" ht="408.95" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>920</v>
       </c>
@@ -13597,7 +13697,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="95" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" s="95" customFormat="1" ht="173.25">
       <c r="A41" s="1" t="s">
         <v>951</v>
       </c>
@@ -13605,7 +13705,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="101" customFormat="1" ht="31.5">
       <c r="A42" s="1" t="s">
         <v>963</v>
       </c>
@@ -13613,7 +13713,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="101" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" s="101" customFormat="1" ht="94.5">
       <c r="A43" s="1" t="s">
         <v>965</v>
       </c>
@@ -13621,7 +13721,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="126">
       <c r="A44" s="1" t="s">
         <v>961</v>
       </c>
@@ -13632,7 +13732,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="173.25">
       <c r="A45" s="1" t="s">
         <v>999</v>
       </c>
@@ -13640,12 +13740,28 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="157.5">
       <c r="A46" s="1" t="s">
         <v>1025</v>
       </c>
       <c r="B46" s="111" t="s">
         <v>1026</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="78.75">
+      <c r="A47" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B47" s="118" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="31.5">
+      <c r="A48" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B48" s="118" t="s">
+        <v>1045</v>
       </c>
     </row>
   </sheetData>
@@ -13654,7 +13770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F3C1A2-395D-B742-9284-C1E14ED42BE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -13665,14 +13781,14 @@
       <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="128.83203125" customWidth="1"/>
-    <col min="3" max="3" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="128.875" customWidth="1"/>
+    <col min="3" max="3" width="61.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
@@ -13683,7 +13799,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="45.75">
       <c r="A2" s="38" t="s">
         <v>56</v>
       </c>
@@ -13692,7 +13808,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" s="16" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="16" customFormat="1" ht="157.5">
       <c r="A3" s="49" t="s">
         <v>62</v>
       </c>
@@ -13701,7 +13817,7 @@
       </c>
       <c r="C3" s="36"/>
     </row>
-    <row r="4" spans="1:3" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="16" customFormat="1">
       <c r="A4" s="49" t="s">
         <v>117</v>
       </c>
@@ -13710,7 +13826,7 @@
       </c>
       <c r="C4" s="36"/>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30.75">
       <c r="A5" s="1" t="s">
         <v>97</v>
       </c>
@@ -13718,7 +13834,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="47.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -13726,7 +13842,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="31.5">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
@@ -13734,7 +13850,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="47.25">
       <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
@@ -13742,7 +13858,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="126">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -13750,7 +13866,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="31.5">
       <c r="A10" s="1" t="s">
         <v>612</v>
       </c>
@@ -13758,7 +13874,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="47.25">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -13766,7 +13882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="31.5">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -13774,7 +13890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="31.5">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -13782,7 +13898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="31.5">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -13790,7 +13906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="16" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" s="16" customFormat="1" ht="126">
       <c r="A15" s="17" t="s">
         <v>7</v>
       </c>
@@ -13798,7 +13914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="63">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -13806,7 +13922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="16" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" s="16" customFormat="1" ht="126">
       <c r="A17" s="36" t="s">
         <v>14</v>
       </c>
@@ -13814,7 +13930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="94.5">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
@@ -13822,7 +13938,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="63">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -13830,7 +13946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -13838,7 +13954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="31.5">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -13846,7 +13962,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="141.75">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
@@ -13854,7 +13970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="31.5">
       <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
@@ -13862,7 +13978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="47.25">
       <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
@@ -13870,7 +13986,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="16" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="16" customFormat="1" ht="126">
       <c r="A25" s="36" t="s">
         <v>29</v>
       </c>
@@ -13879,7 +13995,7 @@
       </c>
       <c r="C25" s="28"/>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="31.5">
       <c r="A26" s="6" t="s">
         <v>30</v>
       </c>
@@ -13888,7 +14004,7 @@
       </c>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="47.25">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -13896,7 +14012,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="301" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="300.95" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>36</v>
       </c>
@@ -13904,7 +14020,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="78.75">
       <c r="A29" s="6" t="s">
         <v>40</v>
       </c>
@@ -13912,7 +14028,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="31.5">
       <c r="A30" s="6" t="s">
         <v>41</v>
       </c>
@@ -13920,7 +14036,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="31.5">
       <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
@@ -13928,7 +14044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="31.5">
       <c r="A32" s="6" t="s">
         <v>38</v>
       </c>
@@ -13936,7 +14052,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="306" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="283.5">
       <c r="A33" s="6" t="s">
         <v>44</v>
       </c>
@@ -13945,7 +14061,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" s="16" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" s="16" customFormat="1" ht="226.5">
       <c r="A34" s="24" t="s">
         <v>46</v>
       </c>
@@ -13956,7 +14072,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="16" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="16" customFormat="1" ht="230.25">
       <c r="A35" s="24" t="s">
         <v>48</v>
       </c>
@@ -13967,7 +14083,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="16" customFormat="1" ht="63">
       <c r="A36" s="24" t="s">
         <v>103</v>
       </c>
@@ -13975,7 +14091,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="180.75">
       <c r="A37" s="6" t="s">
         <v>679</v>
       </c>
@@ -13983,7 +14099,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="90.75">
       <c r="A38" s="6" t="s">
         <v>52</v>
       </c>
@@ -13991,7 +14107,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="151.5">
       <c r="A39" s="6" t="s">
         <v>105</v>
       </c>
@@ -13999,7 +14115,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A40" s="24" t="s">
         <v>55</v>
       </c>
@@ -14007,7 +14123,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="78.75">
       <c r="A41" s="6" t="s">
         <v>104</v>
       </c>
@@ -14015,7 +14131,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="340" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="315">
       <c r="A42" s="6" t="s">
         <v>623</v>
       </c>
@@ -14026,7 +14142,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="356" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="330.75">
       <c r="A43" s="6" t="s">
         <v>829</v>
       </c>
@@ -14035,7 +14151,7 @@
       </c>
       <c r="C43" s="46"/>
     </row>
-    <row r="44" spans="1:3" ht="388" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="362.25">
       <c r="A44" s="6" t="s">
         <v>923</v>
       </c>
@@ -14043,7 +14159,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" s="101" customFormat="1" ht="31.5">
       <c r="A45" s="6" t="s">
         <v>961</v>
       </c>
@@ -14051,7 +14167,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="63">
       <c r="A46" s="6" t="s">
         <v>966</v>
       </c>
@@ -14059,7 +14175,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="31.5">
       <c r="A47" s="6" t="s">
         <v>992</v>
       </c>
@@ -14067,7 +14183,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="173.25">
       <c r="A48" s="6" t="s">
         <v>999</v>
       </c>
@@ -14075,7 +14191,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="47.25">
       <c r="A49" s="6" t="s">
         <v>1023</v>
       </c>
@@ -14084,31 +14200,31 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C40" xr:uid="{BA46D44F-FD23-0941-AE5A-CEACA9AB11EC}"/>
+  <autoFilter ref="A1:C40"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8307C84C-CFE3-7640-B009-9E015C088752}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.6640625" customWidth="1"/>
-    <col min="3" max="3" width="37.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.625" customWidth="1"/>
+    <col min="3" max="3" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
@@ -14119,7 +14235,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="126">
       <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
@@ -14127,7 +14243,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="201" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="201" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>195</v>
       </c>
@@ -14135,7 +14251,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="16" customFormat="1" ht="169" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="16" customFormat="1" ht="168.95" customHeight="1">
       <c r="A4" s="24" t="s">
         <v>110</v>
       </c>
@@ -14143,7 +14259,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="16" customFormat="1" ht="233" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="16" customFormat="1" ht="233.1" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>117</v>
       </c>
@@ -14151,7 +14267,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="16" customFormat="1" ht="122" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="16" customFormat="1" ht="122.1" customHeight="1">
       <c r="A6" s="24" t="s">
         <v>60</v>
       </c>
@@ -14159,7 +14275,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="94.5">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
@@ -14167,7 +14283,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="126">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -14175,7 +14291,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="173.25">
       <c r="A9" s="6" t="s">
         <v>202</v>
       </c>
@@ -14183,7 +14299,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="31.5">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -14191,7 +14307,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="94.5">
       <c r="A11" s="6" t="s">
         <v>214</v>
       </c>
@@ -14199,7 +14315,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="78.75">
       <c r="A12" s="6" t="s">
         <v>203</v>
       </c>
@@ -14207,7 +14323,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="94.5">
       <c r="A13" s="6" t="s">
         <v>216</v>
       </c>
@@ -14215,7 +14331,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="63">
       <c r="A14" s="6" t="s">
         <v>217</v>
       </c>
@@ -14223,7 +14339,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="110.25">
       <c r="A15" s="6" t="s">
         <v>218</v>
       </c>
@@ -14231,7 +14347,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="78.75">
       <c r="A16" s="6" t="s">
         <v>219</v>
       </c>
@@ -14239,7 +14355,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="63">
       <c r="A17" s="6" t="s">
         <v>192</v>
       </c>
@@ -14247,7 +14363,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="31.5">
       <c r="A18" s="6" t="s">
         <v>230</v>
       </c>
@@ -14255,7 +14371,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="31.5">
       <c r="A19" s="6" t="s">
         <v>228</v>
       </c>
@@ -14263,7 +14379,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="126">
       <c r="A20" s="6" t="s">
         <v>232</v>
       </c>
@@ -14271,7 +14387,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="388" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="362.25">
       <c r="A21" s="6" t="s">
         <v>234</v>
       </c>
@@ -14279,7 +14395,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="31.5">
       <c r="A22" s="6" t="s">
         <v>619</v>
       </c>
@@ -14287,7 +14403,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="63">
       <c r="A23" s="6" t="s">
         <v>236</v>
       </c>
@@ -14295,7 +14411,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="110.25">
       <c r="A24" s="6" t="s">
         <v>238</v>
       </c>
@@ -14303,7 +14419,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="47.25">
       <c r="A25" s="6" t="s">
         <v>240</v>
       </c>
@@ -14311,7 +14427,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="31.5">
       <c r="A26" s="6" t="s">
         <v>621</v>
       </c>
@@ -14319,7 +14435,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="31.5">
       <c r="A27" s="6" t="s">
         <v>242</v>
       </c>
@@ -14327,7 +14443,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="31.5">
       <c r="A28" s="6" t="s">
         <v>245</v>
       </c>
@@ -14335,7 +14451,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="31.5">
       <c r="A29" s="6" t="s">
         <v>246</v>
       </c>
@@ -14343,7 +14459,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="94.5">
       <c r="A30" s="6" t="s">
         <v>251</v>
       </c>
@@ -14351,7 +14467,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="272" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="252">
       <c r="A31" s="6" t="s">
         <v>252</v>
       </c>
@@ -14359,7 +14475,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>898</v>
       </c>
@@ -14368,7 +14484,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="63">
       <c r="A33" s="6" t="s">
         <v>925</v>
       </c>
@@ -14377,7 +14493,7 @@
       </c>
       <c r="C33" s="87"/>
     </row>
-    <row r="34" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" s="101" customFormat="1" ht="31.5">
       <c r="A34" s="6" t="s">
         <v>971</v>
       </c>
@@ -14386,7 +14502,7 @@
       </c>
       <c r="C34" s="102"/>
     </row>
-    <row r="35" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="101" customFormat="1" ht="31.5">
       <c r="A35" s="6" t="s">
         <v>969</v>
       </c>
@@ -14395,7 +14511,7 @@
       </c>
       <c r="C35" s="102"/>
     </row>
-    <row r="36" spans="1:3" s="105" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="105" customFormat="1" ht="63">
       <c r="A36" s="6" t="s">
         <v>1005</v>
       </c>
@@ -14404,7 +14520,7 @@
       </c>
       <c r="C36" s="106"/>
     </row>
-    <row r="37" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" s="105" customFormat="1" ht="47.25">
       <c r="A37" s="6" t="s">
         <v>1003</v>
       </c>
@@ -14413,7 +14529,7 @@
       </c>
       <c r="C37" s="106"/>
     </row>
-    <row r="38" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="78.75">
       <c r="C38" s="90" t="s">
         <v>227</v>
       </c>
@@ -14424,25 +14540,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7B093C-4339-2942-B366-8C34B6E5F7F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="33"/>
-    <col min="2" max="2" width="119.6640625" customWidth="1"/>
-    <col min="3" max="3" width="76.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="33"/>
+    <col min="2" max="2" width="119.625" customWidth="1"/>
+    <col min="3" max="3" width="76.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="32" t="s">
         <v>63</v>
       </c>
@@ -14453,7 +14569,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="31.5">
       <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
@@ -14461,7 +14577,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="157.5">
       <c r="A3" s="6" t="s">
         <v>626</v>
       </c>
@@ -14469,7 +14585,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="47.25">
       <c r="A4" s="13" t="s">
         <v>64</v>
       </c>
@@ -14480,7 +14596,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A5" s="24" t="s">
         <v>109</v>
       </c>
@@ -14488,7 +14604,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="141.75">
       <c r="A6" s="6" t="s">
         <v>178</v>
       </c>
@@ -14496,7 +14612,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="63">
       <c r="A7" s="6" t="s">
         <v>117</v>
       </c>
@@ -14504,7 +14620,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="110.25">
       <c r="A8" s="6" t="s">
         <v>97</v>
       </c>
@@ -14512,7 +14628,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="47.25">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
@@ -14523,7 +14639,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="63" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>99</v>
       </c>
@@ -14531,7 +14647,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="30.75">
       <c r="A11" s="6" t="s">
         <v>360</v>
       </c>
@@ -14539,7 +14655,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="30.75">
       <c r="A12" s="6" t="s">
         <v>362</v>
       </c>
@@ -14547,7 +14663,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="30.75">
       <c r="A13" s="6" t="s">
         <v>363</v>
       </c>
@@ -14555,7 +14671,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="47.25">
       <c r="A14" s="6" t="s">
         <v>116</v>
       </c>
@@ -14563,7 +14679,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="45.75">
       <c r="A15" s="6" t="s">
         <v>316</v>
       </c>
@@ -14571,7 +14687,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="30.75">
       <c r="A16" s="6" t="s">
         <v>368</v>
       </c>
@@ -14579,7 +14695,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="75.75">
       <c r="A17" s="13" t="s">
         <v>2</v>
       </c>
@@ -14590,7 +14706,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="30.75">
       <c r="A18" s="13" t="s">
         <v>370</v>
       </c>
@@ -14598,7 +14714,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="16" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" s="16" customFormat="1" ht="94.5">
       <c r="A19" s="24" t="s">
         <v>4</v>
       </c>
@@ -14606,7 +14722,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="31.5">
       <c r="A20" s="6" t="s">
         <v>311</v>
       </c>
@@ -14614,7 +14730,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="31.5">
       <c r="A21" s="6" t="s">
         <v>322</v>
       </c>
@@ -14622,7 +14738,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="150.75">
       <c r="A22" s="6" t="s">
         <v>372</v>
       </c>
@@ -14633,7 +14749,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="31.5">
       <c r="A23" s="6" t="s">
         <v>319</v>
       </c>
@@ -14641,7 +14757,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="31.5">
       <c r="A24" s="6" t="s">
         <v>72</v>
       </c>
@@ -14649,7 +14765,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="31.5">
       <c r="A25" s="6" t="s">
         <v>373</v>
       </c>
@@ -14657,7 +14773,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="31.5">
       <c r="A26" s="6" t="s">
         <v>70</v>
       </c>
@@ -14665,7 +14781,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="78.75">
       <c r="A27" s="6" t="s">
         <v>132</v>
       </c>
@@ -14673,7 +14789,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="30.75">
       <c r="A28" s="6" t="s">
         <v>375</v>
       </c>
@@ -14681,7 +14797,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="31.5">
       <c r="A29" s="6" t="s">
         <v>377</v>
       </c>
@@ -14689,7 +14805,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="47.25">
       <c r="A30" s="6" t="s">
         <v>150</v>
       </c>
@@ -14697,7 +14813,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="31.5">
       <c r="A31" s="6" t="s">
         <v>378</v>
       </c>
@@ -14705,7 +14821,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="94.5">
       <c r="A32" s="6" t="s">
         <v>214</v>
       </c>
@@ -14713,7 +14829,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="31.5">
       <c r="A33" s="6" t="s">
         <v>380</v>
       </c>
@@ -14721,7 +14837,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="47.25">
       <c r="A34" s="6" t="s">
         <v>473</v>
       </c>
@@ -14729,7 +14845,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="30.75">
       <c r="A35" s="6" t="s">
         <v>381</v>
       </c>
@@ -14737,7 +14853,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="30.75">
       <c r="A36" s="6" t="s">
         <v>384</v>
       </c>
@@ -14745,7 +14861,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="30.75">
       <c r="A37" s="6" t="s">
         <v>386</v>
       </c>
@@ -14753,7 +14869,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="30.75">
       <c r="A38" s="6" t="s">
         <v>261</v>
       </c>
@@ -14761,7 +14877,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="30.75">
       <c r="A39" s="6" t="s">
         <v>389</v>
       </c>
@@ -14769,7 +14885,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="63">
       <c r="A40" s="6" t="s">
         <v>326</v>
       </c>
@@ -14777,7 +14893,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="31.5">
       <c r="A41" s="6" t="s">
         <v>391</v>
       </c>
@@ -14785,7 +14901,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="31.5">
       <c r="A42" s="6" t="s">
         <v>148</v>
       </c>
@@ -14793,7 +14909,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="31.5">
       <c r="A43" s="6" t="s">
         <v>393</v>
       </c>
@@ -14801,7 +14917,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="31.5">
       <c r="A44" s="6" t="s">
         <v>263</v>
       </c>
@@ -14809,7 +14925,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="16" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" s="16" customFormat="1" ht="236.25">
       <c r="A45" s="24" t="s">
         <v>331</v>
       </c>
@@ -14820,7 +14936,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A46" s="24" t="s">
         <v>394</v>
       </c>
@@ -14829,7 +14945,7 @@
       </c>
       <c r="C46" s="28"/>
     </row>
-    <row r="47" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A47" s="24" t="s">
         <v>395</v>
       </c>
@@ -14838,7 +14954,7 @@
       </c>
       <c r="C47" s="28"/>
     </row>
-    <row r="48" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" s="16" customFormat="1" ht="47.25">
       <c r="A48" s="24" t="s">
         <v>474</v>
       </c>
@@ -14849,7 +14965,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A49" s="24" t="s">
         <v>396</v>
       </c>
@@ -14858,7 +14974,7 @@
       </c>
       <c r="C49" s="28"/>
     </row>
-    <row r="50" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="110.25">
       <c r="A50" s="6" t="s">
         <v>328</v>
       </c>
@@ -14866,7 +14982,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="31.5">
       <c r="A51" s="6" t="s">
         <v>397</v>
       </c>
@@ -14874,7 +14990,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="306" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="282.75">
       <c r="A52" s="6" t="s">
         <v>335</v>
       </c>
@@ -14882,7 +14998,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="31.5">
       <c r="A53" s="6" t="s">
         <v>405</v>
       </c>
@@ -14890,7 +15006,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="16" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" s="16" customFormat="1" ht="141.75">
       <c r="A54" s="24" t="s">
         <v>336</v>
       </c>
@@ -14898,7 +15014,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A55" s="24" t="s">
         <v>406</v>
       </c>
@@ -14906,7 +15022,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A56" s="24" t="s">
         <v>228</v>
       </c>
@@ -14914,7 +15030,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A57" s="24" t="s">
         <v>407</v>
       </c>
@@ -14922,7 +15038,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A58" s="24" t="s">
         <v>408</v>
       </c>
@@ -14930,7 +15046,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A59" s="24" t="s">
         <v>409</v>
       </c>
@@ -14938,7 +15054,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A60" s="24" t="s">
         <v>410</v>
       </c>
@@ -14946,7 +15062,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A61" s="24" t="s">
         <v>411</v>
       </c>
@@ -14954,7 +15070,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A62" s="24" t="s">
         <v>270</v>
       </c>
@@ -14962,7 +15078,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A63" s="24" t="s">
         <v>412</v>
       </c>
@@ -14970,7 +15086,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A64" s="24" t="s">
         <v>413</v>
       </c>
@@ -14978,7 +15094,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A65" s="24" t="s">
         <v>414</v>
       </c>
@@ -14986,7 +15102,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="16" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" s="16" customFormat="1" ht="173.25">
       <c r="A66" s="24" t="s">
         <v>240</v>
       </c>
@@ -14997,7 +15113,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A67" s="24" t="s">
         <v>415</v>
       </c>
@@ -15005,7 +15121,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" s="16" customFormat="1" ht="30.75">
       <c r="A68" s="24" t="s">
         <v>429</v>
       </c>
@@ -15013,7 +15129,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="78.75">
       <c r="A69" s="6" t="s">
         <v>272</v>
       </c>
@@ -15024,7 +15140,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" s="16" customFormat="1" ht="60.75">
       <c r="A70" s="24" t="s">
         <v>180</v>
       </c>
@@ -15032,7 +15148,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" s="16" customFormat="1" ht="30.75">
       <c r="A71" s="24" t="s">
         <v>431</v>
       </c>
@@ -15040,7 +15156,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" s="16" customFormat="1" ht="63">
       <c r="A72" s="24" t="s">
         <v>339</v>
       </c>
@@ -15051,7 +15167,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A73" s="24" t="s">
         <v>433</v>
       </c>
@@ -15060,7 +15176,7 @@
       </c>
       <c r="C73" s="29"/>
     </row>
-    <row r="74" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A74" s="24" t="s">
         <v>437</v>
       </c>
@@ -15069,7 +15185,7 @@
       </c>
       <c r="C74" s="29"/>
     </row>
-    <row r="75" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A75" s="24" t="s">
         <v>436</v>
       </c>
@@ -15078,7 +15194,7 @@
       </c>
       <c r="C75" s="29"/>
     </row>
-    <row r="76" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="173.25">
       <c r="A76" s="6" t="s">
         <v>103</v>
       </c>
@@ -15089,7 +15205,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="31.5">
       <c r="A77" s="6" t="s">
         <v>439</v>
       </c>
@@ -15097,7 +15213,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="31.5">
       <c r="A78" s="6" t="s">
         <v>440</v>
       </c>
@@ -15105,7 +15221,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="31.5">
       <c r="A79" s="6" t="s">
         <v>441</v>
       </c>
@@ -15113,7 +15229,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="31.5">
       <c r="A80" s="6" t="s">
         <v>442</v>
       </c>
@@ -15121,7 +15237,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="94.5">
       <c r="A81" s="6" t="s">
         <v>182</v>
       </c>
@@ -15129,7 +15245,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="31.5">
       <c r="A82" s="6" t="s">
         <v>443</v>
       </c>
@@ -15137,7 +15253,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="31.5">
       <c r="A83" s="6" t="s">
         <v>444</v>
       </c>
@@ -15145,7 +15261,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="78.75">
       <c r="A84" s="6" t="s">
         <v>355</v>
       </c>
@@ -15153,7 +15269,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="198" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="198" customHeight="1">
       <c r="A85" s="6" t="s">
         <v>205</v>
       </c>
@@ -15164,7 +15280,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" s="16" customFormat="1" ht="63">
       <c r="A86" s="24" t="s">
         <v>354</v>
       </c>
@@ -15172,7 +15288,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A87" s="24" t="s">
         <v>445</v>
       </c>
@@ -15180,7 +15296,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="16" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" s="16" customFormat="1" ht="141.75">
       <c r="A88" s="24" t="s">
         <v>349</v>
       </c>
@@ -15188,7 +15304,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" s="16" customFormat="1" ht="63">
       <c r="A89" s="24" t="s">
         <v>485</v>
       </c>
@@ -15199,7 +15315,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" s="16" customFormat="1" ht="31.5">
       <c r="A90" s="24" t="s">
         <v>446</v>
       </c>
@@ -15207,7 +15323,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" s="16" customFormat="1" ht="47.25">
       <c r="A91" s="24" t="s">
         <v>55</v>
       </c>
@@ -15215,7 +15331,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="31.5">
       <c r="A92" s="6" t="s">
         <v>447</v>
       </c>
@@ -15223,7 +15339,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="31.5">
       <c r="A93" s="6" t="s">
         <v>448</v>
       </c>
@@ -15231,7 +15347,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="31.5">
       <c r="A94" s="6" t="s">
         <v>449</v>
       </c>
@@ -15239,7 +15355,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="31.5">
       <c r="A95" s="6" t="s">
         <v>450</v>
       </c>
@@ -15247,7 +15363,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="31.5">
       <c r="A96" s="6" t="s">
         <v>208</v>
       </c>
@@ -15255,7 +15371,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="31.5">
       <c r="A97" s="6" t="s">
         <v>451</v>
       </c>
@@ -15263,7 +15379,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="78.75">
       <c r="A98" s="6" t="s">
         <v>347</v>
       </c>
@@ -15271,7 +15387,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="31.5">
       <c r="A99" s="6" t="s">
         <v>453</v>
       </c>
@@ -15279,7 +15395,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="47.25">
       <c r="A100" s="6" t="s">
         <v>254</v>
       </c>
@@ -15290,7 +15406,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="47.25">
       <c r="A101" s="6" t="s">
         <v>342</v>
       </c>
@@ -15301,7 +15417,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="31.5">
       <c r="A102" s="6" t="s">
         <v>308</v>
       </c>
@@ -15309,7 +15425,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="89" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" s="89" customFormat="1">
       <c r="A103" s="6" t="s">
         <v>828</v>
       </c>
@@ -15317,7 +15433,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="306" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="283.5">
       <c r="A104" s="6" t="s">
         <v>900</v>
       </c>
@@ -15325,7 +15441,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="105" spans="1:3" s="95" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" s="95" customFormat="1" ht="189">
       <c r="A105" s="6" t="s">
         <v>946</v>
       </c>
@@ -15333,7 +15449,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="106" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" s="101" customFormat="1" ht="31.5">
       <c r="A106" s="6" t="s">
         <v>975</v>
       </c>
@@ -15341,7 +15457,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="107" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" s="105" customFormat="1" ht="47.25">
       <c r="A107" s="6" t="s">
         <v>971</v>
       </c>
@@ -15349,7 +15465,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="108" spans="1:3" s="105" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" s="105" customFormat="1" ht="31.5">
       <c r="A108" s="6" t="s">
         <v>999</v>
       </c>
@@ -15357,15 +15473,21 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="109" spans="1:3" s="113" customFormat="1" ht="88" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" s="113" customFormat="1" ht="79.5">
       <c r="A109" s="6" t="s">
         <v>1030</v>
       </c>
-      <c r="B109" s="124" t="s">
+      <c r="B109" s="116" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="220.5">
+      <c r="A110" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B110" s="118" t="s">
+        <v>1047</v>
+      </c>
       <c r="C110" s="34" t="s">
         <v>484</v>
       </c>
@@ -15373,32 +15495,33 @@
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C72" r:id="rId1" display="https://www.cp24.com/news/quebec-high-school-students-back-in-classroom-after-month-long-break-1.5272426?cache=yes. " xr:uid="{410985FA-5B6B-DC41-A698-8E91B6415EC2}"/>
+    <hyperlink ref="C72" r:id="rId1" display="https://www.cp24.com/news/quebec-high-school-students-back-in-classroom-after-month-long-break-1.5272426?cache=yes. "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9200922B-DE97-0C4D-82C4-14BD2DFB5E52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="112.6640625" customWidth="1"/>
+    <col min="2" max="2" width="112.625" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.1640625" customWidth="1"/>
+    <col min="5" max="5" width="50.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="32" t="s">
         <v>63</v>
       </c>
@@ -15409,7 +15532,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="47.25">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -15417,7 +15540,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="63">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
@@ -15425,7 +15548,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="16" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="16" customFormat="1" ht="110.25">
       <c r="A4" s="36" t="s">
         <v>62</v>
       </c>
@@ -15433,7 +15556,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="63">
       <c r="A5" s="1" t="s">
         <v>178</v>
       </c>
@@ -15441,7 +15564,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="31.5">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -15449,7 +15572,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="47.25">
       <c r="A7" s="1" t="s">
         <v>491</v>
       </c>
@@ -15457,7 +15580,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="31.5">
       <c r="A8" s="1" t="s">
         <v>363</v>
       </c>
@@ -15465,7 +15588,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="31.5">
       <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
@@ -15473,7 +15596,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="31.5">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -15481,7 +15604,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="238" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="220.5">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -15489,7 +15612,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="31.5">
       <c r="A12" s="1" t="s">
         <v>373</v>
       </c>
@@ -15497,7 +15620,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="16" customFormat="1" ht="63">
       <c r="A13" s="36" t="s">
         <v>132</v>
       </c>
@@ -15505,7 +15628,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="141.75">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -15513,7 +15636,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="31.5">
       <c r="A15" s="1" t="s">
         <v>381</v>
       </c>
@@ -15521,7 +15644,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="47.25">
       <c r="A16" s="1" t="s">
         <v>261</v>
       </c>
@@ -15529,7 +15652,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="16" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" s="16" customFormat="1" ht="78.75">
       <c r="A17" s="36" t="s">
         <v>154</v>
       </c>
@@ -15537,7 +15660,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="16" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" s="16" customFormat="1" ht="141.75">
       <c r="A18" s="36" t="s">
         <v>232</v>
       </c>
@@ -15545,7 +15668,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="173.25">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -15553,7 +15676,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="63">
       <c r="A20" s="1" t="s">
         <v>504</v>
       </c>
@@ -15561,7 +15684,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="30.75">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -15569,7 +15692,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="44" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" s="44" customFormat="1">
       <c r="A22" s="1" t="s">
         <v>273</v>
       </c>
@@ -15577,7 +15700,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="47.25">
       <c r="A23" s="1" t="s">
         <v>507</v>
       </c>
@@ -15585,7 +15708,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="47.25">
       <c r="A24" s="1" t="s">
         <v>519</v>
       </c>
@@ -15593,7 +15716,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="63">
       <c r="A25" s="1" t="s">
         <v>354</v>
       </c>
@@ -15601,7 +15724,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="31.5">
       <c r="A26" s="1" t="s">
         <v>516</v>
       </c>
@@ -15609,7 +15732,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="173.25">
       <c r="A27" s="1" t="s">
         <v>509</v>
       </c>
@@ -15617,7 +15740,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="238" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="220.5">
       <c r="A28" s="1" t="s">
         <v>510</v>
       </c>
@@ -15625,7 +15748,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="86" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" s="86" customFormat="1">
       <c r="A29" s="1" t="s">
         <v>893</v>
       </c>
@@ -15633,7 +15756,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="220.5">
       <c r="A30" s="1" t="s">
         <v>889</v>
       </c>
@@ -15641,7 +15764,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="47.25">
       <c r="A31" s="1" t="s">
         <v>973</v>
       </c>
@@ -15649,7 +15772,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" s="101" customFormat="1" ht="31.5">
       <c r="A32" s="1" t="s">
         <v>961</v>
       </c>
@@ -15657,7 +15780,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="255" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="236.25">
       <c r="A33" s="1" t="s">
         <v>977</v>
       </c>
@@ -15665,7 +15788,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="78.75">
       <c r="A34" s="1" t="s">
         <v>1008</v>
       </c>
@@ -15673,7 +15796,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="126">
       <c r="A35" s="1" t="s">
         <v>1032</v>
       </c>
@@ -15681,12 +15804,12 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="47.25">
       <c r="E36" s="2" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="141.75">
       <c r="E37" s="2" t="s">
         <v>515</v>
       </c>
@@ -15697,23 +15820,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E03857-7EE7-004B-8CBA-F550AD20C4E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="178.1640625" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" customWidth="1"/>
+    <col min="2" max="2" width="178.125" customWidth="1"/>
+    <col min="3" max="3" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="32" t="s">
         <v>63</v>
       </c>
@@ -15724,7 +15847,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="16" customFormat="1">
       <c r="A2" s="36" t="s">
         <v>62</v>
       </c>
@@ -15732,7 +15855,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="258" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="258" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>110</v>
       </c>
@@ -15741,7 +15864,7 @@
       </c>
       <c r="C3" s="37"/>
     </row>
-    <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="47.25">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -15750,7 +15873,7 @@
       </c>
       <c r="C4" s="37"/>
     </row>
-    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="31.5">
       <c r="A5" s="1" t="s">
         <v>360</v>
       </c>
@@ -15759,7 +15882,7 @@
       </c>
       <c r="C5" s="37"/>
     </row>
-    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="47.25">
       <c r="A6" s="1" t="s">
         <v>363</v>
       </c>
@@ -15768,7 +15891,7 @@
       </c>
       <c r="C6" s="37"/>
     </row>
-    <row r="7" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="16" customFormat="1">
       <c r="A7" s="36" t="s">
         <v>126</v>
       </c>
@@ -15777,7 +15900,7 @@
       </c>
       <c r="C7" s="58"/>
     </row>
-    <row r="8" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="63">
       <c r="A8" s="1" t="s">
         <v>523</v>
       </c>
@@ -15785,7 +15908,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="31.5">
       <c r="A9" s="1" t="s">
         <v>528</v>
       </c>
@@ -15793,7 +15916,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="31.5">
       <c r="A10" s="1" t="s">
         <v>150</v>
       </c>
@@ -15801,7 +15924,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="78.75">
       <c r="A11" s="1" t="s">
         <v>214</v>
       </c>
@@ -15809,7 +15932,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="47.25">
       <c r="A12" s="1" t="s">
         <v>203</v>
       </c>
@@ -15817,7 +15940,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="63">
       <c r="A13" s="1" t="s">
         <v>544</v>
       </c>
@@ -15828,7 +15951,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="31.5">
       <c r="A14" s="1" t="s">
         <v>533</v>
       </c>
@@ -15836,7 +15959,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>549</v>
       </c>
@@ -15844,7 +15967,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>548</v>
       </c>
@@ -15852,7 +15975,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>148</v>
       </c>
@@ -15860,7 +15983,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>552</v>
       </c>
@@ -15868,7 +15991,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
@@ -15876,7 +15999,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="31.5">
       <c r="A20" s="1" t="s">
         <v>550</v>
       </c>
@@ -15884,7 +16007,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>393</v>
       </c>
@@ -15892,7 +16015,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="31.5">
       <c r="A22" s="1" t="s">
         <v>262</v>
       </c>
@@ -15900,7 +16023,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>551</v>
       </c>
@@ -15908,7 +16031,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>147</v>
       </c>
@@ -15916,7 +16039,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>192</v>
       </c>
@@ -15924,7 +16047,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>159</v>
       </c>
@@ -15932,7 +16055,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" s="16" customFormat="1">
       <c r="A27" s="36" t="s">
         <v>553</v>
       </c>
@@ -15940,7 +16063,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="173.25">
       <c r="A28" s="1" t="s">
         <v>535</v>
       </c>
@@ -15948,7 +16071,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="31.5">
       <c r="A29" s="1" t="s">
         <v>267</v>
       </c>
@@ -15956,7 +16079,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="31.5">
       <c r="A30" s="1" t="s">
         <v>409</v>
       </c>
@@ -15964,7 +16087,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="94.5">
       <c r="A31" s="1" t="s">
         <v>164</v>
       </c>
@@ -15972,7 +16095,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="47.25">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
@@ -15980,7 +16103,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="16" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" s="16" customFormat="1" ht="126">
       <c r="A33" s="36" t="s">
         <v>410</v>
       </c>
@@ -15988,23 +16111,23 @@
         <v>571</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="116" t="s">
+    <row r="34" spans="1:3" ht="408" customHeight="1">
+      <c r="A34" s="120" t="s">
         <v>270</v>
       </c>
-      <c r="B34" s="115" t="s">
+      <c r="B34" s="119" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="206" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="116"/>
-      <c r="B35" s="115"/>
-    </row>
-    <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="117"/>
-      <c r="B36" s="115"/>
-    </row>
-    <row r="37" spans="1:3" s="43" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="206.1" customHeight="1">
+      <c r="A35" s="120"/>
+      <c r="B35" s="119"/>
+    </row>
+    <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1">
+      <c r="A36" s="121"/>
+      <c r="B36" s="119"/>
+    </row>
+    <row r="37" spans="1:3" s="43" customFormat="1" ht="47.25">
       <c r="A37" s="1" t="s">
         <v>273</v>
       </c>
@@ -16012,7 +16135,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="43" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" s="43" customFormat="1" ht="63">
       <c r="A38" s="1" t="s">
         <v>574</v>
       </c>
@@ -16020,7 +16143,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="141.75">
       <c r="A39" s="7" t="s">
         <v>275</v>
       </c>
@@ -16028,7 +16151,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="94.5">
       <c r="A40" s="7" t="s">
         <v>538</v>
       </c>
@@ -16039,7 +16162,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="7" t="s">
         <v>577</v>
       </c>
@@ -16048,7 +16171,7 @@
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="7" t="s">
         <v>354</v>
       </c>
@@ -16057,7 +16180,7 @@
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="189">
       <c r="A43" s="38" t="s">
         <v>579</v>
       </c>
@@ -16066,7 +16189,7 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="78.75">
       <c r="A44" s="38" t="s">
         <v>581</v>
       </c>
@@ -16075,7 +16198,7 @@
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="31.5">
       <c r="A45" s="38" t="s">
         <v>584</v>
       </c>
@@ -16084,7 +16207,7 @@
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="47.25">
       <c r="A46" s="38" t="s">
         <v>208</v>
       </c>
@@ -16093,7 +16216,7 @@
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" s="16" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" s="16" customFormat="1" ht="94.5">
       <c r="A47" s="40" t="s">
         <v>347</v>
       </c>
@@ -16102,7 +16225,7 @@
       </c>
       <c r="C47" s="28"/>
     </row>
-    <row r="48" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="31.5">
       <c r="A48" s="1" t="s">
         <v>254</v>
       </c>
@@ -16110,7 +16233,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="126">
       <c r="A49" s="7" t="s">
         <v>542</v>
       </c>
@@ -16118,19 +16241,19 @@
         <v>587</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="86" customFormat="1" ht="229" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="118" t="s">
+    <row r="50" spans="1:2" s="86" customFormat="1" ht="228.95" customHeight="1">
+      <c r="A50" s="122" t="s">
         <v>905</v>
       </c>
-      <c r="B50" s="115" t="s">
+      <c r="B50" s="119" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="86" customFormat="1" ht="181" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="119"/>
-      <c r="B51" s="115"/>
-    </row>
-    <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" s="86" customFormat="1" ht="180.95" customHeight="1">
+      <c r="A51" s="123"/>
+      <c r="B51" s="119"/>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="103" t="s">
         <v>944</v>
       </c>
@@ -16138,7 +16261,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="103" t="s">
         <v>961</v>
       </c>
@@ -16146,7 +16269,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" s="113" customFormat="1">
       <c r="A54" s="103" t="s">
         <v>1005</v>
       </c>
@@ -16154,7 +16277,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" s="103" t="s">
         <v>1016</v>
       </c>
@@ -16162,8 +16285,13 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="103"/>
+    <row r="56" spans="1:2" ht="173.25">
+      <c r="A56" s="103" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B56" s="118" t="s">
+        <v>1049</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -16177,24 +16305,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E3EE33-A371-6941-8A19-102B9BE03848}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="130" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="3" max="3" width="60.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="38" t="s">
         <v>63</v>
       </c>
@@ -16205,7 +16333,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A2" s="54" t="s">
         <v>109</v>
       </c>
@@ -16214,7 +16342,7 @@
       </c>
       <c r="C2" s="54"/>
     </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="31.5">
       <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
@@ -16222,7 +16350,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A4" s="1" t="s">
         <v>114</v>
       </c>
@@ -16230,7 +16358,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="31.5">
       <c r="A5" s="1" t="s">
         <v>178</v>
       </c>
@@ -16238,7 +16366,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="55" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="55" customFormat="1" ht="141.75">
       <c r="A6" s="1" t="s">
         <v>633</v>
       </c>
@@ -16246,7 +16374,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A7" s="1" t="s">
         <v>311</v>
       </c>
@@ -16254,7 +16382,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A8" s="1" t="s">
         <v>79</v>
       </c>
@@ -16262,7 +16390,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="409.5">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -16273,7 +16401,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A10" s="1" t="s">
         <v>373</v>
       </c>
@@ -16282,7 +16410,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A11" s="1" t="s">
         <v>377</v>
       </c>
@@ -16291,7 +16419,7 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" s="55" customFormat="1" ht="289" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" s="55" customFormat="1" ht="252">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -16299,7 +16427,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -16307,7 +16435,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" s="55" customFormat="1">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -16315,7 +16443,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="55" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" s="55" customFormat="1" ht="47.25">
       <c r="A15" s="1" t="s">
         <v>218</v>
       </c>
@@ -16323,7 +16451,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" s="55" customFormat="1">
       <c r="A16" s="1" t="s">
         <v>84</v>
       </c>
@@ -16331,7 +16459,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" s="55" customFormat="1">
       <c r="A17" s="1" t="s">
         <v>391</v>
       </c>
@@ -16339,7 +16467,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" s="55" customFormat="1">
       <c r="A18" s="1" t="s">
         <v>641</v>
       </c>
@@ -16347,7 +16475,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="55" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" s="55" customFormat="1" ht="63">
       <c r="A19" s="1" t="s">
         <v>192</v>
       </c>
@@ -16356,7 +16484,7 @@
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" s="55" customFormat="1">
       <c r="A20" s="1" t="s">
         <v>264</v>
       </c>
@@ -16365,7 +16493,7 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -16374,7 +16502,7 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" s="55" customFormat="1">
       <c r="A22" s="1" t="s">
         <v>406</v>
       </c>
@@ -16383,7 +16511,7 @@
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A23" s="1" t="s">
         <v>407</v>
       </c>
@@ -16392,7 +16520,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A24" s="1" t="s">
         <v>656</v>
       </c>
@@ -16401,7 +16529,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A25" s="1" t="s">
         <v>232</v>
       </c>
@@ -16410,7 +16538,7 @@
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A26" s="1" t="s">
         <v>270</v>
       </c>
@@ -16419,7 +16547,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A27" s="1" t="s">
         <v>661</v>
       </c>
@@ -16428,7 +16556,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
@@ -16437,7 +16565,7 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A29" s="1" t="s">
         <v>236</v>
       </c>
@@ -16446,7 +16574,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" s="55" customFormat="1">
       <c r="A30" s="1" t="s">
         <v>668</v>
       </c>
@@ -16455,7 +16583,7 @@
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A31" s="1" t="s">
         <v>666</v>
       </c>
@@ -16464,7 +16592,7 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" s="55" customFormat="1">
       <c r="A32" s="1" t="s">
         <v>664</v>
       </c>
@@ -16473,7 +16601,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -16482,7 +16610,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" s="55" customFormat="1">
       <c r="A34" s="1" t="s">
         <v>671</v>
       </c>
@@ -16491,7 +16619,7 @@
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A35" s="1" t="s">
         <v>673</v>
       </c>
@@ -16500,7 +16628,7 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="55" customFormat="1">
       <c r="A36" s="1" t="s">
         <v>675</v>
       </c>
@@ -16509,7 +16637,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A37" s="1" t="s">
         <v>677</v>
       </c>
@@ -16518,7 +16646,7 @@
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A38" s="1" t="s">
         <v>679</v>
       </c>
@@ -16527,7 +16655,7 @@
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A39" s="1" t="s">
         <v>681</v>
       </c>
@@ -16536,7 +16664,7 @@
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="55" customFormat="1">
       <c r="A40" s="1" t="s">
         <v>683</v>
       </c>
@@ -16545,7 +16673,7 @@
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A41" s="1" t="s">
         <v>685</v>
       </c>
@@ -16554,7 +16682,7 @@
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="55" customFormat="1">
       <c r="A42" s="1" t="s">
         <v>687</v>
       </c>
@@ -16563,7 +16691,7 @@
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A43" s="1" t="s">
         <v>689</v>
       </c>
@@ -16572,7 +16700,7 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" s="55" customFormat="1">
       <c r="A44" s="1" t="s">
         <v>105</v>
       </c>
@@ -16581,7 +16709,7 @@
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A45" s="1" t="s">
         <v>691</v>
       </c>
@@ -16590,7 +16718,7 @@
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" s="55" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="55" customFormat="1" ht="110.25">
       <c r="A46" s="1" t="s">
         <v>448</v>
       </c>
@@ -16599,7 +16727,7 @@
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" s="55" customFormat="1" ht="31.5">
       <c r="A47" s="1" t="s">
         <v>696</v>
       </c>
@@ -16608,7 +16736,7 @@
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" s="55" customFormat="1">
       <c r="A48" s="1" t="s">
         <v>121</v>
       </c>
@@ -16617,7 +16745,7 @@
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:2" s="55" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" s="55" customFormat="1" ht="78.75">
       <c r="A49" s="1" t="s">
         <v>638</v>
       </c>
@@ -16625,7 +16753,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" s="55" customFormat="1" ht="31.5">
       <c r="A50" s="1" t="s">
         <v>700</v>
       </c>
@@ -16633,7 +16761,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" s="55" customFormat="1">
       <c r="A51" s="1" t="s">
         <v>698</v>
       </c>
@@ -16641,7 +16769,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="78.75">
       <c r="A52" s="1" t="s">
         <v>636</v>
       </c>
@@ -16649,7 +16777,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" s="55" customFormat="1">
       <c r="A53" s="1" t="s">
         <v>251</v>
       </c>
@@ -16657,7 +16785,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="31.5">
       <c r="A54" s="1" t="s">
         <v>347</v>
       </c>
@@ -16665,7 +16793,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="63">
       <c r="A55" s="1" t="s">
         <v>705</v>
       </c>
@@ -16673,7 +16801,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="31.5">
       <c r="A56" s="1" t="s">
         <v>928</v>
       </c>
@@ -16681,7 +16809,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="47.25">
       <c r="A57" s="1" t="s">
         <v>893</v>
       </c>
@@ -16689,7 +16817,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>982</v>
       </c>
@@ -16697,7 +16825,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="113" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" s="113" customFormat="1" ht="31.5">
       <c r="A59" s="1" t="s">
         <v>977</v>
       </c>
@@ -16705,7 +16833,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="94.5">
       <c r="A60" s="1" t="s">
         <v>997</v>
       </c>
@@ -16713,7 +16841,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="141.75">
       <c r="A61" s="1" t="s">
         <v>999</v>
       </c>
@@ -16721,11 +16849,19 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="204" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" s="117" customFormat="1" ht="157.5">
       <c r="A62" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B62" s="118" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="189">
+      <c r="A63" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="B62" s="114" t="s">
+      <c r="B63" s="114" t="s">
         <v>1035</v>
       </c>
     </row>
@@ -16735,23 +16871,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAD798C-87FC-D847-A0B2-66124E0F060A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="111.1640625" customWidth="1"/>
+    <col min="2" max="2" width="111.125" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="32" t="s">
         <v>63</v>
       </c>
@@ -16762,7 +16898,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="110.25">
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
@@ -16770,7 +16906,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="31.5">
       <c r="A3" s="1" t="s">
         <v>110</v>
       </c>
@@ -16778,7 +16914,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="63">
       <c r="A4" s="1" t="s">
         <v>590</v>
       </c>
@@ -16786,7 +16922,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="31.5">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -16794,7 +16930,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="94.5">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -16802,7 +16938,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="63">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -16810,7 +16946,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="47.25">
       <c r="A8" s="1" t="s">
         <v>124</v>
       </c>
@@ -16818,7 +16954,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="31.5">
       <c r="A9" s="1" t="s">
         <v>598</v>
       </c>
@@ -16826,7 +16962,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="31.5">
       <c r="A10" s="1" t="s">
         <v>362</v>
       </c>
@@ -16834,7 +16970,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="47.25">
       <c r="A11" s="1" t="s">
         <v>126</v>
       </c>
@@ -16842,7 +16978,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="126">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -16850,7 +16986,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="59" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="59" customFormat="1" ht="31.5">
       <c r="A13" s="1" t="s">
         <v>373</v>
       </c>
@@ -16858,7 +16994,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="57" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" s="57" customFormat="1" ht="31.5">
       <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
@@ -16866,7 +17002,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="31.5">
       <c r="A15" s="1" t="s">
         <v>596</v>
       </c>
@@ -16874,7 +17010,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>708</v>
       </c>
@@ -16882,7 +17018,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="283.5">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -16890,7 +17026,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="126">
       <c r="A18" s="1" t="s">
         <v>711</v>
       </c>
@@ -16898,7 +17034,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="47.25">
       <c r="A19" s="1" t="s">
         <v>393</v>
       </c>
@@ -16906,7 +17042,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="59" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" s="59" customFormat="1" ht="47.25">
       <c r="A20" s="1" t="s">
         <v>262</v>
       </c>
@@ -16914,7 +17050,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="31.5">
       <c r="A21" s="1" t="s">
         <v>715</v>
       </c>
@@ -16922,7 +17058,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="60" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" s="60" customFormat="1" ht="47.25">
       <c r="A22" s="1" t="s">
         <v>723</v>
       </c>
@@ -16930,7 +17066,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="63">
       <c r="A23" s="1" t="s">
         <v>720</v>
       </c>
@@ -16938,7 +17074,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="94.5">
       <c r="A24" s="1" t="s">
         <v>347</v>
       </c>
@@ -16946,7 +17082,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>605</v>
       </c>
@@ -16954,7 +17090,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="141.75">
       <c r="A26" s="1" t="s">
         <v>955</v>
       </c>
@@ -16962,12 +17098,20 @@
         <v>956</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="31.5">
       <c r="A27" s="1" t="s">
         <v>984</v>
       </c>
       <c r="B27" s="102" t="s">
         <v>985</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="267.75">
+      <c r="A28" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B28" s="118" t="s">
+        <v>1052</v>
       </c>
     </row>
   </sheetData>

--- a/Mitigation implementations timelines.xlsx
+++ b/Mitigation implementations timelines.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\volunteers\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/COVID 19 (Research)/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9B917D-26E7-2840-997B-C167466790BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="27600" windowHeight="15100" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alberta" sheetId="4" r:id="rId1"/>
@@ -36,21 +37,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="1067">
   <si>
     <t>03/30/2020</t>
   </si>
@@ -9856,14 +9848,6 @@
     <t>10/08/2021</t>
   </si>
   <si>
-    <t>Indoor private gatherings - Households are limited to guests from one other household for indoor private gatherings when an unvaccinated person, who is eligible to be vaccinated, is on the property. This rule applies even if the unvaccinated person lives at the property;
- Outdoor private gatherings – Households are limited to 10 guests for outdoor private gatherings when an unvaccinated person, who is eligible to be vaccinated, is on the property. This rule still applies if the unvaccinated person lives at the property;
- Indoor public gatherings – Manitoba is limiting indoor public gatherings to 25 people or 25 per cent capacity, whichever is lower, for any gatherings that include unvaccinated people who are eligible for vaccination. This applies to weddings and funerals;
- Faith-based gatherings – Indoor group sizes for faith-based gatherings are limited to 25 people or 33 per cent capacity, whichever is greater, for any gathering that includes unvaccinated people who are eligible to be vaccinated;
- Retail capacity- In the Southern Health Region, retail capacity is limited to 50 per cent;
- Outdoor public gatherings – Group sizes for outdoor public gatherings are limited to 50 people. This applies to all gatherings (https://winnipeg.ctvnews.ca/the-public-health-restrictions-manitobans-need-to-follow-at-thanksgiving-gatherings-1.5616828)</t>
-  </si>
-  <si>
     <t>Only fully immunized individuals will be able to participate in or attend at the following events/activities/establishments: restaurants (indoor and patio dining);
 nightclubs and all other licensed premises; fitness centres, gyms and indoor sporting and recreational facilities (excluding youth recreational sport); indoor and outdoor; ticketed sporting events and concerts; indoor theatre/dance/symphony events; casinos, bingo halls and VLT lounges; movie theatres; and
 organized indoor group recreational classes and activities, and indoor recreational businesses. Children born after December 31, 2009 who are not eligible to be immunized will be able to attend events and activities with a fully immunized adult. (https://www.mltaikins.com/covid-19/mb-health-regions-caution-yellow-level/) (https://news.gov.mb.ca/news/index.html?item=52402)</t>
@@ -9992,16 +9976,6 @@
   </si>
   <si>
     <t>10/19/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New restrictions imposed on Winnipeg Metropolitan Region
-Reducing gathering sizes to five people for both indoor and outdoor public and private gatherings. This excludes household members for private gatherings inside a home;
- Closing beverage rooms, bars, live entertainment facilities, casinos and bingo halls;
- Limiting capacity at restaurants and lounges to 50 per cent. Tables can be no more than five people with two-metre distancing;
- Limiting retail businesses to 50 per cent capacity. Food courts and common areas must adhere to the five-person group size limit;
- Reducing the number of spectators at sporting activities and after-school events to 25 per cent of a site’s capacity;
- Reducing capacity at museums, galleries and libraries to 50 per cent. These facilities must also collect all attendees’ contact information; and
- Gyms and fitness centres must collect all attendees contact information. Everyone at a gym or fitness centre must wear a mask, unless they are doing physical activity. (https://winnipeg.ctvnews.ca/new-winnipeg-restrictions-take-effect-today-1.5150717)</t>
   </si>
   <si>
     <t>*Outdoor gatherings limit has been reduced from 1500 to 500. The limit includes summer fairs and festivals though they may be allowed to operate above that limit, subject to protocols approved by public health;
@@ -10155,12 +10129,89 @@
   <si>
     <t>Personal gatherings is limited to 20 people (https://www.todocanada.ca/pei-reintroduces-indoor-masks-personal-gathering-limits-beginning-sept-17th/)</t>
   </si>
+  <si>
+    <t>Indoor private gatherings - Households are limited to guests from one other household for indoor private gatherings when an unvaccinated person, who is eligible to be vaccinated, is on the property. This rule applies even if the unvaccinated person lives at the property;
+ Outdoor private gatherings – Households are limited to 10 guests for outdoor private gatherings when an unvaccinated person, who is eligible to be vaccinated, is on the property. This rule still applies if the unvaccinated person lives at the property;
+ Indoor public gatherings – Manitoba is limiting indoor public gatherings to 25 people or 25 per cent capacity, whichever is lower, for any gatherings that include unvaccinated people who are eligible for vaccination. This applies to weddings and funerals;
+ Faith-based gatherings – Indoor group sizes for faith-based gatherings are limited to 25 people or 33 per cent capacity, whichever is greater, for any gathering that includes unvaccinated people who are eligible to be vaccinated;
+ Retail capacity- In the Southern Health Region, retail capacity is limited to 50 per cent;
+ Outdoor public gatherings – Group sizes for outdoor public gatherings are limited to 50 people. This applies to all gatherings (https://winnipeg.ctvnews.ca/the-public-health-restrictions-manitobans-need-to-follow-at-thanksgiving-gatherings-1.5616828)
+Fully immunized people and those under 12 who are not eligible for the vaccine may gather without capacity limits (https://www.mltaikins.com/covid-19/mb-health-regions-caution-yellow-level/)</t>
+  </si>
+  <si>
+    <t>12/17/2021</t>
+  </si>
+  <si>
+    <t>Manitobans will only be allowed to gather with 10 vaccinated people plus those living at the house indoors. If there are unvaccinated people, the limit is five plus household members. Those under 12 are excluded from these rules.
+Capacity limits of 25 per cent in indoor public areas or 25 people where proof of vaccine is required;
+Outdoor gatherings will have limits of 50 people or 50 per cent capacity;
+Gyms, movie theatres, libraries and museums will still have the vaccine requirements as well as a new 50 per cent capacity limit;
+Restaurants guests will only be served while seated and tables are allowed to only have a capacity of 10, while the restaurants themselves will have a 50 per cent capacity limit;
+Faith-based gatherings where proof of vaccine is required will have a 50 per cent gathering limit. If proof of vaccine isn’t required, the capacity limit will be at 25 per cent or 25 people;
+Indoor and outdoor sports will not have tournaments. Games and practices will be allowed and spectator capacity will be reduced to 50 per cent; and
+Large indoor events will be dropped to 50 per cent capacity. (https://winnipeg.ctvnews.ca/restrictions-on-household-gatherings-among-new-health-orders-in-manitoba-1.5712121)</t>
+  </si>
+  <si>
+    <t>12/20/2021</t>
+  </si>
+  <si>
+    <t>gathering sizes drop from 25 people to 10 people indoors. Outdoor gathering limits will be lowered to 25.
+Ontario is reintroducing capacity limits of 50 per cent at most indoor settings across the province. This includes places like restaurants and bars, personal care services, retailers, and shopping malls. (https://toronto.ctvnews.ca/ontario-slashing-gathering-sizes-reducing-indoor-capacity-limits-as-covid-19-cases-soar-1.5711730)</t>
+  </si>
+  <si>
+    <t>12/19/2021</t>
+  </si>
+  <si>
+    <t>restaurants, bars, casinos, gyms, theaters and cinemas as well as conferences will have to limit their capacity to 50%. The ban on dancing and karaoke is reinstated.
+In shops and malls, the limit has been set at one customer per 20 square meters of floor space. This measure does not affect personal care establishments such as hairdressers and massage therapists. 
+The 50% rule will also apply to places of worship and for essential public activities such as assemblies that can accommodate a maximum of 250 people, but they will now have to require the vaccination passport.
+For funerals, the current capacity of a turnover of 50 people present at a time is maintained. Public Health authorizes the holding of wedding or funeral ceremonies without requiring the vaccination passport, but with a maximum of 25 people.
+For private gatherings inside, the limit remains the same, either 10 people or the occupants of three residences. (https://globalnews.ca/news/8462532/in-quebec-new-health-restrictions-will-take-effect-on-monday/)</t>
+  </si>
+  <si>
+    <t>personal gatherings at home or vacation accommodation are limited to your household plus 10 visitors or 1 other household. Everyone 12+ must be fully vaccinated. There are no restrictions for outdoor personal gatherings.
+Public gatherings Indoor organized gatherings with capacity for 1,000 people or more can only use 50% capacity. Outdoor organized seated gatherings with capacity for 1,000 people or more can only have 50% seated capacity. Proof of vaccination is required.
+(https://www2.gov.bc.ca/gov/content/covid-19/info/restrictions#personal)</t>
+  </si>
+  <si>
+    <t>12/16/2021</t>
+  </si>
+  <si>
+    <t>The gathering limit, including holiday dinners, is now 20 people.
+Social gatherings such as weddings and funerals can have 50 per cent capacity to a maximum of 150 people indoors and 250 people outdoors.
+Sports and arts can have a limit of 60 participants, although competitions and tournaments are not allowed.
+And long-term care homes will have a limit of two visitors at a time per resident. (https://globalnews.ca/news/8452868/ns-covid-19-christmas-restrictions-2020-vs-2021/)</t>
+  </si>
+  <si>
+    <t>Parts of the Central Health region (Badger, Grand Falls-Winsor, Gander, and Twillingate) will move immediately to Level 3, with the following restrictions applying:
+Funerals, burials, and religious ceremonies limited to 100 people, or 50 per cent capacity, whichever is less. Wakes prohibited.
+Performance venues, cinemas and bingo halls to close. Households to limit gatherings to "steady 20" bubble.
+Fitness centres, pools and yoga studios limited to 100 people at a time, or 50 per cent capacity per room.
+Restaurants to reduce capacity to 50 per cent. Bars to close.
+Sports organizations limited to training only — no competitions allowed.
+Work from home recommended.
+Travel in and out of the region not recommended. (https://www.cbc.ca/news/canada/newfoundland-labrador/covid-update-dec-19-1.6291856)</t>
+  </si>
+  <si>
+    <t>12/18/2021</t>
+  </si>
+  <si>
+    <t>Personal gatherings are limited to 10 people, plus your household members. Islanders should have a steady 10 people, not a different 10 people each day.
+ Visitation in long-term care and community care has been adjusted to allow three partners in care, plus three designated visitors with physical distancing.
+ Strict physical distancing between people from different households is required for organizations, events, venues, businesses, and organized gatherings.
+ Physical distancing is now going to be a legal requirement, not just a recommendation, to a maximum of 50 per cent capacity in retail businesses and vax pass events, including theatres, gyms, community gatherings, casinos, etc.
+ Restaurants and eating establishments must maintain six feet between tables and continue to require proof of vaccination for patrons.
+ Masking is required by all patrons, except for when actively eating or drinking.
+ The maximum table size in an eating establishment will be 10 people.
+ There is to be no dancing at any event and karaoke is not permitted.
+ All indoor sport and recreational activities are paused for Island residents, regardless of age; this includes all organized sports, tournaments, competitions, games, team training and practices. Individual recreational activities are permitted such as personal fitness, one-on-one fitness, dance, or music classes, however strict physical distancing at recreational activities is required. (https://atlantic.ctvnews.ca/p-e-i-reports-31-new-cases-of-covid-19-friday-new-restrictions-1.5711935)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -10364,7 +10415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10637,6 +10688,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -10975,7 +11029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -10986,14 +11040,14 @@
       <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="112.125" customWidth="1"/>
-    <col min="3" max="3" width="35.875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="112.1640625" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
@@ -11004,7 +11058,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="63">
+    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -11012,7 +11066,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.5">
+    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -11020,7 +11074,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="4" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>64</v>
       </c>
@@ -11028,7 +11082,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="16" customFormat="1" ht="47.25">
+    <row r="5" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>109</v>
       </c>
@@ -11036,7 +11090,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="141.75">
+    <row r="6" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>62</v>
       </c>
@@ -11044,7 +11098,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="38.1" customHeight="1">
+    <row r="7" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
@@ -11052,7 +11106,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.5">
+    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
@@ -11060,7 +11114,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="47.25">
+    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
@@ -11068,7 +11122,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>76</v>
       </c>
@@ -11076,7 +11130,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="63">
+    <row r="11" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -11084,7 +11138,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="220.5">
+    <row r="12" spans="1:3" ht="238" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
@@ -11092,7 +11146,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="31.5">
+    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
@@ -11100,7 +11154,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="47.25">
+    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
@@ -11108,7 +11162,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="16" customFormat="1" ht="264.95" customHeight="1">
+    <row r="15" spans="1:3" s="16" customFormat="1" ht="265" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
         <v>14</v>
       </c>
@@ -11116,7 +11170,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="63">
+    <row r="16" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
@@ -11124,7 +11178,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="60.75">
+    <row r="17" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
@@ -11132,7 +11186,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="16" customFormat="1" ht="63">
+    <row r="18" spans="1:2" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>86</v>
       </c>
@@ -11140,7 +11194,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="16" customFormat="1" ht="47.25">
+    <row r="19" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
         <v>192</v>
       </c>
@@ -11148,7 +11202,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="31.5">
+    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
@@ -11156,7 +11210,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="60.75">
+    <row r="21" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
@@ -11164,7 +11218,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="258">
+    <row r="22" spans="1:2" ht="289" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>93</v>
       </c>
@@ -11172,7 +11226,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="16" customFormat="1" ht="45.75">
+    <row r="23" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>94</v>
       </c>
@@ -11180,7 +11234,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="57.95" customHeight="1">
+    <row r="24" spans="1:2" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -11188,7 +11242,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="157.5">
+    <row r="25" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
@@ -11196,7 +11250,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>95</v>
       </c>
@@ -11204,7 +11258,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="16" customFormat="1" ht="47.25">
+    <row r="27" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
         <v>180</v>
       </c>
@@ -11212,7 +11266,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="110.25">
+    <row r="28" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>103</v>
       </c>
@@ -11220,7 +11274,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="126">
+    <row r="29" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>182</v>
       </c>
@@ -11228,7 +11282,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="126">
+    <row r="30" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>186</v>
       </c>
@@ -11236,7 +11290,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="16" customFormat="1" ht="63">
+    <row r="31" spans="1:2" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
         <v>185</v>
       </c>
@@ -11244,7 +11298,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="31.5">
+    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>128</v>
       </c>
@@ -11252,7 +11306,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="86" customFormat="1" ht="47.25">
+    <row r="33" spans="1:3" s="86" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>347</v>
       </c>
@@ -11260,7 +11314,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="157.5">
+    <row r="34" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>616</v>
       </c>
@@ -11268,7 +11322,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="86" customFormat="1">
+    <row r="35" spans="1:3" s="86" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>893</v>
       </c>
@@ -11276,7 +11330,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="121.5">
+    <row r="36" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>889</v>
       </c>
@@ -11285,7 +11339,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" s="101" customFormat="1" ht="63">
+    <row r="37" spans="1:3" s="101" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>959</v>
       </c>
@@ -11294,7 +11348,7 @@
       </c>
       <c r="C37" s="102"/>
     </row>
-    <row r="38" spans="1:3" ht="63">
+    <row r="38" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>961</v>
       </c>
@@ -11302,7 +11356,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="104" customFormat="1" ht="267.75">
+    <row r="39" spans="1:3" s="104" customFormat="1" ht="289" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>994</v>
       </c>
@@ -11310,7 +11364,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="104" customFormat="1" ht="267.75">
+    <row r="40" spans="1:3" s="104" customFormat="1" ht="306" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>993</v>
       </c>
@@ -11318,7 +11372,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="105" customFormat="1" ht="47.25">
+    <row r="41" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>997</v>
       </c>
@@ -11326,19 +11380,19 @@
         <v>998</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="110" customFormat="1" ht="31.5">
+    <row r="42" spans="1:3" s="110" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B42" s="88" t="s">
         <v>1023</v>
       </c>
-      <c r="B42" s="88" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="115" customFormat="1">
+    </row>
+    <row r="43" spans="1:3" s="115" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="88"/>
     </row>
-    <row r="44" spans="1:3" ht="47.25">
+    <row r="44" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C44" s="102" t="s">
         <v>618</v>
       </c>
@@ -11349,23 +11403,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="180.5" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="71" customFormat="1">
+    <row r="1" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
         <v>63</v>
       </c>
@@ -11376,7 +11430,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="71" customFormat="1">
+    <row r="2" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="70" t="s">
         <v>626</v>
       </c>
@@ -11385,7 +11439,7 @@
       </c>
       <c r="C2" s="70"/>
     </row>
-    <row r="3" spans="1:3" s="71" customFormat="1" ht="31.5">
+    <row r="3" spans="1:3" s="71" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="70" t="s">
         <v>58</v>
       </c>
@@ -11394,7 +11448,7 @@
       </c>
       <c r="C3" s="70"/>
     </row>
-    <row r="4" spans="1:3" s="71" customFormat="1">
+    <row r="4" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="70" t="s">
         <v>64</v>
       </c>
@@ -11403,7 +11457,7 @@
       </c>
       <c r="C4" s="70"/>
     </row>
-    <row r="5" spans="1:3" s="71" customFormat="1">
+    <row r="5" spans="1:3" s="71" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="70" t="s">
         <v>109</v>
       </c>
@@ -11412,7 +11466,7 @@
       </c>
       <c r="C5" s="70"/>
     </row>
-    <row r="6" spans="1:3" s="71" customFormat="1">
+    <row r="6" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="70" t="s">
         <v>62</v>
       </c>
@@ -11421,7 +11475,7 @@
       </c>
       <c r="C6" s="70"/>
     </row>
-    <row r="7" spans="1:3" s="71" customFormat="1" ht="63">
+    <row r="7" spans="1:3" s="71" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="70" t="s">
         <v>114</v>
       </c>
@@ -11430,7 +11484,7 @@
       </c>
       <c r="C7" s="70"/>
     </row>
-    <row r="8" spans="1:3" ht="126">
+    <row r="8" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>590</v>
       </c>
@@ -11438,7 +11492,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="47.25">
+    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="70" t="s">
         <v>97</v>
       </c>
@@ -11446,13 +11500,13 @@
         <v>780</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="98" customFormat="1">
+    <row r="10" spans="1:3" s="98" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="97"/>
       <c r="B10" s="99" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="204.75">
+    <row r="11" spans="1:3" ht="221" x14ac:dyDescent="0.2">
       <c r="A11" s="70" t="s">
         <v>255</v>
       </c>
@@ -11460,7 +11514,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="63">
+    <row r="12" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="70" t="s">
         <v>6</v>
       </c>
@@ -11468,7 +11522,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="71" customFormat="1" ht="63">
+    <row r="13" spans="1:3" s="71" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="70" t="s">
         <v>70</v>
       </c>
@@ -11476,7 +11530,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="173.25">
+    <row r="14" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A14" s="70" t="s">
         <v>256</v>
       </c>
@@ -11484,7 +11538,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="47.25">
+    <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="70" t="s">
         <v>150</v>
       </c>
@@ -11492,7 +11546,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="47.25">
+    <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="70" t="s">
         <v>258</v>
       </c>
@@ -11500,7 +11554,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="70" t="s">
         <v>82</v>
       </c>
@@ -11508,7 +11562,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="110.25">
+    <row r="18" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A18" s="70" t="s">
         <v>260</v>
       </c>
@@ -11516,7 +11570,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="71" customFormat="1" ht="78.75">
+    <row r="19" spans="1:2" s="71" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="70" t="s">
         <v>261</v>
       </c>
@@ -11524,7 +11578,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="31.5">
+    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="70" t="s">
         <v>25</v>
       </c>
@@ -11532,7 +11586,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="70" t="s">
         <v>27</v>
       </c>
@@ -11540,7 +11594,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="70" t="s">
         <v>29</v>
       </c>
@@ -11548,7 +11602,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="31.5">
+    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="70" t="s">
         <v>266</v>
       </c>
@@ -11556,7 +11610,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="70" t="s">
         <v>795</v>
       </c>
@@ -11564,7 +11618,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="31.5">
+    <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="70" t="s">
         <v>268</v>
       </c>
@@ -11572,7 +11626,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="157.5">
+    <row r="26" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A26" s="70" t="s">
         <v>44</v>
       </c>
@@ -11580,7 +11634,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="220.5">
+    <row r="27" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A27" s="70" t="s">
         <v>269</v>
       </c>
@@ -11588,7 +11642,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="70" t="s">
         <v>95</v>
       </c>
@@ -11596,7 +11650,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="71" customFormat="1" ht="252">
+    <row r="29" spans="1:2" s="71" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A29" s="70" t="s">
         <v>271</v>
       </c>
@@ -11604,7 +11658,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="71" customFormat="1">
+    <row r="30" spans="1:2" s="71" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="70" t="s">
         <v>273</v>
       </c>
@@ -11612,7 +11666,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="71" customFormat="1" ht="31.5">
+    <row r="31" spans="1:2" s="71" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="70" t="s">
         <v>804</v>
       </c>
@@ -11620,7 +11674,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="70" t="s">
         <v>180</v>
       </c>
@@ -11628,7 +11682,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="157.5">
+    <row r="33" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A33" s="70" t="s">
         <v>275</v>
       </c>
@@ -11636,7 +11690,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="220.5">
+    <row r="34" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A34" s="70" t="s">
         <v>103</v>
       </c>
@@ -11644,7 +11698,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="31.5">
+    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="70" t="s">
         <v>439</v>
       </c>
@@ -11652,7 +11706,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="220.5">
+    <row r="36" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A36" s="70" t="s">
         <v>809</v>
       </c>
@@ -11660,7 +11714,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="157.5">
+    <row r="37" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A37" s="70" t="s">
         <v>811</v>
       </c>
@@ -11668,7 +11722,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="63">
+    <row r="38" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="70" t="s">
         <v>446</v>
       </c>
@@ -11676,7 +11730,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="31.5">
+    <row r="39" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="70" t="s">
         <v>696</v>
       </c>
@@ -11684,19 +11738,19 @@
         <v>814</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="71" customFormat="1" ht="225.95" customHeight="1">
-      <c r="A40" s="122" t="s">
+    <row r="40" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="123" t="s">
         <v>815</v>
       </c>
-      <c r="B40" s="124" t="s">
+      <c r="B40" s="125" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="71" customFormat="1" ht="231.95" customHeight="1">
-      <c r="A41" s="123"/>
-      <c r="B41" s="124"/>
-    </row>
-    <row r="42" spans="1:2" ht="31.5">
+    <row r="41" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="124"/>
+      <c r="B41" s="125"/>
+    </row>
+    <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="70" t="s">
         <v>817</v>
       </c>
@@ -11704,31 +11758,31 @@
         <v>818</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1">
-      <c r="A43" s="122" t="s">
+    <row r="43" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="123" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="124" t="s">
+      <c r="B43" s="125" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="71" customFormat="1" ht="134.1" customHeight="1">
-      <c r="A44" s="123"/>
-      <c r="B44" s="124"/>
-    </row>
-    <row r="45" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1">
-      <c r="A45" s="120" t="s">
+    <row r="44" spans="1:2" s="71" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="124"/>
+      <c r="B44" s="125"/>
+    </row>
+    <row r="45" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="121" t="s">
         <v>449</v>
       </c>
-      <c r="B45" s="124" t="s">
+      <c r="B45" s="125" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="71" customFormat="1" ht="284.10000000000002" customHeight="1">
-      <c r="A46" s="125"/>
-      <c r="B46" s="124"/>
-    </row>
-    <row r="47" spans="1:2">
+    <row r="46" spans="1:2" s="71" customFormat="1" ht="284" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="126"/>
+      <c r="B46" s="125"/>
+    </row>
+    <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="70" t="s">
         <v>819</v>
       </c>
@@ -11736,7 +11790,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="71" customFormat="1" ht="47.25">
+    <row r="48" spans="1:2" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="70" t="s">
         <v>824</v>
       </c>
@@ -11744,7 +11798,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="31.5">
+    <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="70" t="s">
         <v>760</v>
       </c>
@@ -11752,31 +11806,31 @@
         <v>823</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="71" customFormat="1" ht="212.1" customHeight="1">
-      <c r="A50" s="122" t="s">
+    <row r="50" spans="1:2" s="71" customFormat="1" ht="212" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="123" t="s">
         <v>826</v>
       </c>
-      <c r="B50" s="124" t="s">
+      <c r="B50" s="125" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="71" customFormat="1" ht="224.1" customHeight="1">
-      <c r="A51" s="123"/>
-      <c r="B51" s="124"/>
-    </row>
-    <row r="52" spans="1:2" s="71" customFormat="1" ht="231.95" customHeight="1">
-      <c r="A52" s="122" t="s">
+    <row r="51" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="124"/>
+      <c r="B51" s="125"/>
+    </row>
+    <row r="52" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="123" t="s">
         <v>827</v>
       </c>
-      <c r="B52" s="124" t="s">
+      <c r="B52" s="125" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="71" customFormat="1" ht="242.1" customHeight="1">
-      <c r="A53" s="123"/>
-      <c r="B53" s="124"/>
-    </row>
-    <row r="54" spans="1:2" ht="31.5">
+    <row r="53" spans="1:2" s="71" customFormat="1" ht="242" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="124"/>
+      <c r="B53" s="125"/>
+    </row>
+    <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="70" t="s">
         <v>828</v>
       </c>
@@ -11784,7 +11838,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="330.75">
+    <row r="55" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>829</v>
       </c>
@@ -11792,7 +11846,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="362.25">
+    <row r="56" spans="1:2" ht="388" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>939</v>
       </c>
@@ -11800,7 +11854,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>961</v>
       </c>
@@ -11808,20 +11862,28 @@
         <v>986</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="113" customFormat="1" ht="78.75">
+    <row r="58" spans="1:2" s="113" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B58" s="114" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="94.5">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>997</v>
       </c>
       <c r="B59" s="92" t="s">
-        <v>1039</v>
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B60" s="119" t="s">
+        <v>1063</v>
       </c>
     </row>
   </sheetData>
@@ -11842,7 +11904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -11852,14 +11914,14 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="121.875" customWidth="1"/>
+    <col min="2" max="2" width="121.83203125" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="71" customFormat="1">
+    <row r="1" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
         <v>63</v>
       </c>
@@ -11870,7 +11932,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="71" customFormat="1" ht="31.5">
+    <row r="2" spans="1:15" s="71" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="70" t="s">
         <v>109</v>
       </c>
@@ -11879,7 +11941,7 @@
       </c>
       <c r="C2" s="70"/>
     </row>
-    <row r="3" spans="1:15" s="74" customFormat="1" ht="121.5">
+    <row r="3" spans="1:15" s="74" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="73" t="s">
         <v>62</v>
       </c>
@@ -11888,7 +11950,7 @@
       </c>
       <c r="C3" s="73"/>
     </row>
-    <row r="4" spans="1:15" s="74" customFormat="1" ht="346.5">
+    <row r="4" spans="1:15" s="74" customFormat="1" ht="372" x14ac:dyDescent="0.2">
       <c r="A4" s="73" t="s">
         <v>114</v>
       </c>
@@ -11897,7 +11959,7 @@
       </c>
       <c r="C4" s="73"/>
     </row>
-    <row r="5" spans="1:15" s="74" customFormat="1" ht="30.75">
+    <row r="5" spans="1:15" s="74" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="73" t="s">
         <v>117</v>
       </c>
@@ -11906,7 +11968,7 @@
       </c>
       <c r="C5" s="73"/>
     </row>
-    <row r="6" spans="1:15" s="74" customFormat="1" ht="123">
+    <row r="6" spans="1:15" s="74" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>319</v>
       </c>
@@ -11914,7 +11976,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="362.25">
+    <row r="7" spans="1:15" ht="388" x14ac:dyDescent="0.2">
       <c r="A7" s="73" t="s">
         <v>256</v>
       </c>
@@ -11922,7 +11984,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="74" customFormat="1" ht="126">
+    <row r="8" spans="1:15" s="74" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -11930,7 +11992,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="47.25">
+    <row r="9" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="73" t="s">
         <v>29</v>
       </c>
@@ -11938,7 +12000,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="74" customFormat="1" ht="94.5">
+    <row r="10" spans="1:15" s="74" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>336</v>
       </c>
@@ -11946,7 +12008,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="74" customFormat="1" ht="220.5">
+    <row r="11" spans="1:15" s="74" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -11954,7 +12016,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="74" customFormat="1" ht="63">
+    <row r="12" spans="1:15" s="74" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>732</v>
       </c>
@@ -11962,7 +12024,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="74" customFormat="1" ht="47.25">
+    <row r="13" spans="1:15" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>734</v>
       </c>
@@ -11970,7 +12032,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="47.25">
+    <row r="14" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="77" t="s">
         <v>232</v>
       </c>
@@ -11991,7 +12053,7 @@
       <c r="N14" s="78"/>
       <c r="O14" s="78"/>
     </row>
-    <row r="15" spans="1:15" ht="47.25">
+    <row r="15" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="77" t="s">
         <v>165</v>
       </c>
@@ -12012,7 +12074,7 @@
       <c r="N15" s="78"/>
       <c r="O15" s="78"/>
     </row>
-    <row r="16" spans="1:15" s="74" customFormat="1" ht="47.25">
+    <row r="16" spans="1:15" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>269</v>
       </c>
@@ -12020,7 +12082,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="74" customFormat="1" ht="47.25">
+    <row r="17" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>739</v>
       </c>
@@ -12028,7 +12090,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="74" customFormat="1" ht="47.25">
+    <row r="18" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>741</v>
       </c>
@@ -12036,7 +12098,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="74" customFormat="1" ht="47.25">
+    <row r="19" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>743</v>
       </c>
@@ -12044,7 +12106,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="74" customFormat="1" ht="47.25">
+    <row r="20" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>668</v>
       </c>
@@ -12052,7 +12114,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="74" customFormat="1" ht="110.25">
+    <row r="21" spans="1:4" s="74" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>664</v>
       </c>
@@ -12060,7 +12122,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="74" customFormat="1" ht="204.75">
+    <row r="22" spans="1:4" s="74" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>671</v>
       </c>
@@ -12068,7 +12130,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="74" customFormat="1" ht="47.25">
+    <row r="23" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>171</v>
       </c>
@@ -12076,7 +12138,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="74" customFormat="1" ht="47.25">
+    <row r="24" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>103</v>
       </c>
@@ -12084,7 +12146,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="74" customFormat="1" ht="47.25">
+    <row r="25" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>751</v>
       </c>
@@ -12092,7 +12154,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="74" customFormat="1" ht="94.5">
+    <row r="26" spans="1:4" s="74" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>753</v>
       </c>
@@ -12101,7 +12163,7 @@
       </c>
       <c r="D26" s="75"/>
     </row>
-    <row r="27" spans="1:4" s="74" customFormat="1" ht="110.25">
+    <row r="27" spans="1:4" s="74" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>755</v>
       </c>
@@ -12109,7 +12171,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="74" customFormat="1" ht="47.25">
+    <row r="28" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>757</v>
       </c>
@@ -12117,7 +12179,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="74" customFormat="1" ht="47.25">
+    <row r="29" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>121</v>
       </c>
@@ -12125,7 +12187,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="74" customFormat="1" ht="63">
+    <row r="30" spans="1:4" s="74" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>760</v>
       </c>
@@ -12133,7 +12195,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="74" customFormat="1" ht="315">
+    <row r="31" spans="1:4" s="74" customFormat="1" ht="340" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>827</v>
       </c>
@@ -12141,7 +12203,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="110.25">
+    <row r="32" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>944</v>
       </c>
@@ -12149,7 +12211,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="31.5">
+    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>961</v>
       </c>
@@ -12157,28 +12219,28 @@
         <v>989</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="108" customFormat="1" ht="31.5">
+    <row r="34" spans="1:2" s="108" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>993</v>
       </c>
       <c r="B34" s="109" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="189">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>966</v>
       </c>
       <c r="B35" s="106" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="94.5">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B36" s="109" t="s">
         <v>1018</v>
-      </c>
-      <c r="B36" s="109" t="s">
-        <v>1019</v>
       </c>
     </row>
   </sheetData>
@@ -12187,23 +12249,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="119.625" customWidth="1"/>
+    <col min="2" max="2" width="119.6640625" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="80" customFormat="1">
+    <row r="1" spans="1:3" s="80" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="79" t="s">
         <v>63</v>
       </c>
@@ -12214,7 +12276,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="110.25">
+    <row r="2" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -12222,7 +12284,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="78.75">
+    <row r="3" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -12230,7 +12292,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="82" customFormat="1" ht="94.5">
+    <row r="4" spans="1:3" s="82" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="82" t="s">
         <v>117</v>
       </c>
@@ -12238,7 +12300,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5">
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>766</v>
       </c>
@@ -12246,7 +12308,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="378">
+    <row r="6" spans="1:3" ht="404" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -12254,7 +12316,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="315">
+    <row r="7" spans="1:3" ht="340" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>202</v>
       </c>
@@ -12262,7 +12324,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="204.75">
+    <row r="8" spans="1:3" ht="221" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>473</v>
       </c>
@@ -12270,7 +12332,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="82" customFormat="1" ht="31.5">
+    <row r="9" spans="1:3" s="82" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="82" t="s">
         <v>872</v>
       </c>
@@ -12278,7 +12340,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -12286,7 +12348,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5">
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>772</v>
       </c>
@@ -12294,7 +12356,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="89" customFormat="1">
+    <row r="12" spans="1:3" s="89" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="89" t="s">
         <v>44</v>
       </c>
@@ -12302,7 +12364,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="84" customFormat="1">
+    <row r="13" spans="1:3" s="84" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="84" t="s">
         <v>882</v>
       </c>
@@ -12310,7 +12372,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="84" customFormat="1">
+    <row r="14" spans="1:3" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="84" t="s">
         <v>95</v>
       </c>
@@ -12318,7 +12380,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="84" customFormat="1">
+    <row r="15" spans="1:3" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="84" t="s">
         <v>273</v>
       </c>
@@ -12326,7 +12388,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="82" customFormat="1" ht="78.75">
+    <row r="16" spans="1:3" s="82" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="82" t="s">
         <v>103</v>
       </c>
@@ -12334,7 +12396,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="315">
+    <row r="17" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -12342,7 +12404,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="84" customFormat="1" ht="157.5">
+    <row r="18" spans="1:2" s="84" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="A18" s="84" t="s">
         <v>439</v>
       </c>
@@ -12350,7 +12412,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="84" customFormat="1" ht="94.5">
+    <row r="19" spans="1:2" s="84" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="84" t="s">
         <v>50</v>
       </c>
@@ -12358,7 +12420,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="84" customFormat="1" ht="204.75">
+    <row r="20" spans="1:2" s="84" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A20" s="84" t="s">
         <v>878</v>
       </c>
@@ -12366,7 +12428,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="84" customFormat="1" ht="141.75">
+    <row r="21" spans="1:2" s="84" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A21" s="84" t="s">
         <v>519</v>
       </c>
@@ -12374,7 +12436,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="84" customFormat="1">
+    <row r="22" spans="1:2" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="84" t="s">
         <v>349</v>
       </c>
@@ -12382,7 +12444,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="84" customFormat="1">
+    <row r="23" spans="1:2" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="84" t="s">
         <v>55</v>
       </c>
@@ -12390,7 +12452,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="47.25">
+    <row r="24" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>888</v>
       </c>
@@ -12398,7 +12460,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>874</v>
       </c>
@@ -12406,7 +12468,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="31.5">
+    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>605</v>
       </c>
@@ -12414,7 +12476,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="236.25">
+    <row r="27" spans="1:2" ht="255" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>889</v>
       </c>
@@ -12422,7 +12484,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="204.75">
+    <row r="28" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>946</v>
       </c>
@@ -12430,7 +12492,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>988</v>
       </c>
@@ -12438,20 +12500,28 @@
         <v>987</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="113" customFormat="1" ht="31.5">
+    <row r="30" spans="1:2" s="113" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="113" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B30" s="114" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="31.5">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B31" s="106" t="s">
         <v>1012</v>
       </c>
-      <c r="B31" s="106" t="s">
-        <v>1013</v>
+    </row>
+    <row r="32" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B32" s="119" t="s">
+        <v>1064</v>
       </c>
     </row>
   </sheetData>
@@ -12460,23 +12530,23 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="118.125" customWidth="1"/>
+    <col min="2" max="2" width="118.1640625" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="71" customFormat="1">
+    <row r="1" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
         <v>63</v>
       </c>
@@ -12487,7 +12557,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="71" customFormat="1" ht="126">
+    <row r="2" spans="1:3" s="71" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="70" t="s">
         <v>109</v>
       </c>
@@ -12496,7 +12566,7 @@
       </c>
       <c r="C2" s="70"/>
     </row>
-    <row r="3" spans="1:3" ht="189">
+    <row r="3" spans="1:3" ht="204" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>255</v>
       </c>
@@ -12504,7 +12574,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="110.25">
+    <row r="4" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>319</v>
       </c>
@@ -12512,7 +12582,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="236.25">
+    <row r="5" spans="1:3" ht="255" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
@@ -12520,7 +12590,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5">
+    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>256</v>
       </c>
@@ -12528,7 +12598,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="119.1" customHeight="1">
+    <row r="7" spans="1:3" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>259</v>
       </c>
@@ -12536,7 +12606,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.5">
+    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>260</v>
       </c>
@@ -12544,7 +12614,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5">
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -12552,7 +12622,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="89" customFormat="1">
+    <row r="10" spans="1:3" s="89" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -12560,7 +12630,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="283.5">
+    <row r="11" spans="1:3" ht="306" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>504</v>
       </c>
@@ -12568,7 +12638,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="89" customFormat="1">
+    <row r="12" spans="1:3" s="89" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>95</v>
       </c>
@@ -12576,7 +12646,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="89" customFormat="1">
+    <row r="13" spans="1:3" s="89" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>273</v>
       </c>
@@ -12584,7 +12654,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="284.10000000000002" customHeight="1">
+    <row r="14" spans="1:3" ht="284" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>878</v>
       </c>
@@ -12592,7 +12662,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="110.25">
+    <row r="15" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>933</v>
       </c>
@@ -12600,7 +12670,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="94.5">
+    <row r="16" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>935</v>
       </c>
@@ -12608,7 +12678,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="93" customFormat="1">
+    <row r="17" spans="1:2" s="93" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>893</v>
       </c>
@@ -12616,7 +12686,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="220.5">
+    <row r="18" spans="1:2" ht="255" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>936</v>
       </c>
@@ -12624,7 +12694,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="47.25">
+    <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>961</v>
       </c>
@@ -12632,36 +12702,44 @@
         <v>990</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="108" customFormat="1" ht="47.25">
+    <row r="20" spans="1:2" s="108" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B20" s="109" t="s">
         <v>1021</v>
       </c>
-      <c r="B20" s="109" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="117" customFormat="1" ht="31.5">
+    </row>
+    <row r="21" spans="1:2" s="117" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B21" s="118" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="105" customFormat="1" ht="31.5">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="105" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>997</v>
       </c>
       <c r="B22" s="106" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="31.5">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B23" s="118" t="s">
-        <v>1054</v>
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="272" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B24" s="119" t="s">
+        <v>1066</v>
       </c>
     </row>
   </sheetData>
@@ -12670,7 +12748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -12680,15 +12758,15 @@
       <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="188.625" customWidth="1"/>
+    <col min="2" max="2" width="188.6640625" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="15" max="15" width="36.125" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="15" max="15" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
@@ -12699,7 +12777,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="62" customFormat="1" ht="108">
+    <row r="2" spans="1:15" s="62" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>109</v>
       </c>
@@ -12708,7 +12786,7 @@
       </c>
       <c r="C2" s="61"/>
     </row>
-    <row r="3" spans="1:15" s="62" customFormat="1" ht="107.25">
+    <row r="3" spans="1:15" s="62" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
         <v>62</v>
       </c>
@@ -12717,7 +12795,7 @@
       </c>
       <c r="C3" s="61"/>
     </row>
-    <row r="4" spans="1:15" s="62" customFormat="1" ht="92.25">
+    <row r="4" spans="1:15" s="62" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="61" t="s">
         <v>111</v>
       </c>
@@ -12726,7 +12804,7 @@
       </c>
       <c r="C4" s="61"/>
     </row>
-    <row r="5" spans="1:15" s="62" customFormat="1" ht="252">
+    <row r="5" spans="1:15" s="62" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A5" s="61" t="s">
         <v>114</v>
       </c>
@@ -12735,7 +12813,7 @@
       </c>
       <c r="C5" s="61"/>
     </row>
-    <row r="6" spans="1:15" s="64" customFormat="1" ht="46.5">
+    <row r="6" spans="1:15" s="64" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="63" t="s">
         <v>117</v>
       </c>
@@ -12744,7 +12822,7 @@
       </c>
       <c r="C6" s="63"/>
     </row>
-    <row r="7" spans="1:15" s="64" customFormat="1" ht="46.5">
+    <row r="7" spans="1:15" s="64" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="63" t="s">
         <v>766</v>
       </c>
@@ -12753,7 +12831,7 @@
       </c>
       <c r="C7" s="63"/>
     </row>
-    <row r="8" spans="1:15" ht="204.75">
+    <row r="8" spans="1:15" ht="221" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>255</v>
       </c>
@@ -12761,7 +12839,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="64" customFormat="1" ht="141.75">
+    <row r="9" spans="1:15" s="64" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -12769,7 +12847,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="72">
+    <row r="10" spans="1:15" ht="76" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -12780,7 +12858,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="94.5">
+    <row r="11" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -12788,7 +12866,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="64" customFormat="1" ht="93">
+    <row r="12" spans="1:15" s="64" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>319</v>
       </c>
@@ -12796,7 +12874,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="110.25">
+    <row r="13" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
@@ -12804,27 +12882,27 @@
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1">
-      <c r="A14" s="126" t="s">
+    <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="127" t="s">
         <v>256</v>
       </c>
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="125" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="64" customFormat="1" ht="71.099999999999994" customHeight="1">
-      <c r="A15" s="127"/>
-      <c r="B15" s="124"/>
-    </row>
-    <row r="16" spans="1:15" s="64" customFormat="1" ht="95.1" customHeight="1">
-      <c r="A16" s="127"/>
-      <c r="B16" s="124"/>
-    </row>
-    <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1">
-      <c r="A17" s="127"/>
-      <c r="B17" s="124"/>
-    </row>
-    <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1">
+    <row r="15" spans="1:15" s="64" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="128"/>
+      <c r="B15" s="125"/>
+    </row>
+    <row r="16" spans="1:15" s="64" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="128"/>
+      <c r="B16" s="125"/>
+    </row>
+    <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="128"/>
+      <c r="B17" s="125"/>
+    </row>
+    <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="69" t="s">
         <v>202</v>
       </c>
@@ -12832,7 +12910,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="47.25">
+    <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -12840,7 +12918,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="94.5">
+    <row r="20" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>150</v>
       </c>
@@ -12848,7 +12926,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="78.75">
+    <row r="21" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>258</v>
       </c>
@@ -12856,7 +12934,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="64" customFormat="1" ht="94.5">
+    <row r="22" spans="1:2" s="64" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -12864,7 +12942,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="64" customFormat="1" ht="126">
+    <row r="23" spans="1:2" s="64" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>473</v>
       </c>
@@ -12872,7 +12950,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="204.75">
+    <row r="24" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>259</v>
       </c>
@@ -12880,7 +12958,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="63">
+    <row r="25" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>260</v>
       </c>
@@ -12888,7 +12966,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="110.25">
+    <row r="26" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>261</v>
       </c>
@@ -12896,7 +12974,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="47.25">
+    <row r="27" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -12904,7 +12982,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="31.5">
+    <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>262</v>
       </c>
@@ -12912,7 +12990,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="94.5">
+    <row r="29" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>263</v>
       </c>
@@ -12920,7 +12998,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="64" customFormat="1" ht="78.75">
+    <row r="30" spans="1:2" s="64" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -12928,7 +13006,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="47.25">
+    <row r="31" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -12936,7 +13014,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="47.25">
+    <row r="32" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>264</v>
       </c>
@@ -12944,7 +13022,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="31.5">
+    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>265</v>
       </c>
@@ -12952,7 +13030,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="31.5">
+    <row r="34" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>156</v>
       </c>
@@ -12960,7 +13038,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="94.5">
+    <row r="35" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>266</v>
       </c>
@@ -12968,7 +13046,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="64" customFormat="1" ht="78.75">
+    <row r="36" spans="1:2" s="64" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>336</v>
       </c>
@@ -12976,7 +13054,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="64" customFormat="1" ht="157.5">
+    <row r="37" spans="1:2" s="64" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -12984,7 +13062,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="63">
+    <row r="38" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>230</v>
       </c>
@@ -12992,7 +13070,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="64" customFormat="1" ht="63">
+    <row r="39" spans="1:2" s="64" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>732</v>
       </c>
@@ -13000,7 +13078,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="64" customFormat="1" ht="31.5">
+    <row r="40" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>734</v>
       </c>
@@ -13008,7 +13086,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="63">
+    <row r="41" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>267</v>
       </c>
@@ -13016,7 +13094,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="47.25">
+    <row r="42" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>268</v>
       </c>
@@ -13024,7 +13102,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="64" customFormat="1" ht="31.5">
+    <row r="43" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>232</v>
       </c>
@@ -13032,7 +13110,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="64" customFormat="1" ht="31.5">
+    <row r="44" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>165</v>
       </c>
@@ -13040,7 +13118,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="64" customFormat="1" ht="47.25">
+    <row r="45" spans="1:2" s="64" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>772</v>
       </c>
@@ -13048,7 +13126,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="64" customFormat="1" ht="31.5">
+    <row r="46" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>269</v>
       </c>
@@ -13056,7 +13134,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="157.5">
+    <row r="47" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -13064,7 +13142,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="126">
+    <row r="48" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>269</v>
       </c>
@@ -13072,7 +13150,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="47.25">
+    <row r="49" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>270</v>
       </c>
@@ -13080,7 +13158,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="64" customFormat="1" ht="31.5">
+    <row r="50" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>739</v>
       </c>
@@ -13088,7 +13166,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="64" customFormat="1" ht="31.5">
+    <row r="51" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>741</v>
       </c>
@@ -13096,7 +13174,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="64" customFormat="1" ht="31.5">
+    <row r="52" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>743</v>
       </c>
@@ -13104,7 +13182,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="31.5">
+    <row r="53" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>236</v>
       </c>
@@ -13112,7 +13190,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="16" customFormat="1" ht="47.25">
+    <row r="54" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>238</v>
       </c>
@@ -13120,7 +13198,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="409.5">
+    <row r="55" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>271</v>
       </c>
@@ -13128,7 +13206,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="64" customFormat="1" ht="31.5">
+    <row r="56" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="64" t="s">
         <v>668</v>
       </c>
@@ -13136,7 +13214,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="78.75">
+    <row r="57" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>273</v>
       </c>
@@ -13144,7 +13222,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="64" customFormat="1" ht="81" customHeight="1">
+    <row r="58" spans="1:2" s="64" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>664</v>
       </c>
@@ -13152,7 +13230,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="78.75">
+    <row r="59" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>272</v>
       </c>
@@ -13160,7 +13238,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="47.25">
+    <row r="60" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>180</v>
       </c>
@@ -13168,7 +13246,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="47.25">
+    <row r="61" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>274</v>
       </c>
@@ -13176,7 +13254,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="64" customFormat="1" ht="141.75">
+    <row r="62" spans="1:2" s="64" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A62" s="64" t="s">
         <v>671</v>
       </c>
@@ -13184,7 +13262,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="64" customFormat="1" ht="47.25">
+    <row r="63" spans="1:2" s="64" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>171</v>
       </c>
@@ -13192,7 +13270,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="63">
+    <row r="64" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>275</v>
       </c>
@@ -13200,7 +13278,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="64" customFormat="1" ht="31.5">
+    <row r="65" spans="1:4" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>242</v>
       </c>
@@ -13208,7 +13286,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="31.5">
+    <row r="66" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>103</v>
       </c>
@@ -13216,7 +13294,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="31.5">
+    <row r="67" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>751</v>
       </c>
@@ -13224,7 +13302,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="78.75">
+    <row r="68" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>753</v>
       </c>
@@ -13235,7 +13313,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="78.75">
+    <row r="69" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>755</v>
       </c>
@@ -13243,7 +13321,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="47.25">
+    <row r="70" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>757</v>
       </c>
@@ -13251,7 +13329,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="31.5">
+    <row r="71" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>121</v>
       </c>
@@ -13259,7 +13337,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="47.25">
+    <row r="72" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>760</v>
       </c>
@@ -13267,7 +13345,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="220.5">
+    <row r="73" spans="1:4" ht="238" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>510</v>
       </c>
@@ -13285,7 +13363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
@@ -13295,14 +13373,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>309</v>
       </c>
@@ -13313,24 +13391,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="139.875" customWidth="1"/>
+    <col min="2" max="2" width="139.83203125" customWidth="1"/>
     <col min="3" max="3" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
@@ -13341,7 +13419,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -13349,7 +13427,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
@@ -13357,7 +13435,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.75">
+    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>114</v>
       </c>
@@ -13365,7 +13443,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="173.25">
+    <row r="5" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>110</v>
       </c>
@@ -13373,7 +13451,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="6" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>117</v>
       </c>
@@ -13381,7 +13459,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="7" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>119</v>
       </c>
@@ -13389,7 +13467,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="126">
+    <row r="8" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>124</v>
       </c>
@@ -13397,7 +13475,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="47.25">
+    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>126</v>
       </c>
@@ -13405,7 +13483,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="122.1" customHeight="1">
+    <row r="10" spans="1:3" ht="122" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
@@ -13416,7 +13494,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="110.25">
+    <row r="11" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
@@ -13427,7 +13505,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>143</v>
       </c>
@@ -13436,7 +13514,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" s="16" customFormat="1" ht="216" customHeight="1">
+    <row r="13" spans="1:3" s="16" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
         <v>132</v>
       </c>
@@ -13447,7 +13525,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="31.5">
+    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>150</v>
       </c>
@@ -13456,7 +13534,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" ht="94.5">
+    <row r="15" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>136</v>
       </c>
@@ -13467,7 +13545,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>144</v>
       </c>
@@ -13476,7 +13554,7 @@
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="110.25">
+    <row r="17" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>140</v>
       </c>
@@ -13487,7 +13565,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>148</v>
       </c>
@@ -13496,7 +13574,7 @@
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" ht="47.25">
+    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>147</v>
       </c>
@@ -13505,7 +13583,7 @@
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" ht="31.5">
+    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>159</v>
       </c>
@@ -13514,7 +13592,7 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" s="16" customFormat="1" ht="94.5">
+    <row r="21" spans="1:3" s="16" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>29</v>
       </c>
@@ -13525,7 +13603,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5">
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>154</v>
       </c>
@@ -13534,7 +13612,7 @@
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" ht="63">
+    <row r="23" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>30</v>
       </c>
@@ -13543,7 +13621,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" ht="63">
+    <row r="24" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>156</v>
       </c>
@@ -13552,7 +13630,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" s="16" customFormat="1" ht="393.75">
+    <row r="25" spans="1:3" s="16" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
         <v>152</v>
       </c>
@@ -13561,7 +13639,7 @@
       </c>
       <c r="C25" s="28"/>
     </row>
-    <row r="26" spans="1:3" ht="408.95" customHeight="1">
+    <row r="26" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>162</v>
       </c>
@@ -13570,7 +13648,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" ht="236.25">
+    <row r="27" spans="1:3" ht="272" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>164</v>
       </c>
@@ -13579,7 +13657,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" ht="94.5">
+    <row r="28" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>165</v>
       </c>
@@ -13590,7 +13668,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="111.95" customHeight="1">
+    <row r="29" spans="1:3" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>168</v>
       </c>
@@ -13601,7 +13679,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="220.5">
+    <row r="30" spans="1:3" ht="238" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>171</v>
       </c>
@@ -13612,7 +13690,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="236.25">
+    <row r="31" spans="1:3" ht="255" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>50</v>
       </c>
@@ -13621,7 +13699,7 @@
       </c>
       <c r="C31" s="19"/>
     </row>
-    <row r="32" spans="1:3" ht="110.25">
+    <row r="32" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>205</v>
       </c>
@@ -13630,7 +13708,7 @@
       </c>
       <c r="C32" s="19"/>
     </row>
-    <row r="33" spans="1:3" ht="249" customHeight="1">
+    <row r="33" spans="1:3" ht="249" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>121</v>
       </c>
@@ -13639,7 +13717,7 @@
       </c>
       <c r="C33" s="19"/>
     </row>
-    <row r="34" spans="1:3" ht="236.25">
+    <row r="34" spans="1:3" ht="255" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>128</v>
       </c>
@@ -13647,7 +13725,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="16" customFormat="1" ht="47.25">
+    <row r="35" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>208</v>
       </c>
@@ -13656,7 +13734,7 @@
       </c>
       <c r="C35" s="28"/>
     </row>
-    <row r="36" spans="1:3" ht="31.5">
+    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>603</v>
       </c>
@@ -13665,7 +13743,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" ht="63">
+    <row r="37" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>605</v>
       </c>
@@ -13673,7 +13751,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="220.5">
+    <row r="38" spans="1:3" ht="238" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>895</v>
       </c>
@@ -13681,7 +13759,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="95" customFormat="1">
+    <row r="39" spans="1:3" s="95" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>829</v>
       </c>
@@ -13689,7 +13767,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="89" customFormat="1" ht="408.95" customHeight="1">
+    <row r="40" spans="1:3" s="89" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>920</v>
       </c>
@@ -13697,7 +13775,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="95" customFormat="1" ht="173.25">
+    <row r="41" spans="1:3" s="95" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>951</v>
       </c>
@@ -13705,7 +13783,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="101" customFormat="1" ht="31.5">
+    <row r="42" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>963</v>
       </c>
@@ -13713,55 +13791,55 @@
         <v>964</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="101" customFormat="1" ht="94.5">
+    <row r="43" spans="1:3" s="101" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>965</v>
       </c>
       <c r="B43" s="102" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="126">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>961</v>
       </c>
       <c r="B44" s="102" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="173.25">
+    <row r="45" spans="1:3" ht="221" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>999</v>
+        <v>1017</v>
       </c>
       <c r="B45" s="106" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="157.5">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B46" s="111" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="78.75">
+        <v>1040</v>
+      </c>
+      <c r="B46" s="118" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B47" s="118" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="31.5">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="204" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B48" s="118" t="s">
-        <v>1045</v>
+        <v>1055</v>
+      </c>
+      <c r="B48" s="119" t="s">
+        <v>1056</v>
       </c>
     </row>
   </sheetData>
@@ -13770,25 +13848,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="128.875" customWidth="1"/>
-    <col min="3" max="3" width="61.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="128.83203125" customWidth="1"/>
+    <col min="3" max="3" width="61.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
@@ -13799,7 +13877,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45.75">
+    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
         <v>56</v>
       </c>
@@ -13808,7 +13886,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" s="16" customFormat="1" ht="157.5">
+    <row r="3" spans="1:3" s="16" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
         <v>62</v>
       </c>
@@ -13817,7 +13895,7 @@
       </c>
       <c r="C3" s="36"/>
     </row>
-    <row r="4" spans="1:3" s="16" customFormat="1">
+    <row r="4" spans="1:3" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
         <v>117</v>
       </c>
@@ -13826,7 +13904,7 @@
       </c>
       <c r="C4" s="36"/>
     </row>
-    <row r="5" spans="1:3" ht="30.75">
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>97</v>
       </c>
@@ -13834,7 +13912,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="47.25">
+    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -13842,7 +13920,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5">
+    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
@@ -13850,7 +13928,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="47.25">
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
@@ -13858,7 +13936,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="126">
+    <row r="9" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -13866,7 +13944,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>612</v>
       </c>
@@ -13874,7 +13952,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="47.25">
+    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -13882,7 +13960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5">
+    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -13890,7 +13968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="31.5">
+    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -13898,7 +13976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="31.5">
+    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -13906,7 +13984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="16" customFormat="1" ht="126">
+    <row r="15" spans="1:3" s="16" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>7</v>
       </c>
@@ -13914,7 +13992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="63">
+    <row r="16" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -13922,7 +14000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="16" customFormat="1" ht="126">
+    <row r="17" spans="1:3" s="16" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
         <v>14</v>
       </c>
@@ -13930,7 +14008,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="94.5">
+    <row r="18" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
@@ -13938,7 +14016,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="63">
+    <row r="19" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -13946,7 +14024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -13954,7 +14032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5">
+    <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -13962,7 +14040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="141.75">
+    <row r="22" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
@@ -13970,7 +14048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5">
+    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
@@ -13978,7 +14056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="47.25">
+    <row r="24" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
@@ -13986,7 +14064,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="16" customFormat="1" ht="126">
+    <row r="25" spans="1:3" s="16" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
         <v>29</v>
       </c>
@@ -13995,7 +14073,7 @@
       </c>
       <c r="C25" s="28"/>
     </row>
-    <row r="26" spans="1:3" ht="31.5">
+    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>30</v>
       </c>
@@ -14004,7 +14082,7 @@
       </c>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" ht="47.25">
+    <row r="27" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -14012,7 +14090,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="300.95" customHeight="1">
+    <row r="28" spans="1:3" ht="301" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>36</v>
       </c>
@@ -14020,7 +14098,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="78.75">
+    <row r="29" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>40</v>
       </c>
@@ -14028,7 +14106,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="31.5">
+    <row r="30" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>41</v>
       </c>
@@ -14036,7 +14114,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="31.5">
+    <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
@@ -14044,7 +14122,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5">
+    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>38</v>
       </c>
@@ -14052,7 +14130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="283.5">
+    <row r="33" spans="1:3" ht="306" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>44</v>
       </c>
@@ -14061,7 +14139,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" s="16" customFormat="1" ht="226.5">
+    <row r="34" spans="1:3" s="16" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
         <v>46</v>
       </c>
@@ -14072,7 +14150,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="16" customFormat="1" ht="230.25">
+    <row r="35" spans="1:3" s="16" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>48</v>
       </c>
@@ -14083,7 +14161,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="16" customFormat="1" ht="63">
+    <row r="36" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>103</v>
       </c>
@@ -14091,7 +14169,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="180.75">
+    <row r="37" spans="1:3" ht="204" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>679</v>
       </c>
@@ -14099,7 +14177,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="90.75">
+    <row r="38" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>52</v>
       </c>
@@ -14107,7 +14185,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="151.5">
+    <row r="39" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>105</v>
       </c>
@@ -14115,7 +14193,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="40" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
         <v>55</v>
       </c>
@@ -14123,7 +14201,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="78.75">
+    <row r="41" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>104</v>
       </c>
@@ -14131,7 +14209,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="315">
+    <row r="42" spans="1:3" ht="340" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>623</v>
       </c>
@@ -14142,7 +14220,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="330.75">
+    <row r="43" spans="1:3" ht="356" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>829</v>
       </c>
@@ -14151,7 +14229,7 @@
       </c>
       <c r="C43" s="46"/>
     </row>
-    <row r="44" spans="1:3" ht="362.25">
+    <row r="44" spans="1:3" ht="388" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>923</v>
       </c>
@@ -14159,7 +14237,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="101" customFormat="1" ht="31.5">
+    <row r="45" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>961</v>
       </c>
@@ -14167,7 +14245,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="63">
+    <row r="46" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>966</v>
       </c>
@@ -14175,7 +14253,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="31.5">
+    <row r="47" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>992</v>
       </c>
@@ -14183,30 +14261,38 @@
         <v>991</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="173.25">
+    <row r="48" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>999</v>
       </c>
       <c r="B48" s="106" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="47.25">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B49" s="111" t="s">
-        <v>1028</v>
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B50" s="119" t="s">
+        <v>1058</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C40"/>
+  <autoFilter ref="A1:C40" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -14217,14 +14303,14 @@
       <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.625" customWidth="1"/>
-    <col min="3" max="3" width="37.125" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
@@ -14235,7 +14321,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="126">
+    <row r="2" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
@@ -14243,7 +14329,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="201" customHeight="1">
+    <row r="3" spans="1:3" ht="201" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>195</v>
       </c>
@@ -14251,7 +14337,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="16" customFormat="1" ht="168.95" customHeight="1">
+    <row r="4" spans="1:3" s="16" customFormat="1" ht="169" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>110</v>
       </c>
@@ -14259,7 +14345,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="16" customFormat="1" ht="233.1" customHeight="1">
+    <row r="5" spans="1:3" s="16" customFormat="1" ht="233" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>117</v>
       </c>
@@ -14267,7 +14353,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="16" customFormat="1" ht="122.1" customHeight="1">
+    <row r="6" spans="1:3" s="16" customFormat="1" ht="122" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>60</v>
       </c>
@@ -14275,7 +14361,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="94.5">
+    <row r="7" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
@@ -14283,7 +14369,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="126">
+    <row r="8" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -14291,7 +14377,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="173.25">
+    <row r="9" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>202</v>
       </c>
@@ -14299,7 +14385,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -14307,7 +14393,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="94.5">
+    <row r="11" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>214</v>
       </c>
@@ -14315,7 +14401,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="78.75">
+    <row r="12" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>203</v>
       </c>
@@ -14323,7 +14409,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="94.5">
+    <row r="13" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>216</v>
       </c>
@@ -14331,7 +14417,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="63">
+    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>217</v>
       </c>
@@ -14339,7 +14425,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="110.25">
+    <row r="15" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>218</v>
       </c>
@@ -14347,7 +14433,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="78.75">
+    <row r="16" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>219</v>
       </c>
@@ -14355,7 +14441,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="63">
+    <row r="17" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>192</v>
       </c>
@@ -14363,7 +14449,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="31.5">
+    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>230</v>
       </c>
@@ -14371,7 +14457,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="31.5">
+    <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>228</v>
       </c>
@@ -14379,7 +14465,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="126">
+    <row r="20" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>232</v>
       </c>
@@ -14387,7 +14473,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="362.25">
+    <row r="21" spans="1:3" ht="388" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>234</v>
       </c>
@@ -14395,7 +14481,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5">
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>619</v>
       </c>
@@ -14403,7 +14489,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="63">
+    <row r="23" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>236</v>
       </c>
@@ -14411,7 +14497,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="110.25">
+    <row r="24" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>238</v>
       </c>
@@ -14419,7 +14505,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25">
+    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>240</v>
       </c>
@@ -14427,7 +14513,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5">
+    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>621</v>
       </c>
@@ -14435,7 +14521,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="31.5">
+    <row r="27" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>242</v>
       </c>
@@ -14443,7 +14529,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="31.5">
+    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>245</v>
       </c>
@@ -14451,7 +14537,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5">
+    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>246</v>
       </c>
@@ -14459,7 +14545,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="94.5">
+    <row r="30" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>251</v>
       </c>
@@ -14467,7 +14553,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="252">
+    <row r="31" spans="1:3" ht="272" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>252</v>
       </c>
@@ -14475,7 +14561,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>898</v>
       </c>
@@ -14484,7 +14570,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" ht="63">
+    <row r="33" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>925</v>
       </c>
@@ -14493,7 +14579,7 @@
       </c>
       <c r="C33" s="87"/>
     </row>
-    <row r="34" spans="1:3" s="101" customFormat="1" ht="31.5">
+    <row r="34" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>971</v>
       </c>
@@ -14502,7 +14588,7 @@
       </c>
       <c r="C34" s="102"/>
     </row>
-    <row r="35" spans="1:3" s="101" customFormat="1" ht="31.5">
+    <row r="35" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>969</v>
       </c>
@@ -14511,25 +14597,25 @@
       </c>
       <c r="C35" s="102"/>
     </row>
-    <row r="36" spans="1:3" s="105" customFormat="1" ht="63">
+    <row r="36" spans="1:3" s="105" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C36" s="106"/>
     </row>
-    <row r="37" spans="1:3" s="105" customFormat="1" ht="47.25">
+    <row r="37" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>1003</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>1004</v>
-      </c>
       <c r="C37" s="106"/>
     </row>
-    <row r="38" spans="1:3" ht="78.75">
+    <row r="38" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="C38" s="90" t="s">
         <v>227</v>
       </c>
@@ -14540,25 +14626,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="33"/>
-    <col min="2" max="2" width="119.625" customWidth="1"/>
-    <col min="3" max="3" width="76.625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="33"/>
+    <col min="2" max="2" width="119.6640625" customWidth="1"/>
+    <col min="3" max="3" width="76.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>63</v>
       </c>
@@ -14569,7 +14655,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
@@ -14577,7 +14663,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="157.5">
+    <row r="3" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>626</v>
       </c>
@@ -14585,7 +14671,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="47.25">
+    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>64</v>
       </c>
@@ -14596,7 +14682,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="5" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>109</v>
       </c>
@@ -14604,7 +14690,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="141.75">
+    <row r="6" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>178</v>
       </c>
@@ -14612,7 +14698,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="63">
+    <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>117</v>
       </c>
@@ -14620,7 +14706,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="110.25">
+    <row r="8" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>97</v>
       </c>
@@ -14628,7 +14714,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="47.25">
+    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
@@ -14639,7 +14725,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="63" customHeight="1">
+    <row r="10" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>99</v>
       </c>
@@ -14647,7 +14733,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30.75">
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>360</v>
       </c>
@@ -14655,7 +14741,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30.75">
+    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>362</v>
       </c>
@@ -14663,7 +14749,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30.75">
+    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>363</v>
       </c>
@@ -14671,7 +14757,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="47.25">
+    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>116</v>
       </c>
@@ -14679,7 +14765,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45.75">
+    <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>316</v>
       </c>
@@ -14687,7 +14773,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30.75">
+    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>368</v>
       </c>
@@ -14695,7 +14781,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="75.75">
+    <row r="17" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>2</v>
       </c>
@@ -14706,7 +14792,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30.75">
+    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>370</v>
       </c>
@@ -14714,7 +14800,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="16" customFormat="1" ht="94.5">
+    <row r="19" spans="1:3" s="16" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
         <v>4</v>
       </c>
@@ -14722,7 +14808,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="31.5">
+    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>311</v>
       </c>
@@ -14730,7 +14816,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5">
+    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>322</v>
       </c>
@@ -14738,7 +14824,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="150.75">
+    <row r="22" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>372</v>
       </c>
@@ -14749,7 +14835,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5">
+    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>319</v>
       </c>
@@ -14757,7 +14843,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31.5">
+    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>72</v>
       </c>
@@ -14765,7 +14851,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="31.5">
+    <row r="25" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>373</v>
       </c>
@@ -14773,7 +14859,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5">
+    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>70</v>
       </c>
@@ -14781,7 +14867,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="78.75">
+    <row r="27" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>132</v>
       </c>
@@ -14789,7 +14875,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30.75">
+    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>375</v>
       </c>
@@ -14797,7 +14883,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5">
+    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>377</v>
       </c>
@@ -14805,7 +14891,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="47.25">
+    <row r="30" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>150</v>
       </c>
@@ -14813,7 +14899,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="31.5">
+    <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>378</v>
       </c>
@@ -14821,7 +14907,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="94.5">
+    <row r="32" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>214</v>
       </c>
@@ -14829,7 +14915,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="31.5">
+    <row r="33" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>380</v>
       </c>
@@ -14837,7 +14923,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="47.25">
+    <row r="34" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>473</v>
       </c>
@@ -14845,7 +14931,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30.75">
+    <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>381</v>
       </c>
@@ -14853,7 +14939,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30.75">
+    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>384</v>
       </c>
@@ -14861,7 +14947,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30.75">
+    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>386</v>
       </c>
@@ -14869,7 +14955,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30.75">
+    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>261</v>
       </c>
@@ -14877,7 +14963,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30.75">
+    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>389</v>
       </c>
@@ -14885,7 +14971,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="63">
+    <row r="40" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>326</v>
       </c>
@@ -14893,7 +14979,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5">
+    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>391</v>
       </c>
@@ -14901,7 +14987,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5">
+    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>148</v>
       </c>
@@ -14909,7 +14995,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.5">
+    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>393</v>
       </c>
@@ -14917,7 +15003,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="31.5">
+    <row r="44" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>263</v>
       </c>
@@ -14925,7 +15011,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="16" customFormat="1" ht="236.25">
+    <row r="45" spans="1:3" s="16" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
         <v>331</v>
       </c>
@@ -14936,7 +15022,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="46" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
         <v>394</v>
       </c>
@@ -14945,7 +15031,7 @@
       </c>
       <c r="C46" s="28"/>
     </row>
-    <row r="47" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="47" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
         <v>395</v>
       </c>
@@ -14954,7 +15040,7 @@
       </c>
       <c r="C47" s="28"/>
     </row>
-    <row r="48" spans="1:3" s="16" customFormat="1" ht="47.25">
+    <row r="48" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
         <v>474</v>
       </c>
@@ -14965,7 +15051,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="49" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
         <v>396</v>
       </c>
@@ -14974,7 +15060,7 @@
       </c>
       <c r="C49" s="28"/>
     </row>
-    <row r="50" spans="1:3" ht="110.25">
+    <row r="50" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>328</v>
       </c>
@@ -14982,7 +15068,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="31.5">
+    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>397</v>
       </c>
@@ -14990,7 +15076,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="282.75">
+    <row r="52" spans="1:3" ht="306" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>335</v>
       </c>
@@ -14998,7 +15084,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="31.5">
+    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>405</v>
       </c>
@@ -15006,7 +15092,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="16" customFormat="1" ht="141.75">
+    <row r="54" spans="1:3" s="16" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
         <v>336</v>
       </c>
@@ -15014,7 +15100,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="55" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
         <v>406</v>
       </c>
@@ -15022,7 +15108,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="56" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
         <v>228</v>
       </c>
@@ -15030,7 +15116,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="57" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="24" t="s">
         <v>407</v>
       </c>
@@ -15038,7 +15124,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="58" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="24" t="s">
         <v>408</v>
       </c>
@@ -15046,7 +15132,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="59" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="24" t="s">
         <v>409</v>
       </c>
@@ -15054,7 +15140,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="60" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="24" t="s">
         <v>410</v>
       </c>
@@ -15062,7 +15148,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="61" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="24" t="s">
         <v>411</v>
       </c>
@@ -15070,7 +15156,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="62" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="24" t="s">
         <v>270</v>
       </c>
@@ -15078,7 +15164,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="63" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
         <v>412</v>
       </c>
@@ -15086,7 +15172,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="64" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="24" t="s">
         <v>413</v>
       </c>
@@ -15094,7 +15180,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="65" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="24" t="s">
         <v>414</v>
       </c>
@@ -15102,7 +15188,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="16" customFormat="1" ht="173.25">
+    <row r="66" spans="1:3" s="16" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
         <v>240</v>
       </c>
@@ -15113,7 +15199,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="67" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="24" t="s">
         <v>415</v>
       </c>
@@ -15121,7 +15207,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="16" customFormat="1" ht="30.75">
+    <row r="68" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="24" t="s">
         <v>429</v>
       </c>
@@ -15129,7 +15215,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="78.75">
+    <row r="69" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>272</v>
       </c>
@@ -15140,7 +15226,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="16" customFormat="1" ht="60.75">
+    <row r="70" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A70" s="24" t="s">
         <v>180</v>
       </c>
@@ -15148,7 +15234,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="16" customFormat="1" ht="30.75">
+    <row r="71" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="24" t="s">
         <v>431</v>
       </c>
@@ -15156,7 +15242,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="16" customFormat="1" ht="63">
+    <row r="72" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
         <v>339</v>
       </c>
@@ -15167,7 +15253,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="73" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
         <v>433</v>
       </c>
@@ -15176,7 +15262,7 @@
       </c>
       <c r="C73" s="29"/>
     </row>
-    <row r="74" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="74" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="24" t="s">
         <v>437</v>
       </c>
@@ -15185,7 +15271,7 @@
       </c>
       <c r="C74" s="29"/>
     </row>
-    <row r="75" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="75" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="24" t="s">
         <v>436</v>
       </c>
@@ -15194,7 +15280,7 @@
       </c>
       <c r="C75" s="29"/>
     </row>
-    <row r="76" spans="1:3" ht="173.25">
+    <row r="76" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>103</v>
       </c>
@@ -15205,7 +15291,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="31.5">
+    <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>439</v>
       </c>
@@ -15213,7 +15299,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="31.5">
+    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>440</v>
       </c>
@@ -15221,7 +15307,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="31.5">
+    <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>441</v>
       </c>
@@ -15229,7 +15315,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="31.5">
+    <row r="80" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>442</v>
       </c>
@@ -15237,7 +15323,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="94.5">
+    <row r="81" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>182</v>
       </c>
@@ -15245,7 +15331,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="31.5">
+    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>443</v>
       </c>
@@ -15253,7 +15339,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="31.5">
+    <row r="83" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>444</v>
       </c>
@@ -15261,7 +15347,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="78.75">
+    <row r="84" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>355</v>
       </c>
@@ -15269,7 +15355,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="198" customHeight="1">
+    <row r="85" spans="1:3" ht="198" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>205</v>
       </c>
@@ -15280,7 +15366,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="16" customFormat="1" ht="63">
+    <row r="86" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="24" t="s">
         <v>354</v>
       </c>
@@ -15288,7 +15374,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="87" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="24" t="s">
         <v>445</v>
       </c>
@@ -15296,7 +15382,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="16" customFormat="1" ht="141.75">
+    <row r="88" spans="1:3" s="16" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A88" s="24" t="s">
         <v>349</v>
       </c>
@@ -15304,7 +15390,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="16" customFormat="1" ht="63">
+    <row r="89" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A89" s="24" t="s">
         <v>485</v>
       </c>
@@ -15315,7 +15401,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="16" customFormat="1" ht="31.5">
+    <row r="90" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="24" t="s">
         <v>446</v>
       </c>
@@ -15323,7 +15409,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="16" customFormat="1" ht="47.25">
+    <row r="91" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="24" t="s">
         <v>55</v>
       </c>
@@ -15331,7 +15417,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="31.5">
+    <row r="92" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>447</v>
       </c>
@@ -15339,7 +15425,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="31.5">
+    <row r="93" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>448</v>
       </c>
@@ -15347,7 +15433,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="31.5">
+    <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>449</v>
       </c>
@@ -15355,7 +15441,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="31.5">
+    <row r="95" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>450</v>
       </c>
@@ -15363,7 +15449,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="31.5">
+    <row r="96" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>208</v>
       </c>
@@ -15371,7 +15457,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="31.5">
+    <row r="97" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>451</v>
       </c>
@@ -15379,7 +15465,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="78.75">
+    <row r="98" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>347</v>
       </c>
@@ -15387,7 +15473,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="31.5">
+    <row r="99" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>453</v>
       </c>
@@ -15395,7 +15481,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="47.25">
+    <row r="100" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>254</v>
       </c>
@@ -15406,7 +15492,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="47.25">
+    <row r="101" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>342</v>
       </c>
@@ -15417,7 +15503,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="31.5">
+    <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>308</v>
       </c>
@@ -15425,7 +15511,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="89" customFormat="1">
+    <row r="103" spans="1:3" s="89" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>828</v>
       </c>
@@ -15433,7 +15519,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="283.5">
+    <row r="104" spans="1:3" ht="306" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>900</v>
       </c>
@@ -15441,7 +15527,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="105" spans="1:3" s="95" customFormat="1" ht="189">
+    <row r="105" spans="1:3" s="95" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>946</v>
       </c>
@@ -15449,7 +15535,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="106" spans="1:3" s="101" customFormat="1" ht="31.5">
+    <row r="106" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>975</v>
       </c>
@@ -15457,45 +15543,53 @@
         <v>976</v>
       </c>
     </row>
-    <row r="107" spans="1:3" s="105" customFormat="1" ht="47.25">
+    <row r="107" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>971</v>
       </c>
       <c r="B107" s="106" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" s="105" customFormat="1" ht="31.5">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" s="105" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>999</v>
       </c>
       <c r="B108" s="106" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" s="113" customFormat="1" ht="79.5">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" s="113" customFormat="1" ht="88" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B109" s="116" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="220.5">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="238" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B110" s="118" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C110" s="34" t="s">
         <v>484</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B111" s="119" t="s">
+        <v>1060</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C72" r:id="rId1" display="https://www.cp24.com/news/quebec-high-school-students-back-in-classroom-after-month-long-break-1.5272426?cache=yes. "/>
+    <hyperlink ref="C72" r:id="rId1" display="https://www.cp24.com/news/quebec-high-school-students-back-in-classroom-after-month-long-break-1.5272426?cache=yes. " xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -15503,25 +15597,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="112.625" customWidth="1"/>
+    <col min="2" max="2" width="112.6640625" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.125" customWidth="1"/>
+    <col min="5" max="5" width="50.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>63</v>
       </c>
@@ -15532,7 +15626,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="47.25">
+    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -15540,7 +15634,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="63">
+    <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
@@ -15548,7 +15642,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="16" customFormat="1" ht="110.25">
+    <row r="4" spans="1:3" s="16" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
         <v>62</v>
       </c>
@@ -15556,7 +15650,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="63">
+    <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>178</v>
       </c>
@@ -15564,7 +15658,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5">
+    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -15572,7 +15666,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="47.25">
+    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>491</v>
       </c>
@@ -15580,7 +15674,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.5">
+    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>363</v>
       </c>
@@ -15588,7 +15682,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5">
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
@@ -15596,7 +15690,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -15604,7 +15698,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="220.5">
+    <row r="11" spans="1:3" ht="238" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -15612,7 +15706,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5">
+    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>373</v>
       </c>
@@ -15620,7 +15714,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="16" customFormat="1" ht="63">
+    <row r="13" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
         <v>132</v>
       </c>
@@ -15628,7 +15722,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="141.75">
+    <row r="14" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -15636,7 +15730,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5">
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>381</v>
       </c>
@@ -15644,7 +15738,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="47.25">
+    <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>261</v>
       </c>
@@ -15652,7 +15746,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="16" customFormat="1" ht="78.75">
+    <row r="17" spans="1:2" s="16" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
         <v>154</v>
       </c>
@@ -15660,7 +15754,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="16" customFormat="1" ht="141.75">
+    <row r="18" spans="1:2" s="16" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>232</v>
       </c>
@@ -15668,7 +15762,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="173.25">
+    <row r="19" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -15676,7 +15770,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="63">
+    <row r="20" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>504</v>
       </c>
@@ -15684,7 +15778,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30.75">
+    <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -15692,7 +15786,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="44" customFormat="1">
+    <row r="22" spans="1:2" s="44" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>273</v>
       </c>
@@ -15700,7 +15794,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="47.25">
+    <row r="23" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>507</v>
       </c>
@@ -15708,7 +15802,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="47.25">
+    <row r="24" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>519</v>
       </c>
@@ -15716,7 +15810,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="63">
+    <row r="25" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>354</v>
       </c>
@@ -15724,7 +15818,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="31.5">
+    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>516</v>
       </c>
@@ -15732,7 +15826,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="173.25">
+    <row r="27" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>509</v>
       </c>
@@ -15740,7 +15834,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="220.5">
+    <row r="28" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>510</v>
       </c>
@@ -15748,7 +15842,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="86" customFormat="1">
+    <row r="29" spans="1:2" s="86" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>893</v>
       </c>
@@ -15756,7 +15850,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="220.5">
+    <row r="30" spans="1:2" ht="255" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>889</v>
       </c>
@@ -15764,7 +15858,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="47.25">
+    <row r="31" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>973</v>
       </c>
@@ -15772,7 +15866,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="101" customFormat="1" ht="31.5">
+    <row r="32" spans="1:2" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>961</v>
       </c>
@@ -15780,7 +15874,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="236.25">
+    <row r="33" spans="1:5" ht="255" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>977</v>
       </c>
@@ -15788,29 +15882,41 @@
         <v>978</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="78.75">
+    <row r="34" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B34" s="106" t="s">
         <v>1008</v>
       </c>
-      <c r="B34" s="106" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="126">
+    </row>
+    <row r="35" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B35" s="114" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="47.25">
-      <c r="E36" s="2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B36" s="119" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="141.75">
-      <c r="E37" s="2" t="s">
+    <row r="41" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="E41" s="119" t="s">
         <v>515</v>
       </c>
     </row>
@@ -15820,7 +15926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -15830,13 +15936,13 @@
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="178.125" customWidth="1"/>
-    <col min="3" max="3" width="34.875" customWidth="1"/>
+    <col min="2" max="2" width="178.1640625" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>63</v>
       </c>
@@ -15847,7 +15953,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="16" customFormat="1">
+    <row r="2" spans="1:3" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
         <v>62</v>
       </c>
@@ -15855,7 +15961,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="258" customHeight="1">
+    <row r="3" spans="1:3" ht="258" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>110</v>
       </c>
@@ -15864,7 +15970,7 @@
       </c>
       <c r="C3" s="37"/>
     </row>
-    <row r="4" spans="1:3" ht="47.25">
+    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -15873,7 +15979,7 @@
       </c>
       <c r="C4" s="37"/>
     </row>
-    <row r="5" spans="1:3" ht="31.5">
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>360</v>
       </c>
@@ -15882,7 +15988,7 @@
       </c>
       <c r="C5" s="37"/>
     </row>
-    <row r="6" spans="1:3" ht="47.25">
+    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>363</v>
       </c>
@@ -15891,7 +15997,7 @@
       </c>
       <c r="C6" s="37"/>
     </row>
-    <row r="7" spans="1:3" s="16" customFormat="1">
+    <row r="7" spans="1:3" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
         <v>126</v>
       </c>
@@ -15900,7 +16006,7 @@
       </c>
       <c r="C7" s="58"/>
     </row>
-    <row r="8" spans="1:3" ht="63">
+    <row r="8" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>523</v>
       </c>
@@ -15908,7 +16014,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5">
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>528</v>
       </c>
@@ -15916,7 +16022,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>150</v>
       </c>
@@ -15924,7 +16030,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="78.75">
+    <row r="11" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>214</v>
       </c>
@@ -15932,7 +16038,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="47.25">
+    <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>203</v>
       </c>
@@ -15940,7 +16046,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="63">
+    <row r="13" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>544</v>
       </c>
@@ -15951,7 +16057,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="31.5">
+    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>533</v>
       </c>
@@ -15959,7 +16065,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>549</v>
       </c>
@@ -15967,7 +16073,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>548</v>
       </c>
@@ -15975,7 +16081,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>148</v>
       </c>
@@ -15983,7 +16089,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>552</v>
       </c>
@@ -15991,7 +16097,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
@@ -15999,7 +16105,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="31.5">
+    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>550</v>
       </c>
@@ -16007,7 +16113,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>393</v>
       </c>
@@ -16015,7 +16121,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="31.5">
+    <row r="22" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>262</v>
       </c>
@@ -16023,7 +16129,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>551</v>
       </c>
@@ -16031,7 +16137,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>147</v>
       </c>
@@ -16039,7 +16145,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>192</v>
       </c>
@@ -16047,7 +16153,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>159</v>
       </c>
@@ -16055,7 +16161,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="16" customFormat="1">
+    <row r="27" spans="1:2" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
         <v>553</v>
       </c>
@@ -16063,7 +16169,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="173.25">
+    <row r="28" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>535</v>
       </c>
@@ -16071,7 +16177,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="31.5">
+    <row r="29" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>267</v>
       </c>
@@ -16079,7 +16185,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="31.5">
+    <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>409</v>
       </c>
@@ -16087,7 +16193,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="94.5">
+    <row r="31" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>164</v>
       </c>
@@ -16095,7 +16201,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="47.25">
+    <row r="32" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
@@ -16103,7 +16209,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="16" customFormat="1" ht="126">
+    <row r="33" spans="1:3" s="16" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A33" s="36" t="s">
         <v>410</v>
       </c>
@@ -16111,23 +16217,23 @@
         <v>571</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="408" customHeight="1">
-      <c r="A34" s="120" t="s">
+    <row r="34" spans="1:3" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="121" t="s">
         <v>270</v>
       </c>
-      <c r="B34" s="119" t="s">
+      <c r="B34" s="120" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="206.1" customHeight="1">
-      <c r="A35" s="120"/>
-      <c r="B35" s="119"/>
-    </row>
-    <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1">
-      <c r="A36" s="121"/>
-      <c r="B36" s="119"/>
-    </row>
-    <row r="37" spans="1:3" s="43" customFormat="1" ht="47.25">
+    <row r="35" spans="1:3" ht="206" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="121"/>
+      <c r="B35" s="120"/>
+    </row>
+    <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="122"/>
+      <c r="B36" s="120"/>
+    </row>
+    <row r="37" spans="1:3" s="43" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>273</v>
       </c>
@@ -16135,7 +16241,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="43" customFormat="1" ht="63">
+    <row r="38" spans="1:3" s="43" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>574</v>
       </c>
@@ -16143,7 +16249,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="141.75">
+    <row r="39" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>275</v>
       </c>
@@ -16151,7 +16257,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="94.5">
+    <row r="40" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>538</v>
       </c>
@@ -16162,7 +16268,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>577</v>
       </c>
@@ -16171,7 +16277,7 @@
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>354</v>
       </c>
@@ -16180,7 +16286,7 @@
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" ht="189">
+    <row r="43" spans="1:3" ht="204" x14ac:dyDescent="0.2">
       <c r="A43" s="38" t="s">
         <v>579</v>
       </c>
@@ -16189,7 +16295,7 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" ht="78.75">
+    <row r="44" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A44" s="38" t="s">
         <v>581</v>
       </c>
@@ -16198,7 +16304,7 @@
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" ht="31.5">
+    <row r="45" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="38" t="s">
         <v>584</v>
       </c>
@@ -16207,7 +16313,7 @@
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" ht="47.25">
+    <row r="46" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="38" t="s">
         <v>208</v>
       </c>
@@ -16216,7 +16322,7 @@
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" s="16" customFormat="1" ht="94.5">
+    <row r="47" spans="1:3" s="16" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A47" s="40" t="s">
         <v>347</v>
       </c>
@@ -16225,7 +16331,7 @@
       </c>
       <c r="C47" s="28"/>
     </row>
-    <row r="48" spans="1:3" ht="31.5">
+    <row r="48" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>254</v>
       </c>
@@ -16233,7 +16339,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="126">
+    <row r="49" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>542</v>
       </c>
@@ -16241,19 +16347,19 @@
         <v>587</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="86" customFormat="1" ht="228.95" customHeight="1">
-      <c r="A50" s="122" t="s">
+    <row r="50" spans="1:2" s="86" customFormat="1" ht="229" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="123" t="s">
         <v>905</v>
       </c>
-      <c r="B50" s="119" t="s">
+      <c r="B50" s="120" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="86" customFormat="1" ht="180.95" customHeight="1">
-      <c r="A51" s="123"/>
-      <c r="B51" s="119"/>
-    </row>
-    <row r="52" spans="1:2">
+    <row r="51" spans="1:2" s="86" customFormat="1" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="124"/>
+      <c r="B51" s="120"/>
+    </row>
+    <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="103" t="s">
         <v>944</v>
       </c>
@@ -16261,7 +16367,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="103" t="s">
         <v>961</v>
       </c>
@@ -16269,28 +16375,28 @@
         <v>981</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="113" customFormat="1">
+    <row r="54" spans="1:2" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="103" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B54" s="112" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="103" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B55" s="107" t="s">
         <v>1016</v>
       </c>
-      <c r="B55" s="107" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="173.25">
+    </row>
+    <row r="56" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A56" s="103" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B56" s="118" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
   </sheetData>
@@ -16305,7 +16411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -16316,13 +16422,13 @@
       <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="130" customWidth="1"/>
-    <col min="3" max="3" width="60.375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>63</v>
       </c>
@@ -16333,7 +16439,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="2" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
         <v>109</v>
       </c>
@@ -16342,7 +16448,7 @@
       </c>
       <c r="C2" s="54"/>
     </row>
-    <row r="3" spans="1:3" ht="31.5">
+    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
@@ -16350,7 +16456,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="4" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>114</v>
       </c>
@@ -16358,7 +16464,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5">
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>178</v>
       </c>
@@ -16366,7 +16472,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="55" customFormat="1" ht="141.75">
+    <row r="6" spans="1:3" s="55" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>633</v>
       </c>
@@ -16374,7 +16480,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="7" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>311</v>
       </c>
@@ -16382,7 +16488,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="8" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>79</v>
       </c>
@@ -16390,7 +16496,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="409.5">
+    <row r="9" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -16401,7 +16507,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="10" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>373</v>
       </c>
@@ -16410,7 +16516,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="11" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>377</v>
       </c>
@@ -16419,7 +16525,7 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" s="55" customFormat="1" ht="252">
+    <row r="12" spans="1:3" s="55" customFormat="1" ht="289" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -16427,7 +16533,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="13" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -16435,7 +16541,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="55" customFormat="1">
+    <row r="14" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -16443,7 +16549,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="55" customFormat="1" ht="47.25">
+    <row r="15" spans="1:3" s="55" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>218</v>
       </c>
@@ -16451,7 +16557,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="55" customFormat="1">
+    <row r="16" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>84</v>
       </c>
@@ -16459,7 +16565,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="55" customFormat="1">
+    <row r="17" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>391</v>
       </c>
@@ -16467,7 +16573,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="55" customFormat="1">
+    <row r="18" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>641</v>
       </c>
@@ -16475,7 +16581,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="55" customFormat="1" ht="63">
+    <row r="19" spans="1:3" s="55" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>192</v>
       </c>
@@ -16484,7 +16590,7 @@
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" s="55" customFormat="1">
+    <row r="20" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>264</v>
       </c>
@@ -16493,7 +16599,7 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="21" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -16502,7 +16608,7 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" s="55" customFormat="1">
+    <row r="22" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>406</v>
       </c>
@@ -16511,7 +16617,7 @@
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="23" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>407</v>
       </c>
@@ -16520,7 +16626,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="24" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>656</v>
       </c>
@@ -16529,7 +16635,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="25" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>232</v>
       </c>
@@ -16538,7 +16644,7 @@
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="26" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>270</v>
       </c>
@@ -16547,7 +16653,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="27" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>661</v>
       </c>
@@ -16556,7 +16662,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="28" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
@@ -16565,7 +16671,7 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="29" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>236</v>
       </c>
@@ -16574,7 +16680,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" s="55" customFormat="1">
+    <row r="30" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>668</v>
       </c>
@@ -16583,7 +16689,7 @@
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="31" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>666</v>
       </c>
@@ -16592,7 +16698,7 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" s="55" customFormat="1">
+    <row r="32" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>664</v>
       </c>
@@ -16601,7 +16707,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="33" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -16610,7 +16716,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" s="55" customFormat="1">
+    <row r="34" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>671</v>
       </c>
@@ -16619,7 +16725,7 @@
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="35" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>673</v>
       </c>
@@ -16628,7 +16734,7 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" s="55" customFormat="1">
+    <row r="36" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>675</v>
       </c>
@@ -16637,7 +16743,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="37" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>677</v>
       </c>
@@ -16646,7 +16752,7 @@
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="38" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>679</v>
       </c>
@@ -16655,7 +16761,7 @@
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="39" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>681</v>
       </c>
@@ -16664,7 +16770,7 @@
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" s="55" customFormat="1">
+    <row r="40" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>683</v>
       </c>
@@ -16673,7 +16779,7 @@
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="41" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>685</v>
       </c>
@@ -16682,7 +16788,7 @@
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" s="55" customFormat="1">
+    <row r="42" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>687</v>
       </c>
@@ -16691,7 +16797,7 @@
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="43" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>689</v>
       </c>
@@ -16700,7 +16806,7 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" s="55" customFormat="1">
+    <row r="44" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>105</v>
       </c>
@@ -16709,7 +16815,7 @@
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="45" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>691</v>
       </c>
@@ -16718,7 +16824,7 @@
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" s="55" customFormat="1" ht="110.25">
+    <row r="46" spans="1:3" s="55" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>448</v>
       </c>
@@ -16727,7 +16833,7 @@
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" s="55" customFormat="1" ht="31.5">
+    <row r="47" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>696</v>
       </c>
@@ -16736,7 +16842,7 @@
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" s="55" customFormat="1">
+    <row r="48" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>121</v>
       </c>
@@ -16745,7 +16851,7 @@
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:2" s="55" customFormat="1" ht="78.75">
+    <row r="49" spans="1:2" s="55" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>638</v>
       </c>
@@ -16753,7 +16859,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="55" customFormat="1" ht="31.5">
+    <row r="50" spans="1:2" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>700</v>
       </c>
@@ -16761,7 +16867,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="55" customFormat="1">
+    <row r="51" spans="1:2" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>698</v>
       </c>
@@ -16769,7 +16875,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="78.75">
+    <row r="52" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>636</v>
       </c>
@@ -16777,7 +16883,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="55" customFormat="1">
+    <row r="53" spans="1:2" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>251</v>
       </c>
@@ -16785,7 +16891,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="31.5">
+    <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>347</v>
       </c>
@@ -16793,7 +16899,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="63">
+    <row r="55" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>705</v>
       </c>
@@ -16801,7 +16907,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="31.5">
+    <row r="56" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>928</v>
       </c>
@@ -16809,7 +16915,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="47.25">
+    <row r="57" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>893</v>
       </c>
@@ -16817,7 +16923,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>982</v>
       </c>
@@ -16825,44 +16931,44 @@
         <v>983</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="113" customFormat="1" ht="31.5">
+    <row r="59" spans="1:2" s="113" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>977</v>
       </c>
       <c r="B59" s="114" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="94.5">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>997</v>
       </c>
       <c r="B60" s="109" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="141.75">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>999</v>
       </c>
       <c r="B61" s="109" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" s="117" customFormat="1" ht="157.5">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="117" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B62" s="118" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="189">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B63" s="114" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
   </sheetData>
@@ -16871,7 +16977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -16881,13 +16987,13 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="111.125" customWidth="1"/>
+    <col min="2" max="2" width="111.1640625" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>63</v>
       </c>
@@ -16898,7 +17004,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="110.25">
+    <row r="2" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
@@ -16906,7 +17012,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.5">
+    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>110</v>
       </c>
@@ -16914,7 +17020,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="63">
+    <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>590</v>
       </c>
@@ -16922,7 +17028,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5">
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -16930,7 +17036,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="94.5">
+    <row r="6" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -16938,7 +17044,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="63">
+    <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -16946,7 +17052,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="47.25">
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>124</v>
       </c>
@@ -16954,7 +17060,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5">
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>598</v>
       </c>
@@ -16962,7 +17068,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>362</v>
       </c>
@@ -16970,7 +17076,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="47.25">
+    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>126</v>
       </c>
@@ -16978,7 +17084,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="126">
+    <row r="12" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -16986,7 +17092,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="59" customFormat="1" ht="31.5">
+    <row r="13" spans="1:3" s="59" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>373</v>
       </c>
@@ -16994,7 +17100,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="57" customFormat="1" ht="31.5">
+    <row r="14" spans="1:3" s="57" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
@@ -17002,7 +17108,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5">
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>596</v>
       </c>
@@ -17010,7 +17116,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>708</v>
       </c>
@@ -17018,7 +17124,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="283.5">
+    <row r="17" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -17026,7 +17132,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="126">
+    <row r="18" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>711</v>
       </c>
@@ -17034,7 +17140,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="47.25">
+    <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>393</v>
       </c>
@@ -17042,7 +17148,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="59" customFormat="1" ht="47.25">
+    <row r="20" spans="1:2" s="59" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>262</v>
       </c>
@@ -17050,7 +17156,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="31.5">
+    <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>715</v>
       </c>
@@ -17058,7 +17164,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="60" customFormat="1" ht="47.25">
+    <row r="22" spans="1:2" s="60" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>723</v>
       </c>
@@ -17066,7 +17172,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="63">
+    <row r="23" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>720</v>
       </c>
@@ -17074,7 +17180,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="94.5">
+    <row r="24" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>347</v>
       </c>
@@ -17082,7 +17188,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>605</v>
       </c>
@@ -17090,7 +17196,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="141.75">
+    <row r="26" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>955</v>
       </c>
@@ -17098,7 +17204,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="31.5">
+    <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>984</v>
       </c>
@@ -17106,12 +17212,12 @@
         <v>985</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="267.75">
+    <row r="28" spans="1:2" ht="289" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B28" s="118" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
   </sheetData>

--- a/Mitigation implementations timelines.xlsx
+++ b/Mitigation implementations timelines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/COVID 19 (Research)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/Covid 19 research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9B917D-26E7-2840-997B-C167466790BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C087BBE-926C-1447-A2E6-C736CE6E2133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="27600" windowHeight="15100" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="2560" windowWidth="27600" windowHeight="15100" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alberta" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="1144">
   <si>
     <t>03/30/2020</t>
   </si>
@@ -9660,13 +9660,6 @@
     <t>08/07/2021</t>
   </si>
   <si>
-    <t>The following sectors to open without restrictions: indoor and outdoor gatherings at private residences; gyms and fitness centres;
-libraries; personal services such as hair and nail salons; day camps; retail businesses, markets, garden centres and malls.
-*Other sectors will open with limited restrictions including: expanded capacity limits will remain in place for weddings, funerals and other public gatherings both indoors and outdoors including larger capacity limits for worship and cultural events like pow wows; restaurants and bars will no longer need to restrict the size or space between tables and dining will not be restricted to households or vaccinated individuals; however, patrons will still be expected to avoid congregating or socializing between tables; museums, galleries and movie theatres will remain limited to 50 per cent capacity but will no longer be restricted to vaccinated individuals; casinos and bingo halls, professional sporting events, horse and auto racing, and concert halls will continue to be limited to vaccinated individuals; 
-*The following facilities may now open to 100 per cent capacity: indoor and outdoor sports and recreation will fully reopen with limits only on spectator capacity;
-overnight camps will be permitted with limits on camper cohorts; workplaces must continue to report cases to government for followup and public health-confirmed transmission of COVID-19 in the workplace may result in workplaces being ordered to close for a minimum of 10 days; and remote working will no longer be required or recommended by public health. (https://www.gov.mb.ca/covid19/prs/reopening/milestone-two.html)</t>
-  </si>
-  <si>
     <t>last day of school</t>
   </si>
   <si>
@@ -10019,14 +10012,6 @@
     <t>10/29/2021</t>
   </si>
   <si>
-    <t>*Outdoor gatherings limited to 25 persons in the group. In the case of persons playing outdoor sports, players adhere to COVID-19 guidelines from their national and provincial sports organizations, where applicable, and maintain a physical distance of at least 2 metres from other players when possible.
-*Businesses, organizations, restaurants and bars may permit persons to gather at their outdoor locations, provided the businesses, organizations, restaurants and bars: (a) permit no more than 25 persons to be present at their outdoor location;
-*outdoor religious or non-religious funerals or celebrations of life may proceed only in accordance with an approval or exemption from the Chief Public Health Officer.
-*persons are prohibited from gathering in a number in excess of 10 persons in an indoor location that is not a dwelling place. Businesses, organizations, restaurants and bars are prohibited from allowing persons to gather in their indoor location unless there are 10 people per floor
-*Extracurricular activities for children under 12 years of age are not permitted in indoor locations unless in accordance with an approval or exemption from the Chief Public Health Officer. This includes after-school childcare programs, both in- school and offsite.
-*Junior Kindergarten to Grade 12 schools, colleges, and trade schools shall close to in-person learning. Daycares may remain open (https://www.gov.nt.ca/covid-19/sites/covid/files/resources/public_health_order_-_covid-19_gatherings_order_-_hay_river.pdf)</t>
-  </si>
-  <si>
     <t>all JK-12 schools, colleges and trade schools in Yellowknife, Dettah and N'Dilo closed until at least Sept. 24  (https://www.cbc.ca/news/canada/north/yellowknife-schools-closed-covid-update-1.6174485)</t>
   </si>
   <si>
@@ -10162,13 +10147,6 @@
     <t>12/19/2021</t>
   </si>
   <si>
-    <t>restaurants, bars, casinos, gyms, theaters and cinemas as well as conferences will have to limit their capacity to 50%. The ban on dancing and karaoke is reinstated.
-In shops and malls, the limit has been set at one customer per 20 square meters of floor space. This measure does not affect personal care establishments such as hairdressers and massage therapists. 
-The 50% rule will also apply to places of worship and for essential public activities such as assemblies that can accommodate a maximum of 250 people, but they will now have to require the vaccination passport.
-For funerals, the current capacity of a turnover of 50 people present at a time is maintained. Public Health authorizes the holding of wedding or funeral ceremonies without requiring the vaccination passport, but with a maximum of 25 people.
-For private gatherings inside, the limit remains the same, either 10 people or the occupants of three residences. (https://globalnews.ca/news/8462532/in-quebec-new-health-restrictions-will-take-effect-on-monday/)</t>
-  </si>
-  <si>
     <t>personal gatherings at home or vacation accommodation are limited to your household plus 10 visitors or 1 other household. Everyone 12+ must be fully vaccinated. There are no restrictions for outdoor personal gatherings.
 Public gatherings Indoor organized gatherings with capacity for 1,000 people or more can only use 50% capacity. Outdoor organized seated gatherings with capacity for 1,000 people or more can only have 50% seated capacity. Proof of vaccination is required.
 (https://www2.gov.bc.ca/gov/content/covid-19/info/restrictions#personal)</t>
@@ -10206,12 +10184,328 @@
  There is to be no dancing at any event and karaoke is not permitted.
  All indoor sport and recreational activities are paused for Island residents, regardless of age; this includes all organized sports, tournaments, competitions, games, team training and practices. Individual recreational activities are permitted such as personal fitness, one-on-one fitness, dance, or music classes, however strict physical distancing at recreational activities is required. (https://atlantic.ctvnews.ca/p-e-i-reports-31-new-cases-of-covid-19-friday-new-restrictions-1.5711935)</t>
   </si>
+  <si>
+    <t>01/05/2022</t>
+  </si>
+  <si>
+    <t>Social gathering limits to 5 people indoors and 10 people outdoors.
+Limiting capacity at organized public events to five people indoors.
+Requiring businesses and organizations to ensure employees work remotely unless the nature of their work requires them to be on-site.
+Limiting capacity at indoor weddings, funerals, and religious services, rites and ceremonies to 50 per cent capacity of the particular room. Outdoor services are limited to the number of people that can maintain 2 metres of physical distance.
+Retail settings, including shopping malls, permitted at 50 per cent capacity. Food courts will be required to close.
+Personal care services permitted at 50 per cent capacity. Saunas, steam rooms, and oxygen bars closed.
+Public libraries limited to 50 per cent capacity.
+Closing indoor dining at restaurants, bars and other food or drink establishments. Outdoor dining with restrictions, takeout, drive through and delivery is permitted.
+Closing indoor concert venues, theatres, cinemas. Rehearsals and recorded performances permitted with restrictions.
+Closing museums, galleries, zoos, science centres, landmarks, historic sites, botanical gardens and similar attractions, amusement parks and waterparks, tour and guide services and fairs, rural exhibitions, and festivals. Outdoor establishments permitted to open with restrictions and with spectator occupancy, where applicable, limited to 50 per cent capacity.
+Closing indoor horse racing tracks, car racing tracks and other similar venues. Outdoor establishments permitted to open with restrictions and with spectator occupancy limited to 50 per cent capacity. Boat tours permitted at 50 per cent capacity.
+Closing indoor sport and recreational fitness facilities including gyms, except for athletes training for the Olympics and Paralympics and select professional and elite amateur sport leagues. Outdoor facilities are permitted to operate but with the number of spectators not to exceed 50 per cent occupancy and other requirements.
+All publicly funded and private schools will move to remote learning starting January 5 until at least January 17, subject to public health trends and operational considerations.
+School buildings would be permitted to open for child care operations, including emergency child care, to provide in-person instruction for students with special education needs who cannot be accommodated remotely and for staff who are unable to deliver quality instruction from home.
+During this period of remote learning, free emergency child care will be provided for school-aged children of health care and other eligible frontline workers. (https://news.ontario.ca/en/release/1001394/ontario-temporarily-moving-to-modified-step-two-of-the-roadmap-to-reopen)</t>
+  </si>
+  <si>
+    <t>12/31/2021</t>
+  </si>
+  <si>
+    <t>The curfew is in place from 10 p.m. to 5 a.m. Only essential workers travelling to or from work and certain others are exempt from it. the province has now banned private gatherings. All restaurants must close their dining rooms, but can remain open for takeout and delivery. Places of worship will also need to close other than for funerals with a maximum of 25 people. A work-from-home order is also in effect for all businesses that can. High school and elementary school students will not return to in-person learning before Jan. 17. Online schooling will take place according to school schedules. Universities and colleges will also continue distanced learning until Jan. 17, except for some classes that require students to be in person. School daycare services will continue for parents in need, with priority given to essential service workers. (https://montrealgazette.com/news/covid-19-here-are-the-new-restrictions-in-quebec)</t>
+  </si>
+  <si>
+    <t>12/26/2021</t>
+  </si>
+  <si>
+    <t>The province is capping private gatherings at six people or two family bubbles. Outdoor gatherings are to be kept to a maximum of 20 people. (https://nationalpost.com/news/new-gathering-limits-come-into-effect-in-quebec-as-covid-19-cases-soar-across-canada)</t>
+  </si>
+  <si>
+    <t>Private gatherings being reduced to 10 people inside, 20 outside and it is recommended that people use rapid testing kits before gathering. Stores reduced capacity, allowing one client per 20 square metres. Places of worship  reduce capacity by 50 per cent, with a cap of 250 people. Vaccine passports will be required and people must be seated. Funerals and weddings can have up to 25 people without requiring vaccine passports, but up to 250 people with passports. For public activities, capacity is lowered by 50 per cent to a maximum of 250 people. People must stay seated and wear a mask at all times. Bars and restaurants must cut capacity by 50 per cent, spacing tables as much as possible, with a maximum of 10 people at tables. Dancing and karaoke are banned once again. Cinemas and theatres will also have capacity reduced by 50 per cent. All tournaments and competitions suspended as of Monday, with reduced capacity of gyms and other indoor training facilities. (https://ici.radio-canada.ca/rci/en/news/1848285/quebec-government-tightens-public-health-measures-as-covid-19-cases-soar)</t>
+  </si>
+  <si>
+    <t>12/24/2021</t>
+  </si>
+  <si>
+    <t>Private indoor social gatherings are limited to a maximum of 10 people 18 years or older. If accompanied by a parent or guardian, there are no limits on people 17 and under. There is a limit of 20 people for outdoor private social gatherings.
+Bars, restaurants and nightclubs have a limit of 10 people per table and no mingling between tables. Billiards, dancing, darts, and other "interactive activities" are not permitted under the new restrictions.
+All indoor entertainment, event, and recreation facilities must limit their capacity to 50 per cent if their venue seats more than 1,000 people. If a venue seats between 500 and 1,000 people, only 500 people are allowed. There can be no food and drink consumed while seated in audience settings or at an intermission at any entertainment or recreation facilities that seat more than 500 people.
+According to Cineplex, each theatre will be capped at 499 — with most unable to reach that capacity. Since theatres will remain below the 500 capacity limit, food and drink can still be consumed while seated.
+Any indoor facilities not using the Restrictions Exemption Program are limited to one-third of fire code capacity.
+There are no capacity restrictions for entertainment events that are fully outdoors other than maintaining social distancing. (https://edmonton.ctvnews.ca/new-covid-19-restrictions-now-in-effect-across-alberta-1.5719069)</t>
+  </si>
+  <si>
+    <t>Kindergarten to Grade 12 winter break will be extended province-wide until Jan. 10, 2022 (https://rdnewsnow.com/2021/12/30/winter-break-extended-to-january-10-for-albertas-k-12-students/)</t>
+  </si>
+  <si>
+    <t>01/04/2022</t>
+  </si>
+  <si>
+    <t>12/23/2021</t>
+  </si>
+  <si>
+    <t>gyms, fitness centres and bars were recently ordered to close (https://www.mapleridgenews.com/news/b-c-gym-forced-to-close-due-to-b-c-covid-mandate-calls-for-essential-service-status/)</t>
+  </si>
+  <si>
+    <t>01/20/2022</t>
+  </si>
+  <si>
+    <t>Gyms and fitness centres across B.C. will be allowed to start gradually reopening. Bars, nightclubs and lounges must remain closed and capacity limits of 50 per cent are still in place for theatres and stadiums. (https://www.cbc.ca/news/canada/british-columbia/covid-19-bc-restrictions-gyms-gatherings-update-2022-1.6319119)</t>
+  </si>
+  <si>
+    <t>01/17/2022</t>
+  </si>
+  <si>
+    <t>01/24/2022</t>
+  </si>
+  <si>
+    <t>01/18/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the vaccine passport would also apply to cannabis and liquor stores starting Jan. 18. (https://www.cp24.com/news/quebec-to-lift-covid-19-curfew-monday-extend-vaccine-passport-to-big-box-retail-1.5739097)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> proof of vaccination to enter big box stores with surface areas of 1,500 square metres or more, other than pharmacies or grocery stores. Last week, Legault announced that (https://www.cp24.com/news/quebec-to-lift-covid-19-curfew-monday-extend-vaccine-passport-to-big-box-retail-1.5739097)</t>
+  </si>
+  <si>
+    <t>curfew will no longer be in effect. classes will resume for primary and secondary students (https://montreal.ctvnews.ca/students-will-return-to-class-on-monday-says-quebec-premier-1.5738084)</t>
+  </si>
+  <si>
+    <t>restaurants, bars, casinos, gyms, theaters and cinemas as well as conferences will have to limit their capacity to 50%. The ban on dancing and karaoke is reinstated.
+In shops and malls, the limit has been set at one customer per 20 square meters of floor space. This measure does not affect personal care establishments such as hairdressers and massage therapists. 
+The 50% rule will also apply to places of worship and for essential public activities such as assemblies that can accommodate a maximum of 250 people, but they will now have to require the vaccination passport.
+For funerals, the current capacity of a turnover of 50 people present at a time is maintained. Public Health authorizes the holding of wedding or funeral ceremonies without requiring the vaccination passport, but with a maximum of 25 people.
+For private gatherings inside, the limit remains the same, either 10 people or the occupants of three residences. (https://globalnews.ca/news/8462532/in-quebec-new-health-restrictions-will-take-effect-on-monday/)
+Schools close (https://www.cbc.ca/news/canada/montreal/new-closures-covid-19-quebec-1.6292622)</t>
+  </si>
+  <si>
+    <t>01/31/2022</t>
+  </si>
+  <si>
+    <t>Restaurants will once again be allowed to reopen at half capacity. Up to four people from four different addresses, or a maximum of two family bubbles, will be allowed to share a table.
+The same numbers will apply to indoor private gatherings. all extracurricular sports will be permitted, as will organized sports outside of school, but only for Quebecers under the age of 18. A maximum of 25 participants will be allowed for practices and training. The Montreal Botanical Garden, the Biodôme, the Planetarium as well as cafeterias in ski chalets will also be allowed to reopen at 50 per cent capacity. (https://www.cbc.ca/news/canada/montreal/covid-19-quebec-jan-25-1.6326369)</t>
+  </si>
+  <si>
+    <t>01/01/2022</t>
+  </si>
+  <si>
+    <t>01/30/2022</t>
+  </si>
+  <si>
+    <t>New restrictions on gatherings: permit no more than 25 persons to be present at their indoor location at any one time, and permit no more than 50 persons to be present at their outdoor location at any one time (https://www.gov.nt.ca/covid-19/sites/covid/files/resources/final_nwt_gatherings_order_jan_30_0.pdf)</t>
+  </si>
+  <si>
+    <t>New rules on personal gatherings, up to 5 people from different household allowed to gather indoors. (https://www.gov.nt.ca/covid-19/sites/covid/files/resources/final_temporary_partial_suspension_of_gatherings_order_-_jan_18.pdf)</t>
+  </si>
+  <si>
+    <t>11/07/2021</t>
+  </si>
+  <si>
+    <t>11/09/2021</t>
+  </si>
+  <si>
+    <t>Temporary restrictions apply to TUKTOYAKTUK. Indoor and outdoor gatherings prohibited. Non-essential businesses close. Schools close to in person learning. https://www.gov.nt.ca/covid-19/sites/covid/files/resources/final_tuk_covid19_restrictions_order_nov_9_noon.pdf</t>
+  </si>
+  <si>
+    <t>11/16/2021</t>
+  </si>
+  <si>
+    <t>INUVIK TEMPORARY COVID-19 RESTRICTIONS. East 3 elementary schools remains close. All organized extracurricular activities, clubs and sports for those under 12 years of age are still cancelled. (https://www.gov.nt.ca/covid-19/sites/covid/files/resources/final_amended_inuvik_temporary_restrictions_order_signed.pdf)</t>
+  </si>
+  <si>
+    <t>Students in Behchoko return to in-person learning. (https://www.gov.nt.ca/covid-19/sites/covid/files/resources/covid-19_brief_nov_5_2021_0.pdf)</t>
+  </si>
+  <si>
+    <t>Students in Hay River return to in person learning. (https://www.gov.nt.ca/covid-19/sites/covid/files/resources/covid-19_brief_nov_5_2021_0.pdf)</t>
+  </si>
+  <si>
+    <t>East Three Elementary School is closed to in-person learning in Inuvik. All organized extracurricular activities, clubs and sports for those under 12 years of age are cancelled. (https://www.gov.nt.ca/covid-19/sites/covid/files/resources/inuvik_temporary_restrictions_order_nov_7_final.pdf) Mangilaluk School in Tuktoyaktuk will be shofting to remote learning. (https://www.gov.nt.ca/covid-19/sites/covid/files/resources/covid-19_brief_nov_8_2021.pdf)</t>
+  </si>
+  <si>
+    <t>11/18/2021</t>
+  </si>
+  <si>
+    <t>students in Inuvik can return to in-person learning. (https://www.gov.nt.ca/covid-19/sites/covid/files/resources/covid-19_brief_nov_17_2021.pdf)</t>
+  </si>
+  <si>
+    <t>11/22/2021</t>
+  </si>
+  <si>
+    <t>East Three Elementary School in Inuvik reopened. (https://www.gov.nt.ca/covid-19/sites/covid/files/resources/covid-19_brief_nov_22_2021.pdf)</t>
+  </si>
+  <si>
+    <t>For Hay River:*Outdoor gatherings limited to 25 persons in the group. In the case of persons playing outdoor sports, players adhere to COVID-19 guidelines from their national and provincial sports organizations, where applicable, and maintain a physical distance of at least 2 metres from other players when possible.
+*Businesses, organizations, restaurants and bars may permit persons to gather at their outdoor locations, provided the businesses, organizations, restaurants and bars: (a) permit no more than 25 persons to be present at their outdoor location;
+*outdoor religious or non-religious funerals or celebrations of life may proceed only in accordance with an approval or exemption from the Chief Public Health Officer.
+*persons are prohibited from gathering in a number in excess of 10 persons in an indoor location that is not a dwelling place. Businesses, organizations, restaurants and bars are prohibited from allowing persons to gather in their indoor location unless there are 10 people per floor
+*Extracurricular activities for children under 12 years of age are not permitted in indoor locations unless in accordance with an approval or exemption from the Chief Public Health Officer. This includes after-school childcare programs, both in- school and offsite.
+*Junior Kindergarten to Grade 12 schools, colleges, and trade schools shall close to in-person learning. Daycares may remain open (https://www.gov.nt.ca/covid-19/sites/covid/files/resources/public_health_order_-_covid-19_gatherings_order_-_hay_river.pdf)</t>
+  </si>
+  <si>
+    <t>households will be limited to 10 people indoors at one time with a maximum of five non-household members regardless of vacination status. High risk indoor activities — including all indoor winter sports, contacts sports, swimming, high intensity fitness classes, traditional hand games, dancing, singing and playing wind and brass instruments — are suspended. Establishments that serve alcohol will be limited to having six people per table and there can no longer be any mingling between tables. (https://www.cbc.ca/news/canada/north/n-w-t-officials-to-provide-covid-19-update-1.6303188)</t>
+  </si>
+  <si>
+    <t>The following sectors to open without restrictions: indoor and outdoor gatherings at private residences; gyms and fitness centres;
+libraries; personal services such as hair and nail salons; day camps; retail businesses, markets, garden centres and malls.
+*Other sectors will open with limited restrictions including: expanded capacity limits will remain in place for weddings, funerals and other public gatherings both indoors and outdoors including larger capacity limits for worship and cultural events like pow wows; restaurants and bars will no longer need to restrict the size or space between tables and dining will not be restricted to households or vaccinated individuals; however, patrons will still be expected to avoid congregating or socializing between tables; museums, galleries and movie theatres will remain limited to 50 per cent capacity but will no longer be restricted to vaccinated individuals; casinos and bingo halls, professional sporting events, horse and auto racing, and concert halls will continue to be limited to vaccinated individuals; 
+*The following facilities may now open to 100 per cent capacity: indoor and outdoor sports and recreation will fully reopen with limits only on spectator capacity;
+overnight camps will be permitted with limits on camper cohorts; workplaces must continue to report cases to government for followup and public health-confirmed transmission of COVID-19 in the workplace may result in workplaces being ordered to close for a minimum of 10 days; and remote working will no longer be required or recommended by public health. (https://www.gov.mb.ca/covid19/prs/reopening/milestone-two.html)
+*mask mandate lifted (https://www.cbc.ca/news/canada/manitoba/manitobans-wearing-masks-restrictions-lift-1.6133688)</t>
+  </si>
+  <si>
+    <t>School Winter break extended until Jan 10, 2022 (https://chvnradio.com/articles/manitobas-winter-break-extended-for-school-children) (https://news.gov.mb.ca/news/index.html?item=53018)</t>
+  </si>
+  <si>
+    <t>02/14/2022</t>
+  </si>
+  <si>
+    <t>Saskatchewan ends its vaccine passport policy.  Businesses, workplaces and other public venues will no longer be mandated by the province to require proof of vaccination or a negative test. (https://www.cbc.ca/news/canada/saskatchewan/covid-19-update-feb-8-2022-1.6343563)</t>
+  </si>
+  <si>
+    <t>01/03/2022</t>
+  </si>
+  <si>
+    <t>Schools open (https://www.cbc.ca/news/canada/saskatchewan/return-to-school-dates-saskatchewan-parents-conflicted-1.6302267)</t>
+  </si>
+  <si>
+    <t>10/18/2021</t>
+  </si>
+  <si>
+    <t>Vaccine passport required to access non-essential services. 
+the order applies primarily to non-essential businesses such as:
+Restaurants, including restaurants in hotels or other lodgings; Nightclubs, bars, taverns, and manufacturer hospitality suites, buses and other establishments and transportation licensed by the Saskatchewan Liquor and Gaming Authority for the sale and service of alcohol;
+Liquor stores that have been issued standalone retail store permits issued by the Saskatchewan Liquor and Gaming Authority; and
+Cannabis stores that have been issued standalone retail store permits by the Saskatchewan Liquor and Gaming Authority. 
+Event and entertainment venues including: conference centres, meeting rooms and banquet facilities, except when being used for the purposes of a court or tribunal proceeding; theatres; cinemas; bingo halls, casinos and other gaming establishments;concerts; live-music venues;
+fitness centres and gyms; and facilities hosting sporting events where tickets are required that have GST charged on the ticket.
+Businesses or organizations exempt from this order include: retail businesses including grocery stores; businesses holding an integrated liquor retail store permit that do not also hold a tavern or restaurant permit issued by the Saskatchewan Liquor and Gaming Authority; businesses holding an integrated cannabis retail store permit issued by the Saskatchewan Liquor and Gaming Authority; places of worship (including weddings/funerals/wakes); personal services, health care services, professional services; public libraries; hotels or lodging including self-serve food options located within the hotel or other lodging; facilities hosting amateur sporting events, including youth athletics and recreational leagues;
+private gatherings at public venues (weddings/funerals/wakes/meetings); and private gatherings at private residences.(https://www.saskatchewan.ca/government/news-and-media/2021/october/15/new-public-health-order-requires-proof-of-vaccination-in-additional-venues)</t>
+  </si>
+  <si>
+    <t>12/22/2021</t>
+  </si>
+  <si>
+    <t>Indoor and outdoor informal gatherings are limited to 10 people from the same household or consistent social group; physical distance and proof of full vaccination are not required; masks are not required except in indoor public places. Only virtual events are allowed – there are no in-person events such as festivals, special events (including receptions), sports games or tournaments, or arts and culture performances. a limit of 10 participants indoors and 25 outdoors applies to sports practices and training; physical distance is not required, and masks are recommended when possible indoors and outdoors; spectators are not allowed
+a limit of 10 participants indoors and 25 outdoors applies to professional and amateur arts and culture rehearsals and virtual performances; professionals must have a plan for their workplace; physical distance is not required, and masks are recommended when possible indoors and outdoors; spectators and competitions are not allowed. Nova Scotia children ages 11 and younger continue to be restricted from participating in sports and arts and culture events outside the province. Gathering limits of 25 per cent of capacity to a maximum of 50 people indoors and outdoors apply to social gatherings, regular faith services, wedding ceremonies, funeral ceremonies and their associated visitation, movie theatres, meetings and training that are hosted by a recognized business or organization, including faith organizations. regular in-person faith services can only have one person singing; no choirs or congregational singing are allowed. drive-in regular faith services are allowed with no limit on the number of vehicles; the informal gathering limit applies inside each vehicle.
+indoor and outdoor informal wedding ceremonies and faith gatherings, typically at home, are limited to 10 people from the same household or consistent social group, plus one officiant; physical distance and proof of full vaccination are not required; masks are not required except in indoor public places. indoor and outdoor funeral ceremonies with a maximum of 10 people, plus officiant and funeral home staff, are allowed without proof of full vaccination but masks and physical distance are required; proof of full vaccination is still required for any visitation. day camps can operate with groups of 15 campers. Places like retail businesses, malls, museums, libraries and recreation and leisure businesses and organizations can operate at 50 per cent capacity with physical distance; some examples under recreation and leisure include dance and music lessons, climbing facilities, escape rooms, indoor play places, arcades, golf, shooting ranges and dog training. Fitness and recreation facilities can operate at 50 per cent capacity with physical distance; personal training is allowed with as much physical distance as possible. Personal services like hair salons can operate at the maximum capacity possible with physical distancing but cannot offer services that require removing masks. Food establishments and liquor-licensed establishments can operate at 50 per cent capacity, they must have physical distance between tables; barriers may only be used to achieve 50 per cent capacity but not exceed it; there is a limit of 10 people per table; they must stop dine-in service at 11 p.m. and close by midnight; takeout, drive-thru and delivery can operate later; only one performer is allowed. Casino Nova Scotia and First Nations gaming centres can operate at 50 per cent capacity; people playing VLTs must be at least two metres (6 feet) apart; these gaming establishments must stop dine-in service at 11 p.m. and close by midnight. Activities like cards, darts, pool, bowling and karaoke follow the rules for the setting where they take place, either in licensed establishments or recreation and leisure businesses. Bingo follows the rules for licensed establishments when in that setting; bingo in non-licensed establishments is a special event which is not allowed. For long term care homes a limit of two visitors at a time with long-term care residents; it must be the same two visitors all the time. (https://nstourismstrong.ca/ns-announces-further-provincewide-restrictions-through-january-12-2022/)</t>
+  </si>
+  <si>
+    <t>Winter break at schools start (https://novascotia.ca/news/release/?id=20211215005)</t>
+  </si>
+  <si>
+    <t>Schools reopen from winter break (https://atlantic.ctvnews.ca/nova-scotia-schools-reopen-to-students-after-extended-closure-amid-omicron-wave-1.5743525)</t>
+  </si>
+  <si>
+    <t>Nova Scotia entered phase one of its three step reopening plan. places like Scotiabank Centre in Halifax, can now operate at 50 per cent capacity — up to 3000 fans. churches can hold services at 50 per cent capacity. Spas and salons can open fully. restaurants and bars can operate at 75 per cent capacity, but must allow two meters between tables. (https://atlantic.ctvnews.ca/nova-scotia-enters-first-phase-of-plan-to-ease-covid-19-restrictions-1.5780418)
+informal gathering limit being increased to 25 people, the lifting of all border restrictions for domestic travellers and an increase in capacity for businesses. (https://halifax.citynews.ca/coronavirus-covid-19-local-news/gradual-lifting-of-nova-scotias-restrictions-starts-monday-5045301)</t>
+  </si>
+  <si>
+    <t>12/21/2021</t>
+  </si>
+  <si>
+    <t>Winter break at schools start (https://www.theglobeandmail.com/canada/article-newfoundland-and-labrador-reports-61-cases-of-covid-19-schools-to/)</t>
+  </si>
+  <si>
+    <t>the province is moving to a modified Alert Level 4. Informal gatherings are limited to 10 people. Burials, weddings, funerals and religious gatherings are limited to 50 people or 25 per cent capacity, whichever is lower. Businesses — including gyms, dance studios and arenas — will follow the same rules. Dancing at formal gatherings is once again prohibited, except for ceremonial dances. Retail stores, including in malls, can remain open at reduced capacity, while restaurants can remain open to 50 per cent capacity as long as distancing between tables can be maintained. Tables are limited to six people, and buffets are prohibited. There are no changes to child-care services, which can operate at full capacity, or personal-care establishments, which can open in accordance with public health guidelines. Bars, lounges and cinemas remain closed. (https://www.cbc.ca/news/canada/newfoundland-labrador/covid-nl-jan-3-2022-1.6302463)
+-students start studying remotely after winter break (https://globalnews.ca/news/8478370/newfoundland-remote-schooling-omicron-covid-19/)</t>
+  </si>
+  <si>
+    <t>students going back to school, in person leraning resumes at schools. (https://www.thestar.com/news/canada/2022/01/25/k-12-students-in-nl-are-back-in-school-after-three-weeks-of-learning-from-home.html)</t>
+  </si>
+  <si>
+    <t>02/28/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gyms and fitness facilities, restaurants and religious ceremonies where the province's vaccine passport is required were able to open to 75 per cent capacity. The limit on informal gatherings was raised to 25 people, and retail stores were able to open with no capacity restrictions. 
+More restrictions are scheduled to ease on March 7. (https://www.cbc.ca/news/canada/newfoundland-labrador/covid-nl-feb-24-2022-1.6362827)</t>
+  </si>
+  <si>
+    <t>he New Brunswick school district announced this week that all classes will be virtual for two weeks following winter break. (https://ca.movies.yahoo.com/brunswick-school-district-goes-remote-152402843.html)</t>
+  </si>
+  <si>
+    <t>Students go back to in person learning. (https://atlantic.ctvnews.ca/n-b-students-expected-to-return-to-in-person-learning-jan-31-1.5752488)</t>
+  </si>
+  <si>
+    <t>02/18/2022</t>
+  </si>
+  <si>
+    <t>NB moves to Level 1. Larger indoor and outdoor gatherings are allowed. Indoor household gatherings can increase to a maximum of any 20 people, and outdoor informal gatherings increase to a maximum of any 50 people.
+ businesses including entertainment centres, gyms and spas will not have to keep capacity limits
+ restaurants will still have to ask for proof of vaccination
+ masks must continue to be worn in indoor public spaces, outdoors when physical distancing cannot be maintained.
+ singing will be permitted at faith venues, but masks will be required (https://atlantic.ctvnews.ca/n-b-to-move-to-level-1-of-covid-19-winter-plan-on-feb-18-1.5774667) (https://globalnews.ca/news/8631092/nb-level-1-restrictions-covid-alert-level/)</t>
+  </si>
+  <si>
+    <t>03/14/2022</t>
+  </si>
+  <si>
+    <t>All public health restrictions are lifted. masking will no longer be required in public spaces. Capacity limits and physical distancing will end, and those who test positive for COVID-19 will no longer be required to isolate. (https://globalnews.ca/news/8643046/nb-covid-19-update-feb-24-2022/)</t>
+  </si>
+  <si>
+    <t>Vaccination policy to access non-essential services is lifted. (https://globalnews.ca/news/8643046/nb-covid-19-update-feb-24-2022/)</t>
+  </si>
+  <si>
+    <t>01/28/2022</t>
+  </si>
+  <si>
+    <t>all of New Brunswick will move back to Level 2 of the winter plan. spas and salons, entertainment centres, gyms and restaurant dining rooms, will be permitted to reopen in Level 2 at 50 per cent capacity and with physical distancing. People must limit their contacts to a maximum of a Steady 10. Guidance on formal gatherings has been changed in Level 2. There is no longer a limit on the number of people permitted, but venues are limited to 50 per cent capacity and people must remain seated and wear a mask at all times unless actively eating or drinking. Entertainment venues, such as theatres, sports venues, casinos, etc., can resume operating under Level 2 guidance.
+Changes have also been introduced to sport, music and recreation activities in Level 2 to allow some activity to resume. (https://www2.gnb.ca/content/gnb/en/corporate/promo/covid-19/news/news_release.2022.01.0050.html)</t>
+  </si>
+  <si>
+    <t>01/14/2022</t>
+  </si>
+  <si>
+    <t>New Brunswick will move to Level 3 of the COVID-19 winter plan for 16 days starting tonight,. People must stay within their single-household bubble. A single-household bubble includes the people you live with. Where required, this can be extended to include: caregivers; a family member who needs support from someone within the household; or one other person who needs support (for example, someone who lives alone, or another family member).
+A single-household bubble may extend care to children from another household for the purposes of informal daycare or online education support. This must be the same household bubble for as long as Level 3 is in effect.
+Public gatherings are not permitted, and gyms, indoor recreation, fitness and sports facilities, entertainment centres, spas and salons are not allowed to operate.
+Restaurants may provide drive-thru, takeout and delivery only.
+Retail businesses may continue to remain open at 50 per cent capacity and with physical distancing measures in place. People are encouraged to use contactless curbside pickup and/or designate one person from the household to go shopping, if feasible, to reduce contacts.
+Faith venues may provide outdoor, virtual or in-car religious services only.
+Organized sport activities – games, competitions and practice – involving people outside of a household bubble are prohibited. Individual sports that can be conducted outdoors, such as skiing, skating and snowmobiling, are permitted as long as distancing is maintained from those outside of a household bubble. Buildings that support outdoor sports, such as ski lodges and warm-up shelters, must maintain 50 per cent capacity, distancing and masking. Food and drinks cannot be served. The government will be working with sports organizations to develop a plan to resume some form of play or practice for all ages when New Brunswick returns to Level 2.
+Masks must still be worn at all times in indoor public spaces and in outdoor public spaces where physical distancing cannot be maintained. (https://www2.gnb.ca/content/gnb/en/corporate/promo/covid-19/news/news_release.2022.01.0021.html)</t>
+  </si>
+  <si>
+    <t>12/27/2021</t>
+  </si>
+  <si>
+    <t>Province moves to Level 2. The current household plus Steady 20 is replaced with household plus Steady 10.
+Patrons dining at restaurants must show proof of vaccination and tables must be at least two metres apart.
+Restaurants, retail stores, malls, businesses, gyms, salons and spas, and entertainment centres may continue to operate, but at 50 per cent capacity and with two metres of distance between patrons.
+For public gatherings, venues cannot have events with more than 150 people or 50 per cent capacity, whichever is less.
+Faith venues may operate at 50 per cent capacity and with physical distancing. Choirs are not permitted but one soloist may perform if they are at least four metres from the congregation.
+All travellers, including New Brunswickers returning to the province, must register or have a multi-use travel pass. Travellers arriving by air will be provided with a rapid test kit.
+Unvaccinated people entering the province must isolate and be tested on day 10. International travellers must follow federal testing and isolation guidelines and must be tested on day five and day 10.
+Travellers must follow public health measures when in New Brunswick including wearing a mask, physically distancing and staying within a Steady 10. (https://www2.gnb.ca/content/gnb/en/corporate/promo/covid-19/news/news_release.2021.12.0939.html)</t>
+  </si>
+  <si>
+    <t>People must limit their household contacts to a maximum of a 20.
+Distancing must be maintained at all times in businesses, retail establishments, gyms, salons and spas.
+Patrons are permitted to dine at restaurants but a distance of two metres must be maintained between tables and proof of vaccination is still required.
+Entertainment centres, including movie theatres, professional sporting events, casinos, etc., will be operating at 50 per cent capacity with distancing of two metres. (https://www.todocanada.ca/new-brunswick-brings-new-restrictions-for-2021-holiday-season-extends-winter-break-as-new-omicron-variant-cases-reported/)
+Interim measures, in addition to the current Level 1 measures, aimed at slowing the spread of the Omicron variant of COVID-19 are now in effect across the province.
+At this time, New Brunswickers must:
+Limit their household contacts to a maximum of a Steady 20.
+Dining in restaurants is still permitted but two metres must be maintained between tables and proof of vaccination is still required.
+Entertainment centres, including movie theatres, professional sporting venues, casinos, etc., will be operating at 50 per cent capacity with distancing of two metres. (https://www2.gnb.ca/content/gnb/en/corporate/promo/covid-19/news/news_release.2021.12.0928.html)</t>
+  </si>
+  <si>
+    <t>all of New Brunswick is currently in the Level 1 phase of the Winter Action Plan. Measures in Level 1 include masking outdoors when physical distancing cannot be maintained and physical distancing in indoor public spaces that do not require proof of vaccination, such as retail stores, malls, salons and spas. These locations can choose to either implement physical distancing measures or require proof of vaccination for all patrons.
+A maximum of 20 people is permitted for informal indoor household gatherings, and 50 for informal outdoor gatherings. Due to the higher risk associated with being unvaccinated, it is recommended that unvaccinated individuals who are eligible to be vaccinated do not attend household gatherings. (https://www2.gnb.ca/content/gnb/en/corporate/promo/covid-19/news/news_release.2021.12.0891.html)</t>
+  </si>
+  <si>
+    <t>11/10/2021</t>
+  </si>
+  <si>
+    <t>Public Health has recommended an end to the circuit breaker measures in Zone 2 (Saint John region). The circuit breaker will continue for another seven days in part of Zone 1 (Moncton region) but will be reduced to only cover the municipalities of Moncton, Dieppe and Riverview. Case activity is largely concentrated in those communities. The other areas of Zone 1 currently in a circuit breaker will have those restrictions lifted. (https://www2.gnb.ca/content/gnb/en/corporate/promo/covid-19/news/news_release.2021.11.0810.html)</t>
+  </si>
+  <si>
+    <t>11/05/2021</t>
+  </si>
+  <si>
+    <t>The circuit breaker will continue for another seven days in a large section of Zone 1 (Moncton region) and a large part of Zone 2 (Saint John region) as the overall case activity remains high and positivity rates are above the provincial average. circuit breaker restrictions in the northern part of Zone 3 (Fredericton region), Zone 4 (Edmundston region) and Zone 5 (Campbellton region) will be lifted. (https://www2.gnb.ca/content/gnb/en/corporate/promo/covid-19/news/news_release.2021.11.0790.html)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -10387,6 +10681,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -10415,7 +10717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10691,6 +10993,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -11033,11 +11380,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11087,7 +11434,7 @@
         <v>109</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="153" x14ac:dyDescent="0.2">
@@ -11341,59 +11688,71 @@
     </row>
     <row r="37" spans="1:3" s="101" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B37" s="88" t="s">
         <v>959</v>
-      </c>
-      <c r="B37" s="88" t="s">
-        <v>960</v>
       </c>
       <c r="C37" s="102"/>
     </row>
     <row r="38" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B38" s="88" t="s">
         <v>961</v>
-      </c>
-      <c r="B38" s="88" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="104" customFormat="1" ht="289" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B39" s="88" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="104" customFormat="1" ht="306" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B40" s="88" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B41" s="88" t="s">
         <v>997</v>
-      </c>
-      <c r="B41" s="88" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="110" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B42" s="88" t="s">
         <v>1022</v>
       </c>
-      <c r="B42" s="88" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="115" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="88"/>
-    </row>
-    <row r="44" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C44" s="102" t="s">
+    </row>
+    <row r="43" spans="1:3" s="115" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B43" s="88" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="122" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B44" s="88" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="C45" s="102" t="s">
         <v>618</v>
       </c>
     </row>
@@ -11407,10 +11766,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11503,7 +11862,7 @@
     <row r="10" spans="1:3" s="98" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="97"/>
       <c r="B10" s="99" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="221" x14ac:dyDescent="0.2">
@@ -11739,16 +12098,16 @@
       </c>
     </row>
     <row r="40" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="123" t="s">
+      <c r="A40" s="146" t="s">
         <v>815</v>
       </c>
-      <c r="B40" s="125" t="s">
+      <c r="B40" s="148" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="124"/>
-      <c r="B41" s="125"/>
+      <c r="A41" s="147"/>
+      <c r="B41" s="148"/>
     </row>
     <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="70" t="s">
@@ -11759,28 +12118,28 @@
       </c>
     </row>
     <row r="43" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="123" t="s">
+      <c r="A43" s="146" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="125" t="s">
+      <c r="B43" s="148" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="71" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="124"/>
-      <c r="B44" s="125"/>
+      <c r="A44" s="147"/>
+      <c r="B44" s="148"/>
     </row>
     <row r="45" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="121" t="s">
+      <c r="A45" s="144" t="s">
         <v>449</v>
       </c>
-      <c r="B45" s="125" t="s">
+      <c r="B45" s="148" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="71" customFormat="1" ht="284" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="126"/>
-      <c r="B46" s="125"/>
+      <c r="A46" s="149"/>
+      <c r="B46" s="148"/>
     </row>
     <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="70" t="s">
@@ -11807,28 +12166,28 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="71" customFormat="1" ht="212" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="123" t="s">
+      <c r="A50" s="146" t="s">
         <v>826</v>
       </c>
-      <c r="B50" s="125" t="s">
+      <c r="B50" s="148" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="124"/>
-      <c r="B51" s="125"/>
+      <c r="A51" s="147"/>
+      <c r="B51" s="148"/>
     </row>
     <row r="52" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="123" t="s">
+      <c r="A52" s="146" t="s">
         <v>827</v>
       </c>
-      <c r="B52" s="125" t="s">
+      <c r="B52" s="148" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="71" customFormat="1" ht="242" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="124"/>
-      <c r="B53" s="125"/>
+      <c r="A53" s="147"/>
+      <c r="B53" s="148"/>
     </row>
     <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="70" t="s">
@@ -11856,34 +12215,66 @@
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B57" s="102" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="58" spans="1:2" s="113" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B58" s="114" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B59" s="92" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B60" s="119" t="s">
-        <v>1063</v>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" s="137" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B61" s="138" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="135" customFormat="1" ht="329" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B62" s="136" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="137" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B63" s="138" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B64" s="136" t="s">
+        <v>1118</v>
       </c>
     </row>
   </sheetData>
@@ -11908,15 +12299,15 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="121.83203125" customWidth="1"/>
+    <col min="2" max="2" width="132.5" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
   </cols>
@@ -11976,7 +12367,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="388" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="356" x14ac:dyDescent="0.2">
       <c r="A7" s="73" t="s">
         <v>256</v>
       </c>
@@ -12008,7 +12399,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="74" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="74" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -12122,7 +12513,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="74" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="74" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>671</v>
       </c>
@@ -12213,34 +12604,130 @@
     </row>
     <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B33" s="102" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="108" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B34" s="109" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B35" s="106" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B36" s="109" t="s">
         <v>1017</v>
       </c>
-      <c r="B36" s="109" t="s">
-        <v>1018</v>
+    </row>
+    <row r="37" spans="1:2" s="141" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B37" s="142" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="141" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B38" s="142" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="141" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B39" s="142" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B40" s="142" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="141" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B41" s="142" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B42" s="142" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="141" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B43" s="142" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="141" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B44" s="142" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B45" s="142" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B46" s="142" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" s="141" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B47" s="142" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B48" s="142" t="s">
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
@@ -12253,10 +12740,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12494,34 +12981,66 @@
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B29" s="102" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="113" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="113" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B30" s="114" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B31" s="106" t="s">
         <v>1011</v>
-      </c>
-      <c r="B31" s="106" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B32" s="119" t="s">
-        <v>1064</v>
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="139" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="139" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B33" s="140" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B34" s="140" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>275</v>
+      </c>
+      <c r="B35" s="140" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B36" s="140" t="s">
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
@@ -12536,7 +13055,7 @@
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -12696,50 +13215,50 @@
     </row>
     <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B19" s="102" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="108" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B20" s="109" t="s">
         <v>1020</v>
-      </c>
-      <c r="B20" s="109" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="117" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B21" s="118" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="105" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B22" s="106" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B23" s="118" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B24" s="119" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
   </sheetData>
@@ -12883,24 +13402,24 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="127" t="s">
+      <c r="A14" s="150" t="s">
         <v>256</v>
       </c>
-      <c r="B14" s="125" t="s">
+      <c r="B14" s="148" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="64" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="128"/>
-      <c r="B15" s="125"/>
+      <c r="A15" s="151"/>
+      <c r="B15" s="148"/>
     </row>
     <row r="16" spans="1:15" s="64" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="128"/>
-      <c r="B16" s="125"/>
+      <c r="A16" s="151"/>
+      <c r="B16" s="148"/>
     </row>
     <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="128"/>
-      <c r="B17" s="125"/>
+      <c r="A17" s="151"/>
+      <c r="B17" s="148"/>
     </row>
     <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="69" t="s">
@@ -13395,11 +13914,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13764,7 +14283,7 @@
         <v>829</v>
       </c>
       <c r="B39" s="96" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="89" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
@@ -13775,36 +14294,36 @@
         <v>921</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="95" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" s="95" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>951</v>
       </c>
       <c r="B41" s="96" t="s">
-        <v>952</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B42" s="102" t="s">
         <v>963</v>
-      </c>
-      <c r="B42" s="102" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="101" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B43" s="102" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B44" s="102" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>602</v>
@@ -13812,34 +14331,42 @@
     </row>
     <row r="45" spans="1:3" ht="221" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B45" s="106" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B46" s="118" t="s">
         <v>1040</v>
-      </c>
-      <c r="B46" s="118" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B47" s="118" t="s">
         <v>1041</v>
-      </c>
-      <c r="B47" s="118" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="204" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B48" s="119" t="s">
-        <v>1056</v>
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B49" s="130" t="s">
+        <v>1107</v>
       </c>
     </row>
   </sheetData>
@@ -13852,11 +14379,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14140,7 +14667,7 @@
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" s="16" customFormat="1" ht="255" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="123" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="47" t="s">
@@ -14239,50 +14766,58 @@
     </row>
     <row r="45" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B45" s="102" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="B46" s="90" t="s">
         <v>966</v>
-      </c>
-      <c r="B46" s="90" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B48" s="106" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B49" s="111" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B50" s="119" t="s">
-        <v>1058</v>
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B51" s="121" t="s">
+        <v>1065</v>
       </c>
     </row>
   </sheetData>
@@ -14296,11 +14831,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14581,42 +15116,69 @@
     </row>
     <row r="34" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>971</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>972</v>
       </c>
       <c r="C34" s="102"/>
     </row>
     <row r="35" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>969</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>970</v>
       </c>
       <c r="C35" s="102"/>
     </row>
     <row r="36" spans="1:3" s="105" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C36" s="106"/>
     </row>
     <row r="37" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>1002</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>1003</v>
-      </c>
       <c r="C37" s="106"/>
     </row>
-    <row r="38" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="C38" s="90" t="s">
+    <row r="38" spans="1:3" s="133" customFormat="1" ht="276" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C38" s="134"/>
+    </row>
+    <row r="39" spans="1:3" s="131" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C39" s="132"/>
+    </row>
+    <row r="40" spans="1:3" s="131" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C40" s="132"/>
+    </row>
+    <row r="41" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="C41" s="90" t="s">
         <v>227</v>
       </c>
     </row>
@@ -14630,11 +15192,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15532,58 +16094,115 @@
         <v>946</v>
       </c>
       <c r="B105" s="96" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="106" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="B106" s="102" t="s">
         <v>975</v>
-      </c>
-      <c r="B106" s="102" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="107" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B107" s="106" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="108" spans="1:3" s="105" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B108" s="106" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="109" spans="1:3" s="113" customFormat="1" ht="88" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B109" s="116" t="s">
         <v>1028</v>
-      </c>
-      <c r="B109" s="116" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="238" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B110" s="118" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C110" s="34" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" s="120" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B111" s="119" t="s">
-        <v>1060</v>
+        <v>1053</v>
+      </c>
+      <c r="B111" s="121" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C111" s="28"/>
+    </row>
+    <row r="112" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B112" s="119" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" s="120" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B113" s="121" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A114" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B114" s="121" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A115" s="128" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B115" s="127" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" s="126" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A116" s="128" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B116" s="127" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B117" s="127" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A118" s="6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B118" s="127" t="s">
+        <v>1087</v>
       </c>
     </row>
   </sheetData>
@@ -15605,7 +16224,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15860,55 +16479,69 @@
     </row>
     <row r="31" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B31" s="102" t="s">
         <v>973</v>
-      </c>
-      <c r="B31" s="102" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B32" s="102" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="255" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B33" s="102" t="s">
         <v>977</v>
-      </c>
-      <c r="B33" s="102" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B34" s="106" t="s">
         <v>1007</v>
-      </c>
-      <c r="B34" s="106" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B35" s="114" t="s">
         <v>1030</v>
-      </c>
-      <c r="B35" s="114" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B36" s="119" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B37" s="124" t="s">
+        <v>1076</v>
+      </c>
       <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B38" s="125" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
@@ -15932,7 +16565,7 @@
   </sheetPr>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
@@ -16218,20 +16851,20 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="121" t="s">
+      <c r="A34" s="144" t="s">
         <v>270</v>
       </c>
-      <c r="B34" s="120" t="s">
+      <c r="B34" s="143" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="206" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="121"/>
-      <c r="B35" s="120"/>
+      <c r="A35" s="144"/>
+      <c r="B35" s="143"/>
     </row>
     <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="122"/>
-      <c r="B36" s="120"/>
+      <c r="A36" s="145"/>
+      <c r="B36" s="143"/>
     </row>
     <row r="37" spans="1:3" s="43" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -16348,55 +16981,55 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="86" customFormat="1" ht="229" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="123" t="s">
+      <c r="A50" s="146" t="s">
         <v>905</v>
       </c>
-      <c r="B50" s="120" t="s">
+      <c r="B50" s="143" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="86" customFormat="1" ht="181" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="124"/>
-      <c r="B51" s="120"/>
+      <c r="A51" s="147"/>
+      <c r="B51" s="143"/>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="103" t="s">
         <v>944</v>
       </c>
       <c r="B52" s="100" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="103" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B53" s="100" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="103" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B54" s="112" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="103" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B55" s="107" t="s">
         <v>1015</v>
-      </c>
-      <c r="B55" s="107" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A56" s="103" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B56" s="118" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
   </sheetData>
@@ -16415,11 +17048,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16925,50 +17558,130 @@
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B58" s="102" t="s">
         <v>982</v>
-      </c>
-      <c r="B58" s="102" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="113" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B59" s="114" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B60" s="109" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B61" s="109" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="62" spans="1:2" s="117" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B62" s="118" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="204" x14ac:dyDescent="0.2">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B63" s="114" t="s">
-        <v>1033</v>
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" s="129" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B64" s="130" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B65" s="130" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="129" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B66" s="130" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B67" s="130" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" s="129" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B68" s="130" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B69" s="130" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B70" s="130" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="129" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B71" s="130" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" s="129" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B72" s="130" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B73" s="130" t="s">
+        <v>1090</v>
       </c>
     </row>
   </sheetData>
@@ -16983,7 +17696,7 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -17198,26 +17911,26 @@
     </row>
     <row r="26" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B26" s="96" t="s">
         <v>955</v>
-      </c>
-      <c r="B26" s="96" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B27" s="102" t="s">
         <v>984</v>
-      </c>
-      <c r="B27" s="102" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="289" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B28" s="118" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
   </sheetData>

--- a/Mitigation implementations timelines.xlsx
+++ b/Mitigation implementations timelines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/Covid 19 research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C087BBE-926C-1447-A2E6-C736CE6E2133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BE9F75-A504-6A45-B49B-5B4981847D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="2560" windowWidth="27600" windowHeight="15100" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="27600" windowHeight="15100" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alberta" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="1157">
   <si>
     <t>03/30/2020</t>
   </si>
@@ -10499,6 +10499,100 @@
   </si>
   <si>
     <t>The circuit breaker will continue for another seven days in a large section of Zone 1 (Moncton region) and a large part of Zone 2 (Saint John region) as the overall case activity remains high and positivity rates are above the provincial average. circuit breaker restrictions in the northern part of Zone 3 (Fredericton region), Zone 4 (Edmundston region) and Zone 5 (Campbellton region) will be lifted. (https://www2.gnb.ca/content/gnb/en/corporate/promo/covid-19/news/news_release.2021.11.0790.html)</t>
+  </si>
+  <si>
+    <t>02/17/2022</t>
+  </si>
+  <si>
+    <t>Provice moves to Step 1. Fully vaccinated travellers to P.E.I. will no longer need to isolate with appropriate testing.
+The P.E.I. Vax Pass will still be in effect, with the further relaxing of the following restrictions:
+Personal gatherings up to 20 people.
+Organized gatherings up to 50 per cent in capacity in venue, with space maximized to spread people out as much as possible.
+Sport and recreation with interaction within six feet, up to 50 participants/day (includes interprovincial games, no big tournaments).
+Wedding receptions/dances up to 50 people total.
+Restaurants, fitness facilities, retail, and other venues at 50 per cent capacity, with space maximized to spread people out as much as possible. (https://www.cbc.ca/news/canada/prince-edward-island/pei-covid-briefing-february-8th-1.6343463)</t>
+  </si>
+  <si>
+    <t>proof of vaccination won’t be required to access restaurants, bars, gyms and other venues. The province is also lifting the requirement for unvaccinated people arriving on the Island to self-isolate, but they will have to be tested for COVID-19 upon entry and on their second and fourth days in the province. Masks will still be required in indoor public spaces, and limits remain on the size of gatherings.(https://globalnews.ca/news/8639843/prince-edward-island-eliminating-vaccine-passport-covid-19/)</t>
+  </si>
+  <si>
+    <t>Personal gatherings will be limited to a single-household, with up to two other support persons where needed. People who live alone can join another household.
+ Single-households can participate in outdoor activities, such as skiing, skating or hiking.
+ Organized sports are not permitted.
+ Funerals and weddings are limited to 10 people, plus the officiant.
+ Gyms, group fitness classes, and all indoor recreational facilities must close.
+ Restaurants are limited to take-out, drive-thru, and delivery services only. No indoor dining is permitted.
+ Retail stores will remain at 50 per cent capacity with physical distancing.
+ Isolation measures will remain at four days after coming into P.E.I., with testing.
+New visitation guidelines are also being introduced at long-term care facilities.
+Those include:
+ in facilities with no outbreaks, residents can have three partners-in-care visit
+ in facilities with an outbreak, residents can have one partner-in-care visit
+Long-term care home residents are also not permitted to go on community visits, unless it is essential, like a medical appointment.
+Public and private schools across the island will continue remote learning until Jan. 31. (https://atlantic.ctvnews.ca/p-e-i-tightens-covid-19-restrictions-to-slow-spread-of-omicron-variant-returns-to-single-household-gatherings-1.5744723)</t>
+  </si>
+  <si>
+    <t>Schools implement online learning after winter break (https://www.cbc.ca/news/canada/prince-edward-island/pei-covid-pandemic-briefing-january-4-1.6303542)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Retail is limited to 50% capacity while restaurants are limited to 2 metres distance between tables (max of 10 people per table). (https://www.retailcouncil.org/province/pei/retail-and-restaurants-to-follow-tighter-capacity-restrictions-in-p-e-i/)</t>
+  </si>
+  <si>
+    <t>school winter break (https://www.ctvnews.ca/health/coronavirus/will-schools-stay-open-post-winter-break-that-s-the-plan-across-canada-right-now-1.5709507)</t>
+  </si>
+  <si>
+    <t>Schools reopen to in person learning. Personal gatherings will be allowed with a steady, consistent maximum of 10 people. 
+Organized gatherings of one cohort of 50 plus staff, provided there is physical distancing of people in different households, will be allowed. This applies to faith gathering, wedding and funeral ceremonies, theatres and concerts. Wedding and funeral receptions are not permitted.
+Sport team practices and recreational activities can have up to 20 consistent individuals. 
+Fitness facilities can open with 50 per cent capacity and physical distancing.
+In-room dining can resume with 50 per cent capacity and six-feet distance between tables and maximum 10 per table. Standing receptions where food and drink are served are not permitted.
+No dance floors or karaoke.
+Masks cannot be removed at indoor events even with physical distancing.
+Businesses and organizations can serve the public with 50 per cent capacity and physical distancing, including retail, museums and libraries.
+Vax Pass program will remain in place for discretionary events and activities.
+Visitation for long-term care is increased to three partners in care and three designated visitors. In homes where there are outbreaks additional measures will be in place. (https://www.cbc.ca/news/canada/prince-edward-island/pei-covid-19-briefing-jan-26-1.6328340)</t>
+  </si>
+  <si>
+    <t>01/13/2022</t>
+  </si>
+  <si>
+    <t>Schools reopen. (https://www.cbc.ca/news/canada/north/nunavut-covid-update-jan-13-1.6312955)</t>
+  </si>
+  <si>
+    <t>community travel restrictions will be lifted, indoor gatherings can resume with up to five people aside from household members, and most non-essential businesses can reopen.
+Masks are still required in all communities, and the territory is still discouraging non-essential travel. Twenty-five people will be allowed at outdoor gatherings.
+Government offices, childcare facilities, Inuit organizations and other offices can reopen. Restaurants are still limited to take-out only.
+Other changes include:
+Long-term care and elders' facilities may have one visitor per resident, but masks are mandatory.
+Indoor public gatherings, including community halls and recreation centres will be limited to 25 people or 25 per cent capacity.
+Gyms and fitness centres can open to 25 people or 25 per cent capacity for solo workouts only; no group sessions.
+Libraries and galleries can open to 25 people or 25 per cent capacity.
+Places of worship are permitted up to 50 people or 25 per cent capacity; no
+singing allowed.
+Arenas can have up to 25 people or 25 per cent capacity, as well as 25
+spectators. No team sports allowed.
+Taxis may have one fare per trip, with mandatory masks.
+Group counselling sessions are open to 10 people.
+Parks and playgrounds may open, but buildings remain closed. (https://www.cbc.ca/news/canada/north/nunavut-covid-update-jan-13-1.6312955)</t>
+  </si>
+  <si>
+    <t>Nunavut is tightening COVID-19 public health restrictions in Iqaluit, including restricting travel in and out of the capital city to essential purposes only.
+ the city’s swimming pool, theatre, and hair and nail salons must close.
+Restaurants are limited to takeout food only.
+Indoor gatherings in homes are limited to five people plus household members. Outdoor get-togethers are restricted to 25 people.
+Indoor public gatherings in community spaces, including libraries, gyms and arenas, are capped at 25 people or 25 per cent capacity. And churches are limited to 50 people or 25 per cent capacity, with no singing. (https://globalnews.ca/news/8470715/nunvaut-covid-19-restrictions-travel-omicron/)</t>
+  </si>
+  <si>
+    <t>Outdoor gatherings are limited to five people. 
+Indoor public gatherings are not allowed.
+In homes there can be up to five visitors for essential or emergency services only. 
+Gyms, libraries, swimming pools and arenas are closed. 
+Places of worship are closed. 
+All non-essential businesses and government offices are closed.
+Bars and licensed establishments are closed.
+Restaurants are open for takeout only. 
+Long term and elder care facilities are closed. 
+Personal services are closed. Such as hairdressers, massage therapists. (https://www.cbc.ca/news/canada/north/christmas-lock-down-covid-19-1.6297549)</t>
   </si>
 </sst>
 </file>
@@ -10717,7 +10811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11032,6 +11126,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11383,7 +11492,7 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -12098,16 +12207,16 @@
       </c>
     </row>
     <row r="40" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="146" t="s">
+      <c r="A40" s="153" t="s">
         <v>815</v>
       </c>
-      <c r="B40" s="148" t="s">
+      <c r="B40" s="155" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="147"/>
-      <c r="B41" s="148"/>
+      <c r="A41" s="154"/>
+      <c r="B41" s="155"/>
     </row>
     <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="70" t="s">
@@ -12118,28 +12227,28 @@
       </c>
     </row>
     <row r="43" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="146" t="s">
+      <c r="A43" s="153" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="148" t="s">
+      <c r="B43" s="155" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="71" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="147"/>
-      <c r="B44" s="148"/>
+      <c r="A44" s="154"/>
+      <c r="B44" s="155"/>
     </row>
     <row r="45" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="144" t="s">
+      <c r="A45" s="151" t="s">
         <v>449</v>
       </c>
-      <c r="B45" s="148" t="s">
+      <c r="B45" s="155" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="71" customFormat="1" ht="284" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="149"/>
-      <c r="B46" s="148"/>
+      <c r="A46" s="156"/>
+      <c r="B46" s="155"/>
     </row>
     <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="70" t="s">
@@ -12166,28 +12275,28 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="71" customFormat="1" ht="212" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="146" t="s">
+      <c r="A50" s="153" t="s">
         <v>826</v>
       </c>
-      <c r="B50" s="148" t="s">
+      <c r="B50" s="155" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="147"/>
-      <c r="B51" s="148"/>
+      <c r="A51" s="154"/>
+      <c r="B51" s="155"/>
     </row>
     <row r="52" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="146" t="s">
+      <c r="A52" s="153" t="s">
         <v>827</v>
       </c>
-      <c r="B52" s="148" t="s">
+      <c r="B52" s="155" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="71" customFormat="1" ht="242" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="147"/>
-      <c r="B53" s="148"/>
+      <c r="A53" s="154"/>
+      <c r="B53" s="155"/>
     </row>
     <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="70" t="s">
@@ -12301,7 +12410,7 @@
   </sheetPr>
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -13053,10 +13162,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13259,6 +13368,62 @@
       </c>
       <c r="B24" s="119" t="s">
         <v>1063</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="143" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B25" s="144" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="143" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B26" s="144" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="143" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B27" s="144" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="143" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B28" s="144" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="143" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B29" s="144" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B30" s="144" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B31" s="144" t="s">
+        <v>1146</v>
       </c>
     </row>
   </sheetData>
@@ -13402,24 +13567,24 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="150" t="s">
+      <c r="A14" s="157" t="s">
         <v>256</v>
       </c>
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="155" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="64" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="151"/>
-      <c r="B15" s="148"/>
+      <c r="A15" s="158"/>
+      <c r="B15" s="155"/>
     </row>
     <row r="16" spans="1:15" s="64" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="151"/>
-      <c r="B16" s="148"/>
+      <c r="A16" s="158"/>
+      <c r="B16" s="155"/>
     </row>
     <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="151"/>
-      <c r="B17" s="148"/>
+      <c r="A17" s="158"/>
+      <c r="B17" s="155"/>
     </row>
     <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="69" t="s">
@@ -16563,10 +16728,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16851,20 +17016,20 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="144" t="s">
+      <c r="A34" s="151" t="s">
         <v>270</v>
       </c>
-      <c r="B34" s="143" t="s">
+      <c r="B34" s="150" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="206" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="144"/>
-      <c r="B35" s="143"/>
+      <c r="A35" s="151"/>
+      <c r="B35" s="150"/>
     </row>
     <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="145"/>
-      <c r="B36" s="143"/>
+      <c r="A36" s="152"/>
+      <c r="B36" s="150"/>
     </row>
     <row r="37" spans="1:3" s="43" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -16981,16 +17146,16 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="86" customFormat="1" ht="229" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="146" t="s">
+      <c r="A50" s="153" t="s">
         <v>905</v>
       </c>
-      <c r="B50" s="143" t="s">
+      <c r="B50" s="150" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="86" customFormat="1" ht="181" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="147"/>
-      <c r="B51" s="143"/>
+      <c r="A51" s="154"/>
+      <c r="B51" s="150"/>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="103" t="s">
@@ -17030,6 +17195,38 @@
       </c>
       <c r="B56" s="118" t="s">
         <v>1045</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="146" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A57" s="103" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B57" s="147" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="148" customFormat="1" ht="323" x14ac:dyDescent="0.2">
+      <c r="A58" s="103" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B58" s="149" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+      <c r="A59" s="103" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B59" s="147" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="103" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B60" s="145" t="s">
+        <v>1153</v>
       </c>
     </row>
   </sheetData>

--- a/Mitigation implementations timelines.xlsx
+++ b/Mitigation implementations timelines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/Covid 19 research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BE9F75-A504-6A45-B49B-5B4981847D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67B24E4-D62B-2148-8191-3251D14A63A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="27600" windowHeight="15100" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="27600" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alberta" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="1177">
   <si>
     <t>03/30/2020</t>
   </si>
@@ -2755,9 +2755,6 @@
 *Venues deemed to be essential services including grocery stores, airports, homeless shelters, soup kitchens and the Alberta legislature building will remain open (https://edmonton.ctvnews.ca/the-situation-is-very-serious-alberta-to-declare-a-state-of-public-health-emergency-over-covid-19-1.4856794)
 *Employees asked to work from home, if possible (https://edmonton.ctvnews.ca/government-of-alberta-employees-now-being-told-to-work-from-home-if-possible-1.4857367)</t>
     </r>
-  </si>
-  <si>
-    <t>* Most non-essential businesses must close (https://www.bennettjones.com/Blogs-Section/Alberta-Releases-List-of-Essential-Services-Orders-Immediate-Closure-of-Non-Essential-Businesses) (https://gowlingwlg.com/en/insights-resources/articles/2020/alberta-orders-closure-of-non-essential-businesses/)</t>
   </si>
   <si>
     <t>05/20/2021</t>
@@ -6629,10 +6626,6 @@
     <t>*State of Emergency in the City of Yellowknife Extended until May 20, 2021 (https://www.gov.nt.ca/en/newsroom/state-emergency-city-yellowknife-extended-10)</t>
   </si>
   <si>
-    <t>*Public Health Order on School Closures for Yellowknife, Ndilo, Dettah and Behchokǫ̀ is lifted (https://www.gov.nt.ca/sites/flagship/files/documents/backgrounder_-_public_health_order_on_school_closures.pdf)
-*The Chief Public Health Officer (CPHO) is removing the temporary COVID-19 restrictions put in place for  school closures in Yellowknife, Ndilǫ̨, Dettah and Behchokǫ̀, Northwest Territories (NWT).  This order also included after-school and other extracurricular programs (https://www.gov.nt.ca/en/newsroom/public-health-order-school-closures-yellowknife-ndilo-dettah-and-behchoko-be-lifted-monday)</t>
-  </si>
-  <si>
     <t>*Public Health Emergency Extended Through June 8 (https://www.gov.nt.ca/en/newsroom/public-service-announcement-public-health-emergency-extended-through-june-8)</t>
   </si>
   <si>
@@ -10593,6 +10586,122 @@
 Restaurants are open for takeout only. 
 Long term and elder care facilities are closed. 
 Personal services are closed. Such as hairdressers, massage therapists. (https://www.cbc.ca/news/canada/north/christmas-lock-down-covid-19-1.6297549)</t>
+  </si>
+  <si>
+    <t>SCHOOLS reopen after the winter break. (https://www.yukon-news.com/news/schools-reopen-on-schedule-despite-requests-from-union-and-first-nations/)</t>
+  </si>
+  <si>
+    <t>Limits on indoor personal gatherings to 10 people from a maximum of two households if all eligible people are vaccinated; household members only if any eligible people are unvaccinated.
+Limits on outdoor personal gatherings to 25 people from a maximum of three households regardless of vaccination status.
+Limits on organized gatherings: proof of vaccination is required; indoor gatherings limited to 25 people or 50 per cent of venue capacity, whichever is less; outdoor gatherings limited to 50 people.
+Restrictions on restaurants, bars and nightclubs: proof of vaccination required for table service with a limit of six people per table; tables need to be spaced two metres (six feet) apart; no bar or counter eating or service; no moving between tables and no dancing.
+Restrictions on entertainment venues, including movie theatres, theatres and museums: proof of vaccination is required; limited to 25 people or 50 per cent venue capacity, whichever is less.
+Restrictions on recreation and leisure sites, including gyms, fitness studios, sports facilities and arts studios: proof of vaccination is required; limited to 25 people or 50 per cent of venue capacity, whichever is less.
+Recreational team sports: proof of vaccination is required; activities within cohort or teams only up to a limit of 25 people (e.g., practice, skills and drills); no games between teams. Out of territory travel for sporting events is not recommended.
+Limits on businesses and retail: maximum 50 per cent capacity. Businesses are strongly recommended to have operational plans in place to limit close contact between people and keep their employees and customers safe.
+Restrictions on personal services establishments: proof of vaccination is required; limited to 25 people or 50 per cent of venue, whichever is less.
+Restrictions on faith-based services: proof of vaccination is required; limited to 25 people or 50 per cent of venue capacity, whichever is less.
+Public saunas and steam rooms or baths are not allowed to operate. (https://yukon.ca/en/news/additional-public-health-measures-introduced-response-spread-omicron-variant-yukon)</t>
+  </si>
+  <si>
+    <t>winter break at schools</t>
+  </si>
+  <si>
+    <t>all private and public gatherings will be limited to 10 people or two households, including team sports, recreation and leisure activities.
+The territory says this also includes bars and restaurants, which will remain limited to six people per table, but must close no later than 10 p.m.
+It says it is postponing all indoor organized events including funerals and weddings and will require casinos to stay closed.
+(https://www.theglobeandmail.com/canada/article-yukon-says-new-temporary-covid-19-public-health-measures-come-into/)</t>
+  </si>
+  <si>
+    <t>03/04/2022</t>
+  </si>
+  <si>
+    <t>capacity limits on gatherings will be lifted, and bars and restaurants can return to normal service with dancing and mingling between tables. masks will still be required in indoor public places and proof of vaccination must still be shown to access certain settings. (https://www.thestar.com/news/canada/2022/02/24/yukon-to-ease-covid-19-restrictions-starting-march-4-premier.html)</t>
+  </si>
+  <si>
+    <t>01/16/2021</t>
+  </si>
+  <si>
+    <t>Temporary restrictions being implemented in FORT LIARD:
+Personal indoor and outdoor gatherings prohibited. Non-essential businesses close. Schools close to in person learning. (https://www.gov.nt.ca/covid-19/sites/covid/files/resources/public-health-order-fort-liard-temporary-covid-19-restrictions-2021-01-1.pdf)</t>
+  </si>
+  <si>
+    <t>*Public Health Order on School Closures for Yellowknife, Ndilo, Dettah and Behchokǫ̀ is lifted (https://www.gov.nt.ca/sites/flagship/files/documents/backgrounder_-_public_health_order_on_school_closures.pdf)
+*The Chief Public Health Officer (CPHO) is removing the temporary COVID-19 restrictions put in place for  school closures in Yellowknife, Ndilǫ̨, Dettah and Behchokǫ̀, Northwest Territories (NWT).  This order also included after-school and other extracurricular programs (https://www.gov.nt.ca/en/newsroom/public-health-order-school-closures-yellowknife-ndilo-dettah-and-behchoko-be-lifted-monday)
+Facecoverings are required in all public indoor places. (https://www.gov.nt.ca/covid-19/sites/covid/files/resources/2021-05-13_-_public-health-order-face-mask-amendment.pdf)</t>
+  </si>
+  <si>
+    <t>12/30/2021</t>
+  </si>
+  <si>
+    <t>Schools will be closed until January 10, 2022 (https://www.gov.nt.ca/en/newsroom/change-return-school-date-all-nwt-schools)</t>
+  </si>
+  <si>
+    <t>Winter school break starts (https://nwtta.nt.ca/teaching-nwt/school-year-calendars)</t>
+  </si>
+  <si>
+    <t>Schools return to in-person learning (https://nwweek.com/news/as-n-w-t-navigates-the-omicron-wave-most-schools-will-continue-to-offer-online-learning/)</t>
+  </si>
+  <si>
+    <t>02/09/2022</t>
+  </si>
+  <si>
+    <t>Alberta entered Step 1. The following changes came into effect at that time.
+Restrictions Exemption Program removed, along with most associated restrictions.
+Capacity limits are extended to all large facilities and entertainment venues (500+), but food and beverage consumption is now allowed in seats.
+Physical distancing of 2 metres between households is encouraged, operators should facilitate distancing between patrons where possible. (https://www.alberta.ca/covid-19-public-health-actions.aspx)</t>
+  </si>
+  <si>
+    <t>Mandatory masking requirements removed for: children under 13 in all settings and students of any age attending K-12 schools and participating in school activities (https://www.alberta.ca/covid-19-public-health-actions.aspx)</t>
+  </si>
+  <si>
+    <t>03/01/2022</t>
+  </si>
+  <si>
+    <t>The following changes came into effect at that time.
+Any remaining school requirements removed (for example: Kindergarten to grade 6 cohorting).
+Youth screening activities for entertainment and sport activities removed.
+Capacity on all large venues and entertainment venues lifted.
+Restrictions lifted on interactive activities, table limits, liquor sales and closing times for bars, restaurants and other food serving businesses.
+Indoor and outdoor social gathering limits lifted, including for all wedding and funeral events.
+Mandatory work-from-home requirements lifted.
+Provincial mask mandate lifted except:
+on municipal and intra-provincial public transit for Albertans 13 and older
+at AHS-operated and contracted facilities, and all continuing care settings (https://www.alberta.ca/covid-19-public-health-actions.aspx)</t>
+  </si>
+  <si>
+    <t>03/21/2022</t>
+  </si>
+  <si>
+    <t>proof of COVID-19 vaccination is no longer required at most Ontario restaurants, gyms and movie theatres. Nightclubs, sporting and concert venues can get rid of capacity limits and restrictions are also lifting on social gathering sizes. (https://www.cbc.ca/news/canada/toronto/ontario-covid19-march-1-vaccine-passport-system-1.6368222)</t>
+  </si>
+  <si>
+    <t>Increased social gathering limits to 50 people indoors and 100 people outdoors
+Increased organized public event limits to 50 people indoors, with no limit outdoors
+Capacity limits have been removed in the following indoor public settings where proof of vaccination is required:
+Restaurants, bars and other food or drink establishments without dance facilities;
+Non-spectator areas of sports and recreational fitness facilities, including gyms;
+Cinemas;
+Meeting and event spaces, including conference centres or convention centres;
+Casinos, bingo halls and other gaming establishments;
+Indoor areas of settings that choose to opt-in to proof of vaccination requirements.
+50 per cent of the usual seating capacity is now allowed at sports arenas.
+50 per cent of the usual seating capacity is now allowed for concert venues and theatres.
+Increased indoor capacity limits to 25 per cent in the remaining higher-risk settings where proof of vaccination is required, including nightclubs, restaurants where there is dancing, as well as bathhouses and sex clubs.
+Increased capacity limits for indoor weddings, funerals or religious services, rites, or ceremonies to the number of people who can maintain two metres of physical distance. Capacity limits are removed if the location opts-in to use proof of vaccination or if the service, rite, or ceremony is occurring outdoors.
+As well, capacity limits in grocery stores, pharmacies, retail and shopping malls are limited to the number of people who can maintain two metres of physical distancing. (https://globalnews.ca/news/8620681/ontario-covid-restrictions-capacity-limits-feb-17/)</t>
+  </si>
+  <si>
+    <t>Social gatherings will be increased to 10 people indoors and 25 people outdoors.
+ Sporting events, concert venues and theatres will be able to operate at 50 per cent seated capacity or 500 people, whichever is less.
+ Restaurants, bars and other food or drink establishments without dance facilities will be able to operate with 50 per cent capacity indoors.
+ Retailers, including grocery stores and pharmacies, as well as shopping malls, can operate with 50 per cent capacity indoors.
+ Non-spectator areas of sports and recreational fitness facilities, including gyms, can operate with 50 per cent capacity indoors.
+ Movie theatres, meeting rooms and event spaces can operate with 50 per cent capacity indoors.
+ Recreational amenities and amusement parks, including water parks, can operate with 50 per cent capacity indoors.
+ Museums, galleries, aquariums, zoos and similar attractions, as well as casinos, bingo halls and other gaming establishments can open at 50 per cent capacity indoors.
+ Indoor religious services, rites, or ceremonies can take place at 50 per cent capacity.
+ The province said enhanced proof of vaccination, and other requirements would continue to apply in existing settings. (https://toronto.ctvnews.ca/full-list-of-what-s-reopening-in-ontario-and-when-as-covid-19-restrictions-gradually-lift-1.5747814)</t>
   </si>
 </sst>
 </file>
@@ -10811,7 +10920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11141,6 +11250,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11489,11 +11614,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11511,7 +11636,7 @@
         <v>108</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -11543,7 +11668,7 @@
         <v>109</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="153" x14ac:dyDescent="0.2">
@@ -11570,13 +11695,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>250</v>
-      </c>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -11764,105 +11887,129 @@
     </row>
     <row r="33" spans="1:3" s="86" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="86" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B35" s="87" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B36" s="88" t="s">
         <v>889</v>
-      </c>
-      <c r="B36" s="88" t="s">
-        <v>891</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" s="101" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B37" s="88" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C37" s="102"/>
     </row>
     <row r="38" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B38" s="88" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="104" customFormat="1" ht="289" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B39" s="88" t="s">
         <v>993</v>
-      </c>
-      <c r="B39" s="88" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="104" customFormat="1" ht="306" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B40" s="88" t="s">
         <v>992</v>
-      </c>
-      <c r="B40" s="88" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B41" s="88" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="110" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B42" s="88" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="115" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B43" s="88" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="122" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B44" s="88" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="C45" s="102" t="s">
-        <v>618</v>
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="156" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B45" s="88" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="156" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B46" s="88" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="156" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B47" s="88" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="C48" s="102" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -11895,15 +12042,15 @@
         <v>108</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="70" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C2" s="70"/>
     </row>
@@ -11912,7 +12059,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C3" s="70"/>
     </row>
@@ -11921,7 +12068,7 @@
         <v>64</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C4" s="70"/>
     </row>
@@ -11930,7 +12077,7 @@
         <v>109</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C5" s="70"/>
     </row>
@@ -11939,7 +12086,7 @@
         <v>62</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C6" s="70"/>
     </row>
@@ -11948,16 +12095,16 @@
         <v>114</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C7" s="70"/>
     </row>
     <row r="8" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -11965,21 +12112,21 @@
         <v>97</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="98" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="97"/>
       <c r="B10" s="99" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="221" x14ac:dyDescent="0.2">
       <c r="A11" s="70" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -11987,7 +12134,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="71" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -11995,15 +12142,15 @@
         <v>70</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A14" s="70" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -12011,15 +12158,15 @@
         <v>150</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="70" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -12027,23 +12174,23 @@
         <v>82</v>
       </c>
       <c r="B17" s="72" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A18" s="70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="71" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="70" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -12051,7 +12198,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="72" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -12059,7 +12206,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -12067,31 +12214,31 @@
         <v>29</v>
       </c>
       <c r="B22" s="72" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="70" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B23" s="72" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="70" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B24" s="72" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="70" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="170" x14ac:dyDescent="0.2">
@@ -12099,15 +12246,15 @@
         <v>44</v>
       </c>
       <c r="B26" s="72" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A27" s="70" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B27" s="72" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -12115,31 +12262,31 @@
         <v>95</v>
       </c>
       <c r="B28" s="72" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="71" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A29" s="70" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B29" s="72" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="71" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="70" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B30" s="72" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="71" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="70" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B31" s="72" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -12147,15 +12294,15 @@
         <v>180</v>
       </c>
       <c r="B32" s="72" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A33" s="70" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B33" s="72" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="238" x14ac:dyDescent="0.2">
@@ -12163,227 +12310,227 @@
         <v>103</v>
       </c>
       <c r="B34" s="72" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="70" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B35" s="72" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A36" s="70" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B36" s="72" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A37" s="70" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B37" s="72" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="70" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B38" s="72" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="70" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B39" s="72" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="161" t="s">
+        <v>813</v>
+      </c>
+      <c r="B40" s="163" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="153" t="s">
-        <v>815</v>
-      </c>
-      <c r="B40" s="155" t="s">
-        <v>816</v>
-      </c>
-    </row>
     <row r="41" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="154"/>
-      <c r="B41" s="155"/>
+      <c r="A41" s="162"/>
+      <c r="B41" s="163"/>
     </row>
     <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="70" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B42" s="72" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="153" t="s">
+      <c r="A43" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="155" t="s">
-        <v>821</v>
+      <c r="B43" s="163" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="71" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="154"/>
-      <c r="B44" s="155"/>
+      <c r="A44" s="162"/>
+      <c r="B44" s="163"/>
     </row>
     <row r="45" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="151" t="s">
-        <v>449</v>
-      </c>
-      <c r="B45" s="155" t="s">
-        <v>822</v>
+      <c r="A45" s="159" t="s">
+        <v>448</v>
+      </c>
+      <c r="B45" s="163" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="71" customFormat="1" ht="284" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="156"/>
-      <c r="B46" s="155"/>
+      <c r="A46" s="164"/>
+      <c r="B46" s="163"/>
     </row>
     <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="70" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B47" s="72" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="70" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B48" s="72" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="70" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B49" s="72" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="71" customFormat="1" ht="212" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="153" t="s">
-        <v>826</v>
-      </c>
-      <c r="B50" s="155" t="s">
-        <v>942</v>
+      <c r="A50" s="161" t="s">
+        <v>824</v>
+      </c>
+      <c r="B50" s="163" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="154"/>
-      <c r="B51" s="155"/>
+      <c r="A51" s="162"/>
+      <c r="B51" s="163"/>
     </row>
     <row r="52" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="153" t="s">
-        <v>827</v>
-      </c>
-      <c r="B52" s="155" t="s">
-        <v>941</v>
+      <c r="A52" s="161" t="s">
+        <v>825</v>
+      </c>
+      <c r="B52" s="163" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="71" customFormat="1" ht="242" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="154"/>
-      <c r="B53" s="155"/>
+      <c r="A53" s="162"/>
+      <c r="B53" s="163"/>
     </row>
     <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="70" t="s">
+        <v>826</v>
+      </c>
+      <c r="B54" s="72" t="s">
         <v>828</v>
-      </c>
-      <c r="B54" s="72" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B55" s="87" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="388" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B56" s="91" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B57" s="102" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="58" spans="1:2" s="113" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B58" s="114" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B59" s="92" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B60" s="119" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="61" spans="1:2" s="137" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B61" s="138" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="62" spans="1:2" s="135" customFormat="1" ht="329" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B62" s="136" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="137" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B63" s="138" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B64" s="136" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
   </sheetData>
@@ -12429,7 +12576,7 @@
         <v>108</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="71" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -12437,7 +12584,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C2" s="70"/>
     </row>
@@ -12446,7 +12593,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C3" s="73"/>
     </row>
@@ -12455,7 +12602,7 @@
         <v>114</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C4" s="73"/>
     </row>
@@ -12464,24 +12611,24 @@
         <v>117</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C5" s="73"/>
     </row>
     <row r="6" spans="1:15" s="74" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="356" x14ac:dyDescent="0.2">
       <c r="A7" s="73" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="74" customFormat="1" ht="136" x14ac:dyDescent="0.2">
@@ -12489,7 +12636,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -12497,15 +12644,15 @@
         <v>29</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="74" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="74" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -12513,23 +12660,23 @@
         <v>40</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="74" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -12537,7 +12684,7 @@
         <v>232</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="78"/>
@@ -12558,7 +12705,7 @@
         <v>165</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C15" s="78"/>
       <c r="D15" s="78"/>
@@ -12576,58 +12723,58 @@
     </row>
     <row r="16" spans="1:15" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B18" s="75" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="74" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="74" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B22" s="75" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -12635,7 +12782,7 @@
         <v>171</v>
       </c>
       <c r="B23" s="75" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -12643,40 +12790,40 @@
         <v>103</v>
       </c>
       <c r="B24" s="75" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B25" s="75" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="74" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B26" s="75" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D26" s="75"/>
     </row>
     <row r="27" spans="1:4" s="74" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B27" s="75" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B28" s="75" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -12684,159 +12831,159 @@
         <v>121</v>
       </c>
       <c r="B29" s="75" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="74" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B30" s="75" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="74" customFormat="1" ht="340" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B31" s="75" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B32" s="91" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B33" s="102" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="108" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B34" s="109" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B35" s="106" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B36" s="109" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="141" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B37" s="142" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="141" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B38" s="142" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="141" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B39" s="142" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="255" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B40" s="142" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="141" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B41" s="142" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B42" s="142" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="141" customFormat="1" ht="306" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B43" s="142" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="141" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B44" s="142" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B45" s="142" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B46" s="142" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="141" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B47" s="142" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B48" s="142" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
   </sheetData>
@@ -12869,7 +13016,7 @@
         <v>108</v>
       </c>
       <c r="C1" s="79" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -12877,7 +13024,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -12885,7 +13032,7 @@
         <v>111</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="82" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -12893,15 +13040,15 @@
         <v>117</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="404" x14ac:dyDescent="0.2">
@@ -12909,7 +13056,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="81" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="340" x14ac:dyDescent="0.2">
@@ -12917,23 +13064,23 @@
         <v>202</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="221" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B8" s="81" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="82" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="82" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -12941,15 +13088,15 @@
         <v>29</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="89" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -12957,15 +13104,15 @@
         <v>44</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="84" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="84" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B13" s="85" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -12973,15 +13120,15 @@
         <v>95</v>
       </c>
       <c r="B14" s="85" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="84" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B15" s="85" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="82" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -12989,7 +13136,7 @@
         <v>103</v>
       </c>
       <c r="B16" s="83" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="340" x14ac:dyDescent="0.2">
@@ -12997,15 +13144,15 @@
         <v>103</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="84" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="A18" s="84" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B18" s="85" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="84" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -13013,31 +13160,31 @@
         <v>50</v>
       </c>
       <c r="B19" s="85" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="84" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A20" s="84" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B20" s="85" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="84" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A21" s="84" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B21" s="85" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="84" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B22" s="85" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -13045,111 +13192,111 @@
         <v>55</v>
       </c>
       <c r="B23" s="85" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>886</v>
+      </c>
+      <c r="B24" s="83" t="s">
         <v>888</v>
-      </c>
-      <c r="B24" s="83" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B25" s="83" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B26" s="83" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="255" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B27" s="85" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B28" s="91" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B29" s="102" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="113" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="113" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B30" s="114" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B31" s="106" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B32" s="119" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="139" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="139" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B33" s="140" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B34" s="140" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B35" s="140" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B36" s="140" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
   </sheetData>
@@ -13182,7 +13329,7 @@
         <v>108</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="71" customFormat="1" ht="136" x14ac:dyDescent="0.2">
@@ -13190,24 +13337,24 @@
         <v>109</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C2" s="70"/>
     </row>
     <row r="3" spans="1:3" ht="204" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B3" s="90" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="255" x14ac:dyDescent="0.2">
@@ -13215,31 +13362,31 @@
         <v>132</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B7" s="90" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -13247,7 +13394,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="90" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="89" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -13255,15 +13402,15 @@
         <v>44</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="306" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B11" s="90" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="89" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -13271,159 +13418,159 @@
         <v>95</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="89" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B13" s="90" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="284" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B14" s="90" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B15" s="90" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B16" s="90" t="s">
         <v>935</v>
-      </c>
-      <c r="B16" s="90" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="93" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B17" s="94" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="255" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B18" s="90" t="s">
         <v>936</v>
-      </c>
-      <c r="B18" s="90" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B19" s="102" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="108" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B20" s="109" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="117" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B21" s="118" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="105" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B22" s="106" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B23" s="118" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B24" s="119" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="143" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B25" s="144" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="143" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B26" s="144" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="143" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B27" s="144" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="143" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B28" s="144" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="143" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B29" s="144" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B30" s="144" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B31" s="144" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
   </sheetData>
@@ -13458,7 +13605,7 @@
         <v>108</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="62" customFormat="1" ht="119" x14ac:dyDescent="0.2">
@@ -13466,7 +13613,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C2" s="61"/>
     </row>
@@ -13475,7 +13622,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C3" s="61"/>
     </row>
@@ -13484,7 +13631,7 @@
         <v>111</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C4" s="61"/>
     </row>
@@ -13493,7 +13640,7 @@
         <v>114</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C5" s="61"/>
     </row>
@@ -13502,25 +13649,25 @@
         <v>117</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C6" s="63"/>
     </row>
     <row r="7" spans="1:15" s="64" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="63" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C7" s="63"/>
     </row>
     <row r="8" spans="1:15" ht="221" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="64" customFormat="1" ht="153" x14ac:dyDescent="0.2">
@@ -13528,7 +13675,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="76" x14ac:dyDescent="0.2">
@@ -13536,7 +13683,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O10" s="20" t="s">
         <v>174</v>
@@ -13547,15 +13694,15 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="64" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="119" x14ac:dyDescent="0.2">
@@ -13563,35 +13710,35 @@
         <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="157" t="s">
-        <v>256</v>
-      </c>
-      <c r="B14" s="155" t="s">
-        <v>729</v>
+      <c r="A14" s="165" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="163" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="64" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="158"/>
-      <c r="B15" s="155"/>
+      <c r="A15" s="166"/>
+      <c r="B15" s="163"/>
     </row>
     <row r="16" spans="1:15" s="64" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="158"/>
-      <c r="B16" s="155"/>
+      <c r="A16" s="166"/>
+      <c r="B16" s="163"/>
     </row>
     <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="158"/>
-      <c r="B17" s="155"/>
+      <c r="A17" s="166"/>
+      <c r="B17" s="163"/>
     </row>
     <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="69" t="s">
         <v>202</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -13599,7 +13746,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="102" x14ac:dyDescent="0.2">
@@ -13607,15 +13754,15 @@
         <v>150</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="64" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -13623,39 +13770,39 @@
         <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="64" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -13663,23 +13810,23 @@
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="64" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -13687,7 +13834,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -13695,23 +13842,23 @@
         <v>89</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -13719,23 +13866,23 @@
         <v>156</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="64" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="64" customFormat="1" ht="170" x14ac:dyDescent="0.2">
@@ -13743,7 +13890,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -13751,39 +13898,39 @@
         <v>230</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="64" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -13791,7 +13938,7 @@
         <v>232</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -13799,23 +13946,23 @@
         <v>165</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="64" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="187" x14ac:dyDescent="0.2">
@@ -13823,47 +13970,47 @@
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -13871,7 +14018,7 @@
         <v>236</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -13879,47 +14026,47 @@
         <v>238</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="64" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:2" s="64" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -13927,23 +14074,23 @@
         <v>180</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:2" s="64" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A62" s="64" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="64" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -13951,15 +14098,15 @@
         <v>171</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -13967,7 +14114,7 @@
         <v>242</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -13975,42 +14122,42 @@
         <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -14018,23 +14165,23 @@
         <v>121</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="238" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -14066,7 +14213,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -14100,7 +14247,7 @@
         <v>108</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -14420,118 +14567,118 @@
     </row>
     <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>604</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="238" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B38" s="87" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="95" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B39" s="96" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="89" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B40" s="90" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="95" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B41" s="96" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B42" s="102" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="101" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B43" s="102" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B44" s="102" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="221" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B45" s="106" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B46" s="118" t="s">
         <v>1038</v>
-      </c>
-      <c r="B46" s="118" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B47" s="118" t="s">
         <v>1039</v>
-      </c>
-      <c r="B47" s="118" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="204" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B48" s="119" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B49" s="130" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
@@ -14544,11 +14691,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14566,7 +14713,7 @@
         <v>88</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -14574,7 +14721,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -14583,7 +14730,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C3" s="36"/>
     </row>
@@ -14592,7 +14739,7 @@
         <v>117</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C4" s="36"/>
     </row>
@@ -14609,7 +14756,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -14633,15 +14780,15 @@
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>612</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -14705,7 +14852,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -14863,7 +15010,7 @@
     </row>
     <row r="37" spans="1:3" ht="204" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>54</v>
@@ -14903,86 +15050,115 @@
     </row>
     <row r="42" spans="1:3" ht="340" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="53" t="s">
         <v>624</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="356" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B43" s="87" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C43" s="46"/>
     </row>
     <row r="44" spans="1:3" ht="388" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B44" s="90" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B45" s="102" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B46" s="90" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="B48" s="106" t="s">
         <v>998</v>
-      </c>
-      <c r="B48" s="106" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B49" s="111" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B50" s="119" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B51" s="121" t="s">
-        <v>1065</v>
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="156" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B52" s="157" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="156" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B53" s="157" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="156" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B54" s="157" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>1173</v>
       </c>
     </row>
   </sheetData>
@@ -15018,7 +15194,7 @@
         <v>108</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="136" x14ac:dyDescent="0.2">
@@ -15183,10 +15359,10 @@
     </row>
     <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -15215,10 +15391,10 @@
     </row>
     <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -15247,98 +15423,98 @@
     </row>
     <row r="30" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="272" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C33" s="87"/>
     </row>
     <row r="34" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C34" s="102"/>
     </row>
     <row r="35" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C35" s="102"/>
     </row>
     <row r="36" spans="1:3" s="105" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C36" s="106"/>
     </row>
     <row r="37" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C37" s="106"/>
     </row>
     <row r="38" spans="1:3" s="133" customFormat="1" ht="276" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C38" s="134"/>
     </row>
     <row r="39" spans="1:3" s="131" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C39" s="132"/>
     </row>
     <row r="40" spans="1:3" s="131" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C40" s="132"/>
     </row>
@@ -15379,7 +15555,7 @@
         <v>108</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -15392,10 +15568,10 @@
     </row>
     <row r="3" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -15403,7 +15579,7 @@
         <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>177</v>
@@ -15422,7 +15598,7 @@
         <v>178</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -15430,7 +15606,7 @@
         <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -15438,7 +15614,7 @@
         <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -15446,10 +15622,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.2">
@@ -15457,31 +15633,31 @@
         <v>99</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>360</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -15489,23 +15665,23 @@
         <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>368</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -15513,18 +15689,18 @@
         <v>2</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>370</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="16" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -15532,42 +15708,42 @@
         <v>4</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B22" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -15575,15 +15751,15 @@
         <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -15591,7 +15767,7 @@
         <v>70</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -15599,23 +15775,23 @@
         <v>132</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B28" s="27" t="s">
         <v>375</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -15623,15 +15799,15 @@
         <v>150</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -15639,79 +15815,79 @@
         <v>214</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B36" s="27" t="s">
         <v>384</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B37" s="27" t="s">
         <v>386</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B39" s="27" t="s">
         <v>389</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>391</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -15719,120 +15895,120 @@
         <v>148</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="16" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C45" s="28" t="s">
         <v>331</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C46" s="28"/>
     </row>
     <row r="47" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C47" s="28"/>
     </row>
     <row r="48" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="C48" s="28" t="s">
         <v>475</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C49" s="28"/>
     </row>
     <row r="50" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>397</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="306" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="16" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="B54" s="15" t="s">
         <v>336</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -15840,79 +16016,79 @@
         <v>228</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="24" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="16" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -15920,37 +16096,37 @@
         <v>240</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="B68" s="30" t="s">
         <v>429</v>
-      </c>
-      <c r="B68" s="30" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -15958,52 +16134,52 @@
         <v>180</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="B71" s="31" t="s">
         <v>431</v>
-      </c>
-      <c r="B71" s="31" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B72" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="C72" s="29" t="s">
         <v>351</v>
-      </c>
-      <c r="C72" s="29" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="B73" s="15" t="s">
         <v>433</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>434</v>
       </c>
       <c r="C73" s="29"/>
     </row>
     <row r="74" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C74" s="29"/>
     </row>
     <row r="75" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C75" s="29"/>
     </row>
@@ -16012,42 +16188,42 @@
         <v>103</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -16055,31 +16231,31 @@
         <v>182</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="198" customHeight="1" x14ac:dyDescent="0.2">
@@ -16087,53 +16263,53 @@
         <v>205</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="16" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A88" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B88" s="15" t="s">
         <v>349</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A89" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="B89" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="B89" s="15" t="s">
-        <v>486</v>
-      </c>
       <c r="C89" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -16141,39 +16317,39 @@
         <v>55</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -16181,193 +16357,193 @@
         <v>208</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>451</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>453</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="89" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="306" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B104" s="87" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="105" spans="1:3" s="95" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B105" s="96" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="106" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B106" s="102" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="107" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B107" s="106" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="108" spans="1:3" s="105" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B108" s="106" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="109" spans="1:3" s="113" customFormat="1" ht="88" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B109" s="116" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="238" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B110" s="118" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="111" spans="1:3" s="120" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B111" s="121" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C111" s="28"/>
     </row>
     <row r="112" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B112" s="119" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="120" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B113" s="121" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B114" s="121" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="128" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B115" s="127" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="116" spans="1:2" s="126" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A116" s="128" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B116" s="127" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B117" s="127" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B118" s="127" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
   </sheetData>
@@ -16407,7 +16583,7 @@
         <v>108</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -16415,7 +16591,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -16423,7 +16599,7 @@
         <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="16" customFormat="1" ht="119" x14ac:dyDescent="0.2">
@@ -16431,7 +16607,7 @@
         <v>62</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -16439,7 +16615,7 @@
         <v>178</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -16452,18 +16628,18 @@
     </row>
     <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -16471,7 +16647,7 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -16479,7 +16655,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="238" x14ac:dyDescent="0.2">
@@ -16487,15 +16663,15 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -16503,7 +16679,7 @@
         <v>132</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="153" x14ac:dyDescent="0.2">
@@ -16511,23 +16687,23 @@
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="16" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -16535,7 +16711,7 @@
         <v>154</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1" ht="170" x14ac:dyDescent="0.2">
@@ -16543,7 +16719,7 @@
         <v>232</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="187" x14ac:dyDescent="0.2">
@@ -16551,15 +16727,15 @@
         <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -16567,155 +16743,155 @@
         <v>66</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="44" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="86" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B29" s="87" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="255" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B30" s="87" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B31" s="102" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B32" s="102" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="255" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B33" s="102" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B34" s="106" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B35" s="114" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B36" s="119" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B37" s="124" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B38" s="125" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="E41" s="119" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -16730,7 +16906,7 @@
   </sheetPr>
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
@@ -16748,7 +16924,7 @@
         <v>108</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -16756,7 +16932,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="258" customHeight="1" x14ac:dyDescent="0.2">
@@ -16764,7 +16940,7 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C3" s="37"/>
     </row>
@@ -16773,25 +16949,25 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C4" s="37"/>
     </row>
     <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C5" s="37"/>
     </row>
     <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C6" s="37"/>
     </row>
@@ -16800,24 +16976,24 @@
         <v>126</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C7" s="58"/>
     </row>
     <row r="8" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -16825,7 +17001,7 @@
         <v>150</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -16833,7 +17009,7 @@
         <v>214</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -16841,42 +17017,42 @@
         <v>203</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -16884,15 +17060,15 @@
         <v>148</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -16900,39 +17076,39 @@
         <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -16940,7 +17116,7 @@
         <v>147</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -16948,7 +17124,7 @@
         <v>192</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -16956,39 +17132,39 @@
         <v>159</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="102" x14ac:dyDescent="0.2">
@@ -16996,7 +17172,7 @@
         <v>164</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -17004,110 +17180,110 @@
         <v>91</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="16" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A33" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B33" s="28" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="159" t="s">
+        <v>269</v>
+      </c>
+      <c r="B34" s="158" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="151" t="s">
-        <v>270</v>
-      </c>
-      <c r="B34" s="150" t="s">
-        <v>572</v>
-      </c>
-    </row>
     <row r="35" spans="1:3" ht="206" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="151"/>
-      <c r="B35" s="150"/>
+      <c r="A35" s="159"/>
+      <c r="B35" s="158"/>
     </row>
     <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="152"/>
-      <c r="B36" s="150"/>
+      <c r="A36" s="160"/>
+      <c r="B36" s="158"/>
     </row>
     <row r="37" spans="1:3" s="43" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="43" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B38" s="39" t="s">
         <v>574</v>
-      </c>
-      <c r="B38" s="39" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>539</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="B40" s="39" t="s">
-        <v>540</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B41" s="39" t="s">
         <v>577</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>578</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" ht="204" x14ac:dyDescent="0.2">
       <c r="A43" s="38" t="s">
+        <v>578</v>
+      </c>
+      <c r="B43" s="39" t="s">
         <v>579</v>
-      </c>
-      <c r="B43" s="39" t="s">
-        <v>580</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A44" s="38" t="s">
+        <v>580</v>
+      </c>
+      <c r="B44" s="39" t="s">
         <v>581</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>582</v>
       </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="38" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C45" s="2"/>
     </row>
@@ -17116,117 +17292,117 @@
         <v>208</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" s="16" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A47" s="40" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C47" s="28"/>
     </row>
     <row r="48" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="86" customFormat="1" ht="229" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="153" t="s">
-        <v>905</v>
-      </c>
-      <c r="B50" s="150" t="s">
-        <v>906</v>
+      <c r="A50" s="161" t="s">
+        <v>903</v>
+      </c>
+      <c r="B50" s="158" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="86" customFormat="1" ht="181" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="154"/>
-      <c r="B51" s="150"/>
+      <c r="A51" s="162"/>
+      <c r="B51" s="158"/>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="103" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B52" s="100" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="103" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B53" s="100" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="103" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B54" s="112" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="103" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B55" s="107" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A56" s="103" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B56" s="118" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="146" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A57" s="103" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B57" s="147" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="58" spans="1:2" s="148" customFormat="1" ht="323" x14ac:dyDescent="0.2">
       <c r="A58" s="103" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B58" s="149" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="255" x14ac:dyDescent="0.2">
       <c r="A59" s="103" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B59" s="147" t="s">
         <v>1152</v>
-      </c>
-      <c r="B59" s="147" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="103" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B60" s="145" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
   </sheetData>
@@ -17245,11 +17421,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17266,7 +17442,7 @@
         <v>108</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -17274,7 +17450,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C2" s="54"/>
     </row>
@@ -17283,7 +17459,7 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -17291,7 +17467,7 @@
         <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -17299,23 +17475,23 @@
         <v>178</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="55" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -17323,7 +17499,7 @@
         <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
@@ -17331,27 +17507,27 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -17360,7 +17536,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -17368,7 +17544,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -17376,7 +17552,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="55" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -17384,7 +17560,7 @@
         <v>218</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -17392,23 +17568,23 @@
         <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="55" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -17416,16 +17592,16 @@
         <v>192</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C20" s="2"/>
     </row>
@@ -17434,34 +17610,34 @@
         <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>657</v>
       </c>
       <c r="C24" s="2"/>
     </row>
@@ -17470,25 +17646,25 @@
         <v>232</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>662</v>
       </c>
       <c r="C27" s="2"/>
     </row>
@@ -17497,7 +17673,7 @@
         <v>66</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C28" s="2"/>
     </row>
@@ -17506,34 +17682,34 @@
         <v>236</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>669</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>666</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>667</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>665</v>
       </c>
       <c r="C32" s="2"/>
     </row>
@@ -17542,343 +17718,376 @@
         <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" s="152" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B34" s="153" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C34" s="153"/>
+    </row>
+    <row r="35" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>674</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>691</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>692</v>
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" s="55" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>448</v>
+        <v>690</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" s="55" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" s="55" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" s="55" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="B52" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B54" s="2" t="s">
+    <row r="56" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B57" s="90" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B58" s="90" t="s">
         <v>928</v>
       </c>
-      <c r="B56" s="90" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="B57" s="90" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="B58" s="102" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" s="113" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="B59" s="114" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+        <v>979</v>
+      </c>
+      <c r="B59" s="102" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="113" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B60" s="114" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B61" s="109" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="B60" s="109" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="153" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B61" s="109" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" s="117" customFormat="1" ht="170" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B62" s="118" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="221" x14ac:dyDescent="0.2">
+      <c r="B62" s="109" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="117" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B63" s="114" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" s="129" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>1021</v>
+      </c>
+      <c r="B63" s="118" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="221" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B64" s="114" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="129" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B65" s="130" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B66" s="130" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="129" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B67" s="130" t="s">
         <v>1092</v>
       </c>
-      <c r="B64" s="130" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B65" s="130" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" s="129" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+    </row>
+    <row r="68" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B68" s="130" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="129" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="B66" s="130" t="s">
+      <c r="B69" s="130" t="s">
         <v>1094</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B67" s="130" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" s="129" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B68" s="130" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B69" s="130" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="70" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="B70" s="130" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B71" s="130" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" s="154" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B72" s="155" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" s="154" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B73" s="155" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" s="129" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B74" s="130" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="129" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B71" s="130" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" s="129" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B72" s="130" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+    <row r="75" spans="1:2" s="129" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B75" s="130" t="s">
         <v>1089</v>
       </c>
-      <c r="B73" s="130" t="s">
-        <v>1090</v>
+    </row>
+    <row r="76" spans="1:2" s="154" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B76" s="155" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B77" s="130" t="s">
+        <v>1088</v>
       </c>
     </row>
   </sheetData>
@@ -17891,10 +18100,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17911,7 +18120,7 @@
         <v>108</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -17919,7 +18128,7 @@
         <v>111</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -17927,15 +18136,15 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -17943,7 +18152,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -17951,7 +18160,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -17959,7 +18168,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -17967,23 +18176,23 @@
         <v>124</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -17991,7 +18200,7 @@
         <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="136" x14ac:dyDescent="0.2">
@@ -17999,15 +18208,15 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="59" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="57" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -18015,23 +18224,23 @@
         <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="306" x14ac:dyDescent="0.2">
@@ -18039,95 +18248,135 @@
         <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>711</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="59" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="60" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B25" s="87" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B27" s="102" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="289" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B28" s="118" t="s">
-        <v>1048</v>
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="150" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B29" s="151" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="150" customFormat="1" ht="372" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B30" s="151" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B31" s="151" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B32" s="151" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B33" s="151" t="s">
+        <v>1160</v>
       </c>
     </row>
   </sheetData>

--- a/Mitigation implementations timelines.xlsx
+++ b/Mitigation implementations timelines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/Covid 19 research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67B24E4-D62B-2148-8191-3251D14A63A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CF0579-12B5-D941-85A5-4AB40FE5BFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="27600" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="520" windowWidth="27920" windowHeight="15900" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alberta" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="1223">
   <si>
     <t>03/30/2020</t>
   </si>
@@ -10646,12 +10646,6 @@
     <t>02/09/2022</t>
   </si>
   <si>
-    <t>Alberta entered Step 1. The following changes came into effect at that time.
-Restrictions Exemption Program removed, along with most associated restrictions.
-Capacity limits are extended to all large facilities and entertainment venues (500+), but food and beverage consumption is now allowed in seats.
-Physical distancing of 2 metres between households is encouraged, operators should facilitate distancing between patrons where possible. (https://www.alberta.ca/covid-19-public-health-actions.aspx)</t>
-  </si>
-  <si>
     <t>Mandatory masking requirements removed for: children under 13 in all settings and students of any age attending K-12 schools and participating in school activities (https://www.alberta.ca/covid-19-public-health-actions.aspx)</t>
   </si>
   <si>
@@ -10671,9 +10665,6 @@
   </si>
   <si>
     <t>03/21/2022</t>
-  </si>
-  <si>
-    <t>proof of COVID-19 vaccination is no longer required at most Ontario restaurants, gyms and movie theatres. Nightclubs, sporting and concert venues can get rid of capacity limits and restrictions are also lifting on social gathering sizes. (https://www.cbc.ca/news/canada/toronto/ontario-covid19-march-1-vaccine-passport-system-1.6368222)</t>
   </si>
   <si>
     <t>Increased social gathering limits to 50 people indoors and 100 people outdoors
@@ -10702,6 +10693,238 @@
  Museums, galleries, aquariums, zoos and similar attractions, as well as casinos, bingo halls and other gaming establishments can open at 50 per cent capacity indoors.
  Indoor religious services, rites, or ceremonies can take place at 50 per cent capacity.
  The province said enhanced proof of vaccination, and other requirements would continue to apply in existing settings. (https://toronto.ctvnews.ca/full-list-of-what-s-reopening-in-ontario-and-when-as-covid-19-restrictions-gradually-lift-1.5747814)</t>
+  </si>
+  <si>
+    <t>Masking requirements removed in most settings, except public transit, long-term care and retirement homes, health-care settings, congregate care settings, shelters and jails.
+Remaining measures in schools, including cohorting and on-site symptom screening, are removed.
+Remaining regulatory requirements for businesses are removed, including passive screening and the need to have a COVID-19 safety plan. (https://www.cp24.com/news/the-full-list-of-covid-19-restrictions-that-will-be-lifted-in-ontario-1.5812172)</t>
+  </si>
+  <si>
+    <t>The mandatory vaccination policy for employees in long-term care homes is lifted.
+A directive requiring that unvaccinated workers in hospitals and other high-risk healthcare settings partake in a regular rapid testing program is lifted.
+Letters of instruction to the Ministry of Education, the Ministry of Children, Community and Social Services and the Ministry of Seniors and Accessibility are revoked. This will mean that those sectors will no longer be required to have vaccination policies that, at a minimum, require unvaccinated workers to partake in an educational course on the benefits of vaccination. (https://www.cp24.com/news/the-full-list-of-covid-19-restrictions-that-will-be-lifted-in-ontario-1.5812172)</t>
+  </si>
+  <si>
+    <t>March break in schools. Students return on March 21, 2022</t>
+  </si>
+  <si>
+    <t>Student in Ontario coming back to in-person learning following the Winter break. Masks still required,  co-horting is in force. (https://toronto.ctvnews.ca/ontario-students-return-to-the-classroom-on-jan-17-here-s-what-you-need-to-know-1.5737303)</t>
+  </si>
+  <si>
+    <t>proof of COVID-19 vaccination is no longer required at most Ontario restaurants, gyms and movie theatres. Nightclubs, sporting and concert venues can get rid of capacity limits and restrictions are also lifting on social gathering sizes. (https://www.cbc.ca/news/canada/toronto/ontario-covid19-march-1-vaccine-passport-system-1.6368222)
+Capacity limits and social gatherings limits are dropped (https://www.cp24.com/news/remaining-capacity-limits-covid-19-vaccine-passport-system-dropped-in-ontario-1.5800267)</t>
+  </si>
+  <si>
+    <t>03/12/2022</t>
+  </si>
+  <si>
+    <t>Restaurants, bars, casinos and other large entertainment venues can open without capacity limits, and dancing and karaoke is permitted once more. The vaccine passport, brought in last September, was officially suspended Saturday.
+Private seniors residences no longer need to keep a registry of visitors. (https://montreal.ctvnews.ca/almost-all-covid-19-health-restrictions-lifted-across-quebec-saturday-1.5816906)</t>
+  </si>
+  <si>
+    <t>02/07/2022</t>
+  </si>
+  <si>
+    <t>Cinemas can operate at 50 per cent capacity or a maximum of 500 people. Proof of vaccination is required and there is no intermission allowed.
+ Drive-in theatres can operate with cars parked a minimum of one metre apart and a maximum of 5,000 people per show.
+ Concert halls and indoor event venues can operate at 50 per cent capacity. Proof of vaccination required. Outdoor events can operate with a 1,000 person capacity. Places of worship will be permitted to operate with a 50 per cent capacity and a maximum of 250 people. Proof of vaccination required.
+ Funerals are permitted with a maximum of 50 people. No proof of vaccination is required. (https://montreal.ctvnews.ca/here-s-a-list-of-covid-19-measures-lifted-in-quebec-as-of-feb-7-1.5770027)</t>
+  </si>
+  <si>
+    <t>Spas can reopen at 50 per cent capacity.
+ Indoor sports and recreation activities can resume for everyone, including college and university sports. A maximum of 25 people is permitted with competitions and tournaments prohibited. Change rooms are limited to 50 per cent capacity.
+ Gyms, indoor golf facilities and climbing gyms can open at 50 per cent capacity.
+Bars, breweries, taverns and casinos remain closed until further notice, and Quebec has not said when people will again be able to patronize these establishments. (https://montreal.ctvnews.ca/here-s-a-list-of-covid-19-measures-lifted-in-quebec-as-of-feb-7-1.5770027)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bars and casinos can operate at half capacity. Vaccine passports are still required and customers have to remain seated. Restaurants, bars and casinos can close at 1 a.m. but the serving of food and beverage must stop at midnight. inemas and theatres, and auditoriums and arenas seating less than 10,000, can have 100 percent capacity, and vaccination passports are still required.
+-No capacity limits or vaccination passports are needed for private events in rented venues.
+-Competitions and tournaments can take place at all schools with no capacity limits.
+-No limit on capacity at places of worship and funerals, but masks are still required.
+-Indoor gatherings at long-term care homes are allowed with a maximum of 10 people seated at one table. And face masks will no longer be needed at workplaces in Quebec, but physical barriers have to be in place and workers have to be able to stay two metres apart. The CNESST says masks should still be worn in common areas and where workers cannot stay two metres apart. (https://www.thesuburban.com/news/city_news/more-covid-restrictions-lifted-feb-28/article_dd5250eb-41fe-5092-b727-7bf9dc348fcb.html)</t>
+  </si>
+  <si>
+    <t>02/12/2022</t>
+  </si>
+  <si>
+    <t>No limit for private gatherings, though the recommendation is to keep it at 10 people or people from three households
+ Restaurants can seat up to 10 people or people from three different addresses per table
+ All caregivers can visit a loved one in a group home with a vaccine passport. (https://montreal.ctvnews.ca/this-is-a-big-change-quebec-to-lift-covid-19-restrictions-for-restaurants-home-gatherings-bars-1.5772435)</t>
+  </si>
+  <si>
+    <t>Alberta entered Step 1. The following changes came into effect at that time.
+Restrictions Exemption Program removed, along with most associated restrictions.
+Capacity limits are extended to all large facilities and entertainment venues (500+), but food and beverage consumption is now allowed in seats.
+Physical distancing of 2 metres between households is encouraged, operators should facilitate distancing between patrons where possible. (https://www.alberta.ca/covid-19-public-health-actions.aspx)
+capacity limits for all businesses, venues, and facilities are removed, except for:
+facilities with a capacity of 500 to 1,000, which remain limited to 500, and
+facilities with a capacity of more than 1,000, which remain limited to one-half capacity (https://www.mccarthy.ca/en/insights/blogs/canadian-employer-advisor/covid-19-restrictions-alberta-announces-reopening-plan)
+Vaccine passport program has been lifted (https://calgary.citynews.ca/2022/02/08/albertas-vaccine-passport-lifted/)</t>
+  </si>
+  <si>
+    <t>04/01/2022</t>
+  </si>
+  <si>
+    <t>Masks will no longer be required. People can choose to wear a mask based on their personal preference. Masking indoors is strongly recommended for those who are at high risk of severe outcomes.
+Businesses and organizations may continue to require customers to wear masks on their premises.
+NWT residents will no longer be legally required to isolate upon their return from travel or if they test positive for COVID-19, but anyone who has COVID symptoms should stay home until they are symptom free.
+Residents may access testing if they are experiencing symptoms of COVID-19 but will no longer be required to report a positive test.
+While it is still recommended that residents practice physical distancing when gathering, they will no longer be required to do so.
+Hand washing, enhanced cleaning, and good respiratory hygiene, like covering coughs and sneezes, are still recommended to reduce the risk of COVID-19 infection and transmission of other viruses. (https://www.gov.nt.ca/en/newsroom/gnwt-ending-covid-19-public-health-emergency)</t>
+  </si>
+  <si>
+    <t>Vaccine passport program launches. Non-essential businesses and organizations that choose to use it can increase capacity limits by verifying the vaccination status of their clients. The proof of vaccine program would allow for gatherings of up to 100 indoors, and 200 outdoors. (https://www.cbc.ca/news/canada/north/nwt-vaccine-passport-1.6211060)</t>
+  </si>
+  <si>
+    <t>capacity limits on gatherings are lifted. Residents are encouraged to complete their own risk assessment prior to attending or organizing high-risk gatherings. (https://www.gov.nt.ca/en/newsroom/gnwt-ending-covid-19-public-health-emergency)</t>
+  </si>
+  <si>
+    <t>03/15/2022</t>
+  </si>
+  <si>
+    <t>Mask mandate lifted accept for long-term care homes. Schools and child-care facilities also wont require staff and students to wear masks. public health orders restricting travel to northern Manitoba ends;
+individual case investigations related to COVID-19 will no longer occur and Manitoba will no longer generate key codes for the federal COVID Alert app; and
+public health will no longer require people who test positive for COVID-19 to isolate. (https://news.gov.mb.ca/news/index.html?item=53777)</t>
+  </si>
+  <si>
+    <t>01/23/2022</t>
+  </si>
+  <si>
+    <t>household limits: orders are expanded to allow increased personal connections to support the well-being of Manitobans by allowing:
+ - two designated people (family or friends) to visit a household under a new ‘rule of two’;
+-outdoor visits of up to five people only plus members of a household on an outdoor private property; and
+-funerals to have up to 10 people in addition to the officiant under clear COVID-19 protection protocols.
+• retail operations: orders will be expanded to eliminate the essential items list, allowing all stores to open for the sale of products provided they maintain physical distancing and occupancy limits of 25 per cent only or a maximum of 250 people, whichever is lower.
+• health and personal services: orders will be expanded to allow for the operation of basic services that promote physical and mental health for Manitobans:
+- non-regulated health services, such as pedorthists and reflexologists, to reopen with adequate physical distancing and requirements to collect information for contact tracing purposes; and
+ - barber shops and hair stylists to reopen at 25 per cent capacity with adequate physical distancing and requirements to collect information for contact tracing purposes. (https://news.gov.mb.ca/news/index.html?item=50289&amp;posted=2021-01-21)</t>
+  </si>
+  <si>
+    <t>02/15/2022</t>
+  </si>
+  <si>
+    <t>Capacity restrictions will be eliminated at:
+restaurants and licensed premises;
+entertainment venues;
+indoor and outdoor sporting events;
+casinos;
+gyms and fitness centres; and
+museums and galleries.
+Proof of vaccination will still be required at these venues. There will be no capacity limits on outdoor public gatherings, but indoor public gatherings will be limited to 50 people if they include one or more unvaccinated individual. There will be no capacity limits on gatherings at private residences regardless of vaccination status. Youth aged 12 – 17 who play indoor sports will no longer be required to provide proof of vaccination or a negative COVID-19 test in order to enter indoor sports facilities. Individuals aged 18 and older will still require proof of vaccination.
+For schools teaching kindergarten through Grade 6, masks will still be required for all staff and students except during physical education classes. Medical masks will no longer be required for school staff but are still recommended. (https://www.mltaikins.com/labour-employment/moving-to-yellow-manitoba-to-ease-public-health-restrictions-on-february-15/)</t>
+  </si>
+  <si>
+    <t>*private indoor gatherings are limited to 10 additional people plus the household if all are fully vaccinated (youth under the age of 12 are exempt from needing to be fully vaccinated); private indoor gatherings are limited to five additional people plus the household if any of the individuals ages 12 year and older are unvaccinated (youth under the age of 12 are exempt from needing to be fully vaccinated);
+*outdoor gatherings at a private residence are limited to 20 additional people plus the household if all are fully vaccinated (youth under the age of 12 are exempt from needing to be fully vaccinated);
+*outdoor gatherings held on public property are limited to 50 per cent of the usual capacity if all in attendance are fully vaccinated (youth under the age of 12 are exempt from needing to be fully vaccinated), and 50 persons total if anyone present is unvaccinated (youth under the age of 12 are exempt from needing to be fully vaccinated);
+*indoor and outdoor sporting and recreation capacity is reduced to 50 per cent for spectators, games and practices can continue but no tournaments will be permitted;
+outdoor ticketed performing arts events, indoor recreational businesses, seasonal facilities and events, group instructional classes and bingos, casinos and VLTs are limited to 50 per cent capacity and must continue to restrict admission to those who are fully vaccinated (youth under the age of 12 are exempt);
+*day camps are limited to no more than 25 campers and camper groups must be cohorted, overnight camps are prohibited under these orders;
+*gyms, movie theatres, museums and libraries are limited to 50 per cent capacity with proof of immunization required everywhere except libraries;
+*restaurants and licensed premises are limited to 50 per cent capacity with a maximum of 10 people per table and proof of immunization required, and members of the public are required to be seated except when travelling to get food or beverages or engaging in sporting activities; and
+faith-based gatherings are limited to 50 per cent capacity with proof of vaccination or 25 per cent capacity or a total of 25 people, whichever is lower, when proof of vaccination is not required and cohorts may be implemented where groups can be physically divided up to a maximum of 10 cohorts or 250 people. (https://news.gov.mb.ca/news/index.html?item=52980)</t>
+  </si>
+  <si>
+    <t>Vaccine passport is no longer required to access non-essential businesses (https://globalnews.ca/news/8652638/covid-19-vaccine-cards-no-longer-required-at-most-places-in-manitoba/)</t>
+  </si>
+  <si>
+    <t>03/11/2022</t>
+  </si>
+  <si>
+    <t>mandatory use of face masks in indoor public spaces is no longer required in British Columbia. (https://covid.smallbusinessbc.ca/hc/en-us/articles/360046231574-Latest-Updates)</t>
+  </si>
+  <si>
+    <t>The requirement for BC Vaccine Card dropped. (https://covid.smallbusinessbc.ca/hc/en-us/articles/360046231574-Latest-Updates)</t>
+  </si>
+  <si>
+    <t>04/08/2022</t>
+  </si>
+  <si>
+    <t>02/16/2022</t>
+  </si>
+  <si>
+    <t>There will no longer be any restrictions around indoor personal gatherings, among other changes.
+The following types of gatherings will be allowed at full capacity, with masks and proof of vaccination:
+Organized gatherings, such as weddings with dancing (indoor and outdoor)
+Indoor seated events, such as going to a movie
+Gyms, adults sports, dance, swimming (including tournaments)
+Restaurants, bars, and nightclubs (no table limits, mingling and dancing allowed)Masks will still be required in indoor public spaces, and the B.C. vaccine passport will remain in place.
+The rules around capacities for worship services are not changing yet. If all participants are determined by the leader as vaccinated, there are no capacity limits. However, if anyone is not vaccinated, only 50 per cent of seated capacity is allowed.
+Long-term care visitation restrictions, as well as school and child care guidelines are also remaining in place, as are restrictions on child and youth overnight camps. (https://vancouver.citynews.ca/2022/02/15/bc-covid-restrictions-update/)</t>
+  </si>
+  <si>
+    <t>04/11/2022</t>
+  </si>
+  <si>
+    <t>02/03/2022</t>
+  </si>
+  <si>
+    <t>schools in Rankin Inlet and Arviat will open to 100% capacity (https://www.gov.nu.ca/health/news/covid-19-department-health-services-update-0)</t>
+  </si>
+  <si>
+    <t>masks are no longer mandatory in public spaces, there are no public health limits on gatherings or capacity for indoor spaces (https://www.gov.nu.ca/health/news/covid-19-department-health-services-update-0)</t>
+  </si>
+  <si>
+    <t>Outdoor gatherings increase to 50 people.
+Indoor gatherings increase to 10 people plus household members.
+Restaurants and licensed facilities may open at 25 people capacity or 25 per cent capacity, whichever is less. No singing or dancing will be permitted.
+Public indoor gatherings increase to 25 people or 50 per cent capacity, whichever is less.
+Gym capacity is 25 people or 50 per cent capacity, whichever is less. Solo workouts only.
+Libraries, museums, and galleries capacity increases to 25 people or 50 per cent capacity, whichever is less. No group tours will be permitted.
+Arena capacity may increase to 50 people or 50 per cent capacity, whichever is less, as well as a maximum of 50 spectators. Team sports are allowed.
+Places of worship are limited to 50 people or 25 per cent capacity, but no singing is permitted.
+Long-term care facilities may allow two visitors per resident from their immediate family. (https://www.gov.nu.ca/health/news/covid-19-department-health-services-update-0)</t>
+  </si>
+  <si>
+    <t>03/18/2022</t>
+  </si>
+  <si>
+    <t>he Yukon government is lifting the requirement to wear a mask in public spaces and the requirement to show proof of vaccination to access designated settings for people who are 19 years of age or older. 
+Some settings, such as schools, long-term care centres, health facilities, shelters, group homes, the correctional centre and hospitals are still requiring Yukoners to wear a mask. (https://yukon.ca/en/news/masking-and-proof-vaccination-requirements-lifted)</t>
+  </si>
+  <si>
+    <t>03/07/2022</t>
+  </si>
+  <si>
+    <t>the informal gathering limit will be 25 people from the same household or close social group indoors and 50 outdoors
+the formal gathering limit will be 75 per cent capacity, with physical distancing as much as possible, for gatherings hosted by a recognized business or organization such as special events, sports, receptions, performances, movie theatres, meetings, training, weddings, funerals and faith gatherings
+large venues can operate at 75 per cent capacity, up to 5,000 people, with physical distancing as much as possible.
+licensed establishments, restaurants and casinos can return to regular hours and operate at 75 per cent capacity, with physical distancing as much as possible
+VLTs can continue operating with two metres of physical distance between people at machines
+fitness and recreation facilities and recreation and leisure businesses can operate at 75 per cent capacity, with physical distancing as much as possible
+personal services businesses (like hair salons, barber shops, spas, nail salons and body art establishments) can operate at full capacity, with physical distancing as much as possible; services that require removing masks can be offered
+retail stores and malls can operate at full capacity (shoppers and staff) with physical distancing (https://novascotia.ca/news/release/?id=20220223008)</t>
+  </si>
+  <si>
+    <t>the end to the current requirement to show proof of full vaccination before participating in non-essential, discretionary events and activities. Other restrictions continue. (https://novascotia.ca/news/release/?id=20220223008)</t>
+  </si>
+  <si>
+    <t>There are no longer any gathering limits or capacity limits
+ Physical distancing is no longer required between people and groups
+ Masks are no longer required in most indoor public places, including restaurants, theatres and stores
+ Businesses and organizations across all sectors can resume full operations with no restrictions
+ Special events, including festivals, sports, performances, meetings, training and faith ceremonies can resume in full (https://atlantic.ctvnews.ca/n-s-lifts-most-covid-19-restrictions-including-masks-state-of-emergency-ends-1.5827415)</t>
+  </si>
+  <si>
+    <t>residents are no longer required to wear masks in public places or limit the size of gatherings. All businesses and organizations can operate at full capacity and without the requirement for physical distancing. (https://www.thestar.com/news/canada/2022/03/14/covid-19-restrictions-end-in-new-brunswick-and-newfoundland-and-labrador.html) masks will still be required in K-12 schools until at least the beginning of Easter break on April 14. A further announcement on masking. (https://www.cbc.ca/news/canada/newfoundland-labrador/nl-covid-restrictions-end-masks-remain-1.6382888) proof of vaccination to enter public venues no longer required (https://atlantic.ctvnews.ca/newfoundland-and-labrador-dropping-masking-vaccination-passport-measures-march-14-1.5784179)</t>
+  </si>
+  <si>
+    <t>05/06/2022</t>
+  </si>
+  <si>
+    <t>Prince Edward Island is ending its mandate to wear masks in indoor public places (https://atlantic.ctvnews.ca/p-e-i-to-end-covid-19-mask-mandate-may-6-two-new-deaths-reported-1.5877137)</t>
+  </si>
+  <si>
+    <t>03/17/2022</t>
+  </si>
+  <si>
+    <t>Personal gatherings of 20 people indoors and 50 people outdoors are allowed.
+ Organized gatherings can have up to 75 per cent capacity, with space being maximized to allow for as much physical distancing as possible.
+ Fitness facilities, retail, museums, casinos and libraries can operate up to 75 per cent capacity.
+ Wedding receptions, funeral receptions and stand up receptions are allowed to have up to 100 people.
+ Dance floors are allowed.
+ Organized sport and recreation activities can take place with a maximum of 100 participants interacting over the course of a day.
+ Screening at the points-of-entry will continue and the province will transition to random testing of people entering P.E.I. (https://atlantic.ctvnews.ca/p-e-i-loosens-more-covid-19-restrictions-thursday-as-it-enters-step-2-of-opening-plan-1.5823258)</t>
   </si>
 </sst>
 </file>
@@ -10920,7 +11143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11275,6 +11498,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -11616,9 +11858,9 @@
   </sheetPr>
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11695,317 +11937,315 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="238" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="238" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="16" customFormat="1" ht="265" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
+    <row r="14" spans="1:3" s="16" customFormat="1" ht="265" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B14" s="28" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B16" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="B19" s="15" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="B20" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="289" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="B21" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="289" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="52" t="s">
+    <row r="22" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B22" s="31" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+    <row r="26" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B26" s="28" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="136" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
+    <row r="30" spans="1:2" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A30" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B30" s="28" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="86" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>128</v>
+        <v>346</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="86" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="86" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="86" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+      <c r="B34" s="87" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="B35" s="87" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+        <v>887</v>
+      </c>
+      <c r="B35" s="88" t="s">
+        <v>889</v>
+      </c>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" s="101" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B36" s="88" t="s">
-        <v>889</v>
-      </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" s="101" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+        <v>957</v>
+      </c>
+      <c r="C36" s="102"/>
+    </row>
+    <row r="37" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B37" s="88" t="s">
-        <v>957</v>
-      </c>
-      <c r="C37" s="102"/>
-    </row>
-    <row r="38" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="104" customFormat="1" ht="289" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>958</v>
+        <v>991</v>
       </c>
       <c r="B38" s="88" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="104" customFormat="1" ht="289" x14ac:dyDescent="0.2">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="104" customFormat="1" ht="306" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B39" s="88" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="104" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="B40" s="88" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="110" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>994</v>
+        <v>1019</v>
       </c>
       <c r="B41" s="88" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="110" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="115" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>1019</v>
+        <v>1069</v>
       </c>
       <c r="B42" s="88" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="115" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="122" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="B43" s="88" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="122" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="156" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>1072</v>
+        <v>1168</v>
       </c>
       <c r="B44" s="88" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="156" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="156" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>1168</v>
+        <v>1106</v>
       </c>
       <c r="B45" s="88" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="156" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="156" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>1106</v>
+        <v>1170</v>
       </c>
       <c r="B46" s="88" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="156" customFormat="1" ht="204" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="B47" s="88" t="s">
-        <v>1172</v>
-      </c>
+    </row>
+    <row r="47" spans="1:3" s="162" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="88"/>
     </row>
     <row r="48" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="C48" s="102" t="s">
@@ -12022,10 +12262,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12354,16 +12594,16 @@
       </c>
     </row>
     <row r="40" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="161" t="s">
+      <c r="A40" s="170" t="s">
         <v>813</v>
       </c>
-      <c r="B40" s="163" t="s">
+      <c r="B40" s="172" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="162"/>
-      <c r="B41" s="163"/>
+      <c r="A41" s="171"/>
+      <c r="B41" s="172"/>
     </row>
     <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="70" t="s">
@@ -12374,28 +12614,28 @@
       </c>
     </row>
     <row r="43" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="161" t="s">
+      <c r="A43" s="170" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="163" t="s">
+      <c r="B43" s="172" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="71" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="162"/>
-      <c r="B44" s="163"/>
+      <c r="A44" s="171"/>
+      <c r="B44" s="172"/>
     </row>
     <row r="45" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="159" t="s">
+      <c r="A45" s="168" t="s">
         <v>448</v>
       </c>
-      <c r="B45" s="163" t="s">
+      <c r="B45" s="172" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="71" customFormat="1" ht="284" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="164"/>
-      <c r="B46" s="163"/>
+      <c r="A46" s="173"/>
+      <c r="B46" s="172"/>
     </row>
     <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="70" t="s">
@@ -12422,28 +12662,28 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="71" customFormat="1" ht="212" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="161" t="s">
+      <c r="A50" s="170" t="s">
         <v>824</v>
       </c>
-      <c r="B50" s="163" t="s">
+      <c r="B50" s="172" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="162"/>
-      <c r="B51" s="163"/>
+      <c r="A51" s="171"/>
+      <c r="B51" s="172"/>
     </row>
     <row r="52" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="161" t="s">
+      <c r="A52" s="170" t="s">
         <v>825</v>
       </c>
-      <c r="B52" s="163" t="s">
+      <c r="B52" s="172" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="71" customFormat="1" ht="242" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="162"/>
-      <c r="B53" s="163"/>
+      <c r="A53" s="171"/>
+      <c r="B53" s="172"/>
     </row>
     <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="70" t="s">
@@ -12531,6 +12771,30 @@
       </c>
       <c r="B64" s="136" t="s">
         <v>1116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="165" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B65" s="166" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B66" s="166" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B67" s="166" t="s">
+        <v>1217</v>
       </c>
     </row>
   </sheetData>
@@ -12558,7 +12822,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12996,10 +13260,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13299,6 +13563,14 @@
         <v>1122</v>
       </c>
     </row>
+    <row r="37" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B37" s="166" t="s">
+        <v>1218</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13309,10 +13581,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13571,6 +13843,22 @@
       </c>
       <c r="B31" s="144" t="s">
         <v>1144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B32" s="166" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B33" s="166" t="s">
+        <v>1220</v>
       </c>
     </row>
   </sheetData>
@@ -13714,24 +14002,24 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="174" t="s">
         <v>255</v>
       </c>
-      <c r="B14" s="163" t="s">
+      <c r="B14" s="172" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="64" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="166"/>
-      <c r="B15" s="163"/>
+      <c r="A15" s="175"/>
+      <c r="B15" s="172"/>
     </row>
     <row r="16" spans="1:15" s="64" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="166"/>
-      <c r="B16" s="163"/>
+      <c r="A16" s="175"/>
+      <c r="B16" s="172"/>
     </row>
     <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="166"/>
-      <c r="B17" s="163"/>
+      <c r="A17" s="175"/>
+      <c r="B17" s="172"/>
     </row>
     <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="69" t="s">
@@ -14226,11 +14514,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14673,12 +14961,52 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" s="165" customFormat="1" ht="323" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B49" s="166" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="B49" s="130" t="s">
+      <c r="B50" s="130" t="s">
         <v>1105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="165" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B51" s="166" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="165" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B52" s="166" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="165" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B53" s="166" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B54" s="166" t="s">
+        <v>1194</v>
       </c>
     </row>
   </sheetData>
@@ -14691,11 +15019,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15124,7 +15452,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>1062</v>
       </c>
@@ -15132,33 +15460,60 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="156" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" s="158" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B52" s="159" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="156" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
         <v>1084</v>
       </c>
-      <c r="B52" s="157" t="s">
+      <c r="B53" s="157" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="156" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B54" s="157" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="156" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B55" s="157" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="158" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B56" s="159" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="158" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B57" s="159" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="156" customFormat="1" ht="306" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B53" s="157" t="s">
+    <row r="58" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B58" s="159" t="s">
         <v>1175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" s="156" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B54" s="157" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
-        <v>1173</v>
       </c>
     </row>
   </sheetData>
@@ -15533,11 +15888,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16544,6 +16899,46 @@
       </c>
       <c r="B118" s="127" t="s">
         <v>1085</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" s="160" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A119" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B119" s="161" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" s="162" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A120" s="6" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B120" s="163" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" s="160" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B121" s="161" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" s="160" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B122" s="161" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B123" s="161" t="s">
+        <v>1181</v>
       </c>
     </row>
   </sheetData>
@@ -16561,11 +16956,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16884,13 +17279,65 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E40" t="s">
+    <row r="39" spans="1:5" s="165" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B39" s="166" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B40" s="166" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="165" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B41" s="166" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="165" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="166"/>
+    </row>
+    <row r="43" spans="1:5" s="165" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="166"/>
+    </row>
+    <row r="44" spans="1:5" s="165" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="166"/>
+    </row>
+    <row r="45" spans="1:5" s="165" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="166"/>
+    </row>
+    <row r="46" spans="1:5" s="165" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="166"/>
+    </row>
+    <row r="47" spans="1:5" s="165" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="166"/>
+    </row>
+    <row r="48" spans="1:5" s="165" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="166"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="E41" s="119" t="s">
+    <row r="50" spans="5:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="E50" s="119" t="s">
         <v>514</v>
       </c>
     </row>
@@ -16904,10 +17351,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17192,20 +17639,20 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="159" t="s">
+      <c r="A34" s="168" t="s">
         <v>269</v>
       </c>
-      <c r="B34" s="158" t="s">
+      <c r="B34" s="167" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="206" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="159"/>
-      <c r="B35" s="158"/>
+      <c r="A35" s="168"/>
+      <c r="B35" s="167"/>
     </row>
     <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="160"/>
-      <c r="B36" s="158"/>
+      <c r="A36" s="169"/>
+      <c r="B36" s="167"/>
     </row>
     <row r="37" spans="1:3" s="43" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -17322,16 +17769,16 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="86" customFormat="1" ht="229" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="161" t="s">
+      <c r="A50" s="170" t="s">
         <v>903</v>
       </c>
-      <c r="B50" s="158" t="s">
+      <c r="B50" s="167" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="86" customFormat="1" ht="181" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="162"/>
-      <c r="B51" s="158"/>
+      <c r="A51" s="171"/>
+      <c r="B51" s="167"/>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="103" t="s">
@@ -17403,6 +17850,30 @@
       </c>
       <c r="B60" s="145" t="s">
         <v>1151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" s="165" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="103" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B61" s="164" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="165" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A62" s="103" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B62" s="164" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A63" s="103" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B63" s="164" t="s">
+        <v>1210</v>
       </c>
     </row>
   </sheetData>
@@ -17421,11 +17892,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17978,116 +18449,140 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="221" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" s="165" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B64" s="166" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="221" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="B64" s="114" t="s">
+      <c r="B65" s="114" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="129" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:2" s="129" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="B65" s="130" t="s">
+      <c r="B66" s="130" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B66" s="130" t="s">
+      <c r="B67" s="130" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="129" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:2" s="129" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="B67" s="130" t="s">
+      <c r="B68" s="130" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="B68" s="130" t="s">
+      <c r="B69" s="130" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="129" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:2" s="129" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="B69" s="130" t="s">
+      <c r="B70" s="130" t="s">
         <v>1094</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B70" s="130" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B71" s="130" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="B71" s="130" t="s">
+      <c r="B72" s="130" t="s">
         <v>1101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" s="154" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B72" s="155" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="73" spans="1:2" s="154" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B73" s="155" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" s="154" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="B73" s="155" t="s">
+      <c r="B74" s="155" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="129" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:2" s="129" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="B74" s="130" t="s">
+      <c r="B75" s="130" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="75" spans="1:2" s="129" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:2" s="129" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="B75" s="130" t="s">
+      <c r="B76" s="130" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="154" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:2" s="154" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="B76" s="155" t="s">
+      <c r="B77" s="155" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+    <row r="78" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="B77" s="130" t="s">
+      <c r="B78" s="130" t="s">
         <v>1088</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="165" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B79" s="166" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B80" s="166" t="s">
+        <v>1190</v>
       </c>
     </row>
   </sheetData>
@@ -18100,10 +18595,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18379,6 +18874,14 @@
         <v>1160</v>
       </c>
     </row>
+    <row r="34" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B34" s="166" t="s">
+        <v>1213</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mitigation implementations timelines.xlsx
+++ b/Mitigation implementations timelines.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/Covid 19 research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/GitHub/CovidPolicy-Canada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CF0579-12B5-D941-85A5-4AB40FE5BFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2770D30-FB46-A14B-8564-739C833A1576}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="520" windowWidth="27920" windowHeight="15900" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="1233">
   <si>
     <t>03/30/2020</t>
   </si>
@@ -10834,9 +10834,6 @@
     <t>mandatory use of face masks in indoor public spaces is no longer required in British Columbia. (https://covid.smallbusinessbc.ca/hc/en-us/articles/360046231574-Latest-Updates)</t>
   </si>
   <si>
-    <t>The requirement for BC Vaccine Card dropped. (https://covid.smallbusinessbc.ca/hc/en-us/articles/360046231574-Latest-Updates)</t>
-  </si>
-  <si>
     <t>04/08/2022</t>
   </si>
   <si>
@@ -10860,9 +10857,6 @@
   </si>
   <si>
     <t>schools in Rankin Inlet and Arviat will open to 100% capacity (https://www.gov.nu.ca/health/news/covid-19-department-health-services-update-0)</t>
-  </si>
-  <si>
-    <t>masks are no longer mandatory in public spaces, there are no public health limits on gatherings or capacity for indoor spaces (https://www.gov.nu.ca/health/news/covid-19-department-health-services-update-0)</t>
   </si>
   <si>
     <t>Outdoor gatherings increase to 50 people.
@@ -10879,10 +10873,6 @@
     <t>03/18/2022</t>
   </si>
   <si>
-    <t>he Yukon government is lifting the requirement to wear a mask in public spaces and the requirement to show proof of vaccination to access designated settings for people who are 19 years of age or older. 
-Some settings, such as schools, long-term care centres, health facilities, shelters, group homes, the correctional centre and hospitals are still requiring Yukoners to wear a mask. (https://yukon.ca/en/news/masking-and-proof-vaccination-requirements-lifted)</t>
-  </si>
-  <si>
     <t>03/07/2022</t>
   </si>
   <si>
@@ -10899,20 +10889,10 @@
     <t>the end to the current requirement to show proof of full vaccination before participating in non-essential, discretionary events and activities. Other restrictions continue. (https://novascotia.ca/news/release/?id=20220223008)</t>
   </si>
   <si>
-    <t>There are no longer any gathering limits or capacity limits
- Physical distancing is no longer required between people and groups
- Masks are no longer required in most indoor public places, including restaurants, theatres and stores
- Businesses and organizations across all sectors can resume full operations with no restrictions
- Special events, including festivals, sports, performances, meetings, training and faith ceremonies can resume in full (https://atlantic.ctvnews.ca/n-s-lifts-most-covid-19-restrictions-including-masks-state-of-emergency-ends-1.5827415)</t>
-  </si>
-  <si>
     <t>residents are no longer required to wear masks in public places or limit the size of gatherings. All businesses and organizations can operate at full capacity and without the requirement for physical distancing. (https://www.thestar.com/news/canada/2022/03/14/covid-19-restrictions-end-in-new-brunswick-and-newfoundland-and-labrador.html) masks will still be required in K-12 schools until at least the beginning of Easter break on April 14. A further announcement on masking. (https://www.cbc.ca/news/canada/newfoundland-labrador/nl-covid-restrictions-end-masks-remain-1.6382888) proof of vaccination to enter public venues no longer required (https://atlantic.ctvnews.ca/newfoundland-and-labrador-dropping-masking-vaccination-passport-measures-march-14-1.5784179)</t>
   </si>
   <si>
     <t>05/06/2022</t>
-  </si>
-  <si>
-    <t>Prince Edward Island is ending its mandate to wear masks in indoor public places (https://atlantic.ctvnews.ca/p-e-i-to-end-covid-19-mask-mandate-may-6-two-new-deaths-reported-1.5877137)</t>
   </si>
   <si>
     <t>03/17/2022</t>
@@ -10926,12 +10906,67 @@
  Organized sport and recreation activities can take place with a maximum of 100 participants interacting over the course of a day.
  Screening at the points-of-entry will continue and the province will transition to random testing of people entering P.E.I. (https://atlantic.ctvnews.ca/p-e-i-loosens-more-covid-19-restrictions-thursday-as-it-enters-step-2-of-opening-plan-1.5823258)</t>
   </si>
+  <si>
+    <t>05/14/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mask mandate is lifted in public indoor places except in public transportation, Health-care facilities (hospitals, clinics, CLSCs) with the exception of mental health facilities, and Seniors' residences and RPAs. Wearing masks in indoor places is still recommended. </t>
+  </si>
+  <si>
+    <t>masks are no longer mandatory in public spaces, there are no public health limits on gatherings or capacity for indoor spaces (https://www.gov.nu.ca/health/news/covid-19-department-health-services-update-0). Masks are mandatory at all health facilities, Elders’ facilities, Akausisarvik, outpatient clinics and Iqaluit Public Health.There are no restrictions, such as capacity and distancing requirements, on businesses, recreation facilities, museums, libraries, and galleries.
+Isolation is no longer mandatory for COVID-19 positive individuals. When an individual is sick or has COVID-19, it is recommended they stay home.
+The Government of Nunavut will no longer be reporting COVID-19 vaccine or case data outside of its regular requirements on reportable diseases.
+Medical Isolation hubs are closed. (https://www.gov.nu.ca/health/news/nunavut-lifts-public-health-emergency-april-11).</t>
+  </si>
+  <si>
+    <t>The requirement for BC Vaccine Card dropped. (https://covid.smallbusinessbc.ca/hc/en-us/articles/360046231574-Latest-Updates), Wearing masks in public indoor settings is not required by public health but recommended in public transit and BC Ferries. No restrictions in social gatherings and events. No restrictions on resturants, bars, clubs, and sports activities. There are no capacity restrictions on visitors at long-term care and seniors' assisted living facilities; however, visitors are asked for proof of vaccination and a rapid antigen test result. (https://www2.gov.bc.ca/gov/content/covid-19/info/restrictions)</t>
+  </si>
+  <si>
+    <t>The Yukon government is lifting the requirement to wear a mask in public spaces and the requirement to show proof of vaccination to access designated settings for people who are 19 years of age or older. 
+Some settings, such as schools, long-term care centres, health facilities, shelters, group homes, the correctional centre and hospitals are still requiring Yukoners to wear a mask. (https://yukon.ca/en/news/masking-and-proof-vaccination-requirements-lifted)</t>
+  </si>
+  <si>
+    <t>04/04/2022</t>
+  </si>
+  <si>
+    <t>Vaccine mandate is fully lifted but it will continue to be required for employees, contractors and volunteers working in high-risk settings in the Yukon.
+High-risk settings include: long-term care homes; residential substance use programs; hospitals; shelters; residential care for children and adults; correctional centres; Yukon government-operated community health centres; and Yukon government-operated public health clinics, including the referred care clinic. (https://yukon.ca/en/news/vaccination-requirement-continues-workers-high-risk-settings-yukon) (https://yukon.ca/en/news/vaccination-requirement-lifted-most-workers)</t>
+  </si>
+  <si>
+    <t>There are no longer any gathering limits or capacity limits
+ Physical distancing is no longer required between people and groups
+ Masks are no longer required in most indoor public places, including restaurants, theatres and stores; Masks are still required in health-care settings, long-term care homes, adult residential centres, and other high-risk settings, such as provincial jails. Masks are also mandatory in public schools and school buses. 
+ Businesses and organizations across all sectors can resume full operations with no restrictions
+ Special events, including festivals, sports, performances, meetings, training and faith ceremonies can resume in full. (https://atlantic.ctvnews.ca/n-s-lifts-most-covid-19-restrictions-including-masks-state-of-emergency-ends-1.5827415)</t>
+  </si>
+  <si>
+    <t>04/20/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The federal government still requires that incoming travellers to Canada wear a mask for two weeks. Incoming travellers also must keep a list of close contacts and locations visited, as well as copies of their proof of vaccination, according to the government website listing requirements for vaccinated travellers. (https://www.ctvnews.ca/health/coronavirus/travellers-to-canada-must-still-wear-masks-for-two-weeks-despite-relaxed-provincial-measures-1.5868942)</t>
+  </si>
+  <si>
+    <t>05/24/2022</t>
+  </si>
+  <si>
+    <t>Mask mandate for public schools is lifted. Wearing a mask is still strongly recommended.  (https://atlantic.ctvnews.ca/mask-mandates-end-in-all-atlantic-canadian-schools-but-health-officials-still-recommend-their-use-1.59164360)</t>
+  </si>
+  <si>
+    <t>Masks will no longer be required to be worn inside K-12 schools in Newfoundland and Labrador starting May 24 but they are still recommended. (https://www.cbc.ca/news/canada/newfoundland-labrador/nl-schools-masks-covid19-1.6451969). (https://atlantic.ctvnews.ca/newfoundland-and-labrador-to-drop-mandatory-masking-in-schools-on-may-24-1.5901841)</t>
+  </si>
+  <si>
+    <t>Prince Edward Island is ending its mandate to wear masks in indoor public places. Masks are still required in high risk settings such as hospitals, long-term care homes and public transit. School staff and students must also continue masking when they are on school buses and when not seated in class.
+Fully vaccinated people who test positive for COVID-19 are required to isolate for seven days and unvaccinated residents must isolate for 10 days. (https://atlantic.ctvnews.ca/p-e-i-to-end-covid-19-mask-mandate-may-6-two-new-deaths-reported-1.5877137)</t>
+  </si>
+  <si>
+    <t>Mask mandate is lifted in public and private schools and in early childcare centers. The use of mask is still recommended. (https://atlantic.ctvnews.ca/mask-mandates-end-in-all-atlantic-canadian-schools-but-health-officials-still-recommend-their-use-1.5916436). Masks are still required in high risk environments such as hospitals, long-term care homes and public transit. (https://www.princeedwardisland.ca/en/information/health-and-wellness/step-3-covid-19-public-health-guidance)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -11143,7 +11178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11518,6 +11553,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11538,6 +11582,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11863,14 +11913,14 @@
       <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="112.1640625" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
@@ -11881,7 +11931,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="68">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -11889,7 +11939,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="34">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -11897,7 +11947,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A4" s="26" t="s">
         <v>64</v>
       </c>
@@ -11905,7 +11955,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="16" customFormat="1" ht="51">
       <c r="A5" s="26" t="s">
         <v>109</v>
       </c>
@@ -11913,7 +11963,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="153">
       <c r="A6" s="6" t="s">
         <v>62</v>
       </c>
@@ -11921,7 +11971,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="38" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
@@ -11929,7 +11979,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="34">
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
@@ -11937,7 +11987,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="34">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
@@ -11945,7 +11995,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="68">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -11953,7 +12003,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="238" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="238">
       <c r="A11" s="1" t="s">
         <v>79</v>
       </c>
@@ -11961,7 +12011,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="34">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -11969,7 +12019,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="51">
       <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
@@ -11977,7 +12027,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="16" customFormat="1" ht="265" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" s="16" customFormat="1" ht="265" customHeight="1">
       <c r="A14" s="36" t="s">
         <v>14</v>
       </c>
@@ -11985,7 +12035,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="68">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -11993,7 +12043,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="51">
       <c r="A16" s="1" t="s">
         <v>84</v>
       </c>
@@ -12001,7 +12051,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" s="16" customFormat="1" ht="68">
       <c r="A17" s="36" t="s">
         <v>86</v>
       </c>
@@ -12009,7 +12059,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" s="16" customFormat="1" ht="51">
       <c r="A18" s="36" t="s">
         <v>192</v>
       </c>
@@ -12017,7 +12067,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="34">
       <c r="A19" s="1" t="s">
         <v>89</v>
       </c>
@@ -12025,7 +12075,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="68">
       <c r="A20" s="1" t="s">
         <v>91</v>
       </c>
@@ -12033,7 +12083,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="289" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="289">
       <c r="A21" s="6" t="s">
         <v>93</v>
       </c>
@@ -12041,7 +12091,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" s="16" customFormat="1" ht="51">
       <c r="A22" s="52" t="s">
         <v>94</v>
       </c>
@@ -12049,7 +12099,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="58" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -12057,7 +12107,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="170">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -12065,7 +12115,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>95</v>
       </c>
@@ -12073,7 +12123,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" s="16" customFormat="1" ht="51">
       <c r="A26" s="36" t="s">
         <v>180</v>
       </c>
@@ -12081,7 +12131,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="119">
       <c r="A27" s="1" t="s">
         <v>103</v>
       </c>
@@ -12089,7 +12139,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="136">
       <c r="A28" s="1" t="s">
         <v>182</v>
       </c>
@@ -12097,7 +12147,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="136">
       <c r="A29" s="1" t="s">
         <v>186</v>
       </c>
@@ -12105,7 +12155,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" s="16" customFormat="1" ht="68">
       <c r="A30" s="36" t="s">
         <v>185</v>
       </c>
@@ -12113,7 +12163,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="34">
       <c r="A31" s="1" t="s">
         <v>128</v>
       </c>
@@ -12121,7 +12171,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="86" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" s="86" customFormat="1" ht="51">
       <c r="A32" s="1" t="s">
         <v>346</v>
       </c>
@@ -12129,7 +12179,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="170">
       <c r="A33" s="1" t="s">
         <v>615</v>
       </c>
@@ -12137,7 +12187,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="86" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" s="86" customFormat="1" ht="17">
       <c r="A34" s="1" t="s">
         <v>891</v>
       </c>
@@ -12145,7 +12195,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="136">
       <c r="A35" s="1" t="s">
         <v>887</v>
       </c>
@@ -12154,7 +12204,7 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" s="101" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="101" customFormat="1" ht="68">
       <c r="A36" s="1" t="s">
         <v>956</v>
       </c>
@@ -12163,7 +12213,7 @@
       </c>
       <c r="C36" s="102"/>
     </row>
-    <row r="37" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="68">
       <c r="A37" s="1" t="s">
         <v>958</v>
       </c>
@@ -12171,7 +12221,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="104" customFormat="1" ht="289" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" s="104" customFormat="1" ht="289">
       <c r="A38" s="1" t="s">
         <v>991</v>
       </c>
@@ -12179,7 +12229,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="104" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" s="104" customFormat="1" ht="306">
       <c r="A39" s="1" t="s">
         <v>990</v>
       </c>
@@ -12187,7 +12237,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="105" customFormat="1" ht="51">
       <c r="A40" s="1" t="s">
         <v>994</v>
       </c>
@@ -12195,7 +12245,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="110" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" s="110" customFormat="1" ht="34">
       <c r="A41" s="1" t="s">
         <v>1019</v>
       </c>
@@ -12203,7 +12253,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="115" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="115" customFormat="1" ht="221">
       <c r="A42" s="1" t="s">
         <v>1069</v>
       </c>
@@ -12211,7 +12261,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="122" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" s="122" customFormat="1" ht="34">
       <c r="A43" s="1" t="s">
         <v>1072</v>
       </c>
@@ -12219,7 +12269,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="156" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" s="156" customFormat="1" ht="187">
       <c r="A44" s="1" t="s">
         <v>1168</v>
       </c>
@@ -12227,7 +12277,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="156" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" s="156" customFormat="1" ht="34">
       <c r="A45" s="1" t="s">
         <v>1106</v>
       </c>
@@ -12235,7 +12285,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="156" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="156" customFormat="1" ht="204">
       <c r="A46" s="1" t="s">
         <v>1170</v>
       </c>
@@ -12243,11 +12293,11 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="162" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" s="162" customFormat="1">
       <c r="A47" s="1"/>
       <c r="B47" s="88"/>
     </row>
-    <row r="48" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="51">
       <c r="C48" s="102" t="s">
         <v>617</v>
       </c>
@@ -12262,19 +12312,19 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView topLeftCell="A66" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="180.5" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="71" customFormat="1">
       <c r="A1" s="70" t="s">
         <v>63</v>
       </c>
@@ -12285,7 +12335,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="71" customFormat="1">
       <c r="A2" s="70" t="s">
         <v>625</v>
       </c>
@@ -12294,7 +12344,7 @@
       </c>
       <c r="C2" s="70"/>
     </row>
-    <row r="3" spans="1:3" s="71" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="71" customFormat="1" ht="34">
       <c r="A3" s="70" t="s">
         <v>58</v>
       </c>
@@ -12303,7 +12353,7 @@
       </c>
       <c r="C3" s="70"/>
     </row>
-    <row r="4" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="71" customFormat="1">
       <c r="A4" s="70" t="s">
         <v>64</v>
       </c>
@@ -12312,7 +12362,7 @@
       </c>
       <c r="C4" s="70"/>
     </row>
-    <row r="5" spans="1:3" s="71" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="71" customFormat="1" ht="17">
       <c r="A5" s="70" t="s">
         <v>109</v>
       </c>
@@ -12321,7 +12371,7 @@
       </c>
       <c r="C5" s="70"/>
     </row>
-    <row r="6" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="71" customFormat="1">
       <c r="A6" s="70" t="s">
         <v>62</v>
       </c>
@@ -12330,7 +12380,7 @@
       </c>
       <c r="C6" s="70"/>
     </row>
-    <row r="7" spans="1:3" s="71" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="71" customFormat="1" ht="68">
       <c r="A7" s="70" t="s">
         <v>114</v>
       </c>
@@ -12339,7 +12389,7 @@
       </c>
       <c r="C7" s="70"/>
     </row>
-    <row r="8" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="136">
       <c r="A8" s="1" t="s">
         <v>589</v>
       </c>
@@ -12347,7 +12397,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="51">
       <c r="A9" s="70" t="s">
         <v>97</v>
       </c>
@@ -12355,13 +12405,13 @@
         <v>778</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="98" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" s="98" customFormat="1" ht="17">
       <c r="A10" s="97"/>
       <c r="B10" s="99" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="221" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="221">
       <c r="A11" s="70" t="s">
         <v>254</v>
       </c>
@@ -12369,7 +12419,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="68">
       <c r="A12" s="70" t="s">
         <v>6</v>
       </c>
@@ -12377,7 +12427,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="71" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="71" customFormat="1" ht="68">
       <c r="A13" s="70" t="s">
         <v>70</v>
       </c>
@@ -12385,7 +12435,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="187">
       <c r="A14" s="70" t="s">
         <v>255</v>
       </c>
@@ -12393,7 +12443,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="51">
       <c r="A15" s="70" t="s">
         <v>150</v>
       </c>
@@ -12401,7 +12451,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="51">
       <c r="A16" s="70" t="s">
         <v>257</v>
       </c>
@@ -12409,7 +12459,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="17">
       <c r="A17" s="70" t="s">
         <v>82</v>
       </c>
@@ -12417,7 +12467,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="136">
       <c r="A18" s="70" t="s">
         <v>259</v>
       </c>
@@ -12425,7 +12475,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="71" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" s="71" customFormat="1" ht="85">
       <c r="A19" s="70" t="s">
         <v>260</v>
       </c>
@@ -12433,7 +12483,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="34">
       <c r="A20" s="70" t="s">
         <v>25</v>
       </c>
@@ -12441,7 +12491,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="17">
       <c r="A21" s="70" t="s">
         <v>27</v>
       </c>
@@ -12449,7 +12499,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="17">
       <c r="A22" s="70" t="s">
         <v>29</v>
       </c>
@@ -12457,7 +12507,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="34">
       <c r="A23" s="70" t="s">
         <v>265</v>
       </c>
@@ -12465,7 +12515,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="17">
       <c r="A24" s="70" t="s">
         <v>793</v>
       </c>
@@ -12473,7 +12523,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="34">
       <c r="A25" s="70" t="s">
         <v>267</v>
       </c>
@@ -12481,7 +12531,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="170">
       <c r="A26" s="70" t="s">
         <v>44</v>
       </c>
@@ -12489,7 +12539,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="238" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="238">
       <c r="A27" s="70" t="s">
         <v>268</v>
       </c>
@@ -12497,7 +12547,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="17">
       <c r="A28" s="70" t="s">
         <v>95</v>
       </c>
@@ -12505,7 +12555,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="71" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" s="71" customFormat="1" ht="272">
       <c r="A29" s="70" t="s">
         <v>270</v>
       </c>
@@ -12513,7 +12563,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="71" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" s="71" customFormat="1" ht="17">
       <c r="A30" s="70" t="s">
         <v>272</v>
       </c>
@@ -12521,7 +12571,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="71" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" s="71" customFormat="1" ht="34">
       <c r="A31" s="70" t="s">
         <v>802</v>
       </c>
@@ -12529,7 +12579,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="17">
       <c r="A32" s="70" t="s">
         <v>180</v>
       </c>
@@ -12537,7 +12587,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="170">
       <c r="A33" s="70" t="s">
         <v>274</v>
       </c>
@@ -12545,7 +12595,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="238" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="238">
       <c r="A34" s="70" t="s">
         <v>103</v>
       </c>
@@ -12553,7 +12603,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="34">
       <c r="A35" s="70" t="s">
         <v>438</v>
       </c>
@@ -12561,7 +12611,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="238" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="238">
       <c r="A36" s="70" t="s">
         <v>807</v>
       </c>
@@ -12569,7 +12619,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="170">
       <c r="A37" s="70" t="s">
         <v>809</v>
       </c>
@@ -12577,7 +12627,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="68">
       <c r="A38" s="70" t="s">
         <v>445</v>
       </c>
@@ -12585,7 +12635,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="34">
       <c r="A39" s="70" t="s">
         <v>695</v>
       </c>
@@ -12593,19 +12643,19 @@
         <v>812</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="170" t="s">
+    <row r="40" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1">
+      <c r="A40" s="173" t="s">
         <v>813</v>
       </c>
-      <c r="B40" s="172" t="s">
+      <c r="B40" s="175" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="171"/>
-      <c r="B41" s="172"/>
-    </row>
-    <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1">
+      <c r="A41" s="174"/>
+      <c r="B41" s="175"/>
+    </row>
+    <row r="42" spans="1:2" ht="34">
       <c r="A42" s="70" t="s">
         <v>815</v>
       </c>
@@ -12613,31 +12663,31 @@
         <v>816</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="170" t="s">
+    <row r="43" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1">
+      <c r="A43" s="173" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="172" t="s">
+      <c r="B43" s="175" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="71" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="171"/>
-      <c r="B44" s="172"/>
-    </row>
-    <row r="45" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="168" t="s">
+    <row r="44" spans="1:2" s="71" customFormat="1" ht="134" customHeight="1">
+      <c r="A44" s="174"/>
+      <c r="B44" s="175"/>
+    </row>
+    <row r="45" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1">
+      <c r="A45" s="171" t="s">
         <v>448</v>
       </c>
-      <c r="B45" s="172" t="s">
+      <c r="B45" s="175" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="71" customFormat="1" ht="284" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="173"/>
-      <c r="B46" s="172"/>
-    </row>
-    <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" s="71" customFormat="1" ht="284" customHeight="1">
+      <c r="A46" s="176"/>
+      <c r="B46" s="175"/>
+    </row>
+    <row r="47" spans="1:2" ht="17">
       <c r="A47" s="70" t="s">
         <v>817</v>
       </c>
@@ -12645,7 +12695,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" s="71" customFormat="1" ht="51">
       <c r="A48" s="70" t="s">
         <v>822</v>
       </c>
@@ -12653,7 +12703,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="34">
       <c r="A49" s="70" t="s">
         <v>758</v>
       </c>
@@ -12661,31 +12711,31 @@
         <v>821</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="71" customFormat="1" ht="212" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="170" t="s">
+    <row r="50" spans="1:2" s="71" customFormat="1" ht="212" customHeight="1">
+      <c r="A50" s="173" t="s">
         <v>824</v>
       </c>
-      <c r="B50" s="172" t="s">
+      <c r="B50" s="175" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="171"/>
-      <c r="B51" s="172"/>
-    </row>
-    <row r="52" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="170" t="s">
+    <row r="51" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1">
+      <c r="A51" s="174"/>
+      <c r="B51" s="175"/>
+    </row>
+    <row r="52" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1">
+      <c r="A52" s="173" t="s">
         <v>825</v>
       </c>
-      <c r="B52" s="172" t="s">
+      <c r="B52" s="175" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="71" customFormat="1" ht="242" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="171"/>
-      <c r="B53" s="172"/>
-    </row>
-    <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" s="71" customFormat="1" ht="242" customHeight="1">
+      <c r="A53" s="174"/>
+      <c r="B53" s="175"/>
+    </row>
+    <row r="54" spans="1:2" ht="34">
       <c r="A54" s="70" t="s">
         <v>826</v>
       </c>
@@ -12693,7 +12743,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="356" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="356">
       <c r="A55" s="1" t="s">
         <v>827</v>
       </c>
@@ -12701,7 +12751,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="388" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="388">
       <c r="A56" s="6" t="s">
         <v>937</v>
       </c>
@@ -12709,7 +12759,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="17">
       <c r="A57" s="1" t="s">
         <v>958</v>
       </c>
@@ -12717,7 +12767,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="113" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" s="113" customFormat="1" ht="85">
       <c r="A58" s="1" t="s">
         <v>1017</v>
       </c>
@@ -12725,7 +12775,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="102">
       <c r="A59" s="1" t="s">
         <v>994</v>
       </c>
@@ -12733,7 +12783,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="68">
       <c r="A60" s="1" t="s">
         <v>1057</v>
       </c>
@@ -12741,7 +12791,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="61" spans="1:2" s="137" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" s="137" customFormat="1" ht="17">
       <c r="A61" s="1" t="s">
         <v>1051</v>
       </c>
@@ -12749,7 +12799,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="135" customFormat="1" ht="329" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" s="135" customFormat="1" ht="329" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>1112</v>
       </c>
@@ -12757,7 +12807,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="137" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" s="137" customFormat="1" ht="17">
       <c r="A63" s="1" t="s">
         <v>1077</v>
       </c>
@@ -12765,7 +12815,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="85">
       <c r="A64" s="1" t="s">
         <v>1106</v>
       </c>
@@ -12773,28 +12823,44 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="165" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" s="165" customFormat="1" ht="34">
       <c r="A65" s="1" t="s">
         <v>1121</v>
       </c>
       <c r="B65" s="166" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="170">
       <c r="A66" s="1" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="B66" s="166" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="119">
       <c r="A67" s="1" t="s">
         <v>1172</v>
       </c>
       <c r="B67" s="166" t="s">
-        <v>1217</v>
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="51">
+      <c r="A68" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B68" s="169" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="34">
+      <c r="A69" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B69" s="169" t="s">
+        <v>1229</v>
       </c>
     </row>
   </sheetData>
@@ -12819,20 +12885,20 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="132.5" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="71" customFormat="1">
       <c r="A1" s="70" t="s">
         <v>63</v>
       </c>
@@ -12843,7 +12909,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="71" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="71" customFormat="1" ht="34">
       <c r="A2" s="70" t="s">
         <v>109</v>
       </c>
@@ -12852,7 +12918,7 @@
       </c>
       <c r="C2" s="70"/>
     </row>
-    <row r="3" spans="1:15" s="74" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="74" customFormat="1" ht="136">
       <c r="A3" s="73" t="s">
         <v>62</v>
       </c>
@@ -12861,7 +12927,7 @@
       </c>
       <c r="C3" s="73"/>
     </row>
-    <row r="4" spans="1:15" s="74" customFormat="1" ht="372" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="74" customFormat="1" ht="372">
       <c r="A4" s="73" t="s">
         <v>114</v>
       </c>
@@ -12870,7 +12936,7 @@
       </c>
       <c r="C4" s="73"/>
     </row>
-    <row r="5" spans="1:15" s="74" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="74" customFormat="1" ht="34">
       <c r="A5" s="73" t="s">
         <v>117</v>
       </c>
@@ -12879,7 +12945,7 @@
       </c>
       <c r="C5" s="73"/>
     </row>
-    <row r="6" spans="1:15" s="74" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="74" customFormat="1" ht="102">
       <c r="A6" s="1" t="s">
         <v>318</v>
       </c>
@@ -12887,7 +12953,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="356" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="356">
       <c r="A7" s="73" t="s">
         <v>255</v>
       </c>
@@ -12895,7 +12961,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="74" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="74" customFormat="1" ht="119">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -12903,7 +12969,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="51">
       <c r="A9" s="73" t="s">
         <v>29</v>
       </c>
@@ -12911,7 +12977,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="74" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="74" customFormat="1" ht="85">
       <c r="A10" s="1" t="s">
         <v>335</v>
       </c>
@@ -12919,7 +12985,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="74" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="74" customFormat="1" ht="221">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -12927,7 +12993,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="74" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="74" customFormat="1" ht="68">
       <c r="A12" s="1" t="s">
         <v>730</v>
       </c>
@@ -12935,7 +13001,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="74" customFormat="1" ht="51">
       <c r="A13" s="1" t="s">
         <v>732</v>
       </c>
@@ -12943,7 +13009,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="51">
       <c r="A14" s="77" t="s">
         <v>232</v>
       </c>
@@ -12964,7 +13030,7 @@
       <c r="N14" s="78"/>
       <c r="O14" s="78"/>
     </row>
-    <row r="15" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="34">
       <c r="A15" s="77" t="s">
         <v>165</v>
       </c>
@@ -12985,7 +13051,7 @@
       <c r="N15" s="78"/>
       <c r="O15" s="78"/>
     </row>
-    <row r="16" spans="1:15" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="74" customFormat="1" ht="51">
       <c r="A16" s="1" t="s">
         <v>268</v>
       </c>
@@ -12993,7 +13059,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" s="74" customFormat="1" ht="51">
       <c r="A17" s="1" t="s">
         <v>737</v>
       </c>
@@ -13001,7 +13067,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="74" customFormat="1" ht="51">
       <c r="A18" s="1" t="s">
         <v>739</v>
       </c>
@@ -13009,7 +13075,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" s="74" customFormat="1" ht="51">
       <c r="A19" s="1" t="s">
         <v>741</v>
       </c>
@@ -13017,7 +13083,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="74" customFormat="1" ht="51">
       <c r="A20" s="1" t="s">
         <v>667</v>
       </c>
@@ -13025,7 +13091,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="74" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="74" customFormat="1" ht="102">
       <c r="A21" s="1" t="s">
         <v>663</v>
       </c>
@@ -13033,7 +13099,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="74" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="74" customFormat="1" ht="204">
       <c r="A22" s="1" t="s">
         <v>670</v>
       </c>
@@ -13041,7 +13107,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="74" customFormat="1" ht="51">
       <c r="A23" s="1" t="s">
         <v>171</v>
       </c>
@@ -13049,7 +13115,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" s="74" customFormat="1" ht="51">
       <c r="A24" s="1" t="s">
         <v>103</v>
       </c>
@@ -13057,7 +13123,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" s="74" customFormat="1" ht="51">
       <c r="A25" s="1" t="s">
         <v>749</v>
       </c>
@@ -13065,7 +13131,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="74" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" s="74" customFormat="1" ht="102">
       <c r="A26" s="1" t="s">
         <v>751</v>
       </c>
@@ -13074,7 +13140,7 @@
       </c>
       <c r="D26" s="75"/>
     </row>
-    <row r="27" spans="1:4" s="74" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" s="74" customFormat="1" ht="119">
       <c r="A27" s="1" t="s">
         <v>753</v>
       </c>
@@ -13082,7 +13148,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" s="74" customFormat="1" ht="51">
       <c r="A28" s="1" t="s">
         <v>755</v>
       </c>
@@ -13090,7 +13156,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" s="74" customFormat="1" ht="51">
       <c r="A29" s="1" t="s">
         <v>121</v>
       </c>
@@ -13098,7 +13164,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="74" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" s="74" customFormat="1" ht="68">
       <c r="A30" s="1" t="s">
         <v>758</v>
       </c>
@@ -13106,7 +13172,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="74" customFormat="1" ht="340" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" s="74" customFormat="1" ht="340">
       <c r="A31" s="1" t="s">
         <v>825</v>
       </c>
@@ -13114,7 +13180,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="102">
       <c r="A32" s="1" t="s">
         <v>942</v>
       </c>
@@ -13122,7 +13188,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="34">
       <c r="A33" s="1" t="s">
         <v>958</v>
       </c>
@@ -13130,7 +13196,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="108" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" s="108" customFormat="1" ht="34">
       <c r="A34" s="1" t="s">
         <v>990</v>
       </c>
@@ -13138,7 +13204,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="204" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="204">
       <c r="A35" s="1" t="s">
         <v>963</v>
       </c>
@@ -13146,7 +13212,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="102">
       <c r="A36" s="1" t="s">
         <v>1014</v>
       </c>
@@ -13154,7 +13220,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="141" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" s="141" customFormat="1" ht="68">
       <c r="A37" s="1" t="s">
         <v>1140</v>
       </c>
@@ -13162,7 +13228,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="141" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" s="141" customFormat="1" ht="68">
       <c r="A38" s="1" t="s">
         <v>1138</v>
       </c>
@@ -13170,7 +13236,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="141" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" s="141" customFormat="1" ht="119">
       <c r="A39" s="1" t="s">
         <v>1037</v>
       </c>
@@ -13178,7 +13244,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="255">
       <c r="A40" s="1" t="s">
         <v>1051</v>
       </c>
@@ -13186,7 +13252,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="141" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" s="141" customFormat="1" ht="221">
       <c r="A41" s="1" t="s">
         <v>1134</v>
       </c>
@@ -13194,7 +13260,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="34">
       <c r="A42" s="1" t="s">
         <v>1072</v>
       </c>
@@ -13202,7 +13268,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="141" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" s="141" customFormat="1" ht="306">
       <c r="A43" s="1" t="s">
         <v>1132</v>
       </c>
@@ -13210,7 +13276,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="141" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" s="141" customFormat="1" ht="119">
       <c r="A44" s="1" t="s">
         <v>1130</v>
       </c>
@@ -13218,7 +13284,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="17">
       <c r="A45" s="1" t="s">
         <v>1084</v>
       </c>
@@ -13226,7 +13292,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="119">
       <c r="A46" s="1" t="s">
         <v>1125</v>
       </c>
@@ -13234,7 +13300,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="141" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" s="141" customFormat="1" ht="17">
       <c r="A47" s="1" t="s">
         <v>1121</v>
       </c>
@@ -13242,13 +13308,16 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="34">
       <c r="A48" s="1" t="s">
         <v>1127</v>
       </c>
       <c r="B48" s="142" t="s">
         <v>1128</v>
       </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="169"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13260,19 +13329,19 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="119.6640625" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="80" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="80" customFormat="1">
       <c r="A1" s="79" t="s">
         <v>63</v>
       </c>
@@ -13283,7 +13352,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="119">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -13291,7 +13360,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="85">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -13299,7 +13368,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="82" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="82" customFormat="1" ht="102">
       <c r="A4" s="82" t="s">
         <v>117</v>
       </c>
@@ -13307,7 +13376,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="34">
       <c r="A5" t="s">
         <v>764</v>
       </c>
@@ -13315,7 +13384,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="404" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="404">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -13323,7 +13392,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="340" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="340">
       <c r="A7" t="s">
         <v>202</v>
       </c>
@@ -13331,7 +13400,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="221" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="221">
       <c r="A8" t="s">
         <v>472</v>
       </c>
@@ -13339,7 +13408,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="82" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" s="82" customFormat="1" ht="34">
       <c r="A9" s="82" t="s">
         <v>870</v>
       </c>
@@ -13347,7 +13416,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="34">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -13355,7 +13424,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="34">
       <c r="A11" t="s">
         <v>770</v>
       </c>
@@ -13363,7 +13432,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="89" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" s="89" customFormat="1" ht="34">
       <c r="A12" s="89" t="s">
         <v>44</v>
       </c>
@@ -13371,7 +13440,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="84" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="84" customFormat="1" ht="34">
       <c r="A13" s="84" t="s">
         <v>880</v>
       </c>
@@ -13379,7 +13448,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" s="84" customFormat="1" ht="17">
       <c r="A14" s="84" t="s">
         <v>95</v>
       </c>
@@ -13387,7 +13456,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" s="84" customFormat="1" ht="17">
       <c r="A15" s="84" t="s">
         <v>272</v>
       </c>
@@ -13395,7 +13464,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="82" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" s="82" customFormat="1" ht="85">
       <c r="A16" s="82" t="s">
         <v>103</v>
       </c>
@@ -13403,7 +13472,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="340" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="340">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -13411,7 +13480,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="84" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" s="84" customFormat="1" ht="170">
       <c r="A18" s="84" t="s">
         <v>438</v>
       </c>
@@ -13419,7 +13488,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="84" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" s="84" customFormat="1" ht="102">
       <c r="A19" s="84" t="s">
         <v>50</v>
       </c>
@@ -13427,7 +13496,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="84" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" s="84" customFormat="1" ht="221">
       <c r="A20" s="84" t="s">
         <v>876</v>
       </c>
@@ -13435,7 +13504,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="84" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" s="84" customFormat="1" ht="153">
       <c r="A21" s="84" t="s">
         <v>518</v>
       </c>
@@ -13443,7 +13512,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" s="84" customFormat="1" ht="17">
       <c r="A22" s="84" t="s">
         <v>348</v>
       </c>
@@ -13451,7 +13520,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" s="84" customFormat="1" ht="17">
       <c r="A23" s="84" t="s">
         <v>55</v>
       </c>
@@ -13459,7 +13528,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="51">
       <c r="A24" t="s">
         <v>886</v>
       </c>
@@ -13467,7 +13536,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="17">
       <c r="A25" t="s">
         <v>872</v>
       </c>
@@ -13475,7 +13544,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="34">
       <c r="A26" t="s">
         <v>604</v>
       </c>
@@ -13483,7 +13552,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="255">
       <c r="A27" t="s">
         <v>887</v>
       </c>
@@ -13491,7 +13560,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="221" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="221">
       <c r="A28" t="s">
         <v>944</v>
       </c>
@@ -13499,7 +13568,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="17">
       <c r="A29" t="s">
         <v>985</v>
       </c>
@@ -13507,7 +13576,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="113" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" s="113" customFormat="1" ht="34">
       <c r="A30" s="113" t="s">
         <v>1034</v>
       </c>
@@ -13515,7 +13584,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="34">
       <c r="A31" t="s">
         <v>1008</v>
       </c>
@@ -13523,7 +13592,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="170">
       <c r="A32" t="s">
         <v>1055</v>
       </c>
@@ -13531,7 +13600,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="139" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" s="139" customFormat="1" ht="34">
       <c r="A33" s="139" t="s">
         <v>1117</v>
       </c>
@@ -13539,7 +13608,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="153">
       <c r="A34" t="s">
         <v>1072</v>
       </c>
@@ -13547,7 +13616,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="34">
       <c r="A35" t="s">
         <v>274</v>
       </c>
@@ -13555,7 +13624,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="102">
       <c r="A36" t="s">
         <v>1121</v>
       </c>
@@ -13563,12 +13632,20 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="102">
       <c r="A37" t="s">
         <v>1127</v>
       </c>
       <c r="B37" s="166" t="s">
-        <v>1218</v>
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="51">
+      <c r="A38" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B38" s="169" t="s">
+        <v>1230</v>
       </c>
     </row>
   </sheetData>
@@ -13581,19 +13658,19 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="118.1640625" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="71" customFormat="1">
       <c r="A1" s="70" t="s">
         <v>63</v>
       </c>
@@ -13604,7 +13681,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="71" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="71" customFormat="1" ht="136">
       <c r="A2" s="70" t="s">
         <v>109</v>
       </c>
@@ -13613,7 +13690,7 @@
       </c>
       <c r="C2" s="70"/>
     </row>
-    <row r="3" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="204">
       <c r="A3" s="1" t="s">
         <v>254</v>
       </c>
@@ -13621,7 +13698,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="119">
       <c r="A4" s="1" t="s">
         <v>318</v>
       </c>
@@ -13629,7 +13706,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="255" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="255">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
@@ -13637,7 +13714,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="34">
       <c r="A6" s="1" t="s">
         <v>255</v>
       </c>
@@ -13645,7 +13722,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="119" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>258</v>
       </c>
@@ -13653,7 +13730,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="34">
       <c r="A8" s="1" t="s">
         <v>259</v>
       </c>
@@ -13661,7 +13738,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="34">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -13669,7 +13746,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="89" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" s="89" customFormat="1" ht="34">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -13677,7 +13754,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="306" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="306">
       <c r="A11" s="1" t="s">
         <v>503</v>
       </c>
@@ -13685,7 +13762,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="89" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" s="89" customFormat="1" ht="17">
       <c r="A12" s="1" t="s">
         <v>95</v>
       </c>
@@ -13693,7 +13770,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="89" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="89" customFormat="1" ht="17">
       <c r="A13" s="1" t="s">
         <v>272</v>
       </c>
@@ -13701,7 +13778,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="284" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="284" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>876</v>
       </c>
@@ -13709,7 +13786,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="136">
       <c r="A15" s="1" t="s">
         <v>931</v>
       </c>
@@ -13717,7 +13794,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="119">
       <c r="A16" s="1" t="s">
         <v>933</v>
       </c>
@@ -13725,7 +13802,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="93" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" s="93" customFormat="1" ht="17">
       <c r="A17" s="1" t="s">
         <v>891</v>
       </c>
@@ -13733,7 +13810,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="255">
       <c r="A18" s="1" t="s">
         <v>934</v>
       </c>
@@ -13741,7 +13818,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="51">
       <c r="A19" s="1" t="s">
         <v>958</v>
       </c>
@@ -13749,7 +13826,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="108" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" s="108" customFormat="1" ht="51">
       <c r="A20" s="1" t="s">
         <v>1017</v>
       </c>
@@ -13757,7 +13834,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="117" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" s="117" customFormat="1" ht="34">
       <c r="A21" s="1" t="s">
         <v>1001</v>
       </c>
@@ -13765,7 +13842,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="105" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" s="105" customFormat="1" ht="34">
       <c r="A22" s="1" t="s">
         <v>994</v>
       </c>
@@ -13773,7 +13850,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="34">
       <c r="A23" s="1" t="s">
         <v>1047</v>
       </c>
@@ -13781,7 +13858,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="272" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="272">
       <c r="A24" s="1" t="s">
         <v>1060</v>
       </c>
@@ -13789,7 +13866,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="143" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" s="143" customFormat="1" ht="34">
       <c r="A25" s="1" t="s">
         <v>1053</v>
       </c>
@@ -13797,7 +13874,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="143" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" s="143" customFormat="1" ht="34">
       <c r="A26" s="1" t="s">
         <v>1117</v>
       </c>
@@ -13805,7 +13882,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="143" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" s="143" customFormat="1" ht="34">
       <c r="A27" s="1" t="s">
         <v>1072</v>
       </c>
@@ -13813,7 +13890,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="143" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" s="143" customFormat="1" ht="272">
       <c r="A28" s="1" t="s">
         <v>1079</v>
       </c>
@@ -13821,7 +13898,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="143" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" s="143" customFormat="1" ht="255">
       <c r="A29" s="1" t="s">
         <v>1084</v>
       </c>
@@ -13829,7 +13906,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="136">
       <c r="A30" s="1" t="s">
         <v>1142</v>
       </c>
@@ -13837,7 +13914,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="68">
       <c r="A31" s="1" t="s">
         <v>1121</v>
       </c>
@@ -13845,20 +13922,28 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="153">
       <c r="A32" s="1" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="B32" s="166" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="85">
       <c r="A33" s="1" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="B33" s="166" t="s">
-        <v>1220</v>
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="68">
+      <c r="A34" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B34" s="169" t="s">
+        <v>1232</v>
       </c>
     </row>
   </sheetData>
@@ -13877,7 +13962,7 @@
       <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="188.6640625" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
@@ -13885,7 +13970,7 @@
     <col min="15" max="15" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
@@ -13896,7 +13981,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="62" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="62" customFormat="1" ht="119">
       <c r="A2" s="61" t="s">
         <v>109</v>
       </c>
@@ -13905,7 +13990,7 @@
       </c>
       <c r="C2" s="61"/>
     </row>
-    <row r="3" spans="1:15" s="62" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="62" customFormat="1" ht="119">
       <c r="A3" s="61" t="s">
         <v>62</v>
       </c>
@@ -13914,7 +13999,7 @@
       </c>
       <c r="C3" s="61"/>
     </row>
-    <row r="4" spans="1:15" s="62" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="62" customFormat="1" ht="102">
       <c r="A4" s="61" t="s">
         <v>111</v>
       </c>
@@ -13923,7 +14008,7 @@
       </c>
       <c r="C4" s="61"/>
     </row>
-    <row r="5" spans="1:15" s="62" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="62" customFormat="1" ht="272">
       <c r="A5" s="61" t="s">
         <v>114</v>
       </c>
@@ -13932,7 +14017,7 @@
       </c>
       <c r="C5" s="61"/>
     </row>
-    <row r="6" spans="1:15" s="64" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="64" customFormat="1" ht="51">
       <c r="A6" s="63" t="s">
         <v>117</v>
       </c>
@@ -13941,7 +14026,7 @@
       </c>
       <c r="C6" s="63"/>
     </row>
-    <row r="7" spans="1:15" s="64" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="64" customFormat="1" ht="51">
       <c r="A7" s="63" t="s">
         <v>764</v>
       </c>
@@ -13950,7 +14035,7 @@
       </c>
       <c r="C7" s="63"/>
     </row>
-    <row r="8" spans="1:15" ht="221" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="221">
       <c r="A8" s="1" t="s">
         <v>254</v>
       </c>
@@ -13958,7 +14043,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="64" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="64" customFormat="1" ht="153">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -13966,7 +14051,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="76" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="76">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -13977,7 +14062,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="102">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -13985,7 +14070,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="64" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="64" customFormat="1" ht="102">
       <c r="A12" s="1" t="s">
         <v>318</v>
       </c>
@@ -13993,7 +14078,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="119" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="119">
       <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
@@ -14001,27 +14086,27 @@
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="174" t="s">
+    <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1">
+      <c r="A14" s="177" t="s">
         <v>255</v>
       </c>
-      <c r="B14" s="172" t="s">
+      <c r="B14" s="175" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="64" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="175"/>
-      <c r="B15" s="172"/>
-    </row>
-    <row r="16" spans="1:15" s="64" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="175"/>
-      <c r="B16" s="172"/>
-    </row>
-    <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="175"/>
-      <c r="B17" s="172"/>
-    </row>
-    <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="64" customFormat="1" ht="71" customHeight="1">
+      <c r="A15" s="178"/>
+      <c r="B15" s="175"/>
+    </row>
+    <row r="16" spans="1:15" s="64" customFormat="1" ht="95" customHeight="1">
+      <c r="A16" s="178"/>
+      <c r="B16" s="175"/>
+    </row>
+    <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1">
+      <c r="A17" s="178"/>
+      <c r="B17" s="175"/>
+    </row>
+    <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1">
       <c r="A18" s="69" t="s">
         <v>202</v>
       </c>
@@ -14029,7 +14114,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="51">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -14037,7 +14122,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="102">
       <c r="A20" t="s">
         <v>150</v>
       </c>
@@ -14045,7 +14130,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="85">
       <c r="A21" t="s">
         <v>257</v>
       </c>
@@ -14053,7 +14138,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="64" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" s="64" customFormat="1" ht="102">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -14061,7 +14146,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="64" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" s="64" customFormat="1" ht="136">
       <c r="A23" s="1" t="s">
         <v>472</v>
       </c>
@@ -14069,7 +14154,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="221" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="221">
       <c r="A24" t="s">
         <v>258</v>
       </c>
@@ -14077,7 +14162,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="68">
       <c r="A25" t="s">
         <v>259</v>
       </c>
@@ -14085,7 +14170,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="119">
       <c r="A26" t="s">
         <v>260</v>
       </c>
@@ -14093,7 +14178,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="51">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -14101,7 +14186,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="34">
       <c r="A28" t="s">
         <v>261</v>
       </c>
@@ -14109,7 +14194,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="102">
       <c r="A29" t="s">
         <v>262</v>
       </c>
@@ -14117,7 +14202,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="64" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" s="64" customFormat="1" ht="85">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -14125,7 +14210,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="51">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -14133,7 +14218,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="51">
       <c r="A32" t="s">
         <v>263</v>
       </c>
@@ -14141,7 +14226,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="34">
       <c r="A33" t="s">
         <v>264</v>
       </c>
@@ -14149,7 +14234,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="34">
       <c r="A34" t="s">
         <v>156</v>
       </c>
@@ -14157,7 +14242,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="102">
       <c r="A35" t="s">
         <v>265</v>
       </c>
@@ -14165,7 +14250,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="64" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" s="64" customFormat="1" ht="85">
       <c r="A36" s="1" t="s">
         <v>335</v>
       </c>
@@ -14173,7 +14258,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="64" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" s="64" customFormat="1" ht="170">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -14181,7 +14266,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="68">
       <c r="A38" t="s">
         <v>230</v>
       </c>
@@ -14189,7 +14274,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="64" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" s="64" customFormat="1" ht="68">
       <c r="A39" s="1" t="s">
         <v>730</v>
       </c>
@@ -14197,7 +14282,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" s="64" customFormat="1" ht="34">
       <c r="A40" s="1" t="s">
         <v>732</v>
       </c>
@@ -14205,7 +14290,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="68">
       <c r="A41" t="s">
         <v>266</v>
       </c>
@@ -14213,7 +14298,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="51">
       <c r="A42" t="s">
         <v>267</v>
       </c>
@@ -14221,7 +14306,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" s="64" customFormat="1" ht="34">
       <c r="A43" s="1" t="s">
         <v>232</v>
       </c>
@@ -14229,7 +14314,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" s="64" customFormat="1" ht="34">
       <c r="A44" s="1" t="s">
         <v>165</v>
       </c>
@@ -14237,7 +14322,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="64" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" s="64" customFormat="1" ht="51">
       <c r="A45" s="1" t="s">
         <v>770</v>
       </c>
@@ -14245,7 +14330,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" s="64" customFormat="1" ht="34">
       <c r="A46" s="1" t="s">
         <v>268</v>
       </c>
@@ -14253,7 +14338,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="187">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -14261,7 +14346,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="153">
       <c r="A48" t="s">
         <v>268</v>
       </c>
@@ -14269,7 +14354,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="51">
       <c r="A49" t="s">
         <v>269</v>
       </c>
@@ -14277,7 +14362,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" s="64" customFormat="1" ht="34">
       <c r="A50" s="1" t="s">
         <v>737</v>
       </c>
@@ -14285,7 +14370,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" s="64" customFormat="1" ht="34">
       <c r="A51" s="1" t="s">
         <v>739</v>
       </c>
@@ -14293,7 +14378,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" s="64" customFormat="1" ht="34">
       <c r="A52" s="1" t="s">
         <v>741</v>
       </c>
@@ -14301,7 +14386,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="51">
       <c r="A53" t="s">
         <v>236</v>
       </c>
@@ -14309,7 +14394,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" s="16" customFormat="1" ht="51">
       <c r="A54" s="16" t="s">
         <v>238</v>
       </c>
@@ -14317,7 +14402,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="409.6">
       <c r="A55" t="s">
         <v>270</v>
       </c>
@@ -14325,7 +14410,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" s="64" customFormat="1" ht="34">
       <c r="A56" s="64" t="s">
         <v>667</v>
       </c>
@@ -14333,7 +14418,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="85">
       <c r="A57" t="s">
         <v>272</v>
       </c>
@@ -14341,7 +14426,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="64" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" s="64" customFormat="1" ht="81" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>663</v>
       </c>
@@ -14349,7 +14434,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="85">
       <c r="A59" t="s">
         <v>271</v>
       </c>
@@ -14357,7 +14442,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="51">
       <c r="A60" t="s">
         <v>180</v>
       </c>
@@ -14365,7 +14450,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="51">
       <c r="A61" t="s">
         <v>273</v>
       </c>
@@ -14373,7 +14458,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="64" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" s="64" customFormat="1" ht="153">
       <c r="A62" s="64" t="s">
         <v>670</v>
       </c>
@@ -14381,7 +14466,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="64" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" s="64" customFormat="1" ht="51">
       <c r="A63" s="1" t="s">
         <v>171</v>
       </c>
@@ -14389,7 +14474,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="68">
       <c r="A64" t="s">
         <v>274</v>
       </c>
@@ -14397,7 +14482,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" s="64" customFormat="1" ht="34">
       <c r="A65" s="1" t="s">
         <v>242</v>
       </c>
@@ -14405,7 +14490,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="51">
       <c r="A66" s="1" t="s">
         <v>103</v>
       </c>
@@ -14413,7 +14498,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="34">
       <c r="A67" s="1" t="s">
         <v>749</v>
       </c>
@@ -14421,7 +14506,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="85">
       <c r="A68" s="1" t="s">
         <v>751</v>
       </c>
@@ -14432,7 +14517,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="85">
       <c r="A69" s="1" t="s">
         <v>753</v>
       </c>
@@ -14440,7 +14525,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="51">
       <c r="A70" s="1" t="s">
         <v>755</v>
       </c>
@@ -14448,7 +14533,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="34">
       <c r="A71" s="1" t="s">
         <v>121</v>
       </c>
@@ -14456,7 +14541,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="51">
       <c r="A72" s="1" t="s">
         <v>758</v>
       </c>
@@ -14464,7 +14549,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="238" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="238">
       <c r="A73" s="1" t="s">
         <v>509</v>
       </c>
@@ -14492,14 +14577,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>308</v>
       </c>
@@ -14521,13 +14606,13 @@
       <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="139.83203125" customWidth="1"/>
     <col min="3" max="3" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
@@ -14538,7 +14623,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="34">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -14546,7 +14631,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
@@ -14554,7 +14639,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="34">
       <c r="A4" s="1" t="s">
         <v>114</v>
       </c>
@@ -14562,7 +14647,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="187">
       <c r="A5" s="6" t="s">
         <v>110</v>
       </c>
@@ -14570,7 +14655,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A6" s="24" t="s">
         <v>117</v>
       </c>
@@ -14578,7 +14663,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="16" customFormat="1" ht="51">
       <c r="A7" s="24" t="s">
         <v>119</v>
       </c>
@@ -14586,7 +14671,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="136">
       <c r="A8" s="6" t="s">
         <v>124</v>
       </c>
@@ -14594,7 +14679,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="51">
       <c r="A9" s="6" t="s">
         <v>126</v>
       </c>
@@ -14602,7 +14687,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="122" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="122" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
@@ -14613,7 +14698,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="119">
       <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
@@ -14624,7 +14709,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="17">
       <c r="A12" s="6" t="s">
         <v>143</v>
       </c>
@@ -14633,7 +14718,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" s="16" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="16" customFormat="1" ht="216" customHeight="1">
       <c r="A13" s="24" t="s">
         <v>132</v>
       </c>
@@ -14644,7 +14729,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="34">
       <c r="A14" s="13" t="s">
         <v>150</v>
       </c>
@@ -14653,7 +14738,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="102">
       <c r="A15" s="6" t="s">
         <v>136</v>
       </c>
@@ -14664,7 +14749,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="17">
       <c r="A16" s="13" t="s">
         <v>144</v>
       </c>
@@ -14673,7 +14758,7 @@
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="119">
       <c r="A17" s="6" t="s">
         <v>140</v>
       </c>
@@ -14684,7 +14769,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="17">
       <c r="A18" s="13" t="s">
         <v>148</v>
       </c>
@@ -14693,7 +14778,7 @@
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="51">
       <c r="A19" s="13" t="s">
         <v>147</v>
       </c>
@@ -14702,7 +14787,7 @@
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="34">
       <c r="A20" s="13" t="s">
         <v>159</v>
       </c>
@@ -14711,7 +14796,7 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" s="16" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" s="16" customFormat="1" ht="102">
       <c r="A21" s="24" t="s">
         <v>29</v>
       </c>
@@ -14722,7 +14807,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="34">
       <c r="A22" s="13" t="s">
         <v>154</v>
       </c>
@@ -14731,7 +14816,7 @@
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="68">
       <c r="A23" s="13" t="s">
         <v>30</v>
       </c>
@@ -14740,7 +14825,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="68">
       <c r="A24" s="13" t="s">
         <v>156</v>
       </c>
@@ -14749,7 +14834,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" s="16" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="16" customFormat="1" ht="409.6">
       <c r="A25" s="26" t="s">
         <v>152</v>
       </c>
@@ -14758,7 +14843,7 @@
       </c>
       <c r="C25" s="28"/>
     </row>
-    <row r="26" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="409" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>162</v>
       </c>
@@ -14767,7 +14852,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" ht="272" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="255">
       <c r="A27" s="6" t="s">
         <v>164</v>
       </c>
@@ -14776,7 +14861,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="102">
       <c r="A28" s="6" t="s">
         <v>165</v>
       </c>
@@ -14787,7 +14872,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="112" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>168</v>
       </c>
@@ -14798,7 +14883,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="238" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="238">
       <c r="A30" s="6" t="s">
         <v>171</v>
       </c>
@@ -14809,7 +14894,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="255" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="255">
       <c r="A31" s="6" t="s">
         <v>50</v>
       </c>
@@ -14818,7 +14903,7 @@
       </c>
       <c r="C31" s="19"/>
     </row>
-    <row r="32" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="119">
       <c r="A32" s="6" t="s">
         <v>205</v>
       </c>
@@ -14827,7 +14912,7 @@
       </c>
       <c r="C32" s="19"/>
     </row>
-    <row r="33" spans="1:3" ht="249" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="249" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>121</v>
       </c>
@@ -14836,7 +14921,7 @@
       </c>
       <c r="C33" s="19"/>
     </row>
-    <row r="34" spans="1:3" ht="255" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="255">
       <c r="A34" s="6" t="s">
         <v>128</v>
       </c>
@@ -14844,7 +14929,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="16" customFormat="1" ht="51">
       <c r="A35" s="24" t="s">
         <v>208</v>
       </c>
@@ -14853,7 +14938,7 @@
       </c>
       <c r="C35" s="28"/>
     </row>
-    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="34">
       <c r="A36" s="1" t="s">
         <v>602</v>
       </c>
@@ -14862,7 +14947,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="68">
       <c r="A37" s="1" t="s">
         <v>604</v>
       </c>
@@ -14870,7 +14955,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="238" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="238">
       <c r="A38" s="1" t="s">
         <v>893</v>
       </c>
@@ -14878,7 +14963,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="95" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" s="95" customFormat="1" ht="17">
       <c r="A39" s="1" t="s">
         <v>827</v>
       </c>
@@ -14886,7 +14971,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="89" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="89" customFormat="1" ht="409" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>918</v>
       </c>
@@ -14894,7 +14979,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="95" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" s="95" customFormat="1" ht="204">
       <c r="A41" s="1" t="s">
         <v>949</v>
       </c>
@@ -14902,7 +14987,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="101" customFormat="1" ht="34">
       <c r="A42" s="1" t="s">
         <v>960</v>
       </c>
@@ -14910,7 +14995,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="101" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" s="101" customFormat="1" ht="102">
       <c r="A43" s="1" t="s">
         <v>962</v>
       </c>
@@ -14918,7 +15003,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="136">
       <c r="A44" s="1" t="s">
         <v>958</v>
       </c>
@@ -14929,7 +15014,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="221" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="221">
       <c r="A45" s="1" t="s">
         <v>1014</v>
       </c>
@@ -14937,7 +15022,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="85">
       <c r="A46" s="1" t="s">
         <v>1036</v>
       </c>
@@ -14945,7 +15030,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="34">
       <c r="A47" s="1" t="s">
         <v>1037</v>
       </c>
@@ -14953,7 +15038,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="204">
       <c r="A48" s="1" t="s">
         <v>1051</v>
       </c>
@@ -14961,7 +15046,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="165" customFormat="1" ht="323" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" s="165" customFormat="1" ht="323">
       <c r="A49" s="1" t="s">
         <v>1117</v>
       </c>
@@ -14969,7 +15054,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="34">
       <c r="A50" s="1" t="s">
         <v>1086</v>
       </c>
@@ -14977,7 +15062,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="165" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" s="165" customFormat="1" ht="187">
       <c r="A51" s="1" t="s">
         <v>1195</v>
       </c>
@@ -14985,7 +15070,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="165" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" s="165" customFormat="1" ht="238">
       <c r="A52" s="1" t="s">
         <v>1197</v>
       </c>
@@ -14993,7 +15078,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="165" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" s="165" customFormat="1" ht="34">
       <c r="A53" s="1" t="s">
         <v>1170</v>
       </c>
@@ -15001,7 +15086,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="68">
       <c r="A54" s="1" t="s">
         <v>1193</v>
       </c>
@@ -15026,14 +15111,14 @@
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="128.83203125" customWidth="1"/>
     <col min="3" max="3" width="61.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
@@ -15044,7 +15129,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="51">
       <c r="A2" s="38" t="s">
         <v>56</v>
       </c>
@@ -15053,7 +15138,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" s="16" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="16" customFormat="1" ht="187">
       <c r="A3" s="49" t="s">
         <v>62</v>
       </c>
@@ -15062,7 +15147,7 @@
       </c>
       <c r="C3" s="36"/>
     </row>
-    <row r="4" spans="1:3" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="16" customFormat="1" ht="17">
       <c r="A4" s="49" t="s">
         <v>117</v>
       </c>
@@ -15071,7 +15156,7 @@
       </c>
       <c r="C4" s="36"/>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="34">
       <c r="A5" s="1" t="s">
         <v>97</v>
       </c>
@@ -15079,7 +15164,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="51">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -15087,7 +15172,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="34">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
@@ -15095,7 +15180,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="51">
       <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
@@ -15103,7 +15188,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="136">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -15111,7 +15196,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="34">
       <c r="A10" s="1" t="s">
         <v>611</v>
       </c>
@@ -15119,7 +15204,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="51">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -15127,7 +15212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="34">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -15135,7 +15220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="34">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -15143,7 +15228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="34">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -15151,7 +15236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="16" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" s="16" customFormat="1" ht="136">
       <c r="A15" s="17" t="s">
         <v>7</v>
       </c>
@@ -15159,7 +15244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="68">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -15167,7 +15252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="16" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" s="16" customFormat="1" ht="136">
       <c r="A17" s="36" t="s">
         <v>14</v>
       </c>
@@ -15175,7 +15260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="102">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
@@ -15183,7 +15268,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="68">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -15191,7 +15276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="34">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -15199,7 +15284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="51">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -15207,7 +15292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="170">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
@@ -15215,7 +15300,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="34">
       <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
@@ -15223,7 +15308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="51">
       <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
@@ -15231,7 +15316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="16" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="16" customFormat="1" ht="153">
       <c r="A25" s="36" t="s">
         <v>29</v>
       </c>
@@ -15240,7 +15325,7 @@
       </c>
       <c r="C25" s="28"/>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="34">
       <c r="A26" s="6" t="s">
         <v>30</v>
       </c>
@@ -15249,7 +15334,7 @@
       </c>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="51">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -15257,7 +15342,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="301" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="301" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>36</v>
       </c>
@@ -15265,7 +15350,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="85">
       <c r="A29" s="6" t="s">
         <v>40</v>
       </c>
@@ -15273,7 +15358,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="34">
       <c r="A30" s="6" t="s">
         <v>41</v>
       </c>
@@ -15281,7 +15366,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="34">
       <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
@@ -15289,7 +15374,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="34">
       <c r="A32" s="6" t="s">
         <v>38</v>
       </c>
@@ -15297,7 +15382,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="306" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="306">
       <c r="A33" s="6" t="s">
         <v>44</v>
       </c>
@@ -15306,7 +15391,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" s="16" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" s="16" customFormat="1" ht="255">
       <c r="A34" s="123" t="s">
         <v>46</v>
       </c>
@@ -15317,7 +15402,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="16" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="16" customFormat="1" ht="238">
       <c r="A35" s="24" t="s">
         <v>48</v>
       </c>
@@ -15328,7 +15413,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="16" customFormat="1" ht="68">
       <c r="A36" s="24" t="s">
         <v>103</v>
       </c>
@@ -15336,7 +15421,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="204">
       <c r="A37" s="6" t="s">
         <v>678</v>
       </c>
@@ -15344,7 +15429,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="102">
       <c r="A38" s="6" t="s">
         <v>52</v>
       </c>
@@ -15352,7 +15437,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="170">
       <c r="A39" s="6" t="s">
         <v>105</v>
       </c>
@@ -15360,7 +15445,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A40" s="24" t="s">
         <v>55</v>
       </c>
@@ -15368,7 +15453,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="85">
       <c r="A41" s="6" t="s">
         <v>104</v>
       </c>
@@ -15376,7 +15461,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="340" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="340">
       <c r="A42" s="6" t="s">
         <v>622</v>
       </c>
@@ -15387,7 +15472,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="356" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="356">
       <c r="A43" s="6" t="s">
         <v>827</v>
       </c>
@@ -15396,7 +15481,7 @@
       </c>
       <c r="C43" s="46"/>
     </row>
-    <row r="44" spans="1:3" ht="388" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="388">
       <c r="A44" s="6" t="s">
         <v>921</v>
       </c>
@@ -15404,7 +15489,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" s="101" customFormat="1" ht="34">
       <c r="A45" s="6" t="s">
         <v>958</v>
       </c>
@@ -15412,7 +15497,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="68">
       <c r="A46" s="6" t="s">
         <v>963</v>
       </c>
@@ -15420,7 +15505,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="34">
       <c r="A47" s="6" t="s">
         <v>989</v>
       </c>
@@ -15428,7 +15513,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="187">
       <c r="A48" s="6" t="s">
         <v>996</v>
       </c>
@@ -15436,7 +15521,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="51">
       <c r="A49" s="6" t="s">
         <v>1019</v>
       </c>
@@ -15444,7 +15529,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="68">
       <c r="A50" s="6" t="s">
         <v>1055</v>
       </c>
@@ -15452,7 +15537,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="409.6">
       <c r="A51" s="6" t="s">
         <v>1062</v>
       </c>
@@ -15460,7 +15545,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="158" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" s="158" customFormat="1" ht="34">
       <c r="A52" s="6" t="s">
         <v>1077</v>
       </c>
@@ -15468,7 +15553,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="156" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" s="156" customFormat="1" ht="204">
       <c r="A53" s="6" t="s">
         <v>1084</v>
       </c>
@@ -15476,7 +15561,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="156" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" s="156" customFormat="1" ht="306">
       <c r="A54" s="6" t="s">
         <v>1142</v>
       </c>
@@ -15484,7 +15569,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="156" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" s="156" customFormat="1" ht="85">
       <c r="A55" s="6" t="s">
         <v>1170</v>
       </c>
@@ -15492,7 +15577,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="158" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" s="158" customFormat="1" ht="17">
       <c r="A56" s="6" t="s">
         <v>1127</v>
       </c>
@@ -15500,7 +15585,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="158" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" s="158" customFormat="1" ht="102">
       <c r="A57" s="6" t="s">
         <v>1127</v>
       </c>
@@ -15508,7 +15593,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="85">
       <c r="A58" s="6" t="s">
         <v>1172</v>
       </c>
@@ -15530,18 +15615,18 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="123.6640625" customWidth="1"/>
     <col min="3" max="3" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
@@ -15552,7 +15637,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="136">
       <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
@@ -15560,7 +15645,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="201" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="201" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>195</v>
       </c>
@@ -15568,7 +15653,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="16" customFormat="1" ht="169" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="16" customFormat="1" ht="169" customHeight="1">
       <c r="A4" s="24" t="s">
         <v>110</v>
       </c>
@@ -15576,7 +15661,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="16" customFormat="1" ht="233" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="16" customFormat="1" ht="233" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>117</v>
       </c>
@@ -15584,7 +15669,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="16" customFormat="1" ht="122" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="16" customFormat="1" ht="122" customHeight="1">
       <c r="A6" s="24" t="s">
         <v>60</v>
       </c>
@@ -15592,7 +15677,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="102">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
@@ -15600,7 +15685,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="136">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -15608,7 +15693,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="187">
       <c r="A9" s="6" t="s">
         <v>202</v>
       </c>
@@ -15616,7 +15701,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="34">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -15624,7 +15709,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="102">
       <c r="A11" s="6" t="s">
         <v>214</v>
       </c>
@@ -15632,7 +15717,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="85">
       <c r="A12" s="6" t="s">
         <v>203</v>
       </c>
@@ -15640,7 +15725,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="102">
       <c r="A13" s="6" t="s">
         <v>216</v>
       </c>
@@ -15648,7 +15733,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="68">
       <c r="A14" s="6" t="s">
         <v>217</v>
       </c>
@@ -15656,7 +15741,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="119">
       <c r="A15" s="6" t="s">
         <v>218</v>
       </c>
@@ -15664,7 +15749,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="85">
       <c r="A16" s="6" t="s">
         <v>219</v>
       </c>
@@ -15672,7 +15757,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="68">
       <c r="A17" s="6" t="s">
         <v>192</v>
       </c>
@@ -15680,7 +15765,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="34">
       <c r="A18" s="6" t="s">
         <v>230</v>
       </c>
@@ -15688,7 +15773,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="34">
       <c r="A19" s="6" t="s">
         <v>228</v>
       </c>
@@ -15696,7 +15781,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="153">
       <c r="A20" s="6" t="s">
         <v>232</v>
       </c>
@@ -15704,7 +15789,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="388" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="388">
       <c r="A21" s="6" t="s">
         <v>234</v>
       </c>
@@ -15712,7 +15797,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="34">
       <c r="A22" s="6" t="s">
         <v>618</v>
       </c>
@@ -15720,7 +15805,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="68">
       <c r="A23" s="6" t="s">
         <v>236</v>
       </c>
@@ -15728,7 +15813,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="119">
       <c r="A24" s="6" t="s">
         <v>238</v>
       </c>
@@ -15736,7 +15821,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="51">
       <c r="A25" s="6" t="s">
         <v>240</v>
       </c>
@@ -15744,7 +15829,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="34">
       <c r="A26" s="6" t="s">
         <v>620</v>
       </c>
@@ -15752,7 +15837,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="34">
       <c r="A27" s="6" t="s">
         <v>242</v>
       </c>
@@ -15760,7 +15845,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="34">
       <c r="A28" s="6" t="s">
         <v>245</v>
       </c>
@@ -15768,7 +15853,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="34">
       <c r="A29" s="6" t="s">
         <v>246</v>
       </c>
@@ -15776,7 +15861,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="102">
       <c r="A30" s="6" t="s">
         <v>250</v>
       </c>
@@ -15784,7 +15869,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="272" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="272">
       <c r="A31" s="6" t="s">
         <v>251</v>
       </c>
@@ -15792,7 +15877,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="17">
       <c r="A32" s="1" t="s">
         <v>896</v>
       </c>
@@ -15801,7 +15886,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="68">
       <c r="A33" s="6" t="s">
         <v>923</v>
       </c>
@@ -15810,7 +15895,7 @@
       </c>
       <c r="C33" s="87"/>
     </row>
-    <row r="34" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" s="101" customFormat="1" ht="34">
       <c r="A34" s="6" t="s">
         <v>968</v>
       </c>
@@ -15819,7 +15904,7 @@
       </c>
       <c r="C34" s="102"/>
     </row>
-    <row r="35" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="101" customFormat="1" ht="34">
       <c r="A35" s="6" t="s">
         <v>966</v>
       </c>
@@ -15828,7 +15913,7 @@
       </c>
       <c r="C35" s="102"/>
     </row>
-    <row r="36" spans="1:3" s="105" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="105" customFormat="1" ht="68">
       <c r="A36" s="6" t="s">
         <v>1001</v>
       </c>
@@ -15837,7 +15922,7 @@
       </c>
       <c r="C36" s="106"/>
     </row>
-    <row r="37" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" s="105" customFormat="1" ht="51">
       <c r="A37" s="6" t="s">
         <v>999</v>
       </c>
@@ -15846,7 +15931,7 @@
       </c>
       <c r="C37" s="106"/>
     </row>
-    <row r="38" spans="1:3" s="133" customFormat="1" ht="276" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" s="133" customFormat="1" ht="276" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>1110</v>
       </c>
@@ -15855,7 +15940,7 @@
       </c>
       <c r="C38" s="134"/>
     </row>
-    <row r="39" spans="1:3" s="131" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" s="131" customFormat="1" ht="17">
       <c r="A39" s="6" t="s">
         <v>1108</v>
       </c>
@@ -15864,7 +15949,7 @@
       </c>
       <c r="C39" s="132"/>
     </row>
-    <row r="40" spans="1:3" s="131" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="131" customFormat="1" ht="34">
       <c r="A40" s="6" t="s">
         <v>1106</v>
       </c>
@@ -15873,7 +15958,7 @@
       </c>
       <c r="C40" s="132"/>
     </row>
-    <row r="41" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="85">
       <c r="C41" s="90" t="s">
         <v>227</v>
       </c>
@@ -15888,21 +15973,21 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
+      <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="33"/>
     <col min="2" max="2" width="119.6640625" customWidth="1"/>
     <col min="3" max="3" width="76.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="32" t="s">
         <v>63</v>
       </c>
@@ -15913,7 +15998,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="34">
       <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
@@ -15921,7 +16006,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="170">
       <c r="A3" s="6" t="s">
         <v>625</v>
       </c>
@@ -15929,7 +16014,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="51">
       <c r="A4" s="13" t="s">
         <v>64</v>
       </c>
@@ -15940,7 +16025,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A5" s="24" t="s">
         <v>109</v>
       </c>
@@ -15948,7 +16033,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="153">
       <c r="A6" s="6" t="s">
         <v>178</v>
       </c>
@@ -15956,7 +16041,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="68">
       <c r="A7" s="6" t="s">
         <v>117</v>
       </c>
@@ -15964,7 +16049,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="119">
       <c r="A8" s="6" t="s">
         <v>97</v>
       </c>
@@ -15972,7 +16057,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="51">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
@@ -15983,7 +16068,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="63" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>99</v>
       </c>
@@ -15991,7 +16076,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="34">
       <c r="A11" s="6" t="s">
         <v>359</v>
       </c>
@@ -15999,7 +16084,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="34">
       <c r="A12" s="6" t="s">
         <v>361</v>
       </c>
@@ -16007,7 +16092,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="34">
       <c r="A13" s="6" t="s">
         <v>362</v>
       </c>
@@ -16015,7 +16100,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="68">
       <c r="A14" s="6" t="s">
         <v>116</v>
       </c>
@@ -16023,7 +16108,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="51">
       <c r="A15" s="6" t="s">
         <v>315</v>
       </c>
@@ -16031,7 +16116,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="34">
       <c r="A16" s="6" t="s">
         <v>367</v>
       </c>
@@ -16039,7 +16124,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="85">
       <c r="A17" s="13" t="s">
         <v>2</v>
       </c>
@@ -16050,7 +16135,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="34">
       <c r="A18" s="13" t="s">
         <v>369</v>
       </c>
@@ -16058,7 +16143,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="16" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" s="16" customFormat="1" ht="102">
       <c r="A19" s="24" t="s">
         <v>4</v>
       </c>
@@ -16066,7 +16151,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="34">
       <c r="A20" s="6" t="s">
         <v>310</v>
       </c>
@@ -16074,7 +16159,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="34">
       <c r="A21" s="6" t="s">
         <v>321</v>
       </c>
@@ -16082,7 +16167,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="170">
       <c r="A22" s="6" t="s">
         <v>371</v>
       </c>
@@ -16093,7 +16178,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="34">
       <c r="A23" s="6" t="s">
         <v>318</v>
       </c>
@@ -16101,7 +16186,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="34">
       <c r="A24" s="6" t="s">
         <v>72</v>
       </c>
@@ -16109,7 +16194,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="34">
       <c r="A25" s="6" t="s">
         <v>372</v>
       </c>
@@ -16117,7 +16202,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="34">
       <c r="A26" s="6" t="s">
         <v>70</v>
       </c>
@@ -16125,7 +16210,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="85">
       <c r="A27" s="6" t="s">
         <v>132</v>
       </c>
@@ -16133,7 +16218,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="34">
       <c r="A28" s="6" t="s">
         <v>374</v>
       </c>
@@ -16141,7 +16226,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="34">
       <c r="A29" s="6" t="s">
         <v>376</v>
       </c>
@@ -16149,7 +16234,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="51">
       <c r="A30" s="6" t="s">
         <v>150</v>
       </c>
@@ -16157,7 +16242,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="34">
       <c r="A31" s="6" t="s">
         <v>377</v>
       </c>
@@ -16165,7 +16250,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="119">
       <c r="A32" s="6" t="s">
         <v>214</v>
       </c>
@@ -16173,7 +16258,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="34">
       <c r="A33" s="6" t="s">
         <v>379</v>
       </c>
@@ -16181,7 +16266,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="51">
       <c r="A34" s="6" t="s">
         <v>472</v>
       </c>
@@ -16189,7 +16274,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="34">
       <c r="A35" s="6" t="s">
         <v>380</v>
       </c>
@@ -16197,7 +16282,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="34">
       <c r="A36" s="6" t="s">
         <v>383</v>
       </c>
@@ -16205,7 +16290,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="34">
       <c r="A37" s="6" t="s">
         <v>385</v>
       </c>
@@ -16213,7 +16298,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="34">
       <c r="A38" s="6" t="s">
         <v>260</v>
       </c>
@@ -16221,7 +16306,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="34">
       <c r="A39" s="6" t="s">
         <v>388</v>
       </c>
@@ -16229,7 +16314,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="68">
       <c r="A40" s="6" t="s">
         <v>325</v>
       </c>
@@ -16237,7 +16322,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="34">
       <c r="A41" s="6" t="s">
         <v>390</v>
       </c>
@@ -16245,7 +16330,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="34">
       <c r="A42" s="6" t="s">
         <v>148</v>
       </c>
@@ -16253,7 +16338,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="34">
       <c r="A43" s="6" t="s">
         <v>392</v>
       </c>
@@ -16261,7 +16346,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="34">
       <c r="A44" s="6" t="s">
         <v>262</v>
       </c>
@@ -16269,7 +16354,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="16" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" s="16" customFormat="1" ht="272">
       <c r="A45" s="24" t="s">
         <v>330</v>
       </c>
@@ -16280,7 +16365,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A46" s="24" t="s">
         <v>393</v>
       </c>
@@ -16289,7 +16374,7 @@
       </c>
       <c r="C46" s="28"/>
     </row>
-    <row r="47" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A47" s="24" t="s">
         <v>394</v>
       </c>
@@ -16298,7 +16383,7 @@
       </c>
       <c r="C47" s="28"/>
     </row>
-    <row r="48" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" s="16" customFormat="1" ht="51">
       <c r="A48" s="24" t="s">
         <v>473</v>
       </c>
@@ -16309,7 +16394,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A49" s="24" t="s">
         <v>395</v>
       </c>
@@ -16318,7 +16403,7 @@
       </c>
       <c r="C49" s="28"/>
     </row>
-    <row r="50" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="119">
       <c r="A50" s="6" t="s">
         <v>327</v>
       </c>
@@ -16326,7 +16411,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="34">
       <c r="A51" s="6" t="s">
         <v>396</v>
       </c>
@@ -16334,7 +16419,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="306" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="306">
       <c r="A52" s="6" t="s">
         <v>334</v>
       </c>
@@ -16342,7 +16427,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="34">
       <c r="A53" s="6" t="s">
         <v>404</v>
       </c>
@@ -16350,7 +16435,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="16" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" s="16" customFormat="1" ht="153">
       <c r="A54" s="24" t="s">
         <v>335</v>
       </c>
@@ -16358,7 +16443,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A55" s="24" t="s">
         <v>405</v>
       </c>
@@ -16366,7 +16451,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A56" s="24" t="s">
         <v>228</v>
       </c>
@@ -16374,7 +16459,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A57" s="24" t="s">
         <v>406</v>
       </c>
@@ -16382,7 +16467,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A58" s="24" t="s">
         <v>407</v>
       </c>
@@ -16390,7 +16475,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A59" s="24" t="s">
         <v>408</v>
       </c>
@@ -16398,7 +16483,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A60" s="24" t="s">
         <v>409</v>
       </c>
@@ -16406,7 +16491,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A61" s="24" t="s">
         <v>410</v>
       </c>
@@ -16414,7 +16499,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A62" s="24" t="s">
         <v>269</v>
       </c>
@@ -16422,7 +16507,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A63" s="24" t="s">
         <v>411</v>
       </c>
@@ -16430,7 +16515,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A64" s="24" t="s">
         <v>412</v>
       </c>
@@ -16438,7 +16523,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A65" s="24" t="s">
         <v>413</v>
       </c>
@@ -16446,7 +16531,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="16" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" s="16" customFormat="1" ht="187">
       <c r="A66" s="24" t="s">
         <v>240</v>
       </c>
@@ -16457,7 +16542,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A67" s="24" t="s">
         <v>414</v>
       </c>
@@ -16465,7 +16550,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A68" s="24" t="s">
         <v>428</v>
       </c>
@@ -16473,7 +16558,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="85">
       <c r="A69" s="6" t="s">
         <v>271</v>
       </c>
@@ -16484,7 +16569,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" s="16" customFormat="1" ht="68">
       <c r="A70" s="24" t="s">
         <v>180</v>
       </c>
@@ -16492,7 +16577,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A71" s="24" t="s">
         <v>430</v>
       </c>
@@ -16500,7 +16585,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" s="16" customFormat="1" ht="68">
       <c r="A72" s="24" t="s">
         <v>338</v>
       </c>
@@ -16511,7 +16596,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A73" s="24" t="s">
         <v>432</v>
       </c>
@@ -16520,7 +16605,7 @@
       </c>
       <c r="C73" s="29"/>
     </row>
-    <row r="74" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A74" s="24" t="s">
         <v>436</v>
       </c>
@@ -16529,7 +16614,7 @@
       </c>
       <c r="C74" s="29"/>
     </row>
-    <row r="75" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A75" s="24" t="s">
         <v>435</v>
       </c>
@@ -16538,7 +16623,7 @@
       </c>
       <c r="C75" s="29"/>
     </row>
-    <row r="76" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="187">
       <c r="A76" s="6" t="s">
         <v>103</v>
       </c>
@@ -16549,7 +16634,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="34">
       <c r="A77" s="6" t="s">
         <v>438</v>
       </c>
@@ -16557,7 +16642,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="34">
       <c r="A78" s="6" t="s">
         <v>439</v>
       </c>
@@ -16565,7 +16650,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="34">
       <c r="A79" s="6" t="s">
         <v>440</v>
       </c>
@@ -16573,7 +16658,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="34">
       <c r="A80" s="6" t="s">
         <v>441</v>
       </c>
@@ -16581,7 +16666,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="102">
       <c r="A81" s="6" t="s">
         <v>182</v>
       </c>
@@ -16589,7 +16674,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="34">
       <c r="A82" s="6" t="s">
         <v>442</v>
       </c>
@@ -16597,7 +16682,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="34">
       <c r="A83" s="6" t="s">
         <v>443</v>
       </c>
@@ -16605,7 +16690,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="85">
       <c r="A84" s="6" t="s">
         <v>354</v>
       </c>
@@ -16613,7 +16698,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="198" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="198" customHeight="1">
       <c r="A85" s="6" t="s">
         <v>205</v>
       </c>
@@ -16624,7 +16709,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" s="16" customFormat="1" ht="68">
       <c r="A86" s="24" t="s">
         <v>353</v>
       </c>
@@ -16632,7 +16717,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A87" s="24" t="s">
         <v>444</v>
       </c>
@@ -16640,7 +16725,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="16" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" s="16" customFormat="1" ht="153">
       <c r="A88" s="24" t="s">
         <v>348</v>
       </c>
@@ -16648,7 +16733,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" s="16" customFormat="1" ht="68">
       <c r="A89" s="24" t="s">
         <v>484</v>
       </c>
@@ -16659,7 +16744,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A90" s="24" t="s">
         <v>445</v>
       </c>
@@ -16667,7 +16752,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" s="16" customFormat="1" ht="51">
       <c r="A91" s="24" t="s">
         <v>55</v>
       </c>
@@ -16675,7 +16760,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="34">
       <c r="A92" s="6" t="s">
         <v>446</v>
       </c>
@@ -16683,7 +16768,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="34">
       <c r="A93" s="6" t="s">
         <v>447</v>
       </c>
@@ -16691,7 +16776,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="34">
       <c r="A94" s="6" t="s">
         <v>448</v>
       </c>
@@ -16699,7 +16784,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="34">
       <c r="A95" s="6" t="s">
         <v>449</v>
       </c>
@@ -16707,7 +16792,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="34">
       <c r="A96" s="6" t="s">
         <v>208</v>
       </c>
@@ -16715,7 +16800,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="34">
       <c r="A97" s="6" t="s">
         <v>450</v>
       </c>
@@ -16723,7 +16808,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="85">
       <c r="A98" s="6" t="s">
         <v>346</v>
       </c>
@@ -16731,7 +16816,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="34">
       <c r="A99" s="6" t="s">
         <v>452</v>
       </c>
@@ -16739,7 +16824,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="51">
       <c r="A100" s="6" t="s">
         <v>253</v>
       </c>
@@ -16750,7 +16835,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="51">
       <c r="A101" s="6" t="s">
         <v>341</v>
       </c>
@@ -16761,7 +16846,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="34">
       <c r="A102" s="6" t="s">
         <v>307</v>
       </c>
@@ -16769,7 +16854,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="89" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" s="89" customFormat="1" ht="17">
       <c r="A103" s="6" t="s">
         <v>826</v>
       </c>
@@ -16777,7 +16862,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="306" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="306">
       <c r="A104" s="6" t="s">
         <v>898</v>
       </c>
@@ -16785,7 +16870,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="105" spans="1:3" s="95" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" s="95" customFormat="1" ht="204">
       <c r="A105" s="6" t="s">
         <v>944</v>
       </c>
@@ -16793,7 +16878,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="106" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" s="101" customFormat="1" ht="34">
       <c r="A106" s="6" t="s">
         <v>972</v>
       </c>
@@ -16801,7 +16886,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="107" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" s="105" customFormat="1" ht="51">
       <c r="A107" s="6" t="s">
         <v>968</v>
       </c>
@@ -16809,7 +16894,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="108" spans="1:3" s="105" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" s="105" customFormat="1" ht="34">
       <c r="A108" s="6" t="s">
         <v>996</v>
       </c>
@@ -16817,7 +16902,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="109" spans="1:3" s="113" customFormat="1" ht="88" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" s="113" customFormat="1" ht="88">
       <c r="A109" s="6" t="s">
         <v>1025</v>
       </c>
@@ -16825,7 +16910,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="238" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="238">
       <c r="A110" s="6" t="s">
         <v>1040</v>
       </c>
@@ -16836,7 +16921,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="111" spans="1:3" s="120" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" s="120" customFormat="1" ht="136">
       <c r="A111" s="6" t="s">
         <v>1051</v>
       </c>
@@ -16845,7 +16930,7 @@
       </c>
       <c r="C111" s="28"/>
     </row>
-    <row r="112" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="187">
       <c r="A112" s="6" t="s">
         <v>1053</v>
       </c>
@@ -16853,7 +16938,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="113" spans="1:2" s="120" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" s="120" customFormat="1" ht="34">
       <c r="A113" s="6" t="s">
         <v>1066</v>
       </c>
@@ -16861,7 +16946,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" ht="119">
       <c r="A114" s="6" t="s">
         <v>1064</v>
       </c>
@@ -16869,7 +16954,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" ht="34">
       <c r="A115" s="128" t="s">
         <v>1077</v>
       </c>
@@ -16877,7 +16962,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="116" spans="1:2" s="126" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" s="126" customFormat="1" ht="34">
       <c r="A116" s="128" t="s">
         <v>1079</v>
       </c>
@@ -16885,7 +16970,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" ht="51">
       <c r="A117" s="6" t="s">
         <v>1078</v>
       </c>
@@ -16893,7 +16978,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" ht="102">
       <c r="A118" s="6" t="s">
         <v>1084</v>
       </c>
@@ -16901,7 +16986,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="119" spans="1:2" s="160" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" s="160" customFormat="1" ht="136">
       <c r="A119" s="6" t="s">
         <v>1182</v>
       </c>
@@ -16909,7 +16994,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="120" spans="1:2" s="162" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" s="162" customFormat="1" ht="68">
       <c r="A120" s="6" t="s">
         <v>1186</v>
       </c>
@@ -16917,7 +17002,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="121" spans="1:2" s="160" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" s="160" customFormat="1" ht="102">
       <c r="A121" s="6" t="s">
         <v>1106</v>
       </c>
@@ -16925,7 +17010,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="122" spans="1:2" s="160" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" s="160" customFormat="1" ht="187">
       <c r="A122" s="6" t="s">
         <v>1121</v>
       </c>
@@ -16933,12 +17018,20 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" ht="68">
       <c r="A123" s="6" t="s">
         <v>1180</v>
       </c>
       <c r="B123" s="161" t="s">
         <v>1181</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="34">
+      <c r="A124" s="6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B124" s="167" t="s">
+        <v>1219</v>
       </c>
     </row>
   </sheetData>
@@ -16960,17 +17053,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="112.6640625" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="32" t="s">
         <v>63</v>
       </c>
@@ -16981,7 +17074,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="51">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -16989,7 +17082,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="68">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
@@ -16997,7 +17090,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="16" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="16" customFormat="1" ht="119">
       <c r="A4" s="36" t="s">
         <v>62</v>
       </c>
@@ -17005,7 +17098,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="68">
       <c r="A5" s="1" t="s">
         <v>178</v>
       </c>
@@ -17013,7 +17106,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="51">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -17021,7 +17114,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="51">
       <c r="A7" s="1" t="s">
         <v>490</v>
       </c>
@@ -17029,7 +17122,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="34">
       <c r="A8" s="1" t="s">
         <v>362</v>
       </c>
@@ -17037,7 +17130,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="34">
       <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
@@ -17045,7 +17138,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="34">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -17053,7 +17146,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="238" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="238">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -17061,7 +17154,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="34">
       <c r="A12" s="1" t="s">
         <v>372</v>
       </c>
@@ -17069,7 +17162,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="16" customFormat="1" ht="68">
       <c r="A13" s="36" t="s">
         <v>132</v>
       </c>
@@ -17077,7 +17170,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="153">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -17085,7 +17178,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="34">
       <c r="A15" s="1" t="s">
         <v>380</v>
       </c>
@@ -17093,7 +17186,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="51">
       <c r="A16" s="1" t="s">
         <v>260</v>
       </c>
@@ -17101,7 +17194,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="16" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" s="16" customFormat="1" ht="85">
       <c r="A17" s="36" t="s">
         <v>154</v>
       </c>
@@ -17109,7 +17202,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="16" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" s="16" customFormat="1" ht="170">
       <c r="A18" s="36" t="s">
         <v>232</v>
       </c>
@@ -17117,7 +17210,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="187">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -17125,7 +17218,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="68">
       <c r="A20" s="1" t="s">
         <v>503</v>
       </c>
@@ -17133,7 +17226,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="34">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -17141,7 +17234,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="44" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" s="44" customFormat="1" ht="17">
       <c r="A22" s="1" t="s">
         <v>272</v>
       </c>
@@ -17149,7 +17242,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="51">
       <c r="A23" s="1" t="s">
         <v>506</v>
       </c>
@@ -17157,7 +17250,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="51">
       <c r="A24" s="1" t="s">
         <v>518</v>
       </c>
@@ -17165,7 +17258,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="68">
       <c r="A25" s="1" t="s">
         <v>353</v>
       </c>
@@ -17173,7 +17266,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="34">
       <c r="A26" s="1" t="s">
         <v>515</v>
       </c>
@@ -17181,7 +17274,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="187">
       <c r="A27" s="1" t="s">
         <v>508</v>
       </c>
@@ -17189,7 +17282,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="238" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="238">
       <c r="A28" s="1" t="s">
         <v>509</v>
       </c>
@@ -17197,7 +17290,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="86" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" s="86" customFormat="1" ht="17">
       <c r="A29" s="1" t="s">
         <v>891</v>
       </c>
@@ -17205,7 +17298,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="255">
       <c r="A30" s="1" t="s">
         <v>887</v>
       </c>
@@ -17213,7 +17306,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="51">
       <c r="A31" s="1" t="s">
         <v>970</v>
       </c>
@@ -17221,7 +17314,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" s="101" customFormat="1" ht="34">
       <c r="A32" s="1" t="s">
         <v>958</v>
       </c>
@@ -17229,7 +17322,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="255" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="255">
       <c r="A33" s="1" t="s">
         <v>974</v>
       </c>
@@ -17237,7 +17330,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="85">
       <c r="A34" s="1" t="s">
         <v>1004</v>
       </c>
@@ -17245,7 +17338,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="136">
       <c r="A35" s="1" t="s">
         <v>1027</v>
       </c>
@@ -17253,7 +17346,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="85">
       <c r="A36" s="1" t="s">
         <v>1053</v>
       </c>
@@ -17262,7 +17355,7 @@
       </c>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="34">
       <c r="A37" s="1" t="s">
         <v>1073</v>
       </c>
@@ -17271,7 +17364,7 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="51">
       <c r="A38" s="1" t="s">
         <v>1075</v>
       </c>
@@ -17279,15 +17372,15 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="165" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" s="165" customFormat="1" ht="187">
       <c r="A39" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B39" s="166" t="s">
         <v>1205</v>
       </c>
-      <c r="B39" s="166" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:5" ht="34">
       <c r="A40" s="1" t="s">
         <v>1201</v>
       </c>
@@ -17295,48 +17388,48 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="165" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" s="165" customFormat="1" ht="85">
       <c r="A41" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B41" s="166" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="165" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="165" customFormat="1">
       <c r="A42" s="1"/>
       <c r="B42" s="166"/>
     </row>
-    <row r="43" spans="1:5" s="165" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" s="165" customFormat="1">
       <c r="A43" s="1"/>
       <c r="B43" s="166"/>
     </row>
-    <row r="44" spans="1:5" s="165" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" s="165" customFormat="1">
       <c r="A44" s="1"/>
       <c r="B44" s="166"/>
     </row>
-    <row r="45" spans="1:5" s="165" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" s="165" customFormat="1">
       <c r="A45" s="1"/>
       <c r="B45" s="166"/>
     </row>
-    <row r="46" spans="1:5" s="165" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" s="165" customFormat="1">
       <c r="A46" s="1"/>
       <c r="B46" s="166"/>
     </row>
-    <row r="47" spans="1:5" s="165" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" s="165" customFormat="1">
       <c r="A47" s="1"/>
       <c r="B47" s="166"/>
     </row>
-    <row r="48" spans="1:5" s="165" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" s="165" customFormat="1">
       <c r="A48" s="1"/>
       <c r="B48" s="166"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:5">
       <c r="E49" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="50" spans="5:5" ht="153" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:5" ht="153">
       <c r="E50" s="119" t="s">
         <v>514</v>
       </c>
@@ -17354,16 +17447,16 @@
   <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="178.1640625" customWidth="1"/>
     <col min="3" max="3" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="32" t="s">
         <v>63</v>
       </c>
@@ -17374,7 +17467,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="16" customFormat="1" ht="17">
       <c r="A2" s="36" t="s">
         <v>62</v>
       </c>
@@ -17382,7 +17475,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="258" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="258" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>110</v>
       </c>
@@ -17391,7 +17484,7 @@
       </c>
       <c r="C3" s="37"/>
     </row>
-    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="51">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -17400,7 +17493,7 @@
       </c>
       <c r="C4" s="37"/>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="34">
       <c r="A5" s="1" t="s">
         <v>359</v>
       </c>
@@ -17409,7 +17502,7 @@
       </c>
       <c r="C5" s="37"/>
     </row>
-    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="51">
       <c r="A6" s="1" t="s">
         <v>362</v>
       </c>
@@ -17418,7 +17511,7 @@
       </c>
       <c r="C6" s="37"/>
     </row>
-    <row r="7" spans="1:3" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="16" customFormat="1" ht="17">
       <c r="A7" s="36" t="s">
         <v>126</v>
       </c>
@@ -17427,7 +17520,7 @@
       </c>
       <c r="C7" s="58"/>
     </row>
-    <row r="8" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="68">
       <c r="A8" s="1" t="s">
         <v>522</v>
       </c>
@@ -17435,7 +17528,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="34">
       <c r="A9" s="1" t="s">
         <v>527</v>
       </c>
@@ -17443,7 +17536,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="34">
       <c r="A10" s="1" t="s">
         <v>150</v>
       </c>
@@ -17451,7 +17544,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="85">
       <c r="A11" s="1" t="s">
         <v>214</v>
       </c>
@@ -17459,7 +17552,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="51">
       <c r="A12" s="1" t="s">
         <v>203</v>
       </c>
@@ -17467,7 +17560,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="85">
       <c r="A13" s="1" t="s">
         <v>543</v>
       </c>
@@ -17478,7 +17571,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="34">
       <c r="A14" s="1" t="s">
         <v>532</v>
       </c>
@@ -17486,7 +17579,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="17">
       <c r="A15" s="1" t="s">
         <v>548</v>
       </c>
@@ -17494,7 +17587,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="17">
       <c r="A16" s="1" t="s">
         <v>547</v>
       </c>
@@ -17502,7 +17595,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="17">
       <c r="A17" s="1" t="s">
         <v>148</v>
       </c>
@@ -17510,7 +17603,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="17">
       <c r="A18" s="1" t="s">
         <v>551</v>
       </c>
@@ -17518,7 +17611,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="17">
       <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
@@ -17526,7 +17619,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="34">
       <c r="A20" s="1" t="s">
         <v>549</v>
       </c>
@@ -17534,7 +17627,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="17">
       <c r="A21" s="1" t="s">
         <v>392</v>
       </c>
@@ -17542,7 +17635,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="34">
       <c r="A22" s="1" t="s">
         <v>261</v>
       </c>
@@ -17550,7 +17643,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="17">
       <c r="A23" s="1" t="s">
         <v>550</v>
       </c>
@@ -17558,7 +17651,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="17">
       <c r="A24" s="1" t="s">
         <v>147</v>
       </c>
@@ -17566,7 +17659,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="17">
       <c r="A25" s="1" t="s">
         <v>192</v>
       </c>
@@ -17574,7 +17667,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="17">
       <c r="A26" s="1" t="s">
         <v>159</v>
       </c>
@@ -17582,7 +17675,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" s="16" customFormat="1" ht="17">
       <c r="A27" s="36" t="s">
         <v>552</v>
       </c>
@@ -17590,7 +17683,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="187">
       <c r="A28" s="1" t="s">
         <v>534</v>
       </c>
@@ -17598,7 +17691,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="34">
       <c r="A29" s="1" t="s">
         <v>266</v>
       </c>
@@ -17606,7 +17699,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="34">
       <c r="A30" s="1" t="s">
         <v>408</v>
       </c>
@@ -17614,7 +17707,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="102">
       <c r="A31" s="1" t="s">
         <v>164</v>
       </c>
@@ -17622,7 +17715,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="51">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
@@ -17630,7 +17723,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="16" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" s="16" customFormat="1" ht="136">
       <c r="A33" s="36" t="s">
         <v>409</v>
       </c>
@@ -17638,23 +17731,23 @@
         <v>570</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="168" t="s">
+    <row r="34" spans="1:3" ht="408" customHeight="1">
+      <c r="A34" s="171" t="s">
         <v>269</v>
       </c>
-      <c r="B34" s="167" t="s">
+      <c r="B34" s="170" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="206" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="168"/>
-      <c r="B35" s="167"/>
-    </row>
-    <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="169"/>
-      <c r="B36" s="167"/>
-    </row>
-    <row r="37" spans="1:3" s="43" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="206" customHeight="1">
+      <c r="A35" s="171"/>
+      <c r="B35" s="170"/>
+    </row>
+    <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1">
+      <c r="A36" s="172"/>
+      <c r="B36" s="170"/>
+    </row>
+    <row r="37" spans="1:3" s="43" customFormat="1" ht="51">
       <c r="A37" s="1" t="s">
         <v>272</v>
       </c>
@@ -17662,7 +17755,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="43" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" s="43" customFormat="1" ht="68">
       <c r="A38" s="1" t="s">
         <v>573</v>
       </c>
@@ -17670,7 +17763,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="170">
       <c r="A39" s="7" t="s">
         <v>274</v>
       </c>
@@ -17678,7 +17771,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="102">
       <c r="A40" s="7" t="s">
         <v>537</v>
       </c>
@@ -17689,7 +17782,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="17">
       <c r="A41" s="7" t="s">
         <v>576</v>
       </c>
@@ -17698,7 +17791,7 @@
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="17">
       <c r="A42" s="7" t="s">
         <v>353</v>
       </c>
@@ -17707,7 +17800,7 @@
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="204">
       <c r="A43" s="38" t="s">
         <v>578</v>
       </c>
@@ -17716,7 +17809,7 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="85">
       <c r="A44" s="38" t="s">
         <v>580</v>
       </c>
@@ -17725,7 +17818,7 @@
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="34">
       <c r="A45" s="38" t="s">
         <v>583</v>
       </c>
@@ -17734,7 +17827,7 @@
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="51">
       <c r="A46" s="38" t="s">
         <v>208</v>
       </c>
@@ -17743,7 +17836,7 @@
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" s="16" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" s="16" customFormat="1" ht="102">
       <c r="A47" s="40" t="s">
         <v>346</v>
       </c>
@@ -17752,7 +17845,7 @@
       </c>
       <c r="C47" s="28"/>
     </row>
-    <row r="48" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="34">
       <c r="A48" s="1" t="s">
         <v>253</v>
       </c>
@@ -17760,7 +17853,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="136">
       <c r="A49" s="7" t="s">
         <v>541</v>
       </c>
@@ -17768,19 +17861,19 @@
         <v>586</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="86" customFormat="1" ht="229" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="170" t="s">
+    <row r="50" spans="1:2" s="86" customFormat="1" ht="229" customHeight="1">
+      <c r="A50" s="173" t="s">
         <v>903</v>
       </c>
-      <c r="B50" s="167" t="s">
+      <c r="B50" s="170" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="86" customFormat="1" ht="181" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="171"/>
-      <c r="B51" s="167"/>
-    </row>
-    <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" s="86" customFormat="1" ht="181" customHeight="1">
+      <c r="A51" s="174"/>
+      <c r="B51" s="170"/>
+    </row>
+    <row r="52" spans="1:2" ht="17">
       <c r="A52" s="103" t="s">
         <v>942</v>
       </c>
@@ -17788,7 +17881,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="34">
       <c r="A53" s="103" t="s">
         <v>958</v>
       </c>
@@ -17796,7 +17889,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" s="113" customFormat="1" ht="17">
       <c r="A54" s="103" t="s">
         <v>1001</v>
       </c>
@@ -17804,7 +17897,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="17">
       <c r="A55" s="103" t="s">
         <v>1012</v>
       </c>
@@ -17812,7 +17905,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="187">
       <c r="A56" s="103" t="s">
         <v>1042</v>
       </c>
@@ -17820,7 +17913,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="146" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" s="146" customFormat="1" ht="102">
       <c r="A57" s="103" t="s">
         <v>1073</v>
       </c>
@@ -17828,7 +17921,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="148" customFormat="1" ht="323" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" s="148" customFormat="1" ht="323">
       <c r="A58" s="103" t="s">
         <v>1069</v>
       </c>
@@ -17836,7 +17929,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="255">
       <c r="A59" s="103" t="s">
         <v>1150</v>
       </c>
@@ -17844,7 +17937,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="17">
       <c r="A60" s="103" t="s">
         <v>1078</v>
       </c>
@@ -17852,28 +17945,28 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="61" spans="1:2" s="165" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" s="165" customFormat="1" ht="17">
       <c r="A61" s="103" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B61" s="164" t="s">
         <v>1208</v>
       </c>
-      <c r="B61" s="164" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" s="165" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:2" s="165" customFormat="1" ht="153">
       <c r="A62" s="103" t="s">
         <v>1121</v>
       </c>
       <c r="B62" s="164" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="102">
       <c r="A63" s="103" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B63" s="164" t="s">
-        <v>1210</v>
+        <v>1206</v>
+      </c>
+      <c r="B63" s="168" t="s">
+        <v>1220</v>
       </c>
     </row>
   </sheetData>
@@ -17896,16 +17989,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="130" customWidth="1"/>
     <col min="3" max="3" width="60.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="38" t="s">
         <v>63</v>
       </c>
@@ -17916,7 +18009,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A2" s="54" t="s">
         <v>109</v>
       </c>
@@ -17925,7 +18018,7 @@
       </c>
       <c r="C2" s="54"/>
     </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="34">
       <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
@@ -17933,7 +18026,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A4" s="1" t="s">
         <v>114</v>
       </c>
@@ -17941,7 +18034,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="34">
       <c r="A5" s="1" t="s">
         <v>178</v>
       </c>
@@ -17949,7 +18042,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="55" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="55" customFormat="1" ht="153">
       <c r="A6" s="1" t="s">
         <v>632</v>
       </c>
@@ -17957,7 +18050,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A7" s="1" t="s">
         <v>310</v>
       </c>
@@ -17965,7 +18058,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A8" s="1" t="s">
         <v>79</v>
       </c>
@@ -17973,7 +18066,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="409.6">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -17984,7 +18077,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A10" s="1" t="s">
         <v>372</v>
       </c>
@@ -17993,7 +18086,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A11" s="1" t="s">
         <v>376</v>
       </c>
@@ -18002,7 +18095,7 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" s="55" customFormat="1" ht="289" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" s="55" customFormat="1" ht="289">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -18010,7 +18103,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -18018,7 +18111,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -18026,7 +18119,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="55" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" s="55" customFormat="1" ht="51">
       <c r="A15" s="1" t="s">
         <v>218</v>
       </c>
@@ -18034,7 +18127,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A16" s="1" t="s">
         <v>84</v>
       </c>
@@ -18042,7 +18135,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A17" s="1" t="s">
         <v>390</v>
       </c>
@@ -18050,7 +18143,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A18" s="1" t="s">
         <v>640</v>
       </c>
@@ -18058,7 +18151,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="55" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" s="55" customFormat="1" ht="68">
       <c r="A19" s="1" t="s">
         <v>192</v>
       </c>
@@ -18067,7 +18160,7 @@
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A20" s="1" t="s">
         <v>263</v>
       </c>
@@ -18076,7 +18169,7 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -18085,7 +18178,7 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A22" s="1" t="s">
         <v>405</v>
       </c>
@@ -18094,7 +18187,7 @@
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A23" s="1" t="s">
         <v>406</v>
       </c>
@@ -18103,7 +18196,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A24" s="1" t="s">
         <v>655</v>
       </c>
@@ -18112,7 +18205,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A25" s="1" t="s">
         <v>232</v>
       </c>
@@ -18121,7 +18214,7 @@
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A26" s="1" t="s">
         <v>269</v>
       </c>
@@ -18130,7 +18223,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A27" s="1" t="s">
         <v>660</v>
       </c>
@@ -18139,7 +18232,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
@@ -18148,7 +18241,7 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A29" s="1" t="s">
         <v>236</v>
       </c>
@@ -18157,7 +18250,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A30" s="1" t="s">
         <v>667</v>
       </c>
@@ -18166,7 +18259,7 @@
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A31" s="1" t="s">
         <v>665</v>
       </c>
@@ -18175,7 +18268,7 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A32" s="1" t="s">
         <v>663</v>
       </c>
@@ -18184,7 +18277,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -18193,7 +18286,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" s="152" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" s="152" customFormat="1" ht="51">
       <c r="A34" s="1" t="s">
         <v>1161</v>
       </c>
@@ -18202,7 +18295,7 @@
       </c>
       <c r="C34" s="153"/>
     </row>
-    <row r="35" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A35" s="1" t="s">
         <v>670</v>
       </c>
@@ -18211,7 +18304,7 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A36" s="1" t="s">
         <v>672</v>
       </c>
@@ -18220,7 +18313,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A37" s="1" t="s">
         <v>674</v>
       </c>
@@ -18229,7 +18322,7 @@
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A38" s="1" t="s">
         <v>676</v>
       </c>
@@ -18238,7 +18331,7 @@
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A39" s="1" t="s">
         <v>678</v>
       </c>
@@ -18247,7 +18340,7 @@
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A40" s="1" t="s">
         <v>680</v>
       </c>
@@ -18256,7 +18349,7 @@
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A41" s="1" t="s">
         <v>682</v>
       </c>
@@ -18265,7 +18358,7 @@
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A42" s="1" t="s">
         <v>684</v>
       </c>
@@ -18274,7 +18367,7 @@
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A43" s="1" t="s">
         <v>686</v>
       </c>
@@ -18283,7 +18376,7 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A44" s="1" t="s">
         <v>688</v>
       </c>
@@ -18292,7 +18385,7 @@
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A45" s="1" t="s">
         <v>105</v>
       </c>
@@ -18301,7 +18394,7 @@
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A46" s="1" t="s">
         <v>690</v>
       </c>
@@ -18310,7 +18403,7 @@
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" s="55" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" s="55" customFormat="1" ht="119">
       <c r="A47" s="1" t="s">
         <v>447</v>
       </c>
@@ -18319,7 +18412,7 @@
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A48" s="1" t="s">
         <v>695</v>
       </c>
@@ -18328,7 +18421,7 @@
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A49" s="1" t="s">
         <v>121</v>
       </c>
@@ -18337,7 +18430,7 @@
       </c>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:3" s="55" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" s="55" customFormat="1" ht="85">
       <c r="A50" s="1" t="s">
         <v>637</v>
       </c>
@@ -18345,7 +18438,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A51" s="1" t="s">
         <v>699</v>
       </c>
@@ -18353,7 +18446,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A52" s="1" t="s">
         <v>697</v>
       </c>
@@ -18361,7 +18454,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="119">
       <c r="A53" s="1" t="s">
         <v>635</v>
       </c>
@@ -18369,7 +18462,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A54" s="1" t="s">
         <v>250</v>
       </c>
@@ -18377,7 +18470,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="34">
       <c r="A55" s="1" t="s">
         <v>346</v>
       </c>
@@ -18385,7 +18478,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="68">
       <c r="A56" s="1" t="s">
         <v>703</v>
       </c>
@@ -18393,7 +18486,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="34">
       <c r="A57" s="1" t="s">
         <v>926</v>
       </c>
@@ -18401,7 +18494,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="51">
       <c r="A58" s="1" t="s">
         <v>891</v>
       </c>
@@ -18409,7 +18502,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="17">
       <c r="A59" s="1" t="s">
         <v>979</v>
       </c>
@@ -18417,7 +18510,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="113" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" s="113" customFormat="1" ht="34">
       <c r="A60" s="1" t="s">
         <v>974</v>
       </c>
@@ -18425,7 +18518,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="102">
       <c r="A61" s="1" t="s">
         <v>994</v>
       </c>
@@ -18433,7 +18526,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="153">
       <c r="A62" s="1" t="s">
         <v>996</v>
       </c>
@@ -18441,7 +18534,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="117" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" s="117" customFormat="1" ht="170">
       <c r="A63" s="1" t="s">
         <v>1021</v>
       </c>
@@ -18449,7 +18542,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="165" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" s="165" customFormat="1" ht="51">
       <c r="A64" s="1" t="s">
         <v>1008</v>
       </c>
@@ -18457,7 +18550,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="221" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="221">
       <c r="A65" s="1" t="s">
         <v>1029</v>
       </c>
@@ -18465,7 +18558,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="129" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" s="129" customFormat="1" ht="51">
       <c r="A66" s="1" t="s">
         <v>1090</v>
       </c>
@@ -18473,7 +18566,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" s="129" customFormat="1" ht="17">
       <c r="A67" s="1" t="s">
         <v>1045</v>
       </c>
@@ -18481,7 +18574,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="129" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" s="129" customFormat="1" ht="34">
       <c r="A68" s="1" t="s">
         <v>1091</v>
       </c>
@@ -18489,7 +18582,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" s="129" customFormat="1" ht="17">
       <c r="A69" s="1" t="s">
         <v>1040</v>
       </c>
@@ -18497,7 +18590,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="129" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" s="129" customFormat="1" ht="51">
       <c r="A70" s="1" t="s">
         <v>1093</v>
       </c>
@@ -18505,7 +18598,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" s="129" customFormat="1" ht="17">
       <c r="A71" s="1" t="s">
         <v>1098</v>
       </c>
@@ -18513,7 +18606,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="72" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" s="129" customFormat="1" ht="17">
       <c r="A72" s="1" t="s">
         <v>1100</v>
       </c>
@@ -18521,7 +18614,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="154" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" s="154" customFormat="1" ht="17">
       <c r="A73" s="1" t="s">
         <v>1053</v>
       </c>
@@ -18529,7 +18622,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="154" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" s="154" customFormat="1" ht="17">
       <c r="A74" s="1" t="s">
         <v>1164</v>
       </c>
@@ -18537,7 +18630,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="75" spans="1:2" s="129" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" s="129" customFormat="1" ht="68">
       <c r="A75" s="1" t="s">
         <v>1072</v>
       </c>
@@ -18545,7 +18638,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="129" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" s="129" customFormat="1" ht="34">
       <c r="A76" s="1" t="s">
         <v>1079</v>
       </c>
@@ -18553,7 +18646,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="77" spans="1:2" s="154" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" s="154" customFormat="1" ht="34">
       <c r="A77" s="1" t="s">
         <v>1078</v>
       </c>
@@ -18561,7 +18654,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="51">
       <c r="A78" s="1" t="s">
         <v>1087</v>
       </c>
@@ -18569,7 +18662,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="165" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" s="165" customFormat="1" ht="34">
       <c r="A79" s="1" t="s">
         <v>1170</v>
       </c>
@@ -18577,7 +18670,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="153">
       <c r="A80" s="1" t="s">
         <v>1189</v>
       </c>
@@ -18595,19 +18688,19 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="111.1640625" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="32" t="s">
         <v>63</v>
       </c>
@@ -18618,7 +18711,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="119">
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
@@ -18626,7 +18719,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="34">
       <c r="A3" s="1" t="s">
         <v>110</v>
       </c>
@@ -18634,7 +18727,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="68">
       <c r="A4" s="1" t="s">
         <v>589</v>
       </c>
@@ -18642,7 +18735,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="34">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -18650,7 +18743,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="102">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -18658,7 +18751,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="68">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -18666,7 +18759,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="51">
       <c r="A8" s="1" t="s">
         <v>124</v>
       </c>
@@ -18674,7 +18767,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="34">
       <c r="A9" s="1" t="s">
         <v>597</v>
       </c>
@@ -18682,7 +18775,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="34">
       <c r="A10" s="1" t="s">
         <v>361</v>
       </c>
@@ -18690,7 +18783,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="51">
       <c r="A11" s="1" t="s">
         <v>126</v>
       </c>
@@ -18698,7 +18791,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="136">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -18706,7 +18799,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="59" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="59" customFormat="1" ht="34">
       <c r="A13" s="1" t="s">
         <v>372</v>
       </c>
@@ -18714,7 +18807,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="57" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" s="57" customFormat="1" ht="34">
       <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
@@ -18722,7 +18815,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="34">
       <c r="A15" s="1" t="s">
         <v>595</v>
       </c>
@@ -18730,7 +18823,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="17">
       <c r="A16" s="1" t="s">
         <v>706</v>
       </c>
@@ -18738,7 +18831,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="306">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -18746,7 +18839,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="153">
       <c r="A18" s="1" t="s">
         <v>709</v>
       </c>
@@ -18754,7 +18847,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="51">
       <c r="A19" s="1" t="s">
         <v>392</v>
       </c>
@@ -18762,7 +18855,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="59" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" s="59" customFormat="1" ht="51">
       <c r="A20" s="1" t="s">
         <v>261</v>
       </c>
@@ -18770,7 +18863,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="34">
       <c r="A21" s="1" t="s">
         <v>713</v>
       </c>
@@ -18778,7 +18871,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="60" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" s="60" customFormat="1" ht="51">
       <c r="A22" s="1" t="s">
         <v>721</v>
       </c>
@@ -18786,7 +18879,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="68">
       <c r="A23" s="1" t="s">
         <v>718</v>
       </c>
@@ -18794,7 +18887,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="102">
       <c r="A24" s="1" t="s">
         <v>346</v>
       </c>
@@ -18802,7 +18895,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="17">
       <c r="A25" s="1" t="s">
         <v>604</v>
       </c>
@@ -18810,7 +18903,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="153">
       <c r="A26" s="1" t="s">
         <v>952</v>
       </c>
@@ -18818,7 +18911,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="34">
       <c r="A27" s="1" t="s">
         <v>981</v>
       </c>
@@ -18826,7 +18919,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="289" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="289">
       <c r="A28" s="1" t="s">
         <v>1045</v>
       </c>
@@ -18834,7 +18927,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="150" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" s="150" customFormat="1" ht="17">
       <c r="A29" s="1" t="s">
         <v>1053</v>
       </c>
@@ -18842,7 +18935,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="150" customFormat="1" ht="372" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" s="150" customFormat="1" ht="372">
       <c r="A30" s="1" t="s">
         <v>1064</v>
       </c>
@@ -18850,7 +18943,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="34">
       <c r="A31" s="1" t="s">
         <v>1072</v>
       </c>
@@ -18858,7 +18951,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="136">
       <c r="A32" s="1" t="s">
         <v>1079</v>
       </c>
@@ -18866,7 +18959,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="68">
       <c r="A33" s="1" t="s">
         <v>1159</v>
       </c>
@@ -18874,12 +18967,20 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="102">
       <c r="A34" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B34" s="166" t="s">
-        <v>1213</v>
+        <v>1210</v>
+      </c>
+      <c r="B34" s="180" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="82" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B35" s="179" t="s">
+        <v>1224</v>
       </c>
     </row>
   </sheetData>

--- a/Mitigation implementations timelines.xlsx
+++ b/Mitigation implementations timelines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaakanteva/Desktop/Covid 19 research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/GitHub/CovidPolicy-Canada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CF0579-12B5-D941-85A5-4AB40FE5BFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CF50AE-0819-A246-8C64-5D8410EFE066}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="520" windowWidth="27920" windowHeight="15900" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="520" windowWidth="15280" windowHeight="15900" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alberta" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="1238">
   <si>
     <t>03/30/2020</t>
   </si>
@@ -10782,11 +10782,6 @@
     <t>03/15/2022</t>
   </si>
   <si>
-    <t>Mask mandate lifted accept for long-term care homes. Schools and child-care facilities also wont require staff and students to wear masks. public health orders restricting travel to northern Manitoba ends;
-individual case investigations related to COVID-19 will no longer occur and Manitoba will no longer generate key codes for the federal COVID Alert app; and
-public health will no longer require people who test positive for COVID-19 to isolate. (https://news.gov.mb.ca/news/index.html?item=53777)</t>
-  </si>
-  <si>
     <t>01/23/2022</t>
   </si>
   <si>
@@ -10834,9 +10829,6 @@
     <t>mandatory use of face masks in indoor public spaces is no longer required in British Columbia. (https://covid.smallbusinessbc.ca/hc/en-us/articles/360046231574-Latest-Updates)</t>
   </si>
   <si>
-    <t>The requirement for BC Vaccine Card dropped. (https://covid.smallbusinessbc.ca/hc/en-us/articles/360046231574-Latest-Updates)</t>
-  </si>
-  <si>
     <t>04/08/2022</t>
   </si>
   <si>
@@ -10860,9 +10852,6 @@
   </si>
   <si>
     <t>schools in Rankin Inlet and Arviat will open to 100% capacity (https://www.gov.nu.ca/health/news/covid-19-department-health-services-update-0)</t>
-  </si>
-  <si>
-    <t>masks are no longer mandatory in public spaces, there are no public health limits on gatherings or capacity for indoor spaces (https://www.gov.nu.ca/health/news/covid-19-department-health-services-update-0)</t>
   </si>
   <si>
     <t>Outdoor gatherings increase to 50 people.
@@ -10879,10 +10868,6 @@
     <t>03/18/2022</t>
   </si>
   <si>
-    <t>he Yukon government is lifting the requirement to wear a mask in public spaces and the requirement to show proof of vaccination to access designated settings for people who are 19 years of age or older. 
-Some settings, such as schools, long-term care centres, health facilities, shelters, group homes, the correctional centre and hospitals are still requiring Yukoners to wear a mask. (https://yukon.ca/en/news/masking-and-proof-vaccination-requirements-lifted)</t>
-  </si>
-  <si>
     <t>03/07/2022</t>
   </si>
   <si>
@@ -10899,20 +10884,10 @@
     <t>the end to the current requirement to show proof of full vaccination before participating in non-essential, discretionary events and activities. Other restrictions continue. (https://novascotia.ca/news/release/?id=20220223008)</t>
   </si>
   <si>
-    <t>There are no longer any gathering limits or capacity limits
- Physical distancing is no longer required between people and groups
- Masks are no longer required in most indoor public places, including restaurants, theatres and stores
- Businesses and organizations across all sectors can resume full operations with no restrictions
- Special events, including festivals, sports, performances, meetings, training and faith ceremonies can resume in full (https://atlantic.ctvnews.ca/n-s-lifts-most-covid-19-restrictions-including-masks-state-of-emergency-ends-1.5827415)</t>
-  </si>
-  <si>
     <t>residents are no longer required to wear masks in public places or limit the size of gatherings. All businesses and organizations can operate at full capacity and without the requirement for physical distancing. (https://www.thestar.com/news/canada/2022/03/14/covid-19-restrictions-end-in-new-brunswick-and-newfoundland-and-labrador.html) masks will still be required in K-12 schools until at least the beginning of Easter break on April 14. A further announcement on masking. (https://www.cbc.ca/news/canada/newfoundland-labrador/nl-covid-restrictions-end-masks-remain-1.6382888) proof of vaccination to enter public venues no longer required (https://atlantic.ctvnews.ca/newfoundland-and-labrador-dropping-masking-vaccination-passport-measures-march-14-1.5784179)</t>
   </si>
   <si>
     <t>05/06/2022</t>
-  </si>
-  <si>
-    <t>Prince Edward Island is ending its mandate to wear masks in indoor public places (https://atlantic.ctvnews.ca/p-e-i-to-end-covid-19-mask-mandate-may-6-two-new-deaths-reported-1.5877137)</t>
   </si>
   <si>
     <t>03/17/2022</t>
@@ -10926,12 +10901,107 @@
  Organized sport and recreation activities can take place with a maximum of 100 participants interacting over the course of a day.
  Screening at the points-of-entry will continue and the province will transition to random testing of people entering P.E.I. (https://atlantic.ctvnews.ca/p-e-i-loosens-more-covid-19-restrictions-thursday-as-it-enters-step-2-of-opening-plan-1.5823258)</t>
   </si>
+  <si>
+    <t>05/14/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mask mandate is lifted in public indoor places except in public transportation, Health-care facilities (hospitals, clinics, CLSCs) with the exception of mental health facilities, and Seniors' residences and RPAs. Wearing masks in indoor places is still recommended. </t>
+  </si>
+  <si>
+    <t>masks are no longer mandatory in public spaces, there are no public health limits on gatherings or capacity for indoor spaces (https://www.gov.nu.ca/health/news/covid-19-department-health-services-update-0). Masks are mandatory at all health facilities, Elders’ facilities, Akausisarvik, outpatient clinics and Iqaluit Public Health.There are no restrictions, such as capacity and distancing requirements, on businesses, recreation facilities, museums, libraries, and galleries.
+Isolation is no longer mandatory for COVID-19 positive individuals. When an individual is sick or has COVID-19, it is recommended they stay home.
+The Government of Nunavut will no longer be reporting COVID-19 vaccine or case data outside of its regular requirements on reportable diseases.
+Medical Isolation hubs are closed. (https://www.gov.nu.ca/health/news/nunavut-lifts-public-health-emergency-april-11).</t>
+  </si>
+  <si>
+    <t>The requirement for BC Vaccine Card dropped. (https://covid.smallbusinessbc.ca/hc/en-us/articles/360046231574-Latest-Updates), Wearing masks in public indoor settings is not required by public health but recommended in public transit and BC Ferries. No restrictions in social gatherings and events. No restrictions on resturants, bars, clubs, and sports activities. There are no capacity restrictions on visitors at long-term care and seniors' assisted living facilities; however, visitors are asked for proof of vaccination and a rapid antigen test result. (https://www2.gov.bc.ca/gov/content/covid-19/info/restrictions)</t>
+  </si>
+  <si>
+    <t>The Yukon government is lifting the requirement to wear a mask in public spaces and the requirement to show proof of vaccination to access designated settings for people who are 19 years of age or older. 
+Some settings, such as schools, long-term care centres, health facilities, shelters, group homes, the correctional centre and hospitals are still requiring Yukoners to wear a mask. (https://yukon.ca/en/news/masking-and-proof-vaccination-requirements-lifted)</t>
+  </si>
+  <si>
+    <t>04/04/2022</t>
+  </si>
+  <si>
+    <t>Vaccine mandate is fully lifted but it will continue to be required for employees, contractors and volunteers working in high-risk settings in the Yukon.
+High-risk settings include: long-term care homes; residential substance use programs; hospitals; shelters; residential care for children and adults; correctional centres; Yukon government-operated community health centres; and Yukon government-operated public health clinics, including the referred care clinic. (https://yukon.ca/en/news/vaccination-requirement-continues-workers-high-risk-settings-yukon) (https://yukon.ca/en/news/vaccination-requirement-lifted-most-workers)</t>
+  </si>
+  <si>
+    <t>There are no longer any gathering limits or capacity limits
+ Physical distancing is no longer required between people and groups
+ Masks are no longer required in most indoor public places, including restaurants, theatres and stores; Masks are still required in health-care settings, long-term care homes, adult residential centres, and other high-risk settings, such as provincial jails. Masks are also mandatory in public schools and school buses. 
+ Businesses and organizations across all sectors can resume full operations with no restrictions
+ Special events, including festivals, sports, performances, meetings, training and faith ceremonies can resume in full. (https://atlantic.ctvnews.ca/n-s-lifts-most-covid-19-restrictions-including-masks-state-of-emergency-ends-1.5827415)</t>
+  </si>
+  <si>
+    <t>04/20/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The federal government still requires that incoming travellers to Canada wear a mask for two weeks. Incoming travellers also must keep a list of close contacts and locations visited, as well as copies of their proof of vaccination, according to the government website listing requirements for vaccinated travellers. (https://www.ctvnews.ca/health/coronavirus/travellers-to-canada-must-still-wear-masks-for-two-weeks-despite-relaxed-provincial-measures-1.5868942)</t>
+  </si>
+  <si>
+    <t>05/24/2022</t>
+  </si>
+  <si>
+    <t>Mask mandate for public schools is lifted. Wearing a mask is still strongly recommended.  (https://atlantic.ctvnews.ca/mask-mandates-end-in-all-atlantic-canadian-schools-but-health-officials-still-recommend-their-use-1.59164360)</t>
+  </si>
+  <si>
+    <t>Masks will no longer be required to be worn inside K-12 schools in Newfoundland and Labrador starting May 24 but they are still recommended. (https://www.cbc.ca/news/canada/newfoundland-labrador/nl-schools-masks-covid19-1.6451969). (https://atlantic.ctvnews.ca/newfoundland-and-labrador-to-drop-mandatory-masking-in-schools-on-may-24-1.5901841)</t>
+  </si>
+  <si>
+    <t>Prince Edward Island is ending its mandate to wear masks in indoor public places. Masks are still required in high risk settings such as hospitals, long-term care homes and public transit. School staff and students must also continue masking when they are on school buses and when not seated in class.
+Fully vaccinated people who test positive for COVID-19 are required to isolate for seven days and unvaccinated residents must isolate for 10 days. (https://atlantic.ctvnews.ca/p-e-i-to-end-covid-19-mask-mandate-may-6-two-new-deaths-reported-1.5877137)</t>
+  </si>
+  <si>
+    <t>Mask mandate is lifted in public and private schools and in early childcare centers. The use of mask is still recommended. (https://atlantic.ctvnews.ca/mask-mandates-end-in-all-atlantic-canadian-schools-but-health-officials-still-recommend-their-use-1.5916436). Masks are still required in high risk environments such as hospitals, long-term care homes and public transit. (https://www.princeedwardisland.ca/en/information/health-and-wellness/step-3-covid-19-public-health-guidance)</t>
+  </si>
+  <si>
+    <t>Mask mandate lifted accept for long-term care homes. Schools and child-care facilities also wont require staff and students to wear masks. public health orders restricting travel to northern Manitoba ends; 
+individual case investigations related to COVID-19 will no longer occur and Manitoba will no longer generate key codes for the federal COVID Alert app; and
+public health will no longer require people who test positive for COVID-19 to isolate. (https://news.gov.mb.ca/news/index.html?item=53777)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>As of March 1st, teachers, staff and students will not be required to wear masks in Saskatchewan schools.</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://globalnews.ca/news/8611382/covid-19-masks-not-required-saskatchewan-schools-after-mandate-expires/</t>
+    </r>
+  </si>
+  <si>
+    <t>04/06/2022</t>
+  </si>
+  <si>
+    <t>removal of personal and organized gathering and capacity limits, no point of entry screening, voluntary testing upon arrival to PEI. (https://www.princeedwardisland.ca/en/information/health-and-wellness/moving-on-transition-plan-to-living-with-covid-19)</t>
+  </si>
+  <si>
+    <t>2/18/2022</t>
+  </si>
+  <si>
+    <t>The public health order requiring mandatory indoor masking and self-isolation for anyone who tests positive for COVID-19 through a PCR or at-home rapid antigen test is no longer in effect as of 12:01 a.m. February 28.Public Health still strongly recommends immediate self-isolation for anyone who tests positive for COVID-19.
+Businesses, workplaces and event organizers may request that patrons/visitors/staff/students continue to mask. Masking will not be mandatory. (https://www.saskatchewan.ca/government/health-care-administration-and-provider-resources/treatment-procedures-and-guidelines/emerging-public-health-issues/2019-novel-coronavirus/public-health-measures). As of February 28 2022, non-medical masks  will continue to be required when traveling on Saskatoon Transit vehicles. 
+This applies to all customers, including those who have been vaccinated. (https://transit.saskatoon.ca/rider-guide/covid-19/face-masks)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -11115,6 +11185,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -11143,7 +11218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11518,6 +11593,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11859,18 +11957,18 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="112.1640625" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
@@ -11881,7 +11979,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="68">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -11889,7 +11987,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="34">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -11897,7 +11995,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A4" s="26" t="s">
         <v>64</v>
       </c>
@@ -11905,7 +12003,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="16" customFormat="1" ht="51">
       <c r="A5" s="26" t="s">
         <v>109</v>
       </c>
@@ -11913,7 +12011,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="153">
       <c r="A6" s="6" t="s">
         <v>62</v>
       </c>
@@ -11921,7 +12019,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="38" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
@@ -11929,7 +12027,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="34">
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
@@ -11937,7 +12035,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="34">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
@@ -11945,7 +12043,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="68">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -11953,7 +12051,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="238" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="238">
       <c r="A11" s="1" t="s">
         <v>79</v>
       </c>
@@ -11961,7 +12059,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="34">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -11969,7 +12067,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="51">
       <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
@@ -11977,7 +12075,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="16" customFormat="1" ht="265" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" s="16" customFormat="1" ht="265" customHeight="1">
       <c r="A14" s="36" t="s">
         <v>14</v>
       </c>
@@ -11985,7 +12083,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="68">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -11993,7 +12091,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="51">
       <c r="A16" s="1" t="s">
         <v>84</v>
       </c>
@@ -12001,7 +12099,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" s="16" customFormat="1" ht="68">
       <c r="A17" s="36" t="s">
         <v>86</v>
       </c>
@@ -12009,7 +12107,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" s="16" customFormat="1" ht="51">
       <c r="A18" s="36" t="s">
         <v>192</v>
       </c>
@@ -12017,7 +12115,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="34">
       <c r="A19" s="1" t="s">
         <v>89</v>
       </c>
@@ -12025,7 +12123,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="68">
       <c r="A20" s="1" t="s">
         <v>91</v>
       </c>
@@ -12033,7 +12131,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="289" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="289">
       <c r="A21" s="6" t="s">
         <v>93</v>
       </c>
@@ -12041,7 +12139,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" s="16" customFormat="1" ht="51">
       <c r="A22" s="52" t="s">
         <v>94</v>
       </c>
@@ -12049,7 +12147,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="58" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -12057,7 +12155,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="170">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -12065,7 +12163,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>95</v>
       </c>
@@ -12073,7 +12171,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" s="16" customFormat="1" ht="51">
       <c r="A26" s="36" t="s">
         <v>180</v>
       </c>
@@ -12081,7 +12179,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="119">
       <c r="A27" s="1" t="s">
         <v>103</v>
       </c>
@@ -12089,7 +12187,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="136">
       <c r="A28" s="1" t="s">
         <v>182</v>
       </c>
@@ -12097,7 +12195,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="136">
       <c r="A29" s="1" t="s">
         <v>186</v>
       </c>
@@ -12105,7 +12203,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" s="16" customFormat="1" ht="68">
       <c r="A30" s="36" t="s">
         <v>185</v>
       </c>
@@ -12113,7 +12211,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="34">
       <c r="A31" s="1" t="s">
         <v>128</v>
       </c>
@@ -12121,7 +12219,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="86" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" s="86" customFormat="1" ht="51">
       <c r="A32" s="1" t="s">
         <v>346</v>
       </c>
@@ -12129,7 +12227,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="170">
       <c r="A33" s="1" t="s">
         <v>615</v>
       </c>
@@ -12137,7 +12235,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="86" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" s="86" customFormat="1" ht="17">
       <c r="A34" s="1" t="s">
         <v>891</v>
       </c>
@@ -12145,7 +12243,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="136">
       <c r="A35" s="1" t="s">
         <v>887</v>
       </c>
@@ -12154,7 +12252,7 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" s="101" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="101" customFormat="1" ht="68">
       <c r="A36" s="1" t="s">
         <v>956</v>
       </c>
@@ -12163,7 +12261,7 @@
       </c>
       <c r="C36" s="102"/>
     </row>
-    <row r="37" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="68">
       <c r="A37" s="1" t="s">
         <v>958</v>
       </c>
@@ -12171,7 +12269,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="104" customFormat="1" ht="289" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" s="104" customFormat="1" ht="289">
       <c r="A38" s="1" t="s">
         <v>991</v>
       </c>
@@ -12179,7 +12277,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="104" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" s="104" customFormat="1" ht="306">
       <c r="A39" s="1" t="s">
         <v>990</v>
       </c>
@@ -12187,7 +12285,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="105" customFormat="1" ht="51">
       <c r="A40" s="1" t="s">
         <v>994</v>
       </c>
@@ -12195,7 +12293,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="110" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" s="110" customFormat="1" ht="34">
       <c r="A41" s="1" t="s">
         <v>1019</v>
       </c>
@@ -12203,7 +12301,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="115" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="115" customFormat="1" ht="221">
       <c r="A42" s="1" t="s">
         <v>1069</v>
       </c>
@@ -12211,7 +12309,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="122" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" s="122" customFormat="1" ht="34">
       <c r="A43" s="1" t="s">
         <v>1072</v>
       </c>
@@ -12219,7 +12317,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="156" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" s="156" customFormat="1" ht="187">
       <c r="A44" s="1" t="s">
         <v>1168</v>
       </c>
@@ -12227,7 +12325,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="156" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" s="156" customFormat="1" ht="34">
       <c r="A45" s="1" t="s">
         <v>1106</v>
       </c>
@@ -12235,7 +12333,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="156" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="156" customFormat="1" ht="204">
       <c r="A46" s="1" t="s">
         <v>1170</v>
       </c>
@@ -12243,11 +12341,11 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="162" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" s="162" customFormat="1">
       <c r="A47" s="1"/>
       <c r="B47" s="88"/>
     </row>
-    <row r="48" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="51">
       <c r="C48" s="102" t="s">
         <v>617</v>
       </c>
@@ -12262,19 +12360,19 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView topLeftCell="A65" zoomScale="107" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="180.5" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="71" customFormat="1">
       <c r="A1" s="70" t="s">
         <v>63</v>
       </c>
@@ -12285,7 +12383,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="71" customFormat="1">
       <c r="A2" s="70" t="s">
         <v>625</v>
       </c>
@@ -12294,7 +12392,7 @@
       </c>
       <c r="C2" s="70"/>
     </row>
-    <row r="3" spans="1:3" s="71" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="71" customFormat="1" ht="34">
       <c r="A3" s="70" t="s">
         <v>58</v>
       </c>
@@ -12303,7 +12401,7 @@
       </c>
       <c r="C3" s="70"/>
     </row>
-    <row r="4" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="71" customFormat="1">
       <c r="A4" s="70" t="s">
         <v>64</v>
       </c>
@@ -12312,7 +12410,7 @@
       </c>
       <c r="C4" s="70"/>
     </row>
-    <row r="5" spans="1:3" s="71" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="71" customFormat="1" ht="17">
       <c r="A5" s="70" t="s">
         <v>109</v>
       </c>
@@ -12321,7 +12419,7 @@
       </c>
       <c r="C5" s="70"/>
     </row>
-    <row r="6" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="71" customFormat="1">
       <c r="A6" s="70" t="s">
         <v>62</v>
       </c>
@@ -12330,7 +12428,7 @@
       </c>
       <c r="C6" s="70"/>
     </row>
-    <row r="7" spans="1:3" s="71" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="71" customFormat="1" ht="68">
       <c r="A7" s="70" t="s">
         <v>114</v>
       </c>
@@ -12339,7 +12437,7 @@
       </c>
       <c r="C7" s="70"/>
     </row>
-    <row r="8" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="136">
       <c r="A8" s="1" t="s">
         <v>589</v>
       </c>
@@ -12347,7 +12445,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="51">
       <c r="A9" s="70" t="s">
         <v>97</v>
       </c>
@@ -12355,13 +12453,13 @@
         <v>778</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="98" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" s="98" customFormat="1" ht="17">
       <c r="A10" s="97"/>
       <c r="B10" s="99" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="221" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="221">
       <c r="A11" s="70" t="s">
         <v>254</v>
       </c>
@@ -12369,7 +12467,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="68">
       <c r="A12" s="70" t="s">
         <v>6</v>
       </c>
@@ -12377,7 +12475,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="71" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="71" customFormat="1" ht="68">
       <c r="A13" s="70" t="s">
         <v>70</v>
       </c>
@@ -12385,7 +12483,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="187">
       <c r="A14" s="70" t="s">
         <v>255</v>
       </c>
@@ -12393,7 +12491,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="51">
       <c r="A15" s="70" t="s">
         <v>150</v>
       </c>
@@ -12401,7 +12499,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="51">
       <c r="A16" s="70" t="s">
         <v>257</v>
       </c>
@@ -12409,7 +12507,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="17">
       <c r="A17" s="70" t="s">
         <v>82</v>
       </c>
@@ -12417,7 +12515,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="136">
       <c r="A18" s="70" t="s">
         <v>259</v>
       </c>
@@ -12425,7 +12523,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="71" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" s="71" customFormat="1" ht="85">
       <c r="A19" s="70" t="s">
         <v>260</v>
       </c>
@@ -12433,7 +12531,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="34">
       <c r="A20" s="70" t="s">
         <v>25</v>
       </c>
@@ -12441,7 +12539,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="17">
       <c r="A21" s="70" t="s">
         <v>27</v>
       </c>
@@ -12449,7 +12547,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="17">
       <c r="A22" s="70" t="s">
         <v>29</v>
       </c>
@@ -12457,7 +12555,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="34">
       <c r="A23" s="70" t="s">
         <v>265</v>
       </c>
@@ -12465,7 +12563,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="17">
       <c r="A24" s="70" t="s">
         <v>793</v>
       </c>
@@ -12473,7 +12571,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="34">
       <c r="A25" s="70" t="s">
         <v>267</v>
       </c>
@@ -12481,7 +12579,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="170">
       <c r="A26" s="70" t="s">
         <v>44</v>
       </c>
@@ -12489,7 +12587,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="238" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="238">
       <c r="A27" s="70" t="s">
         <v>268</v>
       </c>
@@ -12497,7 +12595,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="17">
       <c r="A28" s="70" t="s">
         <v>95</v>
       </c>
@@ -12505,7 +12603,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="71" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" s="71" customFormat="1" ht="272">
       <c r="A29" s="70" t="s">
         <v>270</v>
       </c>
@@ -12513,7 +12611,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="71" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" s="71" customFormat="1" ht="17">
       <c r="A30" s="70" t="s">
         <v>272</v>
       </c>
@@ -12521,7 +12619,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="71" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" s="71" customFormat="1" ht="34">
       <c r="A31" s="70" t="s">
         <v>802</v>
       </c>
@@ -12529,7 +12627,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="17">
       <c r="A32" s="70" t="s">
         <v>180</v>
       </c>
@@ -12537,7 +12635,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="170">
       <c r="A33" s="70" t="s">
         <v>274</v>
       </c>
@@ -12545,7 +12643,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="238" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="238">
       <c r="A34" s="70" t="s">
         <v>103</v>
       </c>
@@ -12553,7 +12651,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="34">
       <c r="A35" s="70" t="s">
         <v>438</v>
       </c>
@@ -12561,7 +12659,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="238" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="238">
       <c r="A36" s="70" t="s">
         <v>807</v>
       </c>
@@ -12569,7 +12667,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="170">
       <c r="A37" s="70" t="s">
         <v>809</v>
       </c>
@@ -12577,7 +12675,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="68">
       <c r="A38" s="70" t="s">
         <v>445</v>
       </c>
@@ -12585,7 +12683,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="34">
       <c r="A39" s="70" t="s">
         <v>695</v>
       </c>
@@ -12593,19 +12691,19 @@
         <v>812</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="170" t="s">
+    <row r="40" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1">
+      <c r="A40" s="179" t="s">
         <v>813</v>
       </c>
-      <c r="B40" s="172" t="s">
+      <c r="B40" s="181" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="171"/>
-      <c r="B41" s="172"/>
-    </row>
-    <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1">
+      <c r="A41" s="180"/>
+      <c r="B41" s="181"/>
+    </row>
+    <row r="42" spans="1:2" ht="34">
       <c r="A42" s="70" t="s">
         <v>815</v>
       </c>
@@ -12613,31 +12711,31 @@
         <v>816</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="170" t="s">
+    <row r="43" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1">
+      <c r="A43" s="179" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="172" t="s">
+      <c r="B43" s="181" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="71" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="171"/>
-      <c r="B44" s="172"/>
-    </row>
-    <row r="45" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="168" t="s">
+    <row r="44" spans="1:2" s="71" customFormat="1" ht="134" customHeight="1">
+      <c r="A44" s="180"/>
+      <c r="B44" s="181"/>
+    </row>
+    <row r="45" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1">
+      <c r="A45" s="177" t="s">
         <v>448</v>
       </c>
-      <c r="B45" s="172" t="s">
+      <c r="B45" s="181" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="71" customFormat="1" ht="284" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="173"/>
-      <c r="B46" s="172"/>
-    </row>
-    <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" s="71" customFormat="1" ht="284" customHeight="1">
+      <c r="A46" s="182"/>
+      <c r="B46" s="181"/>
+    </row>
+    <row r="47" spans="1:2" ht="17">
       <c r="A47" s="70" t="s">
         <v>817</v>
       </c>
@@ -12645,7 +12743,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" s="71" customFormat="1" ht="51">
       <c r="A48" s="70" t="s">
         <v>822</v>
       </c>
@@ -12653,7 +12751,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="34">
       <c r="A49" s="70" t="s">
         <v>758</v>
       </c>
@@ -12661,31 +12759,31 @@
         <v>821</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="71" customFormat="1" ht="212" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="170" t="s">
+    <row r="50" spans="1:2" s="71" customFormat="1" ht="212" customHeight="1">
+      <c r="A50" s="179" t="s">
         <v>824</v>
       </c>
-      <c r="B50" s="172" t="s">
+      <c r="B50" s="181" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="171"/>
-      <c r="B51" s="172"/>
-    </row>
-    <row r="52" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="170" t="s">
+    <row r="51" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1">
+      <c r="A51" s="180"/>
+      <c r="B51" s="181"/>
+    </row>
+    <row r="52" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1">
+      <c r="A52" s="179" t="s">
         <v>825</v>
       </c>
-      <c r="B52" s="172" t="s">
+      <c r="B52" s="181" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="71" customFormat="1" ht="242" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="171"/>
-      <c r="B53" s="172"/>
-    </row>
-    <row r="54" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" s="71" customFormat="1" ht="242" customHeight="1">
+      <c r="A53" s="180"/>
+      <c r="B53" s="181"/>
+    </row>
+    <row r="54" spans="1:2" ht="34">
       <c r="A54" s="70" t="s">
         <v>826</v>
       </c>
@@ -12693,7 +12791,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="356" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="356">
       <c r="A55" s="1" t="s">
         <v>827</v>
       </c>
@@ -12701,7 +12799,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="388" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="388">
       <c r="A56" s="6" t="s">
         <v>937</v>
       </c>
@@ -12709,7 +12807,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="17">
       <c r="A57" s="1" t="s">
         <v>958</v>
       </c>
@@ -12717,7 +12815,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="113" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" s="113" customFormat="1" ht="85">
       <c r="A58" s="1" t="s">
         <v>1017</v>
       </c>
@@ -12725,7 +12823,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="102">
       <c r="A59" s="1" t="s">
         <v>994</v>
       </c>
@@ -12733,7 +12831,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="68">
       <c r="A60" s="1" t="s">
         <v>1057</v>
       </c>
@@ -12741,7 +12839,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="61" spans="1:2" s="137" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" s="137" customFormat="1" ht="17">
       <c r="A61" s="1" t="s">
         <v>1051</v>
       </c>
@@ -12749,7 +12847,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="135" customFormat="1" ht="329" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" s="135" customFormat="1" ht="329" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>1112</v>
       </c>
@@ -12757,7 +12855,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="137" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" s="137" customFormat="1" ht="17">
       <c r="A63" s="1" t="s">
         <v>1077</v>
       </c>
@@ -12765,7 +12863,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="85">
       <c r="A64" s="1" t="s">
         <v>1106</v>
       </c>
@@ -12773,28 +12871,44 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="165" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" s="165" customFormat="1" ht="34">
       <c r="A65" s="1" t="s">
         <v>1121</v>
       </c>
       <c r="B65" s="166" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="170">
       <c r="A66" s="1" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="B66" s="166" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="119">
       <c r="A67" s="1" t="s">
         <v>1172</v>
       </c>
       <c r="B67" s="166" t="s">
-        <v>1217</v>
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="51">
+      <c r="A68" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B68" s="169" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="34">
+      <c r="A69" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B69" s="169" t="s">
+        <v>1228</v>
       </c>
     </row>
   </sheetData>
@@ -12819,20 +12933,20 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="132.5" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="71" customFormat="1">
       <c r="A1" s="70" t="s">
         <v>63</v>
       </c>
@@ -12843,7 +12957,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="71" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="71" customFormat="1" ht="34">
       <c r="A2" s="70" t="s">
         <v>109</v>
       </c>
@@ -12852,7 +12966,7 @@
       </c>
       <c r="C2" s="70"/>
     </row>
-    <row r="3" spans="1:15" s="74" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="74" customFormat="1" ht="136">
       <c r="A3" s="73" t="s">
         <v>62</v>
       </c>
@@ -12861,7 +12975,7 @@
       </c>
       <c r="C3" s="73"/>
     </row>
-    <row r="4" spans="1:15" s="74" customFormat="1" ht="372" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="74" customFormat="1" ht="372">
       <c r="A4" s="73" t="s">
         <v>114</v>
       </c>
@@ -12870,7 +12984,7 @@
       </c>
       <c r="C4" s="73"/>
     </row>
-    <row r="5" spans="1:15" s="74" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="74" customFormat="1" ht="34">
       <c r="A5" s="73" t="s">
         <v>117</v>
       </c>
@@ -12879,7 +12993,7 @@
       </c>
       <c r="C5" s="73"/>
     </row>
-    <row r="6" spans="1:15" s="74" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="74" customFormat="1" ht="102">
       <c r="A6" s="1" t="s">
         <v>318</v>
       </c>
@@ -12887,7 +13001,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="356" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="356">
       <c r="A7" s="73" t="s">
         <v>255</v>
       </c>
@@ -12895,7 +13009,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="74" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="74" customFormat="1" ht="119">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -12903,7 +13017,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="51">
       <c r="A9" s="73" t="s">
         <v>29</v>
       </c>
@@ -12911,7 +13025,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="74" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="74" customFormat="1" ht="85">
       <c r="A10" s="1" t="s">
         <v>335</v>
       </c>
@@ -12919,7 +13033,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="74" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="74" customFormat="1" ht="221">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -12927,7 +13041,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="74" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="74" customFormat="1" ht="68">
       <c r="A12" s="1" t="s">
         <v>730</v>
       </c>
@@ -12935,7 +13049,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="74" customFormat="1" ht="51">
       <c r="A13" s="1" t="s">
         <v>732</v>
       </c>
@@ -12943,7 +13057,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="51">
       <c r="A14" s="77" t="s">
         <v>232</v>
       </c>
@@ -12964,7 +13078,7 @@
       <c r="N14" s="78"/>
       <c r="O14" s="78"/>
     </row>
-    <row r="15" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="34">
       <c r="A15" s="77" t="s">
         <v>165</v>
       </c>
@@ -12985,7 +13099,7 @@
       <c r="N15" s="78"/>
       <c r="O15" s="78"/>
     </row>
-    <row r="16" spans="1:15" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="74" customFormat="1" ht="51">
       <c r="A16" s="1" t="s">
         <v>268</v>
       </c>
@@ -12993,7 +13107,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" s="74" customFormat="1" ht="51">
       <c r="A17" s="1" t="s">
         <v>737</v>
       </c>
@@ -13001,7 +13115,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="74" customFormat="1" ht="51">
       <c r="A18" s="1" t="s">
         <v>739</v>
       </c>
@@ -13009,7 +13123,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" s="74" customFormat="1" ht="51">
       <c r="A19" s="1" t="s">
         <v>741</v>
       </c>
@@ -13017,7 +13131,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="74" customFormat="1" ht="51">
       <c r="A20" s="1" t="s">
         <v>667</v>
       </c>
@@ -13025,7 +13139,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="74" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="74" customFormat="1" ht="102">
       <c r="A21" s="1" t="s">
         <v>663</v>
       </c>
@@ -13033,7 +13147,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="74" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="74" customFormat="1" ht="204">
       <c r="A22" s="1" t="s">
         <v>670</v>
       </c>
@@ -13041,7 +13155,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="74" customFormat="1" ht="51">
       <c r="A23" s="1" t="s">
         <v>171</v>
       </c>
@@ -13049,7 +13163,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" s="74" customFormat="1" ht="51">
       <c r="A24" s="1" t="s">
         <v>103</v>
       </c>
@@ -13057,7 +13171,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" s="74" customFormat="1" ht="51">
       <c r="A25" s="1" t="s">
         <v>749</v>
       </c>
@@ -13065,7 +13179,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="74" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" s="74" customFormat="1" ht="102">
       <c r="A26" s="1" t="s">
         <v>751</v>
       </c>
@@ -13074,7 +13188,7 @@
       </c>
       <c r="D26" s="75"/>
     </row>
-    <row r="27" spans="1:4" s="74" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" s="74" customFormat="1" ht="119">
       <c r="A27" s="1" t="s">
         <v>753</v>
       </c>
@@ -13082,7 +13196,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" s="74" customFormat="1" ht="51">
       <c r="A28" s="1" t="s">
         <v>755</v>
       </c>
@@ -13090,7 +13204,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="74" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" s="74" customFormat="1" ht="51">
       <c r="A29" s="1" t="s">
         <v>121</v>
       </c>
@@ -13098,7 +13212,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="74" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" s="74" customFormat="1" ht="68">
       <c r="A30" s="1" t="s">
         <v>758</v>
       </c>
@@ -13106,7 +13220,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="74" customFormat="1" ht="340" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" s="74" customFormat="1" ht="340">
       <c r="A31" s="1" t="s">
         <v>825</v>
       </c>
@@ -13114,7 +13228,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="102">
       <c r="A32" s="1" t="s">
         <v>942</v>
       </c>
@@ -13122,7 +13236,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="34">
       <c r="A33" s="1" t="s">
         <v>958</v>
       </c>
@@ -13130,7 +13244,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="108" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" s="108" customFormat="1" ht="34">
       <c r="A34" s="1" t="s">
         <v>990</v>
       </c>
@@ -13138,7 +13252,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="204" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="204">
       <c r="A35" s="1" t="s">
         <v>963</v>
       </c>
@@ -13146,7 +13260,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="102">
       <c r="A36" s="1" t="s">
         <v>1014</v>
       </c>
@@ -13154,7 +13268,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="141" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" s="141" customFormat="1" ht="68">
       <c r="A37" s="1" t="s">
         <v>1140</v>
       </c>
@@ -13162,7 +13276,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="141" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" s="141" customFormat="1" ht="68">
       <c r="A38" s="1" t="s">
         <v>1138</v>
       </c>
@@ -13170,7 +13284,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="141" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" s="141" customFormat="1" ht="119">
       <c r="A39" s="1" t="s">
         <v>1037</v>
       </c>
@@ -13178,7 +13292,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="255">
       <c r="A40" s="1" t="s">
         <v>1051</v>
       </c>
@@ -13186,7 +13300,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="141" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" s="141" customFormat="1" ht="221">
       <c r="A41" s="1" t="s">
         <v>1134</v>
       </c>
@@ -13194,7 +13308,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="34">
       <c r="A42" s="1" t="s">
         <v>1072</v>
       </c>
@@ -13202,7 +13316,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="141" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" s="141" customFormat="1" ht="306">
       <c r="A43" s="1" t="s">
         <v>1132</v>
       </c>
@@ -13210,7 +13324,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="141" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" s="141" customFormat="1" ht="119">
       <c r="A44" s="1" t="s">
         <v>1130</v>
       </c>
@@ -13218,7 +13332,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="17">
       <c r="A45" s="1" t="s">
         <v>1084</v>
       </c>
@@ -13226,7 +13340,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="119">
       <c r="A46" s="1" t="s">
         <v>1125</v>
       </c>
@@ -13234,7 +13348,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="141" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" s="141" customFormat="1" ht="17">
       <c r="A47" s="1" t="s">
         <v>1121</v>
       </c>
@@ -13242,13 +13356,16 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="34">
       <c r="A48" s="1" t="s">
         <v>1127</v>
       </c>
       <c r="B48" s="142" t="s">
         <v>1128</v>
       </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="169"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13260,19 +13377,19 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="119.6640625" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="80" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="80" customFormat="1">
       <c r="A1" s="79" t="s">
         <v>63</v>
       </c>
@@ -13283,7 +13400,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="119">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -13291,7 +13408,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="85">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -13299,7 +13416,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="82" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="82" customFormat="1" ht="102">
       <c r="A4" s="82" t="s">
         <v>117</v>
       </c>
@@ -13307,7 +13424,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="34">
       <c r="A5" t="s">
         <v>764</v>
       </c>
@@ -13315,7 +13432,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="404" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="404">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -13323,7 +13440,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="340" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="340">
       <c r="A7" t="s">
         <v>202</v>
       </c>
@@ -13331,7 +13448,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="221" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="221">
       <c r="A8" t="s">
         <v>472</v>
       </c>
@@ -13339,7 +13456,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="82" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" s="82" customFormat="1" ht="34">
       <c r="A9" s="82" t="s">
         <v>870</v>
       </c>
@@ -13347,7 +13464,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="34">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -13355,7 +13472,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="34">
       <c r="A11" t="s">
         <v>770</v>
       </c>
@@ -13363,7 +13480,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="89" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" s="89" customFormat="1" ht="34">
       <c r="A12" s="89" t="s">
         <v>44</v>
       </c>
@@ -13371,7 +13488,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="84" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="84" customFormat="1" ht="34">
       <c r="A13" s="84" t="s">
         <v>880</v>
       </c>
@@ -13379,7 +13496,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" s="84" customFormat="1" ht="17">
       <c r="A14" s="84" t="s">
         <v>95</v>
       </c>
@@ -13387,7 +13504,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" s="84" customFormat="1" ht="17">
       <c r="A15" s="84" t="s">
         <v>272</v>
       </c>
@@ -13395,7 +13512,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="82" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" s="82" customFormat="1" ht="85">
       <c r="A16" s="82" t="s">
         <v>103</v>
       </c>
@@ -13403,7 +13520,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="340" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="340">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -13411,7 +13528,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="84" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" s="84" customFormat="1" ht="170">
       <c r="A18" s="84" t="s">
         <v>438</v>
       </c>
@@ -13419,7 +13536,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="84" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" s="84" customFormat="1" ht="102">
       <c r="A19" s="84" t="s">
         <v>50</v>
       </c>
@@ -13427,7 +13544,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="84" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" s="84" customFormat="1" ht="221">
       <c r="A20" s="84" t="s">
         <v>876</v>
       </c>
@@ -13435,7 +13552,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="84" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" s="84" customFormat="1" ht="153">
       <c r="A21" s="84" t="s">
         <v>518</v>
       </c>
@@ -13443,7 +13560,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" s="84" customFormat="1" ht="17">
       <c r="A22" s="84" t="s">
         <v>348</v>
       </c>
@@ -13451,7 +13568,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="84" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" s="84" customFormat="1" ht="17">
       <c r="A23" s="84" t="s">
         <v>55</v>
       </c>
@@ -13459,7 +13576,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="51">
       <c r="A24" t="s">
         <v>886</v>
       </c>
@@ -13467,7 +13584,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="17">
       <c r="A25" t="s">
         <v>872</v>
       </c>
@@ -13475,7 +13592,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="34">
       <c r="A26" t="s">
         <v>604</v>
       </c>
@@ -13483,7 +13600,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="255">
       <c r="A27" t="s">
         <v>887</v>
       </c>
@@ -13491,7 +13608,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="221" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="221">
       <c r="A28" t="s">
         <v>944</v>
       </c>
@@ -13499,7 +13616,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="17">
       <c r="A29" t="s">
         <v>985</v>
       </c>
@@ -13507,7 +13624,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="113" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" s="113" customFormat="1" ht="34">
       <c r="A30" s="113" t="s">
         <v>1034</v>
       </c>
@@ -13515,7 +13632,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="34">
       <c r="A31" t="s">
         <v>1008</v>
       </c>
@@ -13523,7 +13640,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="170">
       <c r="A32" t="s">
         <v>1055</v>
       </c>
@@ -13531,7 +13648,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="139" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" s="139" customFormat="1" ht="34">
       <c r="A33" s="139" t="s">
         <v>1117</v>
       </c>
@@ -13539,7 +13656,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="153">
       <c r="A34" t="s">
         <v>1072</v>
       </c>
@@ -13547,7 +13664,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="34">
       <c r="A35" t="s">
         <v>274</v>
       </c>
@@ -13555,7 +13672,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="102">
       <c r="A36" t="s">
         <v>1121</v>
       </c>
@@ -13563,12 +13680,20 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="102">
       <c r="A37" t="s">
         <v>1127</v>
       </c>
       <c r="B37" s="166" t="s">
-        <v>1218</v>
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="51">
+      <c r="A38" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B38" s="169" t="s">
+        <v>1229</v>
       </c>
     </row>
   </sheetData>
@@ -13581,19 +13706,19 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="118.1640625" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="71" customFormat="1">
       <c r="A1" s="70" t="s">
         <v>63</v>
       </c>
@@ -13604,7 +13729,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="71" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="71" customFormat="1" ht="136">
       <c r="A2" s="70" t="s">
         <v>109</v>
       </c>
@@ -13613,7 +13738,7 @@
       </c>
       <c r="C2" s="70"/>
     </row>
-    <row r="3" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="204">
       <c r="A3" s="1" t="s">
         <v>254</v>
       </c>
@@ -13621,7 +13746,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="119">
       <c r="A4" s="1" t="s">
         <v>318</v>
       </c>
@@ -13629,7 +13754,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="255" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="255">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
@@ -13637,7 +13762,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="34">
       <c r="A6" s="1" t="s">
         <v>255</v>
       </c>
@@ -13645,7 +13770,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="119" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>258</v>
       </c>
@@ -13653,7 +13778,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="34">
       <c r="A8" s="1" t="s">
         <v>259</v>
       </c>
@@ -13661,7 +13786,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="34">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -13669,7 +13794,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="89" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" s="89" customFormat="1" ht="34">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -13677,7 +13802,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="306" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="306">
       <c r="A11" s="1" t="s">
         <v>503</v>
       </c>
@@ -13685,7 +13810,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="89" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" s="89" customFormat="1" ht="17">
       <c r="A12" s="1" t="s">
         <v>95</v>
       </c>
@@ -13693,7 +13818,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="89" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="89" customFormat="1" ht="17">
       <c r="A13" s="1" t="s">
         <v>272</v>
       </c>
@@ -13701,7 +13826,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="284" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="284" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>876</v>
       </c>
@@ -13709,7 +13834,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="136">
       <c r="A15" s="1" t="s">
         <v>931</v>
       </c>
@@ -13717,7 +13842,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="119">
       <c r="A16" s="1" t="s">
         <v>933</v>
       </c>
@@ -13725,7 +13850,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="93" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" s="93" customFormat="1" ht="17">
       <c r="A17" s="1" t="s">
         <v>891</v>
       </c>
@@ -13733,7 +13858,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="255">
       <c r="A18" s="1" t="s">
         <v>934</v>
       </c>
@@ -13741,7 +13866,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="51">
       <c r="A19" s="1" t="s">
         <v>958</v>
       </c>
@@ -13749,7 +13874,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="108" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" s="108" customFormat="1" ht="51">
       <c r="A20" s="1" t="s">
         <v>1017</v>
       </c>
@@ -13757,7 +13882,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="117" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" s="117" customFormat="1" ht="34">
       <c r="A21" s="1" t="s">
         <v>1001</v>
       </c>
@@ -13765,7 +13890,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="105" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" s="105" customFormat="1" ht="34">
       <c r="A22" s="1" t="s">
         <v>994</v>
       </c>
@@ -13773,7 +13898,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="34">
       <c r="A23" s="1" t="s">
         <v>1047</v>
       </c>
@@ -13781,7 +13906,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="272" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="272">
       <c r="A24" s="1" t="s">
         <v>1060</v>
       </c>
@@ -13789,7 +13914,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="143" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" s="143" customFormat="1" ht="34">
       <c r="A25" s="1" t="s">
         <v>1053</v>
       </c>
@@ -13797,7 +13922,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="143" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" s="143" customFormat="1" ht="34">
       <c r="A26" s="1" t="s">
         <v>1117</v>
       </c>
@@ -13805,7 +13930,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="143" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" s="143" customFormat="1" ht="34">
       <c r="A27" s="1" t="s">
         <v>1072</v>
       </c>
@@ -13813,7 +13938,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="143" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" s="143" customFormat="1" ht="272">
       <c r="A28" s="1" t="s">
         <v>1079</v>
       </c>
@@ -13821,7 +13946,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="143" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" s="143" customFormat="1" ht="255">
       <c r="A29" s="1" t="s">
         <v>1084</v>
       </c>
@@ -13829,7 +13954,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="136">
       <c r="A30" s="1" t="s">
         <v>1142</v>
       </c>
@@ -13837,7 +13962,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="68">
       <c r="A31" s="1" t="s">
         <v>1121</v>
       </c>
@@ -13845,20 +13970,36 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="153">
       <c r="A32" s="1" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="B32" s="166" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="170" customFormat="1" ht="34">
       <c r="A33" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B33" s="166" t="s">
-        <v>1220</v>
+        <v>1234</v>
+      </c>
+      <c r="B33" s="171" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="85">
+      <c r="A34" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B34" s="166" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="68">
+      <c r="A35" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B35" s="169" t="s">
+        <v>1231</v>
       </c>
     </row>
   </sheetData>
@@ -13877,7 +14018,7 @@
       <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="188.6640625" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
@@ -13885,7 +14026,7 @@
     <col min="15" max="15" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
@@ -13896,7 +14037,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="62" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="62" customFormat="1" ht="119">
       <c r="A2" s="61" t="s">
         <v>109</v>
       </c>
@@ -13905,7 +14046,7 @@
       </c>
       <c r="C2" s="61"/>
     </row>
-    <row r="3" spans="1:15" s="62" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="62" customFormat="1" ht="119">
       <c r="A3" s="61" t="s">
         <v>62</v>
       </c>
@@ -13914,7 +14055,7 @@
       </c>
       <c r="C3" s="61"/>
     </row>
-    <row r="4" spans="1:15" s="62" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="62" customFormat="1" ht="102">
       <c r="A4" s="61" t="s">
         <v>111</v>
       </c>
@@ -13923,7 +14064,7 @@
       </c>
       <c r="C4" s="61"/>
     </row>
-    <row r="5" spans="1:15" s="62" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="62" customFormat="1" ht="272">
       <c r="A5" s="61" t="s">
         <v>114</v>
       </c>
@@ -13932,7 +14073,7 @@
       </c>
       <c r="C5" s="61"/>
     </row>
-    <row r="6" spans="1:15" s="64" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="64" customFormat="1" ht="51">
       <c r="A6" s="63" t="s">
         <v>117</v>
       </c>
@@ -13941,7 +14082,7 @@
       </c>
       <c r="C6" s="63"/>
     </row>
-    <row r="7" spans="1:15" s="64" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="64" customFormat="1" ht="51">
       <c r="A7" s="63" t="s">
         <v>764</v>
       </c>
@@ -13950,7 +14091,7 @@
       </c>
       <c r="C7" s="63"/>
     </row>
-    <row r="8" spans="1:15" ht="221" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="221">
       <c r="A8" s="1" t="s">
         <v>254</v>
       </c>
@@ -13958,7 +14099,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="64" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="64" customFormat="1" ht="153">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -13966,7 +14107,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="76" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="76">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -13977,7 +14118,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="102">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -13985,7 +14126,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="64" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="64" customFormat="1" ht="102">
       <c r="A12" s="1" t="s">
         <v>318</v>
       </c>
@@ -13993,7 +14134,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="119" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="119">
       <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
@@ -14001,27 +14142,27 @@
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="174" t="s">
+    <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1">
+      <c r="A14" s="183" t="s">
         <v>255</v>
       </c>
-      <c r="B14" s="172" t="s">
+      <c r="B14" s="181" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="64" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="175"/>
-      <c r="B15" s="172"/>
-    </row>
-    <row r="16" spans="1:15" s="64" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="175"/>
-      <c r="B16" s="172"/>
-    </row>
-    <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="175"/>
-      <c r="B17" s="172"/>
-    </row>
-    <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="64" customFormat="1" ht="71" customHeight="1">
+      <c r="A15" s="184"/>
+      <c r="B15" s="181"/>
+    </row>
+    <row r="16" spans="1:15" s="64" customFormat="1" ht="95" customHeight="1">
+      <c r="A16" s="184"/>
+      <c r="B16" s="181"/>
+    </row>
+    <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1">
+      <c r="A17" s="184"/>
+      <c r="B17" s="181"/>
+    </row>
+    <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1">
       <c r="A18" s="69" t="s">
         <v>202</v>
       </c>
@@ -14029,7 +14170,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="51">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -14037,7 +14178,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="102">
       <c r="A20" t="s">
         <v>150</v>
       </c>
@@ -14045,7 +14186,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="85">
       <c r="A21" t="s">
         <v>257</v>
       </c>
@@ -14053,7 +14194,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="64" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" s="64" customFormat="1" ht="102">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -14061,7 +14202,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="64" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" s="64" customFormat="1" ht="136">
       <c r="A23" s="1" t="s">
         <v>472</v>
       </c>
@@ -14069,7 +14210,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="221" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="221">
       <c r="A24" t="s">
         <v>258</v>
       </c>
@@ -14077,7 +14218,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="68">
       <c r="A25" t="s">
         <v>259</v>
       </c>
@@ -14085,7 +14226,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="119">
       <c r="A26" t="s">
         <v>260</v>
       </c>
@@ -14093,7 +14234,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="51">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -14101,7 +14242,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="34">
       <c r="A28" t="s">
         <v>261</v>
       </c>
@@ -14109,7 +14250,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="102">
       <c r="A29" t="s">
         <v>262</v>
       </c>
@@ -14117,7 +14258,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="64" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" s="64" customFormat="1" ht="85">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -14125,7 +14266,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="51">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -14133,7 +14274,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="51">
       <c r="A32" t="s">
         <v>263</v>
       </c>
@@ -14141,7 +14282,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="34">
       <c r="A33" t="s">
         <v>264</v>
       </c>
@@ -14149,7 +14290,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="34">
       <c r="A34" t="s">
         <v>156</v>
       </c>
@@ -14157,7 +14298,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="102">
       <c r="A35" t="s">
         <v>265</v>
       </c>
@@ -14165,7 +14306,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="64" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" s="64" customFormat="1" ht="85">
       <c r="A36" s="1" t="s">
         <v>335</v>
       </c>
@@ -14173,7 +14314,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="64" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" s="64" customFormat="1" ht="170">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -14181,7 +14322,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="68">
       <c r="A38" t="s">
         <v>230</v>
       </c>
@@ -14189,7 +14330,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="64" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" s="64" customFormat="1" ht="68">
       <c r="A39" s="1" t="s">
         <v>730</v>
       </c>
@@ -14197,7 +14338,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" s="64" customFormat="1" ht="34">
       <c r="A40" s="1" t="s">
         <v>732</v>
       </c>
@@ -14205,7 +14346,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="68">
       <c r="A41" t="s">
         <v>266</v>
       </c>
@@ -14213,7 +14354,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="51">
       <c r="A42" t="s">
         <v>267</v>
       </c>
@@ -14221,7 +14362,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" s="64" customFormat="1" ht="34">
       <c r="A43" s="1" t="s">
         <v>232</v>
       </c>
@@ -14229,7 +14370,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" s="64" customFormat="1" ht="34">
       <c r="A44" s="1" t="s">
         <v>165</v>
       </c>
@@ -14237,7 +14378,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="64" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" s="64" customFormat="1" ht="51">
       <c r="A45" s="1" t="s">
         <v>770</v>
       </c>
@@ -14245,7 +14386,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" s="64" customFormat="1" ht="34">
       <c r="A46" s="1" t="s">
         <v>268</v>
       </c>
@@ -14253,7 +14394,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="187">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -14261,7 +14402,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="153">
       <c r="A48" t="s">
         <v>268</v>
       </c>
@@ -14269,7 +14410,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="51">
       <c r="A49" t="s">
         <v>269</v>
       </c>
@@ -14277,7 +14418,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" s="64" customFormat="1" ht="34">
       <c r="A50" s="1" t="s">
         <v>737</v>
       </c>
@@ -14285,7 +14426,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" s="64" customFormat="1" ht="34">
       <c r="A51" s="1" t="s">
         <v>739</v>
       </c>
@@ -14293,7 +14434,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" s="64" customFormat="1" ht="34">
       <c r="A52" s="1" t="s">
         <v>741</v>
       </c>
@@ -14301,7 +14442,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="51">
       <c r="A53" t="s">
         <v>236</v>
       </c>
@@ -14309,7 +14450,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" s="16" customFormat="1" ht="51">
       <c r="A54" s="16" t="s">
         <v>238</v>
       </c>
@@ -14317,7 +14458,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="409.6">
       <c r="A55" t="s">
         <v>270</v>
       </c>
@@ -14325,7 +14466,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" s="64" customFormat="1" ht="34">
       <c r="A56" s="64" t="s">
         <v>667</v>
       </c>
@@ -14333,7 +14474,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="85">
       <c r="A57" t="s">
         <v>272</v>
       </c>
@@ -14341,7 +14482,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="64" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" s="64" customFormat="1" ht="81" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>663</v>
       </c>
@@ -14349,7 +14490,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="85">
       <c r="A59" t="s">
         <v>271</v>
       </c>
@@ -14357,7 +14498,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="51">
       <c r="A60" t="s">
         <v>180</v>
       </c>
@@ -14365,7 +14506,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="51">
       <c r="A61" t="s">
         <v>273</v>
       </c>
@@ -14373,7 +14514,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="64" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" s="64" customFormat="1" ht="153">
       <c r="A62" s="64" t="s">
         <v>670</v>
       </c>
@@ -14381,7 +14522,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="64" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" s="64" customFormat="1" ht="51">
       <c r="A63" s="1" t="s">
         <v>171</v>
       </c>
@@ -14389,7 +14530,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="68">
       <c r="A64" t="s">
         <v>274</v>
       </c>
@@ -14397,7 +14538,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="64" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" s="64" customFormat="1" ht="34">
       <c r="A65" s="1" t="s">
         <v>242</v>
       </c>
@@ -14405,7 +14546,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="51">
       <c r="A66" s="1" t="s">
         <v>103</v>
       </c>
@@ -14413,7 +14554,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="34">
       <c r="A67" s="1" t="s">
         <v>749</v>
       </c>
@@ -14421,7 +14562,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="85">
       <c r="A68" s="1" t="s">
         <v>751</v>
       </c>
@@ -14432,7 +14573,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="85">
       <c r="A69" s="1" t="s">
         <v>753</v>
       </c>
@@ -14440,7 +14581,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="51">
       <c r="A70" s="1" t="s">
         <v>755</v>
       </c>
@@ -14448,7 +14589,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="34">
       <c r="A71" s="1" t="s">
         <v>121</v>
       </c>
@@ -14456,7 +14597,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="51">
       <c r="A72" s="1" t="s">
         <v>758</v>
       </c>
@@ -14464,7 +14605,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="238" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="238">
       <c r="A73" s="1" t="s">
         <v>509</v>
       </c>
@@ -14492,14 +14633,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>308</v>
       </c>
@@ -14516,18 +14657,18 @@
   </sheetPr>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="139.83203125" customWidth="1"/>
     <col min="3" max="3" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
@@ -14538,7 +14679,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="34">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -14546,7 +14687,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
@@ -14554,7 +14695,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="34">
       <c r="A4" s="1" t="s">
         <v>114</v>
       </c>
@@ -14562,7 +14703,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="187">
       <c r="A5" s="6" t="s">
         <v>110</v>
       </c>
@@ -14570,7 +14711,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A6" s="24" t="s">
         <v>117</v>
       </c>
@@ -14578,7 +14719,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="16" customFormat="1" ht="51">
       <c r="A7" s="24" t="s">
         <v>119</v>
       </c>
@@ -14586,7 +14727,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="136">
       <c r="A8" s="6" t="s">
         <v>124</v>
       </c>
@@ -14594,7 +14735,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="51">
       <c r="A9" s="6" t="s">
         <v>126</v>
       </c>
@@ -14602,7 +14743,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="122" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="122" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
@@ -14613,7 +14754,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="119">
       <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
@@ -14624,7 +14765,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="17">
       <c r="A12" s="6" t="s">
         <v>143</v>
       </c>
@@ -14633,7 +14774,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" s="16" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="16" customFormat="1" ht="216" customHeight="1">
       <c r="A13" s="24" t="s">
         <v>132</v>
       </c>
@@ -14644,7 +14785,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="34">
       <c r="A14" s="13" t="s">
         <v>150</v>
       </c>
@@ -14653,7 +14794,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="102">
       <c r="A15" s="6" t="s">
         <v>136</v>
       </c>
@@ -14664,7 +14805,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="17">
       <c r="A16" s="13" t="s">
         <v>144</v>
       </c>
@@ -14673,7 +14814,7 @@
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="119">
       <c r="A17" s="6" t="s">
         <v>140</v>
       </c>
@@ -14684,7 +14825,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="17">
       <c r="A18" s="13" t="s">
         <v>148</v>
       </c>
@@ -14693,7 +14834,7 @@
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="51">
       <c r="A19" s="13" t="s">
         <v>147</v>
       </c>
@@ -14702,7 +14843,7 @@
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="34">
       <c r="A20" s="13" t="s">
         <v>159</v>
       </c>
@@ -14711,7 +14852,7 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" s="16" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" s="16" customFormat="1" ht="102">
       <c r="A21" s="24" t="s">
         <v>29</v>
       </c>
@@ -14722,7 +14863,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="34">
       <c r="A22" s="13" t="s">
         <v>154</v>
       </c>
@@ -14731,7 +14872,7 @@
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="68">
       <c r="A23" s="13" t="s">
         <v>30</v>
       </c>
@@ -14740,7 +14881,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="68">
       <c r="A24" s="13" t="s">
         <v>156</v>
       </c>
@@ -14749,7 +14890,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" s="16" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="16" customFormat="1" ht="409.6">
       <c r="A25" s="26" t="s">
         <v>152</v>
       </c>
@@ -14758,7 +14899,7 @@
       </c>
       <c r="C25" s="28"/>
     </row>
-    <row r="26" spans="1:3" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="409" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>162</v>
       </c>
@@ -14767,7 +14908,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" ht="272" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="255">
       <c r="A27" s="6" t="s">
         <v>164</v>
       </c>
@@ -14776,7 +14917,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="102">
       <c r="A28" s="6" t="s">
         <v>165</v>
       </c>
@@ -14787,7 +14928,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="112" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>168</v>
       </c>
@@ -14798,7 +14939,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="238" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="238">
       <c r="A30" s="6" t="s">
         <v>171</v>
       </c>
@@ -14809,7 +14950,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="255" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="255">
       <c r="A31" s="6" t="s">
         <v>50</v>
       </c>
@@ -14818,7 +14959,7 @@
       </c>
       <c r="C31" s="19"/>
     </row>
-    <row r="32" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="119">
       <c r="A32" s="6" t="s">
         <v>205</v>
       </c>
@@ -14827,7 +14968,7 @@
       </c>
       <c r="C32" s="19"/>
     </row>
-    <row r="33" spans="1:3" ht="249" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="249" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>121</v>
       </c>
@@ -14836,7 +14977,7 @@
       </c>
       <c r="C33" s="19"/>
     </row>
-    <row r="34" spans="1:3" ht="255" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="255">
       <c r="A34" s="6" t="s">
         <v>128</v>
       </c>
@@ -14844,7 +14985,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="16" customFormat="1" ht="51">
       <c r="A35" s="24" t="s">
         <v>208</v>
       </c>
@@ -14853,7 +14994,7 @@
       </c>
       <c r="C35" s="28"/>
     </row>
-    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="34">
       <c r="A36" s="1" t="s">
         <v>602</v>
       </c>
@@ -14862,7 +15003,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="68">
       <c r="A37" s="1" t="s">
         <v>604</v>
       </c>
@@ -14870,7 +15011,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="238" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="238">
       <c r="A38" s="1" t="s">
         <v>893</v>
       </c>
@@ -14878,7 +15019,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="95" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" s="95" customFormat="1" ht="17">
       <c r="A39" s="1" t="s">
         <v>827</v>
       </c>
@@ -14886,7 +15027,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="89" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="89" customFormat="1" ht="409" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>918</v>
       </c>
@@ -14894,7 +15035,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="95" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" s="95" customFormat="1" ht="204">
       <c r="A41" s="1" t="s">
         <v>949</v>
       </c>
@@ -14902,7 +15043,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="101" customFormat="1" ht="34">
       <c r="A42" s="1" t="s">
         <v>960</v>
       </c>
@@ -14910,7 +15051,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="101" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" s="101" customFormat="1" ht="102">
       <c r="A43" s="1" t="s">
         <v>962</v>
       </c>
@@ -14918,7 +15059,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="136">
       <c r="A44" s="1" t="s">
         <v>958</v>
       </c>
@@ -14929,7 +15070,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="221" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="221">
       <c r="A45" s="1" t="s">
         <v>1014</v>
       </c>
@@ -14937,7 +15078,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="85">
       <c r="A46" s="1" t="s">
         <v>1036</v>
       </c>
@@ -14945,7 +15086,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="34">
       <c r="A47" s="1" t="s">
         <v>1037</v>
       </c>
@@ -14953,7 +15094,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="204">
       <c r="A48" s="1" t="s">
         <v>1051</v>
       </c>
@@ -14961,15 +15102,15 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="165" customFormat="1" ht="323" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" s="165" customFormat="1" ht="323">
       <c r="A49" s="1" t="s">
         <v>1117</v>
       </c>
       <c r="B49" s="166" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="34">
       <c r="A50" s="1" t="s">
         <v>1086</v>
       </c>
@@ -14977,36 +15118,36 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="165" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" s="165" customFormat="1" ht="187">
       <c r="A51" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B51" s="166" t="s">
         <v>1195</v>
       </c>
-      <c r="B51" s="166" t="s">
+    </row>
+    <row r="52" spans="1:2" s="165" customFormat="1" ht="238">
+      <c r="A52" s="1" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" s="165" customFormat="1" ht="238" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="166" t="s">
         <v>1197</v>
       </c>
-      <c r="B52" s="166" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="165" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:2" s="165" customFormat="1" ht="34">
       <c r="A53" s="1" t="s">
         <v>1170</v>
       </c>
       <c r="B53" s="166" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="68">
       <c r="A54" s="1" t="s">
         <v>1193</v>
       </c>
       <c r="B54" s="166" t="s">
-        <v>1194</v>
+        <v>1232</v>
       </c>
     </row>
   </sheetData>
@@ -15022,18 +15163,18 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="128.83203125" customWidth="1"/>
     <col min="3" max="3" width="61.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
@@ -15044,7 +15185,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="51">
       <c r="A2" s="38" t="s">
         <v>56</v>
       </c>
@@ -15053,7 +15194,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" s="16" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="16" customFormat="1" ht="187">
       <c r="A3" s="49" t="s">
         <v>62</v>
       </c>
@@ -15062,7 +15203,7 @@
       </c>
       <c r="C3" s="36"/>
     </row>
-    <row r="4" spans="1:3" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="16" customFormat="1" ht="17">
       <c r="A4" s="49" t="s">
         <v>117</v>
       </c>
@@ -15071,7 +15212,7 @@
       </c>
       <c r="C4" s="36"/>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="34">
       <c r="A5" s="1" t="s">
         <v>97</v>
       </c>
@@ -15079,7 +15220,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="51">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -15087,7 +15228,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="34">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
@@ -15095,7 +15236,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="51">
       <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
@@ -15103,7 +15244,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="136">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -15111,7 +15252,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="34">
       <c r="A10" s="1" t="s">
         <v>611</v>
       </c>
@@ -15119,7 +15260,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="51">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -15127,7 +15268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="34">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -15135,7 +15276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="34">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -15143,7 +15284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="34">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -15151,7 +15292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="16" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" s="16" customFormat="1" ht="136">
       <c r="A15" s="17" t="s">
         <v>7</v>
       </c>
@@ -15159,7 +15300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="68">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -15167,7 +15308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="16" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" s="16" customFormat="1" ht="136">
       <c r="A17" s="36" t="s">
         <v>14</v>
       </c>
@@ -15175,7 +15316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="102">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
@@ -15183,7 +15324,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="68">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -15191,7 +15332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="34">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -15199,7 +15340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="51">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -15207,7 +15348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="170">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
@@ -15215,7 +15356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="34">
       <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
@@ -15223,7 +15364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="51">
       <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
@@ -15231,7 +15372,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="16" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="16" customFormat="1" ht="153">
       <c r="A25" s="36" t="s">
         <v>29</v>
       </c>
@@ -15240,7 +15381,7 @@
       </c>
       <c r="C25" s="28"/>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="34">
       <c r="A26" s="6" t="s">
         <v>30</v>
       </c>
@@ -15249,7 +15390,7 @@
       </c>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="51">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -15257,7 +15398,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="301" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="301" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>36</v>
       </c>
@@ -15265,7 +15406,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="85">
       <c r="A29" s="6" t="s">
         <v>40</v>
       </c>
@@ -15273,7 +15414,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="34">
       <c r="A30" s="6" t="s">
         <v>41</v>
       </c>
@@ -15281,7 +15422,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="34">
       <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
@@ -15289,7 +15430,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="34">
       <c r="A32" s="6" t="s">
         <v>38</v>
       </c>
@@ -15297,7 +15438,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="306" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="306">
       <c r="A33" s="6" t="s">
         <v>44</v>
       </c>
@@ -15306,7 +15447,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" s="16" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" s="16" customFormat="1" ht="255">
       <c r="A34" s="123" t="s">
         <v>46</v>
       </c>
@@ -15317,7 +15458,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="16" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="16" customFormat="1" ht="238">
       <c r="A35" s="24" t="s">
         <v>48</v>
       </c>
@@ -15328,7 +15469,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="16" customFormat="1" ht="68">
       <c r="A36" s="24" t="s">
         <v>103</v>
       </c>
@@ -15336,7 +15477,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="204">
       <c r="A37" s="6" t="s">
         <v>678</v>
       </c>
@@ -15344,7 +15485,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="102">
       <c r="A38" s="6" t="s">
         <v>52</v>
       </c>
@@ -15352,7 +15493,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="170">
       <c r="A39" s="6" t="s">
         <v>105</v>
       </c>
@@ -15360,7 +15501,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A40" s="24" t="s">
         <v>55</v>
       </c>
@@ -15368,7 +15509,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="85">
       <c r="A41" s="6" t="s">
         <v>104</v>
       </c>
@@ -15376,7 +15517,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="340" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="340">
       <c r="A42" s="6" t="s">
         <v>622</v>
       </c>
@@ -15387,7 +15528,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="356" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="356">
       <c r="A43" s="6" t="s">
         <v>827</v>
       </c>
@@ -15396,7 +15537,7 @@
       </c>
       <c r="C43" s="46"/>
     </row>
-    <row r="44" spans="1:3" ht="388" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="388">
       <c r="A44" s="6" t="s">
         <v>921</v>
       </c>
@@ -15404,7 +15545,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" s="101" customFormat="1" ht="34">
       <c r="A45" s="6" t="s">
         <v>958</v>
       </c>
@@ -15412,7 +15553,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="68">
       <c r="A46" s="6" t="s">
         <v>963</v>
       </c>
@@ -15420,7 +15561,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="34">
       <c r="A47" s="6" t="s">
         <v>989</v>
       </c>
@@ -15428,7 +15569,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="187">
       <c r="A48" s="6" t="s">
         <v>996</v>
       </c>
@@ -15436,7 +15577,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="51">
       <c r="A49" s="6" t="s">
         <v>1019</v>
       </c>
@@ -15444,7 +15585,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="68">
       <c r="A50" s="6" t="s">
         <v>1055</v>
       </c>
@@ -15452,7 +15593,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="409.6">
       <c r="A51" s="6" t="s">
         <v>1062</v>
       </c>
@@ -15460,7 +15601,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="158" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" s="158" customFormat="1" ht="34">
       <c r="A52" s="6" t="s">
         <v>1077</v>
       </c>
@@ -15468,7 +15609,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="156" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" s="156" customFormat="1" ht="204">
       <c r="A53" s="6" t="s">
         <v>1084</v>
       </c>
@@ -15476,7 +15617,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="156" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" s="156" customFormat="1" ht="306">
       <c r="A54" s="6" t="s">
         <v>1142</v>
       </c>
@@ -15484,7 +15625,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="156" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" s="156" customFormat="1" ht="85">
       <c r="A55" s="6" t="s">
         <v>1170</v>
       </c>
@@ -15492,7 +15633,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="158" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" s="158" customFormat="1" ht="17">
       <c r="A56" s="6" t="s">
         <v>1127</v>
       </c>
@@ -15500,7 +15641,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="158" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" s="158" customFormat="1" ht="102">
       <c r="A57" s="6" t="s">
         <v>1127</v>
       </c>
@@ -15508,7 +15649,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="85">
       <c r="A58" s="6" t="s">
         <v>1172</v>
       </c>
@@ -15527,21 +15668,21 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="123.6640625" customWidth="1"/>
     <col min="3" max="3" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
@@ -15552,7 +15693,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="136">
       <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
@@ -15560,7 +15701,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="201" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="201" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>195</v>
       </c>
@@ -15568,7 +15709,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="16" customFormat="1" ht="169" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="16" customFormat="1" ht="169" customHeight="1">
       <c r="A4" s="24" t="s">
         <v>110</v>
       </c>
@@ -15576,7 +15717,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="16" customFormat="1" ht="233" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="16" customFormat="1" ht="233" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>117</v>
       </c>
@@ -15584,7 +15725,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="16" customFormat="1" ht="122" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="16" customFormat="1" ht="122" customHeight="1">
       <c r="A6" s="24" t="s">
         <v>60</v>
       </c>
@@ -15592,7 +15733,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="102">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
@@ -15600,7 +15741,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="136">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -15608,7 +15749,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="187">
       <c r="A9" s="6" t="s">
         <v>202</v>
       </c>
@@ -15616,7 +15757,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="34">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -15624,7 +15765,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="102">
       <c r="A11" s="6" t="s">
         <v>214</v>
       </c>
@@ -15632,7 +15773,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="85">
       <c r="A12" s="6" t="s">
         <v>203</v>
       </c>
@@ -15640,7 +15781,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="102">
       <c r="A13" s="6" t="s">
         <v>216</v>
       </c>
@@ -15648,7 +15789,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="68">
       <c r="A14" s="6" t="s">
         <v>217</v>
       </c>
@@ -15656,7 +15797,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="119">
       <c r="A15" s="6" t="s">
         <v>218</v>
       </c>
@@ -15664,7 +15805,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="85">
       <c r="A16" s="6" t="s">
         <v>219</v>
       </c>
@@ -15672,7 +15813,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="68">
       <c r="A17" s="6" t="s">
         <v>192</v>
       </c>
@@ -15680,7 +15821,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="34">
       <c r="A18" s="6" t="s">
         <v>230</v>
       </c>
@@ -15688,7 +15829,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="34">
       <c r="A19" s="6" t="s">
         <v>228</v>
       </c>
@@ -15696,7 +15837,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="153">
       <c r="A20" s="6" t="s">
         <v>232</v>
       </c>
@@ -15704,7 +15845,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="388" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="388">
       <c r="A21" s="6" t="s">
         <v>234</v>
       </c>
@@ -15712,7 +15853,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="34">
       <c r="A22" s="6" t="s">
         <v>618</v>
       </c>
@@ -15720,7 +15861,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="68">
       <c r="A23" s="6" t="s">
         <v>236</v>
       </c>
@@ -15728,7 +15869,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="119">
       <c r="A24" s="6" t="s">
         <v>238</v>
       </c>
@@ -15736,7 +15877,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="51">
       <c r="A25" s="6" t="s">
         <v>240</v>
       </c>
@@ -15744,7 +15885,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="34">
       <c r="A26" s="6" t="s">
         <v>620</v>
       </c>
@@ -15752,7 +15893,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="34">
       <c r="A27" s="6" t="s">
         <v>242</v>
       </c>
@@ -15760,7 +15901,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="34">
       <c r="A28" s="6" t="s">
         <v>245</v>
       </c>
@@ -15768,7 +15909,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="34">
       <c r="A29" s="6" t="s">
         <v>246</v>
       </c>
@@ -15776,7 +15917,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="102">
       <c r="A30" s="6" t="s">
         <v>250</v>
       </c>
@@ -15784,7 +15925,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="272" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="272">
       <c r="A31" s="6" t="s">
         <v>251</v>
       </c>
@@ -15792,7 +15933,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="17">
       <c r="A32" s="1" t="s">
         <v>896</v>
       </c>
@@ -15801,7 +15942,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="68">
       <c r="A33" s="6" t="s">
         <v>923</v>
       </c>
@@ -15810,7 +15951,7 @@
       </c>
       <c r="C33" s="87"/>
     </row>
-    <row r="34" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" s="101" customFormat="1" ht="34">
       <c r="A34" s="6" t="s">
         <v>968</v>
       </c>
@@ -15819,7 +15960,7 @@
       </c>
       <c r="C34" s="102"/>
     </row>
-    <row r="35" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="101" customFormat="1" ht="34">
       <c r="A35" s="6" t="s">
         <v>966</v>
       </c>
@@ -15828,7 +15969,7 @@
       </c>
       <c r="C35" s="102"/>
     </row>
-    <row r="36" spans="1:3" s="105" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="105" customFormat="1" ht="68">
       <c r="A36" s="6" t="s">
         <v>1001</v>
       </c>
@@ -15837,7 +15978,7 @@
       </c>
       <c r="C36" s="106"/>
     </row>
-    <row r="37" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" s="105" customFormat="1" ht="51">
       <c r="A37" s="6" t="s">
         <v>999</v>
       </c>
@@ -15846,7 +15987,7 @@
       </c>
       <c r="C37" s="106"/>
     </row>
-    <row r="38" spans="1:3" s="133" customFormat="1" ht="276" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" s="133" customFormat="1" ht="276" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>1110</v>
       </c>
@@ -15855,7 +15996,7 @@
       </c>
       <c r="C38" s="134"/>
     </row>
-    <row r="39" spans="1:3" s="131" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" s="131" customFormat="1" ht="17">
       <c r="A39" s="6" t="s">
         <v>1108</v>
       </c>
@@ -15864,7 +16005,7 @@
       </c>
       <c r="C39" s="132"/>
     </row>
-    <row r="40" spans="1:3" s="131" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="131" customFormat="1" ht="34">
       <c r="A40" s="6" t="s">
         <v>1106</v>
       </c>
@@ -15873,12 +16014,30 @@
       </c>
       <c r="C40" s="132"/>
     </row>
-    <row r="41" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="C41" s="90" t="s">
+    <row r="41" spans="1:3" s="174" customFormat="1" ht="170">
+      <c r="A41" s="6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C41" s="175"/>
+    </row>
+    <row r="42" spans="1:3" ht="41" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C42" s="90" t="s">
         <v>227</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B42" r:id="rId1" display="https://globalnews.ca/tag/saskatchewan-schools/" xr:uid="{8E8EA5DC-B0DA-0741-95A7-6437D0DA5D1F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15888,21 +16047,21 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="33"/>
     <col min="2" max="2" width="119.6640625" customWidth="1"/>
     <col min="3" max="3" width="76.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="32" t="s">
         <v>63</v>
       </c>
@@ -15913,7 +16072,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="34">
       <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
@@ -15921,7 +16080,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="170">
       <c r="A3" s="6" t="s">
         <v>625</v>
       </c>
@@ -15929,7 +16088,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="51">
       <c r="A4" s="13" t="s">
         <v>64</v>
       </c>
@@ -15940,7 +16099,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A5" s="24" t="s">
         <v>109</v>
       </c>
@@ -15948,7 +16107,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="153">
       <c r="A6" s="6" t="s">
         <v>178</v>
       </c>
@@ -15956,7 +16115,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="68">
       <c r="A7" s="6" t="s">
         <v>117</v>
       </c>
@@ -15964,7 +16123,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="119">
       <c r="A8" s="6" t="s">
         <v>97</v>
       </c>
@@ -15972,7 +16131,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="51">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
@@ -15983,7 +16142,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="63" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>99</v>
       </c>
@@ -15991,7 +16150,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="34">
       <c r="A11" s="6" t="s">
         <v>359</v>
       </c>
@@ -15999,7 +16158,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="34">
       <c r="A12" s="6" t="s">
         <v>361</v>
       </c>
@@ -16007,7 +16166,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="34">
       <c r="A13" s="6" t="s">
         <v>362</v>
       </c>
@@ -16015,7 +16174,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="68">
       <c r="A14" s="6" t="s">
         <v>116</v>
       </c>
@@ -16023,7 +16182,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="51">
       <c r="A15" s="6" t="s">
         <v>315</v>
       </c>
@@ -16031,7 +16190,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="34">
       <c r="A16" s="6" t="s">
         <v>367</v>
       </c>
@@ -16039,7 +16198,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="85">
       <c r="A17" s="13" t="s">
         <v>2</v>
       </c>
@@ -16050,7 +16209,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="34">
       <c r="A18" s="13" t="s">
         <v>369</v>
       </c>
@@ -16058,7 +16217,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="16" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" s="16" customFormat="1" ht="102">
       <c r="A19" s="24" t="s">
         <v>4</v>
       </c>
@@ -16066,7 +16225,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="34">
       <c r="A20" s="6" t="s">
         <v>310</v>
       </c>
@@ -16074,7 +16233,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="34">
       <c r="A21" s="6" t="s">
         <v>321</v>
       </c>
@@ -16082,7 +16241,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="170">
       <c r="A22" s="6" t="s">
         <v>371</v>
       </c>
@@ -16093,7 +16252,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="34">
       <c r="A23" s="6" t="s">
         <v>318</v>
       </c>
@@ -16101,7 +16260,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="34">
       <c r="A24" s="6" t="s">
         <v>72</v>
       </c>
@@ -16109,7 +16268,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="34">
       <c r="A25" s="6" t="s">
         <v>372</v>
       </c>
@@ -16117,7 +16276,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="34">
       <c r="A26" s="6" t="s">
         <v>70</v>
       </c>
@@ -16125,7 +16284,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="85">
       <c r="A27" s="6" t="s">
         <v>132</v>
       </c>
@@ -16133,7 +16292,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="34">
       <c r="A28" s="6" t="s">
         <v>374</v>
       </c>
@@ -16141,7 +16300,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="34">
       <c r="A29" s="6" t="s">
         <v>376</v>
       </c>
@@ -16149,7 +16308,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="51">
       <c r="A30" s="6" t="s">
         <v>150</v>
       </c>
@@ -16157,7 +16316,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="34">
       <c r="A31" s="6" t="s">
         <v>377</v>
       </c>
@@ -16165,7 +16324,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="119">
       <c r="A32" s="6" t="s">
         <v>214</v>
       </c>
@@ -16173,7 +16332,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="34">
       <c r="A33" s="6" t="s">
         <v>379</v>
       </c>
@@ -16181,7 +16340,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="51">
       <c r="A34" s="6" t="s">
         <v>472</v>
       </c>
@@ -16189,7 +16348,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="34">
       <c r="A35" s="6" t="s">
         <v>380</v>
       </c>
@@ -16197,7 +16356,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="34">
       <c r="A36" s="6" t="s">
         <v>383</v>
       </c>
@@ -16205,7 +16364,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="34">
       <c r="A37" s="6" t="s">
         <v>385</v>
       </c>
@@ -16213,7 +16372,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="34">
       <c r="A38" s="6" t="s">
         <v>260</v>
       </c>
@@ -16221,7 +16380,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="34">
       <c r="A39" s="6" t="s">
         <v>388</v>
       </c>
@@ -16229,7 +16388,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="68">
       <c r="A40" s="6" t="s">
         <v>325</v>
       </c>
@@ -16237,7 +16396,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="34">
       <c r="A41" s="6" t="s">
         <v>390</v>
       </c>
@@ -16245,7 +16404,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="34">
       <c r="A42" s="6" t="s">
         <v>148</v>
       </c>
@@ -16253,7 +16412,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="34">
       <c r="A43" s="6" t="s">
         <v>392</v>
       </c>
@@ -16261,7 +16420,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="34">
       <c r="A44" s="6" t="s">
         <v>262</v>
       </c>
@@ -16269,7 +16428,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="16" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" s="16" customFormat="1" ht="272">
       <c r="A45" s="24" t="s">
         <v>330</v>
       </c>
@@ -16280,7 +16439,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A46" s="24" t="s">
         <v>393</v>
       </c>
@@ -16289,7 +16448,7 @@
       </c>
       <c r="C46" s="28"/>
     </row>
-    <row r="47" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A47" s="24" t="s">
         <v>394</v>
       </c>
@@ -16298,7 +16457,7 @@
       </c>
       <c r="C47" s="28"/>
     </row>
-    <row r="48" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" s="16" customFormat="1" ht="51">
       <c r="A48" s="24" t="s">
         <v>473</v>
       </c>
@@ -16309,7 +16468,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A49" s="24" t="s">
         <v>395</v>
       </c>
@@ -16318,7 +16477,7 @@
       </c>
       <c r="C49" s="28"/>
     </row>
-    <row r="50" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="119">
       <c r="A50" s="6" t="s">
         <v>327</v>
       </c>
@@ -16326,7 +16485,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="34">
       <c r="A51" s="6" t="s">
         <v>396</v>
       </c>
@@ -16334,7 +16493,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="306" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="306">
       <c r="A52" s="6" t="s">
         <v>334</v>
       </c>
@@ -16342,7 +16501,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="34">
       <c r="A53" s="6" t="s">
         <v>404</v>
       </c>
@@ -16350,7 +16509,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="16" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" s="16" customFormat="1" ht="153">
       <c r="A54" s="24" t="s">
         <v>335</v>
       </c>
@@ -16358,7 +16517,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A55" s="24" t="s">
         <v>405</v>
       </c>
@@ -16366,7 +16525,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A56" s="24" t="s">
         <v>228</v>
       </c>
@@ -16374,7 +16533,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A57" s="24" t="s">
         <v>406</v>
       </c>
@@ -16382,7 +16541,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A58" s="24" t="s">
         <v>407</v>
       </c>
@@ -16390,7 +16549,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A59" s="24" t="s">
         <v>408</v>
       </c>
@@ -16398,7 +16557,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A60" s="24" t="s">
         <v>409</v>
       </c>
@@ -16406,7 +16565,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A61" s="24" t="s">
         <v>410</v>
       </c>
@@ -16414,7 +16573,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A62" s="24" t="s">
         <v>269</v>
       </c>
@@ -16422,7 +16581,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A63" s="24" t="s">
         <v>411</v>
       </c>
@@ -16430,7 +16589,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A64" s="24" t="s">
         <v>412</v>
       </c>
@@ -16438,7 +16597,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A65" s="24" t="s">
         <v>413</v>
       </c>
@@ -16446,7 +16605,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="16" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" s="16" customFormat="1" ht="187">
       <c r="A66" s="24" t="s">
         <v>240</v>
       </c>
@@ -16457,7 +16616,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A67" s="24" t="s">
         <v>414</v>
       </c>
@@ -16465,7 +16624,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A68" s="24" t="s">
         <v>428</v>
       </c>
@@ -16473,7 +16632,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="85">
       <c r="A69" s="6" t="s">
         <v>271</v>
       </c>
@@ -16484,7 +16643,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" s="16" customFormat="1" ht="68">
       <c r="A70" s="24" t="s">
         <v>180</v>
       </c>
@@ -16492,7 +16651,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A71" s="24" t="s">
         <v>430</v>
       </c>
@@ -16500,7 +16659,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" s="16" customFormat="1" ht="68">
       <c r="A72" s="24" t="s">
         <v>338</v>
       </c>
@@ -16511,7 +16670,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A73" s="24" t="s">
         <v>432</v>
       </c>
@@ -16520,7 +16679,7 @@
       </c>
       <c r="C73" s="29"/>
     </row>
-    <row r="74" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A74" s="24" t="s">
         <v>436</v>
       </c>
@@ -16529,7 +16688,7 @@
       </c>
       <c r="C74" s="29"/>
     </row>
-    <row r="75" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A75" s="24" t="s">
         <v>435</v>
       </c>
@@ -16538,7 +16697,7 @@
       </c>
       <c r="C75" s="29"/>
     </row>
-    <row r="76" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="187">
       <c r="A76" s="6" t="s">
         <v>103</v>
       </c>
@@ -16549,7 +16708,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="34">
       <c r="A77" s="6" t="s">
         <v>438</v>
       </c>
@@ -16557,7 +16716,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="34">
       <c r="A78" s="6" t="s">
         <v>439</v>
       </c>
@@ -16565,7 +16724,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="34">
       <c r="A79" s="6" t="s">
         <v>440</v>
       </c>
@@ -16573,7 +16732,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="34">
       <c r="A80" s="6" t="s">
         <v>441</v>
       </c>
@@ -16581,7 +16740,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="102">
       <c r="A81" s="6" t="s">
         <v>182</v>
       </c>
@@ -16589,7 +16748,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="34">
       <c r="A82" s="6" t="s">
         <v>442</v>
       </c>
@@ -16597,7 +16756,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="34">
       <c r="A83" s="6" t="s">
         <v>443</v>
       </c>
@@ -16605,7 +16764,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="85">
       <c r="A84" s="6" t="s">
         <v>354</v>
       </c>
@@ -16613,7 +16772,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="198" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="198" customHeight="1">
       <c r="A85" s="6" t="s">
         <v>205</v>
       </c>
@@ -16624,7 +16783,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" s="16" customFormat="1" ht="68">
       <c r="A86" s="24" t="s">
         <v>353</v>
       </c>
@@ -16632,7 +16791,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A87" s="24" t="s">
         <v>444</v>
       </c>
@@ -16640,7 +16799,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="16" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" s="16" customFormat="1" ht="153">
       <c r="A88" s="24" t="s">
         <v>348</v>
       </c>
@@ -16648,7 +16807,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" s="16" customFormat="1" ht="68">
       <c r="A89" s="24" t="s">
         <v>484</v>
       </c>
@@ -16659,7 +16818,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="16" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" s="16" customFormat="1" ht="34">
       <c r="A90" s="24" t="s">
         <v>445</v>
       </c>
@@ -16667,7 +16826,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" s="16" customFormat="1" ht="51">
       <c r="A91" s="24" t="s">
         <v>55</v>
       </c>
@@ -16675,7 +16834,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="34">
       <c r="A92" s="6" t="s">
         <v>446</v>
       </c>
@@ -16683,7 +16842,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="34">
       <c r="A93" s="6" t="s">
         <v>447</v>
       </c>
@@ -16691,7 +16850,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="34">
       <c r="A94" s="6" t="s">
         <v>448</v>
       </c>
@@ -16699,7 +16858,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="34">
       <c r="A95" s="6" t="s">
         <v>449</v>
       </c>
@@ -16707,7 +16866,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="34">
       <c r="A96" s="6" t="s">
         <v>208</v>
       </c>
@@ -16715,7 +16874,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="34">
       <c r="A97" s="6" t="s">
         <v>450</v>
       </c>
@@ -16723,7 +16882,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="85">
       <c r="A98" s="6" t="s">
         <v>346</v>
       </c>
@@ -16731,7 +16890,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="34">
       <c r="A99" s="6" t="s">
         <v>452</v>
       </c>
@@ -16739,7 +16898,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="51">
       <c r="A100" s="6" t="s">
         <v>253</v>
       </c>
@@ -16750,7 +16909,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="51">
       <c r="A101" s="6" t="s">
         <v>341</v>
       </c>
@@ -16761,7 +16920,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="34">
       <c r="A102" s="6" t="s">
         <v>307</v>
       </c>
@@ -16769,7 +16928,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="89" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" s="89" customFormat="1" ht="17">
       <c r="A103" s="6" t="s">
         <v>826</v>
       </c>
@@ -16777,7 +16936,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="306" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="306">
       <c r="A104" s="6" t="s">
         <v>898</v>
       </c>
@@ -16785,7 +16944,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="105" spans="1:3" s="95" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" s="95" customFormat="1" ht="204">
       <c r="A105" s="6" t="s">
         <v>944</v>
       </c>
@@ -16793,7 +16952,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="106" spans="1:3" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" s="101" customFormat="1" ht="34">
       <c r="A106" s="6" t="s">
         <v>972</v>
       </c>
@@ -16801,7 +16960,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="107" spans="1:3" s="105" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" s="105" customFormat="1" ht="51">
       <c r="A107" s="6" t="s">
         <v>968</v>
       </c>
@@ -16809,7 +16968,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="108" spans="1:3" s="105" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" s="105" customFormat="1" ht="34">
       <c r="A108" s="6" t="s">
         <v>996</v>
       </c>
@@ -16817,7 +16976,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="109" spans="1:3" s="113" customFormat="1" ht="88" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" s="113" customFormat="1" ht="88">
       <c r="A109" s="6" t="s">
         <v>1025</v>
       </c>
@@ -16825,7 +16984,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="238" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="238">
       <c r="A110" s="6" t="s">
         <v>1040</v>
       </c>
@@ -16836,7 +16995,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="111" spans="1:3" s="120" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" s="120" customFormat="1" ht="136">
       <c r="A111" s="6" t="s">
         <v>1051</v>
       </c>
@@ -16845,7 +17004,7 @@
       </c>
       <c r="C111" s="28"/>
     </row>
-    <row r="112" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="187">
       <c r="A112" s="6" t="s">
         <v>1053</v>
       </c>
@@ -16853,7 +17012,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="113" spans="1:2" s="120" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" s="120" customFormat="1" ht="34">
       <c r="A113" s="6" t="s">
         <v>1066</v>
       </c>
@@ -16861,7 +17020,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" ht="119">
       <c r="A114" s="6" t="s">
         <v>1064</v>
       </c>
@@ -16869,7 +17028,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" ht="34">
       <c r="A115" s="128" t="s">
         <v>1077</v>
       </c>
@@ -16877,7 +17036,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="116" spans="1:2" s="126" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" s="126" customFormat="1" ht="34">
       <c r="A116" s="128" t="s">
         <v>1079</v>
       </c>
@@ -16885,7 +17044,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" ht="51">
       <c r="A117" s="6" t="s">
         <v>1078</v>
       </c>
@@ -16893,7 +17052,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" ht="102">
       <c r="A118" s="6" t="s">
         <v>1084</v>
       </c>
@@ -16901,7 +17060,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="119" spans="1:2" s="160" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" s="160" customFormat="1" ht="136">
       <c r="A119" s="6" t="s">
         <v>1182</v>
       </c>
@@ -16909,7 +17068,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="120" spans="1:2" s="162" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" s="162" customFormat="1" ht="68">
       <c r="A120" s="6" t="s">
         <v>1186</v>
       </c>
@@ -16917,7 +17076,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="121" spans="1:2" s="160" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" s="160" customFormat="1" ht="102">
       <c r="A121" s="6" t="s">
         <v>1106</v>
       </c>
@@ -16925,7 +17084,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="122" spans="1:2" s="160" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" s="160" customFormat="1" ht="187">
       <c r="A122" s="6" t="s">
         <v>1121</v>
       </c>
@@ -16933,12 +17092,20 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" ht="68">
       <c r="A123" s="6" t="s">
         <v>1180</v>
       </c>
       <c r="B123" s="161" t="s">
         <v>1181</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="34">
+      <c r="A124" s="6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B124" s="167" t="s">
+        <v>1218</v>
       </c>
     </row>
   </sheetData>
@@ -16959,18 +17126,18 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="112.6640625" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="32" t="s">
         <v>63</v>
       </c>
@@ -16981,7 +17148,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="51">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -16989,7 +17156,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="68">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
@@ -16997,7 +17164,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="16" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="16" customFormat="1" ht="119">
       <c r="A4" s="36" t="s">
         <v>62</v>
       </c>
@@ -17005,7 +17172,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="68">
       <c r="A5" s="1" t="s">
         <v>178</v>
       </c>
@@ -17013,7 +17180,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="51">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -17021,7 +17188,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="51">
       <c r="A7" s="1" t="s">
         <v>490</v>
       </c>
@@ -17029,7 +17196,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="34">
       <c r="A8" s="1" t="s">
         <v>362</v>
       </c>
@@ -17037,7 +17204,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="34">
       <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
@@ -17045,7 +17212,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="34">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -17053,7 +17220,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="238" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="238">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -17061,7 +17228,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="34">
       <c r="A12" s="1" t="s">
         <v>372</v>
       </c>
@@ -17069,7 +17236,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="16" customFormat="1" ht="68">
       <c r="A13" s="36" t="s">
         <v>132</v>
       </c>
@@ -17077,7 +17244,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="153">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -17085,7 +17252,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="34">
       <c r="A15" s="1" t="s">
         <v>380</v>
       </c>
@@ -17093,7 +17260,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="51">
       <c r="A16" s="1" t="s">
         <v>260</v>
       </c>
@@ -17101,7 +17268,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="16" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" s="16" customFormat="1" ht="85">
       <c r="A17" s="36" t="s">
         <v>154</v>
       </c>
@@ -17109,7 +17276,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="16" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" s="16" customFormat="1" ht="170">
       <c r="A18" s="36" t="s">
         <v>232</v>
       </c>
@@ -17117,7 +17284,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="187">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -17125,7 +17292,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="68">
       <c r="A20" s="1" t="s">
         <v>503</v>
       </c>
@@ -17133,7 +17300,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="34">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -17141,7 +17308,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="44" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" s="44" customFormat="1" ht="17">
       <c r="A22" s="1" t="s">
         <v>272</v>
       </c>
@@ -17149,7 +17316,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="51">
       <c r="A23" s="1" t="s">
         <v>506</v>
       </c>
@@ -17157,7 +17324,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="51">
       <c r="A24" s="1" t="s">
         <v>518</v>
       </c>
@@ -17165,7 +17332,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="68">
       <c r="A25" s="1" t="s">
         <v>353</v>
       </c>
@@ -17173,7 +17340,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="34">
       <c r="A26" s="1" t="s">
         <v>515</v>
       </c>
@@ -17181,7 +17348,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="187">
       <c r="A27" s="1" t="s">
         <v>508</v>
       </c>
@@ -17189,7 +17356,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="238" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="238">
       <c r="A28" s="1" t="s">
         <v>509</v>
       </c>
@@ -17197,7 +17364,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="86" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" s="86" customFormat="1" ht="17">
       <c r="A29" s="1" t="s">
         <v>891</v>
       </c>
@@ -17205,7 +17372,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="255">
       <c r="A30" s="1" t="s">
         <v>887</v>
       </c>
@@ -17213,7 +17380,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="51">
       <c r="A31" s="1" t="s">
         <v>970</v>
       </c>
@@ -17221,7 +17388,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="101" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" s="101" customFormat="1" ht="34">
       <c r="A32" s="1" t="s">
         <v>958</v>
       </c>
@@ -17229,7 +17396,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="255" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="255">
       <c r="A33" s="1" t="s">
         <v>974</v>
       </c>
@@ -17237,7 +17404,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="85">
       <c r="A34" s="1" t="s">
         <v>1004</v>
       </c>
@@ -17245,7 +17412,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="136">
       <c r="A35" s="1" t="s">
         <v>1027</v>
       </c>
@@ -17253,7 +17420,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="85">
       <c r="A36" s="1" t="s">
         <v>1053</v>
       </c>
@@ -17262,7 +17429,7 @@
       </c>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="34">
       <c r="A37" s="1" t="s">
         <v>1073</v>
       </c>
@@ -17271,7 +17438,7 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="51">
       <c r="A38" s="1" t="s">
         <v>1075</v>
       </c>
@@ -17279,64 +17446,64 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="165" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" s="165" customFormat="1" ht="187">
       <c r="A39" s="1" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B39" s="166" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="34">
       <c r="A40" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B40" s="166" t="s">
         <v>1201</v>
       </c>
-      <c r="B40" s="166" t="s">
+    </row>
+    <row r="41" spans="1:5" s="165" customFormat="1" ht="85">
+      <c r="A41" s="1" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" s="165" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>1204</v>
-      </c>
       <c r="B41" s="166" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="165" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="165" customFormat="1">
       <c r="A42" s="1"/>
       <c r="B42" s="166"/>
     </row>
-    <row r="43" spans="1:5" s="165" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" s="165" customFormat="1">
       <c r="A43" s="1"/>
       <c r="B43" s="166"/>
     </row>
-    <row r="44" spans="1:5" s="165" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" s="165" customFormat="1">
       <c r="A44" s="1"/>
       <c r="B44" s="166"/>
     </row>
-    <row r="45" spans="1:5" s="165" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" s="165" customFormat="1">
       <c r="A45" s="1"/>
       <c r="B45" s="166"/>
     </row>
-    <row r="46" spans="1:5" s="165" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" s="165" customFormat="1">
       <c r="A46" s="1"/>
       <c r="B46" s="166"/>
     </row>
-    <row r="47" spans="1:5" s="165" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" s="165" customFormat="1">
       <c r="A47" s="1"/>
       <c r="B47" s="166"/>
     </row>
-    <row r="48" spans="1:5" s="165" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" s="165" customFormat="1">
       <c r="A48" s="1"/>
       <c r="B48" s="166"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:5">
       <c r="E49" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="50" spans="5:5" ht="153" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:5" ht="153">
       <c r="E50" s="119" t="s">
         <v>514</v>
       </c>
@@ -17354,16 +17521,16 @@
   <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="178.1640625" customWidth="1"/>
     <col min="3" max="3" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="32" t="s">
         <v>63</v>
       </c>
@@ -17374,7 +17541,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="16" customFormat="1" ht="17">
       <c r="A2" s="36" t="s">
         <v>62</v>
       </c>
@@ -17382,7 +17549,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="258" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="258" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>110</v>
       </c>
@@ -17391,7 +17558,7 @@
       </c>
       <c r="C3" s="37"/>
     </row>
-    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="51">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -17400,7 +17567,7 @@
       </c>
       <c r="C4" s="37"/>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="34">
       <c r="A5" s="1" t="s">
         <v>359</v>
       </c>
@@ -17409,7 +17576,7 @@
       </c>
       <c r="C5" s="37"/>
     </row>
-    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="51">
       <c r="A6" s="1" t="s">
         <v>362</v>
       </c>
@@ -17418,7 +17585,7 @@
       </c>
       <c r="C6" s="37"/>
     </row>
-    <row r="7" spans="1:3" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="16" customFormat="1" ht="17">
       <c r="A7" s="36" t="s">
         <v>126</v>
       </c>
@@ -17427,7 +17594,7 @@
       </c>
       <c r="C7" s="58"/>
     </row>
-    <row r="8" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="68">
       <c r="A8" s="1" t="s">
         <v>522</v>
       </c>
@@ -17435,7 +17602,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="34">
       <c r="A9" s="1" t="s">
         <v>527</v>
       </c>
@@ -17443,7 +17610,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="34">
       <c r="A10" s="1" t="s">
         <v>150</v>
       </c>
@@ -17451,7 +17618,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="85">
       <c r="A11" s="1" t="s">
         <v>214</v>
       </c>
@@ -17459,7 +17626,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="51">
       <c r="A12" s="1" t="s">
         <v>203</v>
       </c>
@@ -17467,7 +17634,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="85">
       <c r="A13" s="1" t="s">
         <v>543</v>
       </c>
@@ -17478,7 +17645,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="34">
       <c r="A14" s="1" t="s">
         <v>532</v>
       </c>
@@ -17486,7 +17653,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="17">
       <c r="A15" s="1" t="s">
         <v>548</v>
       </c>
@@ -17494,7 +17661,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="17">
       <c r="A16" s="1" t="s">
         <v>547</v>
       </c>
@@ -17502,7 +17669,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="17">
       <c r="A17" s="1" t="s">
         <v>148</v>
       </c>
@@ -17510,7 +17677,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="17">
       <c r="A18" s="1" t="s">
         <v>551</v>
       </c>
@@ -17518,7 +17685,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="17">
       <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
@@ -17526,7 +17693,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="34">
       <c r="A20" s="1" t="s">
         <v>549</v>
       </c>
@@ -17534,7 +17701,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="17">
       <c r="A21" s="1" t="s">
         <v>392</v>
       </c>
@@ -17542,7 +17709,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="34">
       <c r="A22" s="1" t="s">
         <v>261</v>
       </c>
@@ -17550,7 +17717,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="17">
       <c r="A23" s="1" t="s">
         <v>550</v>
       </c>
@@ -17558,7 +17725,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="17">
       <c r="A24" s="1" t="s">
         <v>147</v>
       </c>
@@ -17566,7 +17733,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="17">
       <c r="A25" s="1" t="s">
         <v>192</v>
       </c>
@@ -17574,7 +17741,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="17">
       <c r="A26" s="1" t="s">
         <v>159</v>
       </c>
@@ -17582,7 +17749,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" s="16" customFormat="1" ht="17">
       <c r="A27" s="36" t="s">
         <v>552</v>
       </c>
@@ -17590,7 +17757,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="187">
       <c r="A28" s="1" t="s">
         <v>534</v>
       </c>
@@ -17598,7 +17765,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="34">
       <c r="A29" s="1" t="s">
         <v>266</v>
       </c>
@@ -17606,7 +17773,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="34">
       <c r="A30" s="1" t="s">
         <v>408</v>
       </c>
@@ -17614,7 +17781,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="102">
       <c r="A31" s="1" t="s">
         <v>164</v>
       </c>
@@ -17622,7 +17789,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="51">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
@@ -17630,7 +17797,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="16" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" s="16" customFormat="1" ht="136">
       <c r="A33" s="36" t="s">
         <v>409</v>
       </c>
@@ -17638,23 +17805,23 @@
         <v>570</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="168" t="s">
+    <row r="34" spans="1:3" ht="408" customHeight="1">
+      <c r="A34" s="177" t="s">
         <v>269</v>
       </c>
-      <c r="B34" s="167" t="s">
+      <c r="B34" s="176" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="206" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="168"/>
-      <c r="B35" s="167"/>
-    </row>
-    <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="169"/>
-      <c r="B36" s="167"/>
-    </row>
-    <row r="37" spans="1:3" s="43" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="206" customHeight="1">
+      <c r="A35" s="177"/>
+      <c r="B35" s="176"/>
+    </row>
+    <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1">
+      <c r="A36" s="178"/>
+      <c r="B36" s="176"/>
+    </row>
+    <row r="37" spans="1:3" s="43" customFormat="1" ht="51">
       <c r="A37" s="1" t="s">
         <v>272</v>
       </c>
@@ -17662,7 +17829,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="43" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" s="43" customFormat="1" ht="68">
       <c r="A38" s="1" t="s">
         <v>573</v>
       </c>
@@ -17670,7 +17837,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="170">
       <c r="A39" s="7" t="s">
         <v>274</v>
       </c>
@@ -17678,7 +17845,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="102">
       <c r="A40" s="7" t="s">
         <v>537</v>
       </c>
@@ -17689,7 +17856,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="17">
       <c r="A41" s="7" t="s">
         <v>576</v>
       </c>
@@ -17698,7 +17865,7 @@
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="17">
       <c r="A42" s="7" t="s">
         <v>353</v>
       </c>
@@ -17707,7 +17874,7 @@
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="204">
       <c r="A43" s="38" t="s">
         <v>578</v>
       </c>
@@ -17716,7 +17883,7 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="85">
       <c r="A44" s="38" t="s">
         <v>580</v>
       </c>
@@ -17725,7 +17892,7 @@
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="34">
       <c r="A45" s="38" t="s">
         <v>583</v>
       </c>
@@ -17734,7 +17901,7 @@
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="51">
       <c r="A46" s="38" t="s">
         <v>208</v>
       </c>
@@ -17743,7 +17910,7 @@
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" s="16" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" s="16" customFormat="1" ht="102">
       <c r="A47" s="40" t="s">
         <v>346</v>
       </c>
@@ -17752,7 +17919,7 @@
       </c>
       <c r="C47" s="28"/>
     </row>
-    <row r="48" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="34">
       <c r="A48" s="1" t="s">
         <v>253</v>
       </c>
@@ -17760,7 +17927,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="136">
       <c r="A49" s="7" t="s">
         <v>541</v>
       </c>
@@ -17768,19 +17935,19 @@
         <v>586</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="86" customFormat="1" ht="229" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="170" t="s">
+    <row r="50" spans="1:2" s="86" customFormat="1" ht="229" customHeight="1">
+      <c r="A50" s="179" t="s">
         <v>903</v>
       </c>
-      <c r="B50" s="167" t="s">
+      <c r="B50" s="176" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="86" customFormat="1" ht="181" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="171"/>
-      <c r="B51" s="167"/>
-    </row>
-    <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" s="86" customFormat="1" ht="181" customHeight="1">
+      <c r="A51" s="180"/>
+      <c r="B51" s="176"/>
+    </row>
+    <row r="52" spans="1:2" ht="17">
       <c r="A52" s="103" t="s">
         <v>942</v>
       </c>
@@ -17788,7 +17955,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="34">
       <c r="A53" s="103" t="s">
         <v>958</v>
       </c>
@@ -17796,7 +17963,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" s="113" customFormat="1" ht="17">
       <c r="A54" s="103" t="s">
         <v>1001</v>
       </c>
@@ -17804,7 +17971,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="17">
       <c r="A55" s="103" t="s">
         <v>1012</v>
       </c>
@@ -17812,7 +17979,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="187">
       <c r="A56" s="103" t="s">
         <v>1042</v>
       </c>
@@ -17820,7 +17987,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="146" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" s="146" customFormat="1" ht="102">
       <c r="A57" s="103" t="s">
         <v>1073</v>
       </c>
@@ -17828,7 +17995,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="148" customFormat="1" ht="323" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" s="148" customFormat="1" ht="323">
       <c r="A58" s="103" t="s">
         <v>1069</v>
       </c>
@@ -17836,7 +18003,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="255">
       <c r="A59" s="103" t="s">
         <v>1150</v>
       </c>
@@ -17844,7 +18011,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="17">
       <c r="A60" s="103" t="s">
         <v>1078</v>
       </c>
@@ -17852,28 +18019,28 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="61" spans="1:2" s="165" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" s="165" customFormat="1" ht="17">
       <c r="A61" s="103" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B61" s="164" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" s="165" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="165" customFormat="1" ht="153">
       <c r="A62" s="103" t="s">
         <v>1121</v>
       </c>
       <c r="B62" s="164" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="102">
       <c r="A63" s="103" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B63" s="164" t="s">
-        <v>1210</v>
+        <v>1205</v>
+      </c>
+      <c r="B63" s="168" t="s">
+        <v>1219</v>
       </c>
     </row>
   </sheetData>
@@ -17895,17 +18062,17 @@
   <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="130" customWidth="1"/>
     <col min="3" max="3" width="60.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="38" t="s">
         <v>63</v>
       </c>
@@ -17916,7 +18083,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A2" s="54" t="s">
         <v>109</v>
       </c>
@@ -17925,7 +18092,7 @@
       </c>
       <c r="C2" s="54"/>
     </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="34">
       <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
@@ -17933,7 +18100,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A4" s="1" t="s">
         <v>114</v>
       </c>
@@ -17941,7 +18108,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="34">
       <c r="A5" s="1" t="s">
         <v>178</v>
       </c>
@@ -17949,7 +18116,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="55" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="55" customFormat="1" ht="153">
       <c r="A6" s="1" t="s">
         <v>632</v>
       </c>
@@ -17957,7 +18124,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A7" s="1" t="s">
         <v>310</v>
       </c>
@@ -17965,7 +18132,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A8" s="1" t="s">
         <v>79</v>
       </c>
@@ -17973,7 +18140,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="409.6">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -17984,7 +18151,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A10" s="1" t="s">
         <v>372</v>
       </c>
@@ -17993,7 +18160,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A11" s="1" t="s">
         <v>376</v>
       </c>
@@ -18002,7 +18169,7 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" s="55" customFormat="1" ht="289" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" s="55" customFormat="1" ht="289">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -18010,7 +18177,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -18018,7 +18185,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -18026,7 +18193,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="55" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" s="55" customFormat="1" ht="51">
       <c r="A15" s="1" t="s">
         <v>218</v>
       </c>
@@ -18034,7 +18201,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A16" s="1" t="s">
         <v>84</v>
       </c>
@@ -18042,7 +18209,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A17" s="1" t="s">
         <v>390</v>
       </c>
@@ -18050,7 +18217,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A18" s="1" t="s">
         <v>640</v>
       </c>
@@ -18058,7 +18225,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="55" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" s="55" customFormat="1" ht="68">
       <c r="A19" s="1" t="s">
         <v>192</v>
       </c>
@@ -18067,7 +18234,7 @@
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A20" s="1" t="s">
         <v>263</v>
       </c>
@@ -18076,7 +18243,7 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -18085,7 +18252,7 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A22" s="1" t="s">
         <v>405</v>
       </c>
@@ -18094,7 +18261,7 @@
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A23" s="1" t="s">
         <v>406</v>
       </c>
@@ -18103,7 +18270,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A24" s="1" t="s">
         <v>655</v>
       </c>
@@ -18112,7 +18279,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A25" s="1" t="s">
         <v>232</v>
       </c>
@@ -18121,7 +18288,7 @@
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A26" s="1" t="s">
         <v>269</v>
       </c>
@@ -18130,7 +18297,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A27" s="1" t="s">
         <v>660</v>
       </c>
@@ -18139,7 +18306,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
@@ -18148,7 +18315,7 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A29" s="1" t="s">
         <v>236</v>
       </c>
@@ -18157,7 +18324,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A30" s="1" t="s">
         <v>667</v>
       </c>
@@ -18166,7 +18333,7 @@
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A31" s="1" t="s">
         <v>665</v>
       </c>
@@ -18175,7 +18342,7 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A32" s="1" t="s">
         <v>663</v>
       </c>
@@ -18184,7 +18351,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -18193,7 +18360,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" s="152" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" s="152" customFormat="1" ht="51">
       <c r="A34" s="1" t="s">
         <v>1161</v>
       </c>
@@ -18202,7 +18369,7 @@
       </c>
       <c r="C34" s="153"/>
     </row>
-    <row r="35" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A35" s="1" t="s">
         <v>670</v>
       </c>
@@ -18211,7 +18378,7 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A36" s="1" t="s">
         <v>672</v>
       </c>
@@ -18220,7 +18387,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A37" s="1" t="s">
         <v>674</v>
       </c>
@@ -18229,7 +18396,7 @@
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A38" s="1" t="s">
         <v>676</v>
       </c>
@@ -18238,7 +18405,7 @@
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A39" s="1" t="s">
         <v>678</v>
       </c>
@@ -18247,7 +18414,7 @@
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A40" s="1" t="s">
         <v>680</v>
       </c>
@@ -18256,7 +18423,7 @@
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A41" s="1" t="s">
         <v>682</v>
       </c>
@@ -18265,7 +18432,7 @@
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A42" s="1" t="s">
         <v>684</v>
       </c>
@@ -18274,7 +18441,7 @@
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A43" s="1" t="s">
         <v>686</v>
       </c>
@@ -18283,7 +18450,7 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A44" s="1" t="s">
         <v>688</v>
       </c>
@@ -18292,7 +18459,7 @@
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A45" s="1" t="s">
         <v>105</v>
       </c>
@@ -18301,7 +18468,7 @@
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A46" s="1" t="s">
         <v>690</v>
       </c>
@@ -18310,7 +18477,7 @@
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" s="55" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" s="55" customFormat="1" ht="119">
       <c r="A47" s="1" t="s">
         <v>447</v>
       </c>
@@ -18319,7 +18486,7 @@
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A48" s="1" t="s">
         <v>695</v>
       </c>
@@ -18328,7 +18495,7 @@
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A49" s="1" t="s">
         <v>121</v>
       </c>
@@ -18337,7 +18504,7 @@
       </c>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:3" s="55" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" s="55" customFormat="1" ht="85">
       <c r="A50" s="1" t="s">
         <v>637</v>
       </c>
@@ -18345,7 +18512,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" s="55" customFormat="1" ht="34">
       <c r="A51" s="1" t="s">
         <v>699</v>
       </c>
@@ -18353,7 +18520,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A52" s="1" t="s">
         <v>697</v>
       </c>
@@ -18361,7 +18528,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="119">
       <c r="A53" s="1" t="s">
         <v>635</v>
       </c>
@@ -18369,7 +18536,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" s="55" customFormat="1" ht="17">
       <c r="A54" s="1" t="s">
         <v>250</v>
       </c>
@@ -18377,7 +18544,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="34">
       <c r="A55" s="1" t="s">
         <v>346</v>
       </c>
@@ -18385,7 +18552,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="68">
       <c r="A56" s="1" t="s">
         <v>703</v>
       </c>
@@ -18393,7 +18560,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="34">
       <c r="A57" s="1" t="s">
         <v>926</v>
       </c>
@@ -18401,7 +18568,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="51">
       <c r="A58" s="1" t="s">
         <v>891</v>
       </c>
@@ -18409,7 +18576,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="17">
       <c r="A59" s="1" t="s">
         <v>979</v>
       </c>
@@ -18417,7 +18584,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="113" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" s="113" customFormat="1" ht="34">
       <c r="A60" s="1" t="s">
         <v>974</v>
       </c>
@@ -18425,7 +18592,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="102">
       <c r="A61" s="1" t="s">
         <v>994</v>
       </c>
@@ -18433,7 +18600,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="153">
       <c r="A62" s="1" t="s">
         <v>996</v>
       </c>
@@ -18441,7 +18608,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="117" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" s="117" customFormat="1" ht="170">
       <c r="A63" s="1" t="s">
         <v>1021</v>
       </c>
@@ -18449,7 +18616,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="165" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" s="165" customFormat="1" ht="51">
       <c r="A64" s="1" t="s">
         <v>1008</v>
       </c>
@@ -18457,7 +18624,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="221" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="221">
       <c r="A65" s="1" t="s">
         <v>1029</v>
       </c>
@@ -18465,7 +18632,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="129" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" s="129" customFormat="1" ht="51">
       <c r="A66" s="1" t="s">
         <v>1090</v>
       </c>
@@ -18473,7 +18640,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" s="129" customFormat="1" ht="17">
       <c r="A67" s="1" t="s">
         <v>1045</v>
       </c>
@@ -18481,7 +18648,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="129" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" s="129" customFormat="1" ht="34">
       <c r="A68" s="1" t="s">
         <v>1091</v>
       </c>
@@ -18489,7 +18656,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" s="129" customFormat="1" ht="17">
       <c r="A69" s="1" t="s">
         <v>1040</v>
       </c>
@@ -18497,7 +18664,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="129" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" s="129" customFormat="1" ht="51">
       <c r="A70" s="1" t="s">
         <v>1093</v>
       </c>
@@ -18505,7 +18672,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" s="129" customFormat="1" ht="17">
       <c r="A71" s="1" t="s">
         <v>1098</v>
       </c>
@@ -18513,7 +18680,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="72" spans="1:2" s="129" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" s="129" customFormat="1" ht="17">
       <c r="A72" s="1" t="s">
         <v>1100</v>
       </c>
@@ -18521,7 +18688,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="154" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" s="154" customFormat="1" ht="17">
       <c r="A73" s="1" t="s">
         <v>1053</v>
       </c>
@@ -18529,7 +18696,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="154" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" s="154" customFormat="1" ht="17">
       <c r="A74" s="1" t="s">
         <v>1164</v>
       </c>
@@ -18537,7 +18704,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="75" spans="1:2" s="129" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" s="129" customFormat="1" ht="68">
       <c r="A75" s="1" t="s">
         <v>1072</v>
       </c>
@@ -18545,7 +18712,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="129" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" s="129" customFormat="1" ht="34">
       <c r="A76" s="1" t="s">
         <v>1079</v>
       </c>
@@ -18553,7 +18720,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="77" spans="1:2" s="154" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" s="154" customFormat="1" ht="34">
       <c r="A77" s="1" t="s">
         <v>1078</v>
       </c>
@@ -18561,7 +18728,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="51">
       <c r="A78" s="1" t="s">
         <v>1087</v>
       </c>
@@ -18569,7 +18736,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="165" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" s="165" customFormat="1" ht="34">
       <c r="A79" s="1" t="s">
         <v>1170</v>
       </c>
@@ -18577,7 +18744,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="153">
       <c r="A80" s="1" t="s">
         <v>1189</v>
       </c>
@@ -18595,19 +18762,19 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="111.1640625" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="32" t="s">
         <v>63</v>
       </c>
@@ -18618,7 +18785,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="119">
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
@@ -18626,7 +18793,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="34">
       <c r="A3" s="1" t="s">
         <v>110</v>
       </c>
@@ -18634,7 +18801,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="68">
       <c r="A4" s="1" t="s">
         <v>589</v>
       </c>
@@ -18642,7 +18809,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="34">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -18650,7 +18817,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="102">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -18658,7 +18825,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="68">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -18666,7 +18833,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="51">
       <c r="A8" s="1" t="s">
         <v>124</v>
       </c>
@@ -18674,7 +18841,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="34">
       <c r="A9" s="1" t="s">
         <v>597</v>
       </c>
@@ -18682,7 +18849,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="34">
       <c r="A10" s="1" t="s">
         <v>361</v>
       </c>
@@ -18690,7 +18857,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="51">
       <c r="A11" s="1" t="s">
         <v>126</v>
       </c>
@@ -18698,7 +18865,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="136">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -18706,7 +18873,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="59" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" s="59" customFormat="1" ht="34">
       <c r="A13" s="1" t="s">
         <v>372</v>
       </c>
@@ -18714,7 +18881,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="57" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" s="57" customFormat="1" ht="34">
       <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
@@ -18722,7 +18889,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="34">
       <c r="A15" s="1" t="s">
         <v>595</v>
       </c>
@@ -18730,7 +18897,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="17">
       <c r="A16" s="1" t="s">
         <v>706</v>
       </c>
@@ -18738,7 +18905,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="306">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -18746,7 +18913,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="153">
       <c r="A18" s="1" t="s">
         <v>709</v>
       </c>
@@ -18754,7 +18921,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="51">
       <c r="A19" s="1" t="s">
         <v>392</v>
       </c>
@@ -18762,7 +18929,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="59" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" s="59" customFormat="1" ht="51">
       <c r="A20" s="1" t="s">
         <v>261</v>
       </c>
@@ -18770,7 +18937,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="34">
       <c r="A21" s="1" t="s">
         <v>713</v>
       </c>
@@ -18778,7 +18945,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="60" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" s="60" customFormat="1" ht="51">
       <c r="A22" s="1" t="s">
         <v>721</v>
       </c>
@@ -18786,7 +18953,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="68">
       <c r="A23" s="1" t="s">
         <v>718</v>
       </c>
@@ -18794,7 +18961,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="102">
       <c r="A24" s="1" t="s">
         <v>346</v>
       </c>
@@ -18802,7 +18969,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="17">
       <c r="A25" s="1" t="s">
         <v>604</v>
       </c>
@@ -18810,7 +18977,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="153">
       <c r="A26" s="1" t="s">
         <v>952</v>
       </c>
@@ -18818,7 +18985,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="34">
       <c r="A27" s="1" t="s">
         <v>981</v>
       </c>
@@ -18826,7 +18993,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="289" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="289">
       <c r="A28" s="1" t="s">
         <v>1045</v>
       </c>
@@ -18834,7 +19001,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="150" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" s="150" customFormat="1" ht="17">
       <c r="A29" s="1" t="s">
         <v>1053</v>
       </c>
@@ -18842,7 +19009,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="150" customFormat="1" ht="372" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" s="150" customFormat="1" ht="372">
       <c r="A30" s="1" t="s">
         <v>1064</v>
       </c>
@@ -18850,7 +19017,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="34">
       <c r="A31" s="1" t="s">
         <v>1072</v>
       </c>
@@ -18858,7 +19025,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="136">
       <c r="A32" s="1" t="s">
         <v>1079</v>
       </c>
@@ -18866,7 +19033,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="68">
       <c r="A33" s="1" t="s">
         <v>1159</v>
       </c>
@@ -18874,12 +19041,20 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="102">
       <c r="A34" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B34" s="166" t="s">
-        <v>1213</v>
+        <v>1209</v>
+      </c>
+      <c r="B34" s="173" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="82" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B35" s="172" t="s">
+        <v>1223</v>
       </c>
     </row>
   </sheetData>

--- a/Mitigation implementations timelines.xlsx
+++ b/Mitigation implementations timelines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/GitHub/CovidPolicy-Canada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CF50AE-0819-A246-8C64-5D8410EFE066}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BB213A-F858-DA4E-87D2-FC3ED33506C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12800" yWindow="520" windowWidth="15280" windowHeight="15900" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10924,10 +10924,6 @@
     <t>04/04/2022</t>
   </si>
   <si>
-    <t>Vaccine mandate is fully lifted but it will continue to be required for employees, contractors and volunteers working in high-risk settings in the Yukon.
-High-risk settings include: long-term care homes; residential substance use programs; hospitals; shelters; residential care for children and adults; correctional centres; Yukon government-operated community health centres; and Yukon government-operated public health clinics, including the referred care clinic. (https://yukon.ca/en/news/vaccination-requirement-continues-workers-high-risk-settings-yukon) (https://yukon.ca/en/news/vaccination-requirement-lifted-most-workers)</t>
-  </si>
-  <si>
     <t>There are no longer any gathering limits or capacity limits
  Physical distancing is no longer required between people and groups
  Masks are no longer required in most indoor public places, including restaurants, theatres and stores; Masks are still required in health-care settings, long-term care homes, adult residential centres, and other high-risk settings, such as provincial jails. Masks are also mandatory in public schools and school buses. 
@@ -10995,6 +10991,10 @@
     <t>The public health order requiring mandatory indoor masking and self-isolation for anyone who tests positive for COVID-19 through a PCR or at-home rapid antigen test is no longer in effect as of 12:01 a.m. February 28.Public Health still strongly recommends immediate self-isolation for anyone who tests positive for COVID-19.
 Businesses, workplaces and event organizers may request that patrons/visitors/staff/students continue to mask. Masking will not be mandatory. (https://www.saskatchewan.ca/government/health-care-administration-and-provider-resources/treatment-procedures-and-guidelines/emerging-public-health-issues/2019-novel-coronavirus/public-health-measures). As of February 28 2022, non-medical masks  will continue to be required when traveling on Saskatoon Transit vehicles. 
 This applies to all customers, including those who have been vaccinated. (https://transit.saskatoon.ca/rider-guide/covid-19/face-masks)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaccine mandate is fully lifted but it will continue to be required for employees, contractors and volunteers working in high-risk settings in the Yukon.
+High-risk settings include: long-term care homes; residential substance use programs; hospitals; shelters; residential care for children and adults; correctional centres; Yukon government-operated community health centres; and Yukon government-operated public health clinics, including the referred care clinic. (https://yukon.ca/en/news/vaccination-requirement-continues-workers-high-risk-settings-yukon) (https://yukon.ca/en/news/vaccination-requirement-lifted-most-workers) </t>
   </si>
 </sst>
 </file>
@@ -12892,23 +12892,23 @@
         <v>1172</v>
       </c>
       <c r="B67" s="166" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="51">
       <c r="A68" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B68" s="169" t="s">
         <v>1225</v>
-      </c>
-      <c r="B68" s="169" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="34">
       <c r="A69" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B69" s="169" t="s">
         <v>1227</v>
-      </c>
-      <c r="B69" s="169" t="s">
-        <v>1228</v>
       </c>
     </row>
   </sheetData>
@@ -13690,10 +13690,10 @@
     </row>
     <row r="38" spans="1:2" ht="51">
       <c r="A38" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B38" s="169" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
   </sheetData>
@@ -13980,10 +13980,10 @@
     </row>
     <row r="33" spans="1:2" s="170" customFormat="1" ht="34">
       <c r="A33" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B33" s="171" t="s">
         <v>1234</v>
-      </c>
-      <c r="B33" s="171" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="85">
@@ -13991,15 +13991,15 @@
         <v>1214</v>
       </c>
       <c r="B34" s="166" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="68">
       <c r="A35" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B35" s="169" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
   </sheetData>
@@ -14908,7 +14908,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" ht="255">
+    <row r="27" spans="1:3" ht="272">
       <c r="A27" s="6" t="s">
         <v>164</v>
       </c>
@@ -15147,7 +15147,7 @@
         <v>1193</v>
       </c>
       <c r="B54" s="166" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
   </sheetData>
@@ -15741,7 +15741,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="136">
+    <row r="8" spans="1:3" ht="153">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -16016,10 +16016,10 @@
     </row>
     <row r="41" spans="1:3" s="174" customFormat="1" ht="170">
       <c r="A41" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>1236</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>1237</v>
       </c>
       <c r="C41" s="175"/>
     </row>
@@ -16028,7 +16028,7 @@
         <v>1170</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C42" s="90" t="s">
         <v>227</v>
@@ -16995,7 +16995,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="111" spans="1:3" s="120" customFormat="1" ht="136">
+    <row r="111" spans="1:3" s="120" customFormat="1" ht="153">
       <c r="A111" s="6" t="s">
         <v>1051</v>
       </c>
@@ -18765,7 +18765,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -19054,7 +19054,7 @@
         <v>1222</v>
       </c>
       <c r="B35" s="172" t="s">
-        <v>1223</v>
+        <v>1237</v>
       </c>
     </row>
   </sheetData>

--- a/Mitigation implementations timelines.xlsx
+++ b/Mitigation implementations timelines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/GitHub/CovidPolicy-Canada/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA8C955-0548-5B4F-8E74-A9D67A3C0ADF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30E2B55-63B6-5942-8303-0DDE1CD1BDE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alberta" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="1240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="1242">
   <si>
     <t>03/30/2020</t>
   </si>
@@ -11001,6 +11001,12 @@
   </si>
   <si>
     <t>Schools reopen with restrictions in place.(https://rdnewsnow.com/2021/12/30/winter-break-extended-to-january-10-for-albertas-k-12-students/#:~:text=Winter%20break%20has%20been%20extended,10%2C%202022.) (https://www.todocanada.ca/alberta-schools-to-reopen-on-january-10th-after-winter-break-cancels-january-high-school-diploma-exam/)</t>
+  </si>
+  <si>
+    <t>Spring break. (https://www.cbe.ab.ca/registration/calendars/Documents/2020-2021-Traditional-Calendar.pdf)</t>
+  </si>
+  <si>
+    <t>Spring breat (https://www.cbe.ab.ca/registration/calendars/Documents/2021-2022-Modified-Calendar.pdf)</t>
   </si>
 </sst>
 </file>
@@ -11224,7 +11230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11625,6 +11631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -11964,11 +11971,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -12205,158 +12212,170 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="136">
+    <row r="29" spans="1:2" s="178" customFormat="1" ht="17">
       <c r="A29" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="136">
+      <c r="A30" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="16" customFormat="1" ht="68">
-      <c r="A30" s="36" t="s">
+    <row r="31" spans="1:2" s="16" customFormat="1" ht="68">
+      <c r="A31" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B31" s="28" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="34">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:2" ht="34">
+      <c r="A32" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="86" customFormat="1" ht="51">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:3" s="86" customFormat="1" ht="51">
+      <c r="A33" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="170">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:3" ht="170">
+      <c r="A34" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="86" customFormat="1" ht="17">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:3" s="86" customFormat="1" ht="17">
+      <c r="A35" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="B34" s="87" t="s">
+      <c r="B35" s="87" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="136">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:3" ht="136">
+      <c r="A36" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="B35" s="88" t="s">
+      <c r="B36" s="88" t="s">
         <v>889</v>
       </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" s="101" customFormat="1" ht="68">
-      <c r="A36" s="1" t="s">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" s="101" customFormat="1" ht="68">
+      <c r="A37" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="B36" s="88" t="s">
+      <c r="B37" s="88" t="s">
         <v>957</v>
       </c>
-      <c r="C36" s="102"/>
-    </row>
-    <row r="37" spans="1:3" ht="68">
-      <c r="A37" s="1" t="s">
+      <c r="C37" s="102"/>
+    </row>
+    <row r="38" spans="1:3" ht="68">
+      <c r="A38" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="B37" s="88" t="s">
+      <c r="B38" s="88" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="104" customFormat="1" ht="289">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:3" s="104" customFormat="1" ht="289">
+      <c r="A39" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="B38" s="88" t="s">
+      <c r="B39" s="88" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="104" customFormat="1" ht="306">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:3" s="104" customFormat="1" ht="306">
+      <c r="A40" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="B39" s="88" t="s">
+      <c r="B40" s="88" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="105" customFormat="1" ht="51">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:3" s="105" customFormat="1" ht="51">
+      <c r="A41" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="B40" s="88" t="s">
+      <c r="B41" s="88" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="110" customFormat="1" ht="34">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:3" s="110" customFormat="1" ht="34">
+      <c r="A42" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B41" s="88" t="s">
+      <c r="B42" s="88" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="115" customFormat="1" ht="221">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:3" s="115" customFormat="1" ht="221">
+      <c r="A43" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="B42" s="88" t="s">
+      <c r="B43" s="88" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="122" customFormat="1" ht="34">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:3" s="122" customFormat="1" ht="34">
+      <c r="A44" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="B43" s="88" t="s">
+      <c r="B44" s="88" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="156" customFormat="1" ht="187">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:3" s="156" customFormat="1" ht="187">
+      <c r="A45" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="B44" s="88" t="s">
+      <c r="B45" s="88" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="156" customFormat="1" ht="34">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:3" s="156" customFormat="1" ht="34">
+      <c r="A46" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="B45" s="88" t="s">
+      <c r="B46" s="88" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="156" customFormat="1" ht="204">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:3" s="156" customFormat="1" ht="204">
+      <c r="A47" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="B46" s="88" t="s">
+      <c r="B47" s="88" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="162" customFormat="1">
-      <c r="A47" s="1"/>
-      <c r="B47" s="88"/>
-    </row>
-    <row r="48" spans="1:3" ht="51">
-      <c r="C48" s="102" t="s">
+    <row r="48" spans="1:3" s="162" customFormat="1" ht="17">
+      <c r="A48" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B48" s="88" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" ht="51">
+      <c r="C49" s="102" t="s">
         <v>617</v>
       </c>
     </row>
@@ -12702,16 +12721,16 @@
       </c>
     </row>
     <row r="40" spans="1:2" s="71" customFormat="1" ht="226" customHeight="1">
-      <c r="A40" s="181" t="s">
+      <c r="A40" s="182" t="s">
         <v>813</v>
       </c>
-      <c r="B40" s="183" t="s">
+      <c r="B40" s="184" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1">
-      <c r="A41" s="182"/>
-      <c r="B41" s="183"/>
+      <c r="A41" s="183"/>
+      <c r="B41" s="184"/>
     </row>
     <row r="42" spans="1:2" ht="34">
       <c r="A42" s="70" t="s">
@@ -12722,28 +12741,28 @@
       </c>
     </row>
     <row r="43" spans="1:2" s="71" customFormat="1" ht="324" customHeight="1">
-      <c r="A43" s="181" t="s">
+      <c r="A43" s="182" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="183" t="s">
+      <c r="B43" s="184" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="71" customFormat="1" ht="134" customHeight="1">
-      <c r="A44" s="182"/>
-      <c r="B44" s="183"/>
+      <c r="A44" s="183"/>
+      <c r="B44" s="184"/>
     </row>
     <row r="45" spans="1:2" s="71" customFormat="1" ht="186" customHeight="1">
-      <c r="A45" s="179" t="s">
+      <c r="A45" s="180" t="s">
         <v>448</v>
       </c>
-      <c r="B45" s="183" t="s">
+      <c r="B45" s="184" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="71" customFormat="1" ht="284" customHeight="1">
-      <c r="A46" s="184"/>
-      <c r="B46" s="183"/>
+      <c r="A46" s="185"/>
+      <c r="B46" s="184"/>
     </row>
     <row r="47" spans="1:2" ht="17">
       <c r="A47" s="70" t="s">
@@ -12770,28 +12789,28 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="71" customFormat="1" ht="212" customHeight="1">
-      <c r="A50" s="181" t="s">
+      <c r="A50" s="182" t="s">
         <v>824</v>
       </c>
-      <c r="B50" s="183" t="s">
+      <c r="B50" s="184" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="71" customFormat="1" ht="224" customHeight="1">
-      <c r="A51" s="182"/>
-      <c r="B51" s="183"/>
+      <c r="A51" s="183"/>
+      <c r="B51" s="184"/>
     </row>
     <row r="52" spans="1:2" s="71" customFormat="1" ht="232" customHeight="1">
-      <c r="A52" s="181" t="s">
+      <c r="A52" s="182" t="s">
         <v>825</v>
       </c>
-      <c r="B52" s="183" t="s">
+      <c r="B52" s="184" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="71" customFormat="1" ht="242" customHeight="1">
-      <c r="A53" s="182"/>
-      <c r="B53" s="183"/>
+      <c r="A53" s="183"/>
+      <c r="B53" s="184"/>
     </row>
     <row r="54" spans="1:2" ht="34">
       <c r="A54" s="70" t="s">
@@ -12945,7 +12964,7 @@
   </sheetPr>
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
@@ -14153,24 +14172,24 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="64" customFormat="1" ht="81" customHeight="1">
-      <c r="A14" s="185" t="s">
+      <c r="A14" s="186" t="s">
         <v>255</v>
       </c>
-      <c r="B14" s="183" t="s">
+      <c r="B14" s="184" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="64" customFormat="1" ht="71" customHeight="1">
-      <c r="A15" s="186"/>
-      <c r="B15" s="183"/>
+      <c r="A15" s="187"/>
+      <c r="B15" s="184"/>
     </row>
     <row r="16" spans="1:15" s="64" customFormat="1" ht="95" customHeight="1">
-      <c r="A16" s="186"/>
-      <c r="B16" s="183"/>
+      <c r="A16" s="187"/>
+      <c r="B16" s="184"/>
     </row>
     <row r="17" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1">
-      <c r="A17" s="186"/>
-      <c r="B17" s="183"/>
+      <c r="A17" s="187"/>
+      <c r="B17" s="184"/>
     </row>
     <row r="18" spans="1:2" s="64" customFormat="1" ht="192" customHeight="1">
       <c r="A18" s="69" t="s">
@@ -14667,8 +14686,8 @@
   </sheetPr>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
@@ -14918,7 +14937,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" ht="272">
+    <row r="27" spans="1:3" ht="255">
       <c r="A27" s="6" t="s">
         <v>164</v>
       </c>
@@ -15759,7 +15778,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="153">
+    <row r="8" spans="1:3" ht="136">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -17013,7 +17032,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="111" spans="1:3" s="120" customFormat="1" ht="153">
+    <row r="111" spans="1:3" s="120" customFormat="1" ht="136">
       <c r="A111" s="6" t="s">
         <v>1051</v>
       </c>
@@ -17538,8 +17557,8 @@
   </sheetPr>
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -17824,20 +17843,20 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="408" customHeight="1">
-      <c r="A34" s="179" t="s">
+      <c r="A34" s="180" t="s">
         <v>269</v>
       </c>
-      <c r="B34" s="178" t="s">
+      <c r="B34" s="179" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="206" customHeight="1">
-      <c r="A35" s="179"/>
-      <c r="B35" s="178"/>
+      <c r="A35" s="180"/>
+      <c r="B35" s="179"/>
     </row>
     <row r="36" spans="1:3" s="43" customFormat="1" ht="138" customHeight="1">
-      <c r="A36" s="180"/>
-      <c r="B36" s="178"/>
+      <c r="A36" s="181"/>
+      <c r="B36" s="179"/>
     </row>
     <row r="37" spans="1:3" s="43" customFormat="1" ht="51">
       <c r="A37" s="1" t="s">
@@ -17954,16 +17973,16 @@
       </c>
     </row>
     <row r="50" spans="1:2" s="86" customFormat="1" ht="229" customHeight="1">
-      <c r="A50" s="181" t="s">
+      <c r="A50" s="182" t="s">
         <v>903</v>
       </c>
-      <c r="B50" s="178" t="s">
+      <c r="B50" s="179" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="86" customFormat="1" ht="181" customHeight="1">
-      <c r="A51" s="182"/>
-      <c r="B51" s="178"/>
+      <c r="A51" s="183"/>
+      <c r="B51" s="179"/>
     </row>
     <row r="52" spans="1:2" ht="17">
       <c r="A52" s="103" t="s">
@@ -18079,9 +18098,9 @@
   </sheetPr>
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -18782,7 +18801,7 @@
   </sheetPr>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
